--- a/Ставки/КХЛ 23-24.xlsx
+++ b/Ставки/КХЛ 23-24.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="11010" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="24000" windowHeight="11010" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="22-23" sheetId="1" r:id="rId1"/>
@@ -2325,7 +2325,7 @@
     <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2357,6 +2357,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -3024,31 +3031,28 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3057,113 +3061,116 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3205,10 +3212,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="23" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="23" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="22" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -3219,6 +3223,9 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="22" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="22" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="22" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="17" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
@@ -3232,6 +3239,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="23" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="23" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="23" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="23" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -3268,6 +3276,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="23" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="23" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="22" applyFont="1" applyBorder="1"/>
@@ -3277,14 +3286,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="11" xfId="38" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="11" xfId="38" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="11" xfId="38" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="11" xfId="38" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="11" xfId="38" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="11" xfId="38" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3956,261 +3965,261 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="5:63">
-      <c r="E1" s="85" t="s">
+      <c r="E1" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="86">
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="88">
         <v>3.6</v>
       </c>
-      <c r="J1" s="90" t="s">
+      <c r="J1" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="86">
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="88">
         <v>3.7</v>
       </c>
-      <c r="O1" s="90" t="s">
+      <c r="O1" s="92" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="86">
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="88">
         <v>3.8</v>
       </c>
-      <c r="T1" s="90" t="s">
+      <c r="T1" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
-      <c r="W1" s="86">
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
+      <c r="W1" s="88">
         <v>3.9</v>
       </c>
-      <c r="Y1" s="90" t="s">
+      <c r="Y1" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="Z1" s="85"/>
-      <c r="AA1" s="85"/>
-      <c r="AB1" s="86">
+      <c r="Z1" s="87"/>
+      <c r="AA1" s="87"/>
+      <c r="AB1" s="88">
         <v>4</v>
       </c>
-      <c r="AD1" s="90" t="s">
+      <c r="AD1" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="AE1" s="85"/>
-      <c r="AF1" s="85"/>
-      <c r="AG1" s="86">
+      <c r="AE1" s="87"/>
+      <c r="AF1" s="87"/>
+      <c r="AG1" s="88">
         <v>4.1</v>
       </c>
-      <c r="AI1" s="90" t="s">
+      <c r="AI1" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="85"/>
-      <c r="AK1" s="85"/>
-      <c r="AL1" s="86">
+      <c r="AJ1" s="87"/>
+      <c r="AK1" s="87"/>
+      <c r="AL1" s="88">
         <v>4.2</v>
       </c>
-      <c r="AN1" s="90" t="s">
+      <c r="AN1" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="AO1" s="85"/>
-      <c r="AP1" s="85"/>
-      <c r="AQ1" s="86">
+      <c r="AO1" s="87"/>
+      <c r="AP1" s="87"/>
+      <c r="AQ1" s="88">
         <v>4.3</v>
       </c>
-      <c r="AS1" s="90" t="s">
+      <c r="AS1" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="AT1" s="85"/>
-      <c r="AU1" s="85"/>
-      <c r="AV1" s="86">
+      <c r="AT1" s="87"/>
+      <c r="AU1" s="87"/>
+      <c r="AV1" s="88">
         <v>4.4</v>
       </c>
-      <c r="AX1" s="90" t="s">
+      <c r="AX1" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="AY1" s="85"/>
-      <c r="AZ1" s="85"/>
-      <c r="BA1" s="86">
+      <c r="AY1" s="87"/>
+      <c r="AZ1" s="87"/>
+      <c r="BA1" s="88">
         <v>4.5</v>
       </c>
-      <c r="BC1" s="90" t="s">
+      <c r="BC1" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="BD1" s="85"/>
-      <c r="BE1" s="85"/>
-      <c r="BF1" s="86">
+      <c r="BD1" s="87"/>
+      <c r="BE1" s="87"/>
+      <c r="BF1" s="88">
         <v>4.6</v>
       </c>
-      <c r="BH1" s="90" t="s">
+      <c r="BH1" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="BI1" s="85"/>
-      <c r="BJ1" s="85"/>
-      <c r="BK1" s="86">
+      <c r="BI1" s="87"/>
+      <c r="BJ1" s="87"/>
+      <c r="BK1" s="88">
         <v>4.7</v>
       </c>
     </row>
     <row r="2" ht="15" spans="5:63">
-      <c r="E2" s="85" t="s">
+      <c r="E2" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="85" t="s">
+      <c r="F2" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="85" t="s">
+      <c r="G2" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="85" t="s">
+      <c r="H2" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="85" t="s">
+      <c r="J2" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="85" t="s">
+      <c r="K2" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="85" t="s">
+      <c r="L2" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="M2" s="85" t="s">
+      <c r="M2" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="O2" s="85" t="s">
+      <c r="O2" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="85" t="s">
+      <c r="P2" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" s="85" t="s">
+      <c r="Q2" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="R2" s="85" t="s">
+      <c r="R2" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="T2" s="85" t="s">
+      <c r="T2" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="U2" s="85" t="s">
+      <c r="U2" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="V2" s="85" t="s">
+      <c r="V2" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="W2" s="85" t="s">
+      <c r="W2" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="Y2" s="85" t="s">
+      <c r="Y2" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="85" t="s">
+      <c r="Z2" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="AA2" s="85" t="s">
+      <c r="AA2" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="AB2" s="85" t="s">
+      <c r="AB2" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="AD2" s="85" t="s">
+      <c r="AD2" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="AE2" s="85" t="s">
+      <c r="AE2" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="AF2" s="85" t="s">
+      <c r="AF2" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="AG2" s="85" t="s">
+      <c r="AG2" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="AI2" s="85" t="s">
+      <c r="AI2" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="AJ2" s="85" t="s">
+      <c r="AJ2" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="AK2" s="85" t="s">
+      <c r="AK2" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="AL2" s="85" t="s">
+      <c r="AL2" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="AN2" s="90" t="s">
+      <c r="AN2" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="AO2" s="85" t="s">
+      <c r="AO2" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="AP2" s="85" t="s">
+      <c r="AP2" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="AQ2" s="85" t="s">
+      <c r="AQ2" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="AS2" s="85" t="s">
+      <c r="AS2" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="AT2" s="85" t="s">
+      <c r="AT2" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="AU2" s="85" t="s">
+      <c r="AU2" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="AV2" s="85" t="s">
+      <c r="AV2" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="AX2" s="85" t="s">
+      <c r="AX2" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="AY2" s="85" t="s">
+      <c r="AY2" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="AZ2" s="85" t="s">
+      <c r="AZ2" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="BA2" s="85" t="s">
+      <c r="BA2" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="BC2" s="85" t="s">
+      <c r="BC2" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="BD2" s="85" t="s">
+      <c r="BD2" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="BE2" s="85" t="s">
+      <c r="BE2" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="BF2" s="85" t="s">
+      <c r="BF2" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="BH2" s="85" t="s">
+      <c r="BH2" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="BI2" s="85" t="s">
+      <c r="BI2" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="BJ2" s="85" t="s">
+      <c r="BJ2" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="BK2" s="85" t="s">
+      <c r="BK2" s="87" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="3" spans="5:43">
-      <c r="E3" s="87">
+      <c r="E3" s="89">
         <v>1</v>
       </c>
-      <c r="F3" s="88">
+      <c r="F3" s="90">
         <v>60</v>
       </c>
-      <c r="G3" s="87">
+      <c r="G3" s="89">
         <f>$H$1*F3</f>
         <v>216</v>
       </c>
-      <c r="H3" s="87">
+      <c r="H3" s="89">
         <f>G3-F3</f>
         <v>156</v>
       </c>
@@ -4244,17 +4253,17 @@
       </c>
     </row>
     <row r="4" spans="5:43">
-      <c r="E4" s="87">
+      <c r="E4" s="89">
         <v>2</v>
       </c>
-      <c r="F4" s="88">
+      <c r="F4" s="90">
         <v>65</v>
       </c>
-      <c r="G4" s="87">
+      <c r="G4" s="89">
         <f>$H$1*F4</f>
         <v>234</v>
       </c>
-      <c r="H4" s="87">
+      <c r="H4" s="89">
         <f>G4-SUM($F$3:F4)</f>
         <v>109</v>
       </c>
@@ -4288,17 +4297,17 @@
       </c>
     </row>
     <row r="5" spans="5:43">
-      <c r="E5" s="87">
+      <c r="E5" s="89">
         <v>3</v>
       </c>
-      <c r="F5" s="88">
+      <c r="F5" s="90">
         <v>75</v>
       </c>
-      <c r="G5" s="87">
+      <c r="G5" s="89">
         <f t="shared" ref="G5:G23" si="1">$H$1*F5</f>
         <v>270</v>
       </c>
-      <c r="H5" s="87">
+      <c r="H5" s="89">
         <f>G5-SUM($F$3:F5)</f>
         <v>70</v>
       </c>
@@ -4332,17 +4341,17 @@
       </c>
     </row>
     <row r="6" spans="5:43">
-      <c r="E6" s="87">
+      <c r="E6" s="89">
         <v>4</v>
       </c>
-      <c r="F6" s="88">
+      <c r="F6" s="90">
         <v>90</v>
       </c>
-      <c r="G6" s="87">
+      <c r="G6" s="89">
         <f t="shared" si="1"/>
         <v>324</v>
       </c>
-      <c r="H6" s="87">
+      <c r="H6" s="89">
         <f>G6-SUM($F$3:F6)</f>
         <v>34</v>
       </c>
@@ -4376,17 +4385,17 @@
       </c>
     </row>
     <row r="7" spans="5:43">
-      <c r="E7" s="87">
+      <c r="E7" s="89">
         <v>5</v>
       </c>
-      <c r="F7" s="88">
+      <c r="F7" s="90">
         <v>112</v>
       </c>
-      <c r="G7" s="87">
+      <c r="G7" s="89">
         <f t="shared" si="1"/>
         <v>403.2</v>
       </c>
-      <c r="H7" s="87">
+      <c r="H7" s="89">
         <f>G7-SUM($F$3:F7)</f>
         <v>1.19999999999999</v>
       </c>
@@ -4409,17 +4418,17 @@
       </c>
     </row>
     <row r="8" spans="5:43">
-      <c r="E8" s="87">
+      <c r="E8" s="89">
         <v>6</v>
       </c>
-      <c r="F8" s="88">
+      <c r="F8" s="90">
         <v>155</v>
       </c>
-      <c r="G8" s="87">
+      <c r="G8" s="89">
         <f t="shared" si="1"/>
         <v>558</v>
       </c>
-      <c r="H8" s="87">
+      <c r="H8" s="89">
         <f>G8-SUM($F$3:F8)</f>
         <v>1</v>
       </c>
@@ -4442,17 +4451,17 @@
       </c>
     </row>
     <row r="9" spans="5:43">
-      <c r="E9" s="87">
+      <c r="E9" s="89">
         <v>7</v>
       </c>
-      <c r="F9" s="88">
+      <c r="F9" s="90">
         <v>215</v>
       </c>
-      <c r="G9" s="87">
+      <c r="G9" s="89">
         <f t="shared" si="1"/>
         <v>774</v>
       </c>
-      <c r="H9" s="87">
+      <c r="H9" s="89">
         <f>G9-SUM($F$3:F9)</f>
         <v>2</v>
       </c>
@@ -4475,17 +4484,17 @@
       </c>
     </row>
     <row r="10" spans="5:43">
-      <c r="E10" s="87">
+      <c r="E10" s="89">
         <v>8</v>
       </c>
-      <c r="F10" s="88">
+      <c r="F10" s="90">
         <v>298</v>
       </c>
-      <c r="G10" s="87">
+      <c r="G10" s="89">
         <f t="shared" si="1"/>
         <v>1072.8</v>
       </c>
-      <c r="H10" s="87">
+      <c r="H10" s="89">
         <f>G10-SUM($F$3:F10)</f>
         <v>2.79999999999995</v>
       </c>
@@ -4508,17 +4517,17 @@
       </c>
     </row>
     <row r="11" spans="5:43">
-      <c r="E11" s="87">
+      <c r="E11" s="89">
         <v>9</v>
       </c>
-      <c r="F11" s="88">
+      <c r="F11" s="90">
         <v>415</v>
       </c>
-      <c r="G11" s="87">
+      <c r="G11" s="89">
         <f t="shared" si="1"/>
         <v>1494</v>
       </c>
-      <c r="H11" s="87">
+      <c r="H11" s="89">
         <f>G11-SUM($F$3:F11)</f>
         <v>9</v>
       </c>
@@ -4541,17 +4550,17 @@
       </c>
     </row>
     <row r="12" spans="5:43">
-      <c r="E12" s="87">
+      <c r="E12" s="89">
         <v>10</v>
       </c>
-      <c r="F12" s="88">
+      <c r="F12" s="90">
         <v>572</v>
       </c>
-      <c r="G12" s="87">
+      <c r="G12" s="89">
         <f t="shared" si="1"/>
         <v>2059.2</v>
       </c>
-      <c r="H12" s="87">
+      <c r="H12" s="89">
         <f>G12-SUM($F$3:F12)</f>
         <v>2.20000000000027</v>
       </c>
@@ -4574,17 +4583,17 @@
       </c>
     </row>
     <row r="13" spans="5:43">
-      <c r="E13" s="87">
+      <c r="E13" s="89">
         <v>11</v>
       </c>
-      <c r="F13" s="88">
+      <c r="F13" s="90">
         <v>792</v>
       </c>
-      <c r="G13" s="87">
+      <c r="G13" s="89">
         <f t="shared" si="1"/>
         <v>2851.2</v>
       </c>
-      <c r="H13" s="87">
+      <c r="H13" s="89">
         <f>G13-SUM($F$3:F13)</f>
         <v>2.20000000000027</v>
       </c>
@@ -4607,17 +4616,17 @@
       </c>
     </row>
     <row r="14" spans="5:43">
-      <c r="E14" s="87">
+      <c r="E14" s="89">
         <v>12</v>
       </c>
-      <c r="F14" s="88">
+      <c r="F14" s="90">
         <v>1098</v>
       </c>
-      <c r="G14" s="87">
+      <c r="G14" s="89">
         <f t="shared" si="1"/>
         <v>3952.8</v>
       </c>
-      <c r="H14" s="87">
+      <c r="H14" s="89">
         <f>G14-SUM($F$3:F14)</f>
         <v>5.80000000000018</v>
       </c>
@@ -4640,17 +4649,17 @@
       </c>
     </row>
     <row r="15" spans="5:43">
-      <c r="E15" s="87">
+      <c r="E15" s="89">
         <v>13</v>
       </c>
-      <c r="F15" s="88">
+      <c r="F15" s="90">
         <v>1520</v>
       </c>
-      <c r="G15" s="87">
+      <c r="G15" s="89">
         <f t="shared" si="1"/>
         <v>5472</v>
       </c>
-      <c r="H15" s="87">
+      <c r="H15" s="89">
         <f>G15-SUM($F$3:F15)</f>
         <v>5</v>
       </c>
@@ -4673,17 +4682,17 @@
       </c>
     </row>
     <row r="16" spans="5:43">
-      <c r="E16" s="87">
+      <c r="E16" s="89">
         <v>14</v>
       </c>
-      <c r="F16" s="88">
+      <c r="F16" s="90">
         <v>2105</v>
       </c>
-      <c r="G16" s="87">
+      <c r="G16" s="89">
         <f t="shared" si="1"/>
         <v>7578</v>
       </c>
-      <c r="H16" s="87">
+      <c r="H16" s="89">
         <f>G16-SUM($F$3:F16)</f>
         <v>6</v>
       </c>
@@ -4706,17 +4715,17 @@
       </c>
     </row>
     <row r="17" spans="5:43">
-      <c r="E17" s="87">
+      <c r="E17" s="89">
         <v>15</v>
       </c>
-      <c r="F17" s="88">
+      <c r="F17" s="90">
         <v>2915</v>
       </c>
-      <c r="G17" s="87">
+      <c r="G17" s="89">
         <f t="shared" si="1"/>
         <v>10494</v>
       </c>
-      <c r="H17" s="87">
+      <c r="H17" s="89">
         <f>G17-SUM($F$3:F17)</f>
         <v>7</v>
       </c>
@@ -4739,17 +4748,17 @@
       </c>
     </row>
     <row r="18" spans="5:43">
-      <c r="E18" s="87">
+      <c r="E18" s="89">
         <v>16</v>
       </c>
-      <c r="F18" s="88">
+      <c r="F18" s="90">
         <v>4035</v>
       </c>
-      <c r="G18" s="87">
+      <c r="G18" s="89">
         <f t="shared" si="1"/>
         <v>14526</v>
       </c>
-      <c r="H18" s="87">
+      <c r="H18" s="89">
         <f>G18-SUM($F$3:F18)</f>
         <v>4</v>
       </c>
@@ -4772,17 +4781,17 @@
       </c>
     </row>
     <row r="19" spans="5:43">
-      <c r="E19" s="87">
+      <c r="E19" s="89">
         <v>17</v>
       </c>
-      <c r="F19" s="88">
+      <c r="F19" s="90">
         <v>5585</v>
       </c>
-      <c r="G19" s="87">
+      <c r="G19" s="89">
         <f t="shared" si="1"/>
         <v>20106</v>
       </c>
-      <c r="H19" s="87">
+      <c r="H19" s="89">
         <f>G19-SUM($F$3:F19)</f>
         <v>-1</v>
       </c>
@@ -4805,17 +4814,17 @@
       </c>
     </row>
     <row r="20" spans="5:43">
-      <c r="E20" s="87">
+      <c r="E20" s="89">
         <v>18</v>
       </c>
-      <c r="F20" s="88">
+      <c r="F20" s="90">
         <v>7735</v>
       </c>
-      <c r="G20" s="87">
+      <c r="G20" s="89">
         <f t="shared" si="1"/>
         <v>27846</v>
       </c>
-      <c r="H20" s="87">
+      <c r="H20" s="89">
         <f>G20-SUM($F$3:F20)</f>
         <v>4</v>
       </c>
@@ -4838,17 +4847,17 @@
       </c>
     </row>
     <row r="21" spans="5:43">
-      <c r="E21" s="87">
+      <c r="E21" s="89">
         <v>19</v>
       </c>
-      <c r="F21" s="88">
+      <c r="F21" s="90">
         <v>10710</v>
       </c>
-      <c r="G21" s="87">
+      <c r="G21" s="89">
         <f t="shared" si="1"/>
         <v>38556</v>
       </c>
-      <c r="H21" s="87">
+      <c r="H21" s="89">
         <f>G21-SUM($F$3:F21)</f>
         <v>4</v>
       </c>
@@ -4871,17 +4880,17 @@
       </c>
     </row>
     <row r="22" spans="5:43">
-      <c r="E22" s="87">
+      <c r="E22" s="89">
         <v>20</v>
       </c>
-      <c r="F22" s="88">
+      <c r="F22" s="90">
         <v>14830</v>
       </c>
-      <c r="G22" s="87">
+      <c r="G22" s="89">
         <f t="shared" si="1"/>
         <v>53388</v>
       </c>
-      <c r="H22" s="87">
+      <c r="H22" s="89">
         <f>G22-SUM($F$3:F22)</f>
         <v>6</v>
       </c>
@@ -4904,17 +4913,17 @@
       </c>
     </row>
     <row r="23" spans="5:43">
-      <c r="E23" s="87">
+      <c r="E23" s="89">
         <v>21</v>
       </c>
-      <c r="F23" s="88">
+      <c r="F23" s="90">
         <v>20850</v>
       </c>
-      <c r="G23" s="87">
+      <c r="G23" s="89">
         <f t="shared" si="1"/>
         <v>75060</v>
       </c>
-      <c r="H23" s="87">
+      <c r="H23" s="89">
         <f>G23-SUM($F$3:F23)</f>
         <v>828</v>
       </c>
@@ -4934,12 +4943,12 @@
       </c>
     </row>
     <row r="24" spans="5:43">
-      <c r="E24" s="87">
+      <c r="E24" s="89">
         <v>22</v>
       </c>
-      <c r="F24" s="88"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="87">
+      <c r="F24" s="90"/>
+      <c r="G24" s="89"/>
+      <c r="H24" s="89">
         <f>G24-SUM($F$3:F24)</f>
         <v>-74232</v>
       </c>
@@ -4955,12 +4964,12 @@
       </c>
     </row>
     <row r="25" spans="5:43">
-      <c r="E25" s="87">
+      <c r="E25" s="89">
         <v>23</v>
       </c>
-      <c r="F25" s="88"/>
-      <c r="G25" s="87"/>
-      <c r="H25" s="87">
+      <c r="F25" s="90"/>
+      <c r="G25" s="89"/>
+      <c r="H25" s="89">
         <f>G25-SUM($F$3:F25)</f>
         <v>-74232</v>
       </c>
@@ -4976,12 +4985,12 @@
       </c>
     </row>
     <row r="26" spans="5:43">
-      <c r="E26" s="87">
+      <c r="E26" s="89">
         <v>24</v>
       </c>
-      <c r="F26" s="88"/>
-      <c r="G26" s="87"/>
-      <c r="H26" s="87">
+      <c r="F26" s="90"/>
+      <c r="G26" s="89"/>
+      <c r="H26" s="89">
         <f>G26-SUM($F$3:F26)</f>
         <v>-74232</v>
       </c>
@@ -4997,356 +5006,356 @@
       </c>
     </row>
     <row r="29" ht="15" spans="5:8">
-      <c r="E29" s="85" t="s">
+      <c r="E29" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="F29" s="85"/>
-      <c r="G29" s="85"/>
-      <c r="H29" s="86">
+      <c r="F29" s="87"/>
+      <c r="G29" s="87"/>
+      <c r="H29" s="88">
         <v>3.6</v>
       </c>
     </row>
     <row r="30" ht="15" spans="5:8">
-      <c r="E30" s="85" t="s">
+      <c r="E30" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="F30" s="85" t="s">
+      <c r="F30" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="G30" s="85" t="s">
+      <c r="G30" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="H30" s="85" t="s">
+      <c r="H30" s="87" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="31" spans="5:8">
-      <c r="E31" s="87">
+      <c r="E31" s="89">
         <v>1</v>
       </c>
-      <c r="F31" s="88">
+      <c r="F31" s="90">
         <v>112</v>
       </c>
-      <c r="G31" s="89">
+      <c r="G31" s="91">
         <f>F31*$H$29</f>
         <v>403.2</v>
       </c>
-      <c r="H31" s="89">
+      <c r="H31" s="91">
         <f>G31-F31</f>
         <v>291.2</v>
       </c>
     </row>
     <row r="32" spans="5:8">
-      <c r="E32" s="87">
+      <c r="E32" s="89">
         <v>2</v>
       </c>
-      <c r="F32" s="88">
+      <c r="F32" s="90">
         <v>155</v>
       </c>
-      <c r="G32" s="89">
+      <c r="G32" s="91">
         <f>F32*$H$29</f>
         <v>558</v>
       </c>
-      <c r="H32" s="89">
+      <c r="H32" s="91">
         <f>G32-SUM($F$31:F32)</f>
         <v>291</v>
       </c>
     </row>
     <row r="33" spans="5:8">
-      <c r="E33" s="87">
+      <c r="E33" s="89">
         <v>3</v>
       </c>
-      <c r="F33" s="88">
+      <c r="F33" s="90">
         <v>215</v>
       </c>
-      <c r="G33" s="89">
+      <c r="G33" s="91">
         <f t="shared" ref="G33:G47" si="2">F33*$H$29</f>
         <v>774</v>
       </c>
-      <c r="H33" s="89">
+      <c r="H33" s="91">
         <f>G33-SUM($F$31:F33)</f>
         <v>292</v>
       </c>
     </row>
     <row r="34" spans="5:8">
-      <c r="E34" s="87">
+      <c r="E34" s="89">
         <v>4</v>
       </c>
-      <c r="F34" s="88">
+      <c r="F34" s="90">
         <v>298</v>
       </c>
-      <c r="G34" s="89">
+      <c r="G34" s="91">
         <f t="shared" si="2"/>
         <v>1072.8</v>
       </c>
-      <c r="H34" s="89">
+      <c r="H34" s="91">
         <f>G34-SUM($F$31:F34)</f>
         <v>292.8</v>
       </c>
     </row>
     <row r="35" spans="5:8">
-      <c r="E35" s="87">
+      <c r="E35" s="89">
         <v>5</v>
       </c>
-      <c r="F35" s="88">
+      <c r="F35" s="90">
         <v>415</v>
       </c>
-      <c r="G35" s="89">
+      <c r="G35" s="91">
         <f t="shared" si="2"/>
         <v>1494</v>
       </c>
-      <c r="H35" s="89">
+      <c r="H35" s="91">
         <f>G35-SUM($F$31:F35)</f>
         <v>299</v>
       </c>
     </row>
     <row r="36" spans="5:8">
-      <c r="E36" s="87">
+      <c r="E36" s="89">
         <v>6</v>
       </c>
-      <c r="F36" s="88">
+      <c r="F36" s="90">
         <v>572</v>
       </c>
-      <c r="G36" s="89">
+      <c r="G36" s="91">
         <f t="shared" si="2"/>
         <v>2059.2</v>
       </c>
-      <c r="H36" s="89">
+      <c r="H36" s="91">
         <f>G36-SUM($F$31:F36)</f>
         <v>292.2</v>
       </c>
     </row>
     <row r="37" spans="5:8">
-      <c r="E37" s="87">
+      <c r="E37" s="89">
         <v>7</v>
       </c>
-      <c r="F37" s="88">
+      <c r="F37" s="90">
         <v>792</v>
       </c>
-      <c r="G37" s="89">
+      <c r="G37" s="91">
         <f t="shared" si="2"/>
         <v>2851.2</v>
       </c>
-      <c r="H37" s="89">
+      <c r="H37" s="91">
         <f>G37-SUM($F$31:F37)</f>
         <v>292.2</v>
       </c>
     </row>
     <row r="38" spans="5:8">
-      <c r="E38" s="87">
+      <c r="E38" s="89">
         <v>8</v>
       </c>
-      <c r="F38" s="88">
+      <c r="F38" s="90">
         <v>1098</v>
       </c>
-      <c r="G38" s="89">
+      <c r="G38" s="91">
         <f t="shared" si="2"/>
         <v>3952.8</v>
       </c>
-      <c r="H38" s="89">
+      <c r="H38" s="91">
         <f>G38-SUM($F$31:F38)</f>
         <v>295.8</v>
       </c>
     </row>
     <row r="39" spans="5:8">
-      <c r="E39" s="87">
+      <c r="E39" s="89">
         <v>9</v>
       </c>
-      <c r="F39" s="88">
+      <c r="F39" s="90">
         <v>1520</v>
       </c>
-      <c r="G39" s="89">
+      <c r="G39" s="91">
         <f t="shared" si="2"/>
         <v>5472</v>
       </c>
-      <c r="H39" s="89">
+      <c r="H39" s="91">
         <f>G39-SUM($F$31:F39)</f>
         <v>295</v>
       </c>
     </row>
     <row r="40" spans="5:8">
-      <c r="E40" s="87">
+      <c r="E40" s="89">
         <v>10</v>
       </c>
-      <c r="F40" s="88">
+      <c r="F40" s="90">
         <v>2105</v>
       </c>
-      <c r="G40" s="89">
+      <c r="G40" s="91">
         <f t="shared" si="2"/>
         <v>7578</v>
       </c>
-      <c r="H40" s="89">
+      <c r="H40" s="91">
         <f>G40-SUM($F$31:F40)</f>
         <v>296</v>
       </c>
     </row>
     <row r="41" spans="5:8">
-      <c r="E41" s="87">
+      <c r="E41" s="89">
         <v>11</v>
       </c>
-      <c r="F41" s="88">
+      <c r="F41" s="90">
         <v>2915</v>
       </c>
-      <c r="G41" s="89">
+      <c r="G41" s="91">
         <f t="shared" si="2"/>
         <v>10494</v>
       </c>
-      <c r="H41" s="89">
+      <c r="H41" s="91">
         <f>G41-SUM($F$31:F41)</f>
         <v>297</v>
       </c>
     </row>
     <row r="42" spans="5:8">
-      <c r="E42" s="87">
+      <c r="E42" s="89">
         <v>12</v>
       </c>
-      <c r="F42" s="88">
+      <c r="F42" s="90">
         <v>4035</v>
       </c>
-      <c r="G42" s="89">
+      <c r="G42" s="91">
         <f t="shared" si="2"/>
         <v>14526</v>
       </c>
-      <c r="H42" s="89">
+      <c r="H42" s="91">
         <f>G42-SUM($F$31:F42)</f>
         <v>294</v>
       </c>
     </row>
     <row r="43" spans="5:8">
-      <c r="E43" s="87">
+      <c r="E43" s="89">
         <v>13</v>
       </c>
-      <c r="F43" s="88">
+      <c r="F43" s="90">
         <v>5585</v>
       </c>
-      <c r="G43" s="89">
+      <c r="G43" s="91">
         <f t="shared" si="2"/>
         <v>20106</v>
       </c>
-      <c r="H43" s="89">
+      <c r="H43" s="91">
         <f>G43-SUM($F$31:F43)</f>
         <v>289</v>
       </c>
     </row>
     <row r="44" spans="5:8">
-      <c r="E44" s="87">
+      <c r="E44" s="89">
         <v>14</v>
       </c>
-      <c r="F44" s="88">
+      <c r="F44" s="90">
         <v>7735</v>
       </c>
-      <c r="G44" s="89">
+      <c r="G44" s="91">
         <f t="shared" si="2"/>
         <v>27846</v>
       </c>
-      <c r="H44" s="89">
+      <c r="H44" s="91">
         <f>G44-SUM($F$31:F44)</f>
         <v>294</v>
       </c>
     </row>
     <row r="45" spans="5:8">
-      <c r="E45" s="87">
+      <c r="E45" s="89">
         <v>15</v>
       </c>
-      <c r="F45" s="88">
+      <c r="F45" s="90">
         <v>10710</v>
       </c>
-      <c r="G45" s="89">
+      <c r="G45" s="91">
         <f t="shared" si="2"/>
         <v>38556</v>
       </c>
-      <c r="H45" s="89">
+      <c r="H45" s="91">
         <f>G45-SUM($F$31:F45)</f>
         <v>294</v>
       </c>
     </row>
     <row r="46" spans="5:8">
-      <c r="E46" s="87">
+      <c r="E46" s="89">
         <v>16</v>
       </c>
-      <c r="F46" s="88">
+      <c r="F46" s="90">
         <v>14830</v>
       </c>
-      <c r="G46" s="89">
+      <c r="G46" s="91">
         <f t="shared" si="2"/>
         <v>53388</v>
       </c>
-      <c r="H46" s="89">
+      <c r="H46" s="91">
         <f>G46-SUM($F$31:F46)</f>
         <v>296</v>
       </c>
     </row>
     <row r="47" spans="5:8">
-      <c r="E47" s="87">
+      <c r="E47" s="89">
         <v>17</v>
       </c>
-      <c r="F47" s="88">
+      <c r="F47" s="90">
         <v>20850</v>
       </c>
-      <c r="G47" s="89">
+      <c r="G47" s="91">
         <f t="shared" si="2"/>
         <v>75060</v>
       </c>
-      <c r="H47" s="89">
+      <c r="H47" s="91">
         <f>G47-SUM($F$31:F47)</f>
         <v>1118</v>
       </c>
     </row>
     <row r="48" spans="5:8">
-      <c r="E48" s="87">
+      <c r="E48" s="89">
         <v>18</v>
       </c>
-      <c r="F48" s="88"/>
-      <c r="G48" s="89"/>
-      <c r="H48" s="89"/>
+      <c r="F48" s="90"/>
+      <c r="G48" s="91"/>
+      <c r="H48" s="91"/>
     </row>
     <row r="49" spans="5:8">
-      <c r="E49" s="87">
+      <c r="E49" s="89">
         <v>19</v>
       </c>
-      <c r="F49" s="88"/>
-      <c r="G49" s="89"/>
-      <c r="H49" s="89"/>
+      <c r="F49" s="90"/>
+      <c r="G49" s="91"/>
+      <c r="H49" s="91"/>
     </row>
     <row r="50" spans="5:8">
-      <c r="E50" s="87">
+      <c r="E50" s="89">
         <v>20</v>
       </c>
-      <c r="F50" s="88"/>
-      <c r="G50" s="89"/>
-      <c r="H50" s="89"/>
+      <c r="F50" s="90"/>
+      <c r="G50" s="91"/>
+      <c r="H50" s="91"/>
     </row>
     <row r="51" spans="5:8">
-      <c r="E51" s="87">
+      <c r="E51" s="89">
         <v>21</v>
       </c>
-      <c r="F51" s="88"/>
-      <c r="G51" s="89"/>
-      <c r="H51" s="89"/>
+      <c r="F51" s="90"/>
+      <c r="G51" s="91"/>
+      <c r="H51" s="91"/>
     </row>
     <row r="52" spans="5:8">
-      <c r="E52" s="87">
+      <c r="E52" s="89">
         <v>22</v>
       </c>
-      <c r="F52" s="88"/>
-      <c r="G52" s="89"/>
-      <c r="H52" s="89"/>
+      <c r="F52" s="90"/>
+      <c r="G52" s="91"/>
+      <c r="H52" s="91"/>
     </row>
     <row r="53" spans="5:8">
-      <c r="E53" s="87">
+      <c r="E53" s="89">
         <v>23</v>
       </c>
-      <c r="F53" s="88"/>
-      <c r="G53" s="89"/>
-      <c r="H53" s="89"/>
+      <c r="F53" s="90"/>
+      <c r="G53" s="91"/>
+      <c r="H53" s="91"/>
     </row>
     <row r="54" spans="5:8">
-      <c r="E54" s="87">
+      <c r="E54" s="89">
         <v>24</v>
       </c>
-      <c r="F54" s="88"/>
-      <c r="G54" s="89"/>
-      <c r="H54" s="89"/>
+      <c r="F54" s="90"/>
+      <c r="G54" s="91"/>
+      <c r="H54" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -5376,8 +5385,8 @@
   <sheetPr/>
   <dimension ref="A1:AR85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="Z27" workbookViewId="0">
-      <selection activeCell="AD27" sqref="AD$1:AD$1048576"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="AF58" sqref="AF58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5505,67 +5514,67 @@
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="10"/>
-      <c r="D2" s="69"/>
+      <c r="D2" s="70"/>
       <c r="E2" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="70"/>
+      <c r="H2" s="71"/>
       <c r="I2" s="8" t="s">
         <v>13</v>
       </c>
       <c r="J2" s="9"/>
       <c r="K2" s="10"/>
-      <c r="L2" s="70"/>
+      <c r="L2" s="71"/>
       <c r="M2" s="8" t="s">
         <v>14</v>
       </c>
       <c r="N2" s="9"/>
       <c r="O2" s="10"/>
-      <c r="P2" s="70"/>
+      <c r="P2" s="71"/>
       <c r="Q2" s="8" t="s">
         <v>10</v>
       </c>
       <c r="R2" s="9"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="70"/>
+      <c r="T2" s="71"/>
       <c r="U2" s="8" t="s">
         <v>9</v>
       </c>
       <c r="V2" s="9"/>
       <c r="W2" s="10"/>
-      <c r="X2" s="70"/>
+      <c r="X2" s="71"/>
       <c r="Y2" s="8" t="s">
         <v>42</v>
       </c>
       <c r="Z2" s="9"/>
       <c r="AA2" s="10"/>
-      <c r="AB2" s="70"/>
+      <c r="AB2" s="71"/>
       <c r="AC2" s="8" t="s">
         <v>15</v>
       </c>
       <c r="AD2" s="9"/>
       <c r="AE2" s="10"/>
-      <c r="AF2" s="70"/>
+      <c r="AF2" s="71"/>
       <c r="AG2" s="8" t="s">
         <v>43</v>
       </c>
       <c r="AH2" s="9"/>
       <c r="AI2" s="10"/>
-      <c r="AJ2" s="70"/>
+      <c r="AJ2" s="71"/>
       <c r="AK2" s="8" t="s">
         <v>7</v>
       </c>
       <c r="AL2" s="9"/>
       <c r="AM2" s="10"/>
-      <c r="AN2" s="70"/>
+      <c r="AN2" s="71"/>
       <c r="AO2" s="8" t="s">
         <v>8</v>
       </c>
       <c r="AP2" s="9"/>
       <c r="AQ2" s="10"/>
-      <c r="AR2" s="70"/>
+      <c r="AR2" s="71"/>
     </row>
     <row r="3" spans="1:43">
       <c r="A3" s="11">
@@ -5892,7 +5901,7 @@
       <c r="C6" s="13">
         <v>-90</v>
       </c>
-      <c r="D6" s="71"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="11">
         <v>4</v>
       </c>
@@ -7128,13 +7137,13 @@
         <f>278+SUM(S15:S17)</f>
         <v>78</v>
       </c>
-      <c r="U17" s="78">
+      <c r="U17" s="80">
         <v>15</v>
       </c>
-      <c r="V17" s="78" t="s">
+      <c r="V17" s="80" t="s">
         <v>164</v>
       </c>
-      <c r="W17" s="78">
+      <c r="W17" s="80">
         <v>-155</v>
       </c>
       <c r="Y17" s="14">
@@ -7414,16 +7423,16 @@
       </c>
     </row>
     <row r="20" spans="1:43">
-      <c r="A20" s="72">
+      <c r="A20" s="73">
         <v>18</v>
       </c>
-      <c r="B20" s="73" t="s">
+      <c r="B20" s="74" t="s">
         <v>183</v>
       </c>
-      <c r="C20" s="74">
+      <c r="C20" s="75">
         <v>-5100</v>
       </c>
-      <c r="D20" s="75"/>
+      <c r="D20" s="76"/>
       <c r="E20" s="12">
         <v>18</v>
       </c>
@@ -8617,7 +8626,7 @@
       <c r="AI30" s="28">
         <v>-75</v>
       </c>
-      <c r="AJ30" s="81"/>
+      <c r="AJ30" s="83"/>
       <c r="AK30" s="11">
         <v>28</v>
       </c>
@@ -8627,7 +8636,7 @@
       <c r="AM30" s="13">
         <v>-90</v>
       </c>
-      <c r="AN30" s="82"/>
+      <c r="AN30" s="84"/>
       <c r="AO30" s="11">
         <v>28</v>
       </c>
@@ -8749,22 +8758,22 @@
       </c>
     </row>
     <row r="32" spans="1:43">
-      <c r="A32" s="76">
+      <c r="A32" s="77">
         <v>30</v>
       </c>
-      <c r="B32" s="40" t="s">
+      <c r="B32" s="37" t="s">
         <v>274</v>
       </c>
-      <c r="C32" s="41">
+      <c r="C32" s="38">
         <v>-75</v>
       </c>
-      <c r="E32" s="39">
+      <c r="E32" s="36">
         <v>30</v>
       </c>
-      <c r="F32" s="40" t="s">
+      <c r="F32" s="37" t="s">
         <v>275</v>
       </c>
-      <c r="G32" s="41">
+      <c r="G32" s="38">
         <v>-155</v>
       </c>
       <c r="I32" s="19">
@@ -8780,22 +8789,22 @@
         <f>14430+SUM(K16:K32)</f>
         <v>130</v>
       </c>
-      <c r="M32" s="39">
+      <c r="M32" s="36">
         <v>30</v>
       </c>
-      <c r="N32" s="41" t="s">
+      <c r="N32" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="O32" s="41">
-        <v>-60</v>
-      </c>
-      <c r="Q32" s="39">
+      <c r="O32" s="38">
+        <v>-60</v>
+      </c>
+      <c r="Q32" s="36">
         <v>30</v>
       </c>
-      <c r="R32" s="41" t="s">
+      <c r="R32" s="38" t="s">
         <v>277</v>
       </c>
-      <c r="S32" s="41">
+      <c r="S32" s="38">
         <v>-3000</v>
       </c>
       <c r="U32" s="17">
@@ -8811,92 +8820,92 @@
         <f>260+SUM(W31:W32)</f>
         <v>135</v>
       </c>
-      <c r="Y32" s="76">
+      <c r="Y32" s="77">
         <v>30</v>
       </c>
-      <c r="Z32" s="41" t="s">
+      <c r="Z32" s="38" t="s">
         <v>279</v>
       </c>
-      <c r="AA32" s="41">
+      <c r="AA32" s="38">
         <v>-3000</v>
       </c>
-      <c r="AC32" s="39">
+      <c r="AC32" s="36">
         <v>30</v>
       </c>
-      <c r="AD32" s="41" t="s">
+      <c r="AD32" s="38" t="s">
         <v>277</v>
       </c>
-      <c r="AE32" s="41">
+      <c r="AE32" s="38">
         <v>-3300</v>
       </c>
-      <c r="AG32" s="39">
+      <c r="AG32" s="36">
         <v>30</v>
       </c>
-      <c r="AH32" s="41" t="s">
+      <c r="AH32" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="AI32" s="41">
+      <c r="AI32" s="38">
         <v>-112</v>
       </c>
       <c r="AJ32" s="25"/>
-      <c r="AK32" s="39">
+      <c r="AK32" s="36">
         <v>30</v>
       </c>
-      <c r="AL32" s="41" t="s">
+      <c r="AL32" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="AM32" s="41">
+      <c r="AM32" s="38">
         <v>-155</v>
       </c>
-      <c r="AO32" s="39">
+      <c r="AO32" s="36">
         <v>30</v>
       </c>
-      <c r="AP32" s="41" t="s">
+      <c r="AP32" s="38" t="s">
         <v>280</v>
       </c>
-      <c r="AQ32" s="41">
+      <c r="AQ32" s="38">
         <v>-90</v>
       </c>
     </row>
     <row r="33" spans="1:43">
-      <c r="A33" s="77">
+      <c r="A33" s="78">
         <v>31</v>
       </c>
-      <c r="B33" s="40" t="s">
+      <c r="B33" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="41">
+      <c r="C33" s="38">
         <v>-3000</v>
       </c>
-      <c r="E33" s="39">
+      <c r="E33" s="36">
         <v>31</v>
       </c>
-      <c r="F33" s="40" t="s">
+      <c r="F33" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="G33" s="41">
+      <c r="G33" s="38">
         <v>-215</v>
       </c>
-      <c r="I33" s="42">
+      <c r="I33" s="39">
         <v>31</v>
       </c>
-      <c r="J33" s="43" t="s">
+      <c r="J33" s="40" t="s">
         <v>281</v>
       </c>
-      <c r="K33" s="44">
+      <c r="K33" s="41">
         <v>-60</v>
       </c>
       <c r="L33" s="17">
         <f>240+K33</f>
         <v>180</v>
       </c>
-      <c r="M33" s="42">
+      <c r="M33" s="39">
         <v>31</v>
       </c>
-      <c r="N33" s="43" t="s">
+      <c r="N33" s="40" t="s">
         <v>241</v>
       </c>
-      <c r="O33" s="44">
+      <c r="O33" s="41">
         <v>-65</v>
       </c>
       <c r="P33" s="17">
@@ -8915,10 +8924,10 @@
       <c r="U33" s="18">
         <v>31</v>
       </c>
-      <c r="V33" s="41" t="s">
+      <c r="V33" s="38" t="s">
         <v>282</v>
       </c>
-      <c r="W33" s="41">
+      <c r="W33" s="38">
         <v>-1000</v>
       </c>
       <c r="Y33" s="11">
@@ -8949,13 +8958,13 @@
         <v>-155</v>
       </c>
       <c r="AJ33" s="25"/>
-      <c r="AK33" s="39">
+      <c r="AK33" s="36">
         <v>31</v>
       </c>
-      <c r="AL33" s="41" t="s">
+      <c r="AL33" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="AM33" s="41">
+      <c r="AM33" s="38">
         <v>-215</v>
       </c>
       <c r="AO33" s="22">
@@ -9021,10 +9030,10 @@
       <c r="U34" s="18">
         <v>32</v>
       </c>
-      <c r="V34" s="41" t="s">
+      <c r="V34" s="38" t="s">
         <v>288</v>
       </c>
-      <c r="W34" s="41">
+      <c r="W34" s="38">
         <v>-1300</v>
       </c>
       <c r="Y34" s="11">
@@ -9920,7 +9929,7 @@
       <c r="S42" s="13">
         <v>-1000</v>
       </c>
-      <c r="T42" s="79"/>
+      <c r="T42" s="81"/>
       <c r="U42" s="14">
         <v>40</v>
       </c>
@@ -10146,7 +10155,7 @@
       <c r="U44" s="52">
         <v>42</v>
       </c>
-      <c r="V44" s="80" t="s">
+      <c r="V44" s="82" t="s">
         <v>359</v>
       </c>
       <c r="W44" s="54">
@@ -10843,7 +10852,7 @@
       <c r="AI50" s="13">
         <v>-1250</v>
       </c>
-      <c r="AJ50" s="83"/>
+      <c r="AJ50" s="85"/>
       <c r="AK50" s="11">
         <v>48</v>
       </c>
@@ -10949,7 +10958,7 @@
       <c r="AI51" s="13">
         <v>-1000</v>
       </c>
-      <c r="AJ51" s="83"/>
+      <c r="AJ51" s="85"/>
       <c r="AK51" s="14">
         <v>49</v>
       </c>
@@ -11055,7 +11064,7 @@
       <c r="AI52" s="13">
         <v>-1400</v>
       </c>
-      <c r="AJ52" s="83"/>
+      <c r="AJ52" s="85"/>
       <c r="AK52" s="11">
         <v>50</v>
       </c>
@@ -11626,13 +11635,13 @@
       <c r="C58" s="13">
         <v>0</v>
       </c>
-      <c r="E58" s="31">
+      <c r="E58" s="42">
         <v>56</v>
       </c>
-      <c r="F58" s="32" t="s">
+      <c r="F58" s="79" t="s">
         <v>294</v>
       </c>
-      <c r="G58" s="33">
+      <c r="G58" s="44">
         <v>-450</v>
       </c>
       <c r="I58" s="11">
@@ -11653,29 +11662,29 @@
       <c r="O58" s="13">
         <v>0</v>
       </c>
-      <c r="Q58" s="35">
+      <c r="Q58" s="32">
         <v>56</v>
       </c>
       <c r="R58" t="s">
         <v>216</v>
       </c>
-      <c r="S58" s="37"/>
-      <c r="U58" s="31">
+      <c r="S58" s="34"/>
+      <c r="U58" s="42">
         <v>56</v>
       </c>
-      <c r="V58" s="32" t="s">
+      <c r="V58" s="79" t="s">
         <v>278</v>
       </c>
-      <c r="W58" s="33">
+      <c r="W58" s="44">
         <v>0</v>
       </c>
-      <c r="Y58" s="31">
+      <c r="Y58" s="42">
         <v>56</v>
       </c>
-      <c r="Z58" s="32" t="s">
+      <c r="Z58" s="79" t="s">
         <v>294</v>
       </c>
-      <c r="AA58" s="33">
+      <c r="AA58" s="44">
         <v>0</v>
       </c>
       <c r="AC58" s="11">
@@ -11687,45 +11696,45 @@
       <c r="AE58" s="13">
         <v>-600</v>
       </c>
-      <c r="AG58" s="31">
+      <c r="AG58" s="42">
         <v>56</v>
       </c>
-      <c r="AH58" s="32" t="s">
+      <c r="AH58" s="79" t="s">
         <v>437</v>
       </c>
-      <c r="AI58" s="33">
+      <c r="AI58" s="44">
         <v>0</v>
       </c>
-      <c r="AK58" s="35">
+      <c r="AK58" s="32">
         <v>56</v>
       </c>
-      <c r="AL58" s="36" t="s">
+      <c r="AL58" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="AM58" s="37"/>
-      <c r="AO58" s="35">
+      <c r="AM58" s="34"/>
+      <c r="AO58" s="32">
         <v>56</v>
       </c>
       <c r="AP58" t="s">
         <v>254</v>
       </c>
-      <c r="AQ58" s="37"/>
+      <c r="AQ58" s="34"/>
     </row>
     <row r="59" spans="1:43">
-      <c r="A59" s="35">
+      <c r="A59" s="32">
         <v>57</v>
       </c>
-      <c r="B59" s="36" t="s">
+      <c r="B59" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="C59" s="37"/>
-      <c r="E59" s="35">
+      <c r="C59" s="34"/>
+      <c r="E59" s="32">
         <v>57</v>
       </c>
-      <c r="F59" s="36" t="s">
+      <c r="F59" s="33" t="s">
         <v>390</v>
       </c>
-      <c r="G59" s="37"/>
+      <c r="G59" s="34"/>
       <c r="I59" s="14">
         <v>57</v>
       </c>
@@ -11739,7 +11748,7 @@
         <f>3960+SUM(K58:K59)</f>
         <v>2310</v>
       </c>
-      <c r="M59" s="38">
+      <c r="M59" s="35">
         <v>57</v>
       </c>
       <c r="N59" s="3" t="s">
@@ -11748,926 +11757,926 @@
       <c r="O59" s="48">
         <v>-750</v>
       </c>
-      <c r="Q59" s="35">
+      <c r="Q59" s="32">
         <v>57</v>
       </c>
       <c r="R59" t="s">
         <v>439</v>
       </c>
-      <c r="S59" s="37"/>
-      <c r="U59" s="35">
+      <c r="S59" s="34"/>
+      <c r="U59" s="32">
         <v>57</v>
       </c>
-      <c r="V59" s="36" t="s">
+      <c r="V59" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="W59" s="37"/>
-      <c r="Y59" s="35">
+      <c r="W59" s="34"/>
+      <c r="Y59" s="32">
         <v>57</v>
       </c>
-      <c r="Z59" s="36" t="s">
+      <c r="Z59" s="33" t="s">
         <v>440</v>
       </c>
-      <c r="AA59" s="37"/>
-      <c r="AC59" s="31">
+      <c r="AA59" s="34"/>
+      <c r="AC59" s="42">
         <v>57</v>
       </c>
-      <c r="AD59" s="32" t="s">
+      <c r="AD59" s="79" t="s">
         <v>438</v>
       </c>
-      <c r="AE59" s="33">
+      <c r="AE59" s="44">
         <v>-650</v>
       </c>
-      <c r="AG59" s="35">
+      <c r="AG59" s="32">
         <v>57</v>
       </c>
-      <c r="AH59" s="36" t="s">
+      <c r="AH59" s="33" t="s">
         <v>374</v>
       </c>
-      <c r="AI59" s="37"/>
-      <c r="AK59" s="35">
+      <c r="AI59" s="34"/>
+      <c r="AK59" s="32">
         <v>57</v>
       </c>
-      <c r="AL59" s="36" t="s">
+      <c r="AL59" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="AM59" s="37"/>
-      <c r="AO59" s="35">
+      <c r="AM59" s="34"/>
+      <c r="AO59" s="32">
         <v>57</v>
       </c>
       <c r="AP59" t="s">
         <v>390</v>
       </c>
-      <c r="AQ59" s="37"/>
+      <c r="AQ59" s="34"/>
     </row>
     <row r="60" spans="1:43">
-      <c r="A60" s="35">
+      <c r="A60" s="32">
         <v>58</v>
       </c>
-      <c r="B60" s="36" t="s">
+      <c r="B60" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="C60" s="37"/>
-      <c r="E60" s="35">
+      <c r="C60" s="34"/>
+      <c r="E60" s="32">
         <v>58</v>
       </c>
-      <c r="F60" s="36" t="s">
+      <c r="F60" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="G60" s="37"/>
-      <c r="I60" s="35">
+      <c r="G60" s="34"/>
+      <c r="I60" s="32">
         <v>58</v>
       </c>
       <c r="J60" t="s">
         <v>254</v>
       </c>
-      <c r="K60" s="37"/>
-      <c r="M60" s="38">
+      <c r="K60" s="34"/>
+      <c r="M60" s="35">
         <v>58</v>
       </c>
       <c r="N60" s="3" t="s">
         <v>438</v>
       </c>
       <c r="O60" s="48"/>
-      <c r="Q60" s="35">
+      <c r="Q60" s="32">
         <v>58</v>
       </c>
       <c r="R60" t="s">
         <v>208</v>
       </c>
-      <c r="S60" s="37"/>
-      <c r="U60" s="35">
+      <c r="S60" s="34"/>
+      <c r="U60" s="32">
         <v>58</v>
       </c>
-      <c r="V60" s="36" t="s">
+      <c r="V60" s="33" t="s">
         <v>288</v>
       </c>
-      <c r="W60" s="37"/>
-      <c r="Y60" s="35">
+      <c r="W60" s="34"/>
+      <c r="Y60" s="32">
         <v>58</v>
       </c>
-      <c r="Z60" s="36" t="s">
+      <c r="Z60" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="AA60" s="37"/>
-      <c r="AC60" s="35">
+      <c r="AA60" s="34"/>
+      <c r="AC60" s="32">
         <v>58</v>
       </c>
-      <c r="AD60" s="36" t="s">
+      <c r="AD60" s="33" t="s">
         <v>438</v>
       </c>
-      <c r="AE60" s="37"/>
-      <c r="AG60" s="35">
+      <c r="AE60" s="34"/>
+      <c r="AG60" s="32">
         <v>58</v>
       </c>
-      <c r="AH60" s="36" t="s">
+      <c r="AH60" s="33" t="s">
         <v>440</v>
       </c>
-      <c r="AI60" s="37"/>
-      <c r="AK60" s="35">
+      <c r="AI60" s="34"/>
+      <c r="AK60" s="32">
         <v>58</v>
       </c>
-      <c r="AL60" s="36" t="s">
+      <c r="AL60" s="33" t="s">
         <v>208</v>
       </c>
-      <c r="AM60" s="37"/>
-      <c r="AO60" s="35">
+      <c r="AM60" s="34"/>
+      <c r="AO60" s="32">
         <v>58</v>
       </c>
       <c r="AP60" t="s">
         <v>293</v>
       </c>
-      <c r="AQ60" s="37"/>
+      <c r="AQ60" s="34"/>
     </row>
     <row r="61" spans="1:43">
-      <c r="A61" s="35">
+      <c r="A61" s="32">
         <v>59</v>
       </c>
-      <c r="B61" s="36" t="s">
+      <c r="B61" s="33" t="s">
         <v>441</v>
       </c>
-      <c r="C61" s="37"/>
-      <c r="E61" s="35">
+      <c r="C61" s="34"/>
+      <c r="E61" s="32">
         <v>59</v>
       </c>
-      <c r="F61" s="36" t="s">
+      <c r="F61" s="33" t="s">
         <v>442</v>
       </c>
-      <c r="G61" s="37"/>
-      <c r="I61" s="35">
+      <c r="G61" s="34"/>
+      <c r="I61" s="32">
         <v>59</v>
       </c>
       <c r="J61" t="s">
         <v>153</v>
       </c>
-      <c r="K61" s="37"/>
-      <c r="M61" s="38">
+      <c r="K61" s="34"/>
+      <c r="M61" s="35">
         <v>59</v>
       </c>
       <c r="N61" s="3" t="s">
         <v>439</v>
       </c>
       <c r="O61" s="48"/>
-      <c r="Q61" s="35">
+      <c r="Q61" s="32">
         <v>59</v>
       </c>
       <c r="R61" t="s">
         <v>158</v>
       </c>
-      <c r="S61" s="37"/>
-      <c r="U61" s="35">
+      <c r="S61" s="34"/>
+      <c r="U61" s="32">
         <v>59</v>
       </c>
-      <c r="V61" s="36" t="s">
+      <c r="V61" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="W61" s="37"/>
-      <c r="Y61" s="35">
+      <c r="W61" s="34"/>
+      <c r="Y61" s="32">
         <v>59</v>
       </c>
-      <c r="Z61" s="36" t="s">
+      <c r="Z61" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="AA61" s="37"/>
-      <c r="AC61" s="35">
+      <c r="AA61" s="34"/>
+      <c r="AC61" s="32">
         <v>59</v>
       </c>
-      <c r="AD61" s="36" t="s">
+      <c r="AD61" s="33" t="s">
         <v>374</v>
       </c>
-      <c r="AE61" s="37"/>
-      <c r="AG61" s="35">
+      <c r="AE61" s="34"/>
+      <c r="AG61" s="32">
         <v>59</v>
       </c>
-      <c r="AH61" s="36" t="s">
+      <c r="AH61" s="33" t="s">
         <v>443</v>
       </c>
-      <c r="AI61" s="37"/>
-      <c r="AK61" s="35">
+      <c r="AI61" s="34"/>
+      <c r="AK61" s="32">
         <v>59</v>
       </c>
-      <c r="AL61" s="36" t="s">
+      <c r="AL61" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="AM61" s="37"/>
-      <c r="AO61" s="35">
+      <c r="AM61" s="34"/>
+      <c r="AO61" s="32">
         <v>59</v>
       </c>
       <c r="AP61" t="s">
         <v>178</v>
       </c>
-      <c r="AQ61" s="37"/>
+      <c r="AQ61" s="34"/>
     </row>
     <row r="62" spans="1:43">
-      <c r="A62" s="35">
+      <c r="A62" s="32">
         <v>60</v>
       </c>
-      <c r="B62" s="36" t="s">
+      <c r="B62" s="33" t="s">
         <v>444</v>
       </c>
-      <c r="C62" s="37"/>
-      <c r="E62" s="35">
+      <c r="C62" s="34"/>
+      <c r="E62" s="32">
         <v>60</v>
       </c>
-      <c r="F62" s="36" t="s">
+      <c r="F62" s="33" t="s">
         <v>445</v>
       </c>
-      <c r="G62" s="37"/>
-      <c r="I62" s="35">
+      <c r="G62" s="34"/>
+      <c r="I62" s="32">
         <v>60</v>
       </c>
       <c r="J62" t="s">
         <v>446</v>
       </c>
-      <c r="K62" s="37"/>
-      <c r="M62" s="38">
+      <c r="K62" s="34"/>
+      <c r="M62" s="35">
         <v>60</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>447</v>
       </c>
       <c r="O62" s="48"/>
-      <c r="Q62" s="35">
+      <c r="Q62" s="32">
         <v>60</v>
       </c>
       <c r="R62" t="s">
         <v>448</v>
       </c>
-      <c r="S62" s="37"/>
-      <c r="U62" s="35">
+      <c r="S62" s="34"/>
+      <c r="U62" s="32">
         <v>60</v>
       </c>
-      <c r="V62" s="36" t="s">
+      <c r="V62" s="33" t="s">
         <v>449</v>
       </c>
-      <c r="W62" s="37"/>
-      <c r="Y62" s="35">
+      <c r="W62" s="34"/>
+      <c r="Y62" s="32">
         <v>60</v>
       </c>
-      <c r="Z62" s="36" t="s">
+      <c r="Z62" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="AA62" s="37"/>
-      <c r="AC62" s="35">
+      <c r="AA62" s="34"/>
+      <c r="AC62" s="32">
         <v>60</v>
       </c>
-      <c r="AD62" s="36" t="s">
+      <c r="AD62" s="33" t="s">
         <v>433</v>
       </c>
-      <c r="AE62" s="37"/>
-      <c r="AG62" s="35">
+      <c r="AE62" s="34"/>
+      <c r="AG62" s="32">
         <v>60</v>
       </c>
-      <c r="AH62" s="36" t="s">
+      <c r="AH62" s="33" t="s">
         <v>450</v>
       </c>
-      <c r="AI62" s="37"/>
-      <c r="AK62" s="35">
+      <c r="AI62" s="34"/>
+      <c r="AK62" s="32">
         <v>60</v>
       </c>
-      <c r="AL62" s="36" t="s">
+      <c r="AL62" s="33" t="s">
         <v>451</v>
       </c>
-      <c r="AM62" s="37"/>
-      <c r="AO62" s="35">
+      <c r="AM62" s="34"/>
+      <c r="AO62" s="32">
         <v>60</v>
       </c>
       <c r="AP62" t="s">
         <v>452</v>
       </c>
-      <c r="AQ62" s="37"/>
+      <c r="AQ62" s="34"/>
     </row>
     <row r="63" spans="1:43">
-      <c r="A63" s="35">
+      <c r="A63" s="32">
         <v>61</v>
       </c>
-      <c r="B63" s="36" t="s">
+      <c r="B63" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="C63" s="37"/>
-      <c r="E63" s="35">
+      <c r="C63" s="34"/>
+      <c r="E63" s="32">
         <v>61</v>
       </c>
-      <c r="F63" s="36" t="s">
+      <c r="F63" s="33" t="s">
         <v>299</v>
       </c>
-      <c r="G63" s="37"/>
-      <c r="I63" s="35">
+      <c r="G63" s="34"/>
+      <c r="I63" s="32">
         <v>61</v>
       </c>
       <c r="J63" t="s">
         <v>454</v>
       </c>
-      <c r="K63" s="37"/>
-      <c r="M63" s="38">
+      <c r="K63" s="34"/>
+      <c r="M63" s="35">
         <v>61</v>
       </c>
       <c r="N63" s="3" t="s">
         <v>158</v>
       </c>
       <c r="O63" s="48"/>
-      <c r="Q63" s="35">
+      <c r="Q63" s="32">
         <v>61</v>
       </c>
       <c r="R63" t="s">
         <v>98</v>
       </c>
-      <c r="S63" s="37"/>
-      <c r="U63" s="35">
+      <c r="S63" s="34"/>
+      <c r="U63" s="32">
         <v>61</v>
       </c>
-      <c r="V63" s="36" t="s">
+      <c r="V63" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="W63" s="37"/>
-      <c r="Y63" s="35">
+      <c r="W63" s="34"/>
+      <c r="Y63" s="32">
         <v>61</v>
       </c>
-      <c r="Z63" s="36" t="s">
+      <c r="Z63" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="AA63" s="37"/>
-      <c r="AC63" s="35">
+      <c r="AA63" s="34"/>
+      <c r="AC63" s="32">
         <v>61</v>
       </c>
-      <c r="AD63" s="36" t="s">
+      <c r="AD63" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="AE63" s="37"/>
-      <c r="AG63" s="35">
+      <c r="AE63" s="34"/>
+      <c r="AG63" s="32">
         <v>61</v>
       </c>
-      <c r="AH63" s="36" t="s">
+      <c r="AH63" s="33" t="s">
         <v>299</v>
       </c>
-      <c r="AI63" s="37"/>
-      <c r="AK63" s="35">
+      <c r="AI63" s="34"/>
+      <c r="AK63" s="32">
         <v>61</v>
       </c>
-      <c r="AL63" s="36" t="s">
+      <c r="AL63" s="33" t="s">
         <v>456</v>
       </c>
-      <c r="AM63" s="37"/>
-      <c r="AO63" s="35">
+      <c r="AM63" s="34"/>
+      <c r="AO63" s="32">
         <v>61</v>
       </c>
       <c r="AP63" t="s">
         <v>146</v>
       </c>
-      <c r="AQ63" s="37"/>
+      <c r="AQ63" s="34"/>
     </row>
     <row r="64" spans="1:43">
-      <c r="A64" s="35">
+      <c r="A64" s="32">
         <v>62</v>
       </c>
-      <c r="B64" s="36" t="s">
+      <c r="B64" s="33" t="s">
         <v>345</v>
       </c>
-      <c r="C64" s="37"/>
-      <c r="E64" s="35">
+      <c r="C64" s="34"/>
+      <c r="E64" s="32">
         <v>62</v>
       </c>
-      <c r="F64" s="36" t="s">
+      <c r="F64" s="33" t="s">
         <v>340</v>
       </c>
-      <c r="G64" s="37"/>
-      <c r="I64" s="35">
+      <c r="G64" s="34"/>
+      <c r="I64" s="32">
         <v>62</v>
       </c>
       <c r="J64" t="s">
         <v>457</v>
       </c>
-      <c r="K64" s="37"/>
-      <c r="M64" s="35">
+      <c r="K64" s="34"/>
+      <c r="M64" s="32">
         <v>62</v>
       </c>
       <c r="N64" t="s">
         <v>458</v>
       </c>
-      <c r="O64" s="37"/>
-      <c r="Q64" s="35">
+      <c r="O64" s="34"/>
+      <c r="Q64" s="32">
         <v>62</v>
       </c>
       <c r="R64" t="s">
         <v>348</v>
       </c>
-      <c r="S64" s="37"/>
-      <c r="U64" s="35">
+      <c r="S64" s="34"/>
+      <c r="U64" s="32">
         <v>62</v>
       </c>
-      <c r="V64" s="36" t="s">
+      <c r="V64" s="33" t="s">
         <v>459</v>
       </c>
-      <c r="W64" s="37"/>
-      <c r="Y64" s="35">
+      <c r="W64" s="34"/>
+      <c r="Y64" s="32">
         <v>62</v>
       </c>
-      <c r="Z64" s="36" t="s">
+      <c r="Z64" s="33" t="s">
         <v>440</v>
       </c>
-      <c r="AA64" s="37"/>
-      <c r="AC64" s="35">
+      <c r="AA64" s="34"/>
+      <c r="AC64" s="32">
         <v>62</v>
       </c>
-      <c r="AD64" s="36" t="s">
+      <c r="AD64" s="33" t="s">
         <v>345</v>
       </c>
-      <c r="AE64" s="37"/>
-      <c r="AG64" s="35">
+      <c r="AE64" s="34"/>
+      <c r="AG64" s="32">
         <v>62</v>
       </c>
-      <c r="AH64" s="36" t="s">
+      <c r="AH64" s="33" t="s">
         <v>440</v>
       </c>
-      <c r="AI64" s="37"/>
-      <c r="AK64" s="35">
+      <c r="AI64" s="34"/>
+      <c r="AK64" s="32">
         <v>62</v>
       </c>
-      <c r="AL64" s="36" t="s">
+      <c r="AL64" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="AM64" s="37"/>
-      <c r="AO64" s="35">
+      <c r="AM64" s="34"/>
+      <c r="AO64" s="32">
         <v>62</v>
       </c>
       <c r="AP64" t="s">
         <v>460</v>
       </c>
-      <c r="AQ64" s="37"/>
+      <c r="AQ64" s="34"/>
     </row>
     <row r="65" spans="1:43">
-      <c r="A65" s="35">
+      <c r="A65" s="32">
         <v>63</v>
       </c>
-      <c r="B65" s="36" t="s">
+      <c r="B65" s="33" t="s">
         <v>461</v>
       </c>
-      <c r="C65" s="37"/>
-      <c r="E65" s="35">
+      <c r="C65" s="34"/>
+      <c r="E65" s="32">
         <v>63</v>
       </c>
-      <c r="F65" s="36" t="s">
+      <c r="F65" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="G65" s="37"/>
-      <c r="I65" s="35">
+      <c r="G65" s="34"/>
+      <c r="I65" s="32">
         <v>63</v>
       </c>
       <c r="J65" t="s">
         <v>292</v>
       </c>
-      <c r="K65" s="37"/>
-      <c r="M65" s="35">
+      <c r="K65" s="34"/>
+      <c r="M65" s="32">
         <v>63</v>
       </c>
       <c r="N65" t="s">
         <v>462</v>
       </c>
-      <c r="O65" s="37"/>
-      <c r="Q65" s="35">
+      <c r="O65" s="34"/>
+      <c r="Q65" s="32">
         <v>63</v>
       </c>
       <c r="R65" t="s">
         <v>55</v>
       </c>
-      <c r="S65" s="37"/>
-      <c r="U65" s="35">
+      <c r="S65" s="34"/>
+      <c r="U65" s="32">
         <v>63</v>
       </c>
-      <c r="V65" s="36" t="s">
+      <c r="V65" s="33" t="s">
         <v>421</v>
       </c>
-      <c r="W65" s="37"/>
-      <c r="Y65" s="35">
+      <c r="W65" s="34"/>
+      <c r="Y65" s="32">
         <v>63</v>
       </c>
-      <c r="Z65" s="36" t="s">
+      <c r="Z65" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="AA65" s="37"/>
-      <c r="AC65" s="35">
+      <c r="AA65" s="34"/>
+      <c r="AC65" s="32">
         <v>63</v>
       </c>
-      <c r="AD65" s="36" t="s">
+      <c r="AD65" s="33" t="s">
         <v>463</v>
       </c>
-      <c r="AE65" s="37"/>
-      <c r="AG65" s="35">
+      <c r="AE65" s="34"/>
+      <c r="AG65" s="32">
         <v>63</v>
       </c>
-      <c r="AH65" s="36" t="s">
+      <c r="AH65" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="AI65" s="37"/>
-      <c r="AK65" s="35">
+      <c r="AI65" s="34"/>
+      <c r="AK65" s="32">
         <v>63</v>
       </c>
-      <c r="AL65" s="36" t="s">
+      <c r="AL65" s="33" t="s">
         <v>464</v>
       </c>
-      <c r="AM65" s="37"/>
-      <c r="AO65" s="35">
+      <c r="AM65" s="34"/>
+      <c r="AO65" s="32">
         <v>63</v>
       </c>
       <c r="AP65" t="s">
         <v>465</v>
       </c>
-      <c r="AQ65" s="37"/>
+      <c r="AQ65" s="34"/>
     </row>
     <row r="66" spans="1:43">
-      <c r="A66" s="35">
+      <c r="A66" s="32">
         <v>64</v>
       </c>
-      <c r="B66" s="36" t="s">
+      <c r="B66" s="33" t="s">
         <v>466</v>
       </c>
-      <c r="C66" s="37"/>
-      <c r="E66" s="35">
+      <c r="C66" s="34"/>
+      <c r="E66" s="32">
         <v>64</v>
       </c>
-      <c r="F66" s="36" t="s">
+      <c r="F66" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="G66" s="37"/>
-      <c r="I66" s="35">
+      <c r="G66" s="34"/>
+      <c r="I66" s="32">
         <v>64</v>
       </c>
       <c r="J66" t="s">
         <v>124</v>
       </c>
-      <c r="K66" s="37"/>
-      <c r="M66" s="35">
+      <c r="K66" s="34"/>
+      <c r="M66" s="32">
         <v>64</v>
       </c>
       <c r="N66" t="s">
         <v>199</v>
       </c>
-      <c r="O66" s="37"/>
-      <c r="Q66" s="35">
+      <c r="O66" s="34"/>
+      <c r="Q66" s="32">
         <v>64</v>
       </c>
       <c r="R66" t="s">
         <v>256</v>
       </c>
-      <c r="S66" s="37"/>
-      <c r="U66" s="35">
+      <c r="S66" s="34"/>
+      <c r="U66" s="32">
         <v>64</v>
       </c>
-      <c r="V66" s="36" t="s">
+      <c r="V66" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="W66" s="37"/>
-      <c r="Y66" s="35">
+      <c r="W66" s="34"/>
+      <c r="Y66" s="32">
         <v>64</v>
       </c>
-      <c r="Z66" s="36" t="s">
+      <c r="Z66" s="33" t="s">
         <v>467</v>
       </c>
-      <c r="AA66" s="37"/>
-      <c r="AC66" s="35">
+      <c r="AA66" s="34"/>
+      <c r="AC66" s="32">
         <v>64</v>
       </c>
-      <c r="AD66" s="36" t="s">
+      <c r="AD66" s="33" t="s">
         <v>463</v>
       </c>
-      <c r="AE66" s="37"/>
-      <c r="AG66" s="35">
+      <c r="AE66" s="34"/>
+      <c r="AG66" s="32">
         <v>64</v>
       </c>
-      <c r="AH66" s="36" t="s">
+      <c r="AH66" s="33" t="s">
         <v>417</v>
       </c>
-      <c r="AI66" s="37"/>
-      <c r="AK66" s="35">
+      <c r="AI66" s="34"/>
+      <c r="AK66" s="32">
         <v>64</v>
       </c>
-      <c r="AL66" s="36" t="s">
+      <c r="AL66" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="AM66" s="37"/>
-      <c r="AO66" s="35">
+      <c r="AM66" s="34"/>
+      <c r="AO66" s="32">
         <v>64</v>
       </c>
       <c r="AP66" t="s">
         <v>465</v>
       </c>
-      <c r="AQ66" s="37"/>
+      <c r="AQ66" s="34"/>
     </row>
     <row r="67" spans="1:43">
-      <c r="A67" s="35">
+      <c r="A67" s="32">
         <v>65</v>
       </c>
-      <c r="B67" s="36" t="s">
+      <c r="B67" s="33" t="s">
         <v>302</v>
       </c>
-      <c r="C67" s="37"/>
-      <c r="E67" s="35">
+      <c r="C67" s="34"/>
+      <c r="E67" s="32">
         <v>65</v>
       </c>
-      <c r="F67" s="36" t="s">
+      <c r="F67" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="G67" s="37"/>
-      <c r="I67" s="35">
+      <c r="G67" s="34"/>
+      <c r="I67" s="32">
         <v>65</v>
       </c>
       <c r="J67" t="s">
         <v>468</v>
       </c>
-      <c r="K67" s="37"/>
-      <c r="M67" s="35">
+      <c r="K67" s="34"/>
+      <c r="M67" s="32">
         <v>65</v>
       </c>
       <c r="N67" t="s">
         <v>469</v>
       </c>
-      <c r="O67" s="37"/>
-      <c r="Q67" s="35">
+      <c r="O67" s="34"/>
+      <c r="Q67" s="32">
         <v>65</v>
       </c>
       <c r="R67" t="s">
         <v>148</v>
       </c>
-      <c r="S67" s="37"/>
-      <c r="U67" s="35">
+      <c r="S67" s="34"/>
+      <c r="U67" s="32">
         <v>65</v>
       </c>
-      <c r="V67" s="36" t="s">
+      <c r="V67" s="33" t="s">
         <v>470</v>
       </c>
-      <c r="W67" s="37"/>
-      <c r="Y67" s="35">
+      <c r="W67" s="34"/>
+      <c r="Y67" s="32">
         <v>65</v>
       </c>
-      <c r="Z67" s="36" t="s">
+      <c r="Z67" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="AA67" s="37"/>
-      <c r="AC67" s="35">
+      <c r="AA67" s="34"/>
+      <c r="AC67" s="32">
         <v>65</v>
       </c>
-      <c r="AD67" s="36" t="s">
+      <c r="AD67" s="33" t="s">
         <v>471</v>
       </c>
-      <c r="AE67" s="37"/>
-      <c r="AG67" s="35">
+      <c r="AE67" s="34"/>
+      <c r="AG67" s="32">
         <v>65</v>
       </c>
-      <c r="AH67" s="36" t="s">
+      <c r="AH67" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="AI67" s="37"/>
-      <c r="AK67" s="35">
+      <c r="AI67" s="34"/>
+      <c r="AK67" s="32">
         <v>65</v>
       </c>
-      <c r="AL67" s="36" t="s">
+      <c r="AL67" s="33" t="s">
         <v>472</v>
       </c>
-      <c r="AM67" s="37"/>
-      <c r="AO67" s="35">
+      <c r="AM67" s="34"/>
+      <c r="AO67" s="32">
         <v>65</v>
       </c>
       <c r="AP67" t="s">
         <v>302</v>
       </c>
-      <c r="AQ67" s="37"/>
+      <c r="AQ67" s="34"/>
     </row>
     <row r="68" spans="1:43">
-      <c r="A68" s="35">
+      <c r="A68" s="32">
         <v>66</v>
       </c>
-      <c r="B68" s="36" t="s">
+      <c r="B68" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="C68" s="37"/>
-      <c r="E68" s="35">
+      <c r="C68" s="34"/>
+      <c r="E68" s="32">
         <v>66</v>
       </c>
-      <c r="F68" s="36" t="s">
+      <c r="F68" s="33" t="s">
         <v>473</v>
       </c>
-      <c r="G68" s="37"/>
-      <c r="I68" s="35">
+      <c r="G68" s="34"/>
+      <c r="I68" s="32">
         <v>66</v>
       </c>
       <c r="J68" t="s">
         <v>254</v>
       </c>
-      <c r="K68" s="37"/>
-      <c r="M68" s="35">
+      <c r="K68" s="34"/>
+      <c r="M68" s="32">
         <v>66</v>
       </c>
       <c r="N68" t="s">
         <v>438</v>
       </c>
-      <c r="O68" s="37"/>
-      <c r="Q68" s="35">
+      <c r="O68" s="34"/>
+      <c r="Q68" s="32">
         <v>66</v>
       </c>
       <c r="R68" t="s">
         <v>474</v>
       </c>
-      <c r="S68" s="37"/>
-      <c r="U68" s="35">
+      <c r="S68" s="34"/>
+      <c r="U68" s="32">
         <v>66</v>
       </c>
-      <c r="V68" s="36" t="s">
+      <c r="V68" s="33" t="s">
         <v>201</v>
       </c>
-      <c r="W68" s="37"/>
-      <c r="Y68" s="35">
+      <c r="W68" s="34"/>
+      <c r="Y68" s="32">
         <v>66</v>
       </c>
-      <c r="Z68" s="36" t="s">
+      <c r="Z68" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="AA68" s="37"/>
-      <c r="AC68" s="35">
+      <c r="AA68" s="34"/>
+      <c r="AC68" s="32">
         <v>66</v>
       </c>
-      <c r="AD68" s="36" t="s">
+      <c r="AD68" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="AE68" s="37"/>
-      <c r="AG68" s="35">
+      <c r="AE68" s="34"/>
+      <c r="AG68" s="32">
         <v>66</v>
       </c>
-      <c r="AH68" s="36" t="s">
+      <c r="AH68" s="33" t="s">
         <v>475</v>
       </c>
-      <c r="AI68" s="37"/>
-      <c r="AK68" s="35">
+      <c r="AI68" s="34"/>
+      <c r="AK68" s="32">
         <v>66</v>
       </c>
-      <c r="AL68" s="36" t="s">
+      <c r="AL68" s="33" t="s">
         <v>476</v>
       </c>
-      <c r="AM68" s="37"/>
-      <c r="AO68" s="35">
+      <c r="AM68" s="34"/>
+      <c r="AO68" s="32">
         <v>66</v>
       </c>
       <c r="AP68" t="s">
         <v>254</v>
       </c>
-      <c r="AQ68" s="37"/>
+      <c r="AQ68" s="34"/>
     </row>
     <row r="69" spans="1:43">
-      <c r="A69" s="35">
+      <c r="A69" s="32">
         <v>67</v>
       </c>
-      <c r="B69" s="36" t="s">
+      <c r="B69" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="C69" s="37"/>
-      <c r="E69" s="35">
+      <c r="C69" s="34"/>
+      <c r="E69" s="32">
         <v>67</v>
       </c>
-      <c r="F69" s="36" t="s">
+      <c r="F69" s="33" t="s">
         <v>419</v>
       </c>
-      <c r="G69" s="37"/>
-      <c r="I69" s="35">
+      <c r="G69" s="34"/>
+      <c r="I69" s="32">
         <v>67</v>
       </c>
       <c r="J69" t="s">
         <v>53</v>
       </c>
-      <c r="K69" s="37"/>
-      <c r="M69" s="35">
+      <c r="K69" s="34"/>
+      <c r="M69" s="32">
         <v>67</v>
       </c>
       <c r="N69" t="s">
         <v>205</v>
       </c>
-      <c r="O69" s="37"/>
-      <c r="Q69" s="35">
+      <c r="O69" s="34"/>
+      <c r="Q69" s="32">
         <v>67</v>
       </c>
       <c r="R69" t="s">
         <v>477</v>
       </c>
-      <c r="S69" s="37"/>
-      <c r="U69" s="35">
+      <c r="S69" s="34"/>
+      <c r="U69" s="32">
         <v>67</v>
       </c>
-      <c r="V69" s="36" t="s">
+      <c r="V69" s="33" t="s">
         <v>478</v>
       </c>
-      <c r="W69" s="37"/>
-      <c r="Y69" s="35">
+      <c r="W69" s="34"/>
+      <c r="Y69" s="32">
         <v>67</v>
       </c>
-      <c r="Z69" s="36" t="s">
+      <c r="Z69" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="AA69" s="37"/>
-      <c r="AC69" s="35">
+      <c r="AA69" s="34"/>
+      <c r="AC69" s="32">
         <v>67</v>
       </c>
-      <c r="AD69" s="36" t="s">
+      <c r="AD69" s="33" t="s">
         <v>438</v>
       </c>
-      <c r="AE69" s="37"/>
-      <c r="AG69" s="35">
+      <c r="AE69" s="34"/>
+      <c r="AG69" s="32">
         <v>67</v>
       </c>
-      <c r="AH69" s="36" t="s">
+      <c r="AH69" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="AI69" s="37"/>
-      <c r="AK69" s="35">
+      <c r="AI69" s="34"/>
+      <c r="AK69" s="32">
         <v>67</v>
       </c>
-      <c r="AL69" s="36" t="s">
+      <c r="AL69" s="33" t="s">
         <v>479</v>
       </c>
-      <c r="AM69" s="37"/>
-      <c r="AO69" s="35">
+      <c r="AM69" s="34"/>
+      <c r="AO69" s="32">
         <v>67</v>
       </c>
       <c r="AP69" t="s">
         <v>425</v>
       </c>
-      <c r="AQ69" s="37"/>
+      <c r="AQ69" s="34"/>
     </row>
     <row r="70" spans="1:43">
-      <c r="A70" s="58">
+      <c r="A70" s="59">
         <v>68</v>
       </c>
-      <c r="B70" s="59" t="s">
+      <c r="B70" s="60" t="s">
         <v>205</v>
       </c>
-      <c r="C70" s="60"/>
-      <c r="E70" s="58">
+      <c r="C70" s="61"/>
+      <c r="E70" s="59">
         <v>68</v>
       </c>
-      <c r="F70" s="59" t="s">
+      <c r="F70" s="60" t="s">
         <v>346</v>
       </c>
-      <c r="G70" s="60"/>
-      <c r="I70" s="58">
+      <c r="G70" s="61"/>
+      <c r="I70" s="59">
         <v>68</v>
       </c>
       <c r="J70" t="s">
         <v>350</v>
       </c>
-      <c r="K70" s="60"/>
-      <c r="M70" s="58">
+      <c r="K70" s="61"/>
+      <c r="M70" s="59">
         <v>68</v>
       </c>
-      <c r="N70" s="59" t="s">
+      <c r="N70" s="60" t="s">
         <v>439</v>
       </c>
-      <c r="O70" s="60"/>
-      <c r="Q70" s="58">
+      <c r="O70" s="61"/>
+      <c r="Q70" s="59">
         <v>68</v>
       </c>
-      <c r="R70" s="59" t="s">
+      <c r="R70" s="60" t="s">
         <v>439</v>
       </c>
-      <c r="S70" s="60"/>
-      <c r="U70" s="58">
+      <c r="S70" s="61"/>
+      <c r="U70" s="59">
         <v>68</v>
       </c>
-      <c r="V70" s="59" t="s">
+      <c r="V70" s="60" t="s">
         <v>356</v>
       </c>
-      <c r="W70" s="60"/>
-      <c r="Y70" s="58">
+      <c r="W70" s="61"/>
+      <c r="Y70" s="59">
         <v>68</v>
       </c>
-      <c r="Z70" s="59" t="s">
+      <c r="Z70" s="60" t="s">
         <v>480</v>
       </c>
-      <c r="AA70" s="60"/>
-      <c r="AC70" s="58">
+      <c r="AA70" s="61"/>
+      <c r="AC70" s="59">
         <v>68</v>
       </c>
-      <c r="AD70" s="59" t="s">
+      <c r="AD70" s="60" t="s">
         <v>481</v>
       </c>
-      <c r="AE70" s="60"/>
-      <c r="AG70" s="58">
+      <c r="AE70" s="61"/>
+      <c r="AG70" s="59">
         <v>68</v>
       </c>
-      <c r="AH70" s="59" t="s">
+      <c r="AH70" s="60" t="s">
         <v>350</v>
       </c>
-      <c r="AI70" s="60"/>
-      <c r="AK70" s="58">
+      <c r="AI70" s="61"/>
+      <c r="AK70" s="59">
         <v>68</v>
       </c>
-      <c r="AL70" s="59" t="s">
+      <c r="AL70" s="60" t="s">
         <v>482</v>
       </c>
-      <c r="AM70" s="60"/>
-      <c r="AO70" s="58">
+      <c r="AM70" s="61"/>
+      <c r="AO70" s="59">
         <v>68</v>
       </c>
-      <c r="AP70" s="59" t="s">
+      <c r="AP70" s="60" t="s">
         <v>483</v>
       </c>
-      <c r="AQ70" s="60"/>
+      <c r="AQ70" s="61"/>
     </row>
     <row r="71" spans="1:44">
       <c r="A71" t="s">
@@ -12793,38 +12802,38 @@
       </c>
     </row>
     <row r="82" ht="15" customHeight="1" spans="10:15">
-      <c r="J82" s="61" t="s">
+      <c r="J82" s="62" t="s">
         <v>485</v>
       </c>
-      <c r="K82" s="84">
+      <c r="K82" s="86">
         <f>SUM(C71,G71,K71,O71,S71,W71,AA71,AE71,AI71,AM71,AQ71)</f>
         <v>-390257</v>
       </c>
-      <c r="N82" s="63" t="s">
+      <c r="N82" s="64" t="s">
         <v>486</v>
       </c>
-      <c r="O82" s="63">
+      <c r="O82" s="64">
         <f>SUM(D71,H71,L71,P71,T71,X71,AB71,AF71,AJ71,AN71,AR71)</f>
         <v>-38524</v>
       </c>
     </row>
     <row r="83" spans="10:15">
-      <c r="J83" s="65"/>
-      <c r="K83" s="84"/>
-      <c r="N83" s="63"/>
-      <c r="O83" s="63"/>
+      <c r="J83" s="66"/>
+      <c r="K83" s="86"/>
+      <c r="N83" s="64"/>
+      <c r="O83" s="64"/>
     </row>
     <row r="84" spans="10:15">
-      <c r="J84" s="65"/>
-      <c r="K84" s="84"/>
-      <c r="N84" s="63"/>
-      <c r="O84" s="63"/>
+      <c r="J84" s="66"/>
+      <c r="K84" s="86"/>
+      <c r="N84" s="64"/>
+      <c r="O84" s="64"/>
     </row>
     <row r="85" spans="10:15">
-      <c r="J85" s="68"/>
-      <c r="K85" s="84"/>
-      <c r="N85" s="63"/>
-      <c r="O85" s="63"/>
+      <c r="J85" s="69"/>
+      <c r="K85" s="86"/>
+      <c r="N85" s="64"/>
+      <c r="O85" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -12855,8 +12864,8 @@
   <sheetPr/>
   <dimension ref="A1:AV89"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="I59" sqref="I59:K59"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="AD31" workbookViewId="0">
+      <selection activeCell="AV53" sqref="AV53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -13931,7 +13940,7 @@
       <c r="K10" s="13">
         <v>-75</v>
       </c>
-      <c r="M10" s="38">
+      <c r="M10" s="35">
         <v>8</v>
       </c>
       <c r="N10" s="12" t="s">
@@ -13940,7 +13949,7 @@
       <c r="O10" s="13">
         <v>-75</v>
       </c>
-      <c r="Q10" s="38">
+      <c r="Q10" s="35">
         <v>8</v>
       </c>
       <c r="R10" s="12" t="s">
@@ -13958,7 +13967,7 @@
       <c r="W10" s="13">
         <v>-112</v>
       </c>
-      <c r="Y10" s="38">
+      <c r="Y10" s="35">
         <v>8</v>
       </c>
       <c r="Z10" s="12" t="s">
@@ -16626,67 +16635,67 @@
         <f>278+SUM(G30:G32)</f>
         <v>78</v>
       </c>
-      <c r="I32" s="39">
+      <c r="I32" s="36">
         <v>30</v>
       </c>
-      <c r="J32" s="40" t="s">
+      <c r="J32" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="K32" s="41">
+      <c r="K32" s="38">
         <v>-75</v>
       </c>
-      <c r="M32" s="39">
+      <c r="M32" s="36">
         <v>30</v>
       </c>
-      <c r="N32" s="40" t="s">
+      <c r="N32" s="37" t="s">
         <v>630</v>
       </c>
-      <c r="O32" s="41">
+      <c r="O32" s="38">
         <v>-75</v>
       </c>
-      <c r="Q32" s="39">
+      <c r="Q32" s="36">
         <v>30</v>
       </c>
-      <c r="R32" s="40" t="s">
+      <c r="R32" s="37" t="s">
         <v>567</v>
       </c>
-      <c r="S32" s="41">
+      <c r="S32" s="38">
         <v>-550</v>
       </c>
-      <c r="U32" s="39">
+      <c r="U32" s="36">
         <v>30</v>
       </c>
-      <c r="V32" s="40" t="s">
+      <c r="V32" s="37" t="s">
         <v>622</v>
       </c>
-      <c r="W32" s="41">
-        <v>-60</v>
-      </c>
-      <c r="Y32" s="39">
+      <c r="W32" s="38">
+        <v>-60</v>
+      </c>
+      <c r="Y32" s="36">
         <v>30</v>
       </c>
-      <c r="Z32" s="40" t="s">
+      <c r="Z32" s="37" t="s">
         <v>631</v>
       </c>
-      <c r="AA32" s="41">
+      <c r="AA32" s="38">
         <v>-215</v>
       </c>
-      <c r="AC32" s="39">
+      <c r="AC32" s="36">
         <v>30</v>
       </c>
-      <c r="AD32" s="40" t="s">
+      <c r="AD32" s="37" t="s">
         <v>601</v>
       </c>
-      <c r="AE32" s="41">
+      <c r="AE32" s="38">
         <v>-112</v>
       </c>
-      <c r="AG32" s="39">
+      <c r="AG32" s="36">
         <v>30</v>
       </c>
-      <c r="AH32" s="40" t="s">
+      <c r="AH32" s="37" t="s">
         <v>567</v>
       </c>
-      <c r="AI32" s="41">
+      <c r="AI32" s="38">
         <v>-60</v>
       </c>
       <c r="AK32" s="49">
@@ -16698,22 +16707,22 @@
       <c r="AM32" s="51">
         <v>-298</v>
       </c>
-      <c r="AO32" s="39">
+      <c r="AO32" s="36">
         <v>30</v>
       </c>
-      <c r="AP32" s="40" t="s">
+      <c r="AP32" s="37" t="s">
         <v>267</v>
       </c>
-      <c r="AQ32" s="41">
+      <c r="AQ32" s="38">
         <v>-215</v>
       </c>
-      <c r="AS32" s="39">
+      <c r="AS32" s="36">
         <v>30</v>
       </c>
       <c r="AT32" s="18" t="s">
         <v>632</v>
       </c>
-      <c r="AU32" s="41">
+      <c r="AU32" s="38">
         <v>-60</v>
       </c>
     </row>
@@ -16740,13 +16749,13 @@
         <f>270+G33</f>
         <v>210</v>
       </c>
-      <c r="I33" s="42">
+      <c r="I33" s="39">
         <v>31</v>
       </c>
-      <c r="J33" s="43" t="s">
+      <c r="J33" s="40" t="s">
         <v>633</v>
       </c>
-      <c r="K33" s="44">
+      <c r="K33" s="41">
         <v>-90</v>
       </c>
       <c r="L33" s="17">
@@ -16789,13 +16798,13 @@
       <c r="AA33" s="24">
         <v>-298</v>
       </c>
-      <c r="AC33" s="42">
+      <c r="AC33" s="39">
         <v>31</v>
       </c>
-      <c r="AD33" s="43" t="s">
+      <c r="AD33" s="40" t="s">
         <v>276</v>
       </c>
-      <c r="AE33" s="44">
+      <c r="AE33" s="41">
         <v>-155</v>
       </c>
       <c r="AF33" s="17">
@@ -16820,19 +16829,19 @@
       <c r="AM33" s="51">
         <v>-385</v>
       </c>
-      <c r="AO33" s="39">
+      <c r="AO33" s="36">
         <v>31</v>
       </c>
-      <c r="AP33" s="40" t="s">
+      <c r="AP33" s="37" t="s">
         <v>553</v>
       </c>
-      <c r="AQ33" s="41">
+      <c r="AQ33" s="38">
         <v>-298</v>
       </c>
       <c r="AS33" s="22">
         <v>31</v>
       </c>
-      <c r="AT33" s="40" t="s">
+      <c r="AT33" s="37" t="s">
         <v>632</v>
       </c>
       <c r="AU33" s="24">
@@ -16859,13 +16868,13 @@
       <c r="G34" s="13">
         <v>-60</v>
       </c>
-      <c r="I34" s="42">
+      <c r="I34" s="39">
         <v>32</v>
       </c>
-      <c r="J34" s="43" t="s">
+      <c r="J34" s="40" t="s">
         <v>317</v>
       </c>
-      <c r="K34" s="44">
+      <c r="K34" s="41">
         <v>-60</v>
       </c>
       <c r="L34" s="17">
@@ -17036,13 +17045,13 @@
       <c r="AA35" s="24">
         <v>-60</v>
       </c>
-      <c r="AC35" s="39">
+      <c r="AC35" s="36">
         <v>33</v>
       </c>
-      <c r="AD35" s="40" t="s">
+      <c r="AD35" s="37" t="s">
         <v>639</v>
       </c>
-      <c r="AE35" s="41">
+      <c r="AE35" s="38">
         <v>-60</v>
       </c>
       <c r="AG35" s="14">
@@ -17614,13 +17623,13 @@
       <c r="G40" s="13">
         <v>-65</v>
       </c>
-      <c r="I40" s="42">
+      <c r="I40" s="39">
         <v>38</v>
       </c>
-      <c r="J40" s="43" t="s">
+      <c r="J40" s="40" t="s">
         <v>650</v>
       </c>
-      <c r="K40" s="44">
+      <c r="K40" s="41">
         <v>-155</v>
       </c>
       <c r="L40" s="17">
@@ -19065,7 +19074,7 @@
       <c r="AS51" s="22">
         <v>49</v>
       </c>
-      <c r="AT51" s="40" t="s">
+      <c r="AT51" s="37" t="s">
         <v>708</v>
       </c>
       <c r="AU51" s="24">
@@ -19302,11 +19311,9 @@
       <c r="AU53" s="13">
         <v>-750</v>
       </c>
-      <c r="AV53" s="12">
-        <v>-3.7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:48">
+      <c r="AV53" s="58"/>
+    </row>
+    <row r="54" spans="1:47">
       <c r="A54" s="18">
         <v>52</v>
       </c>
@@ -19423,10 +19430,6 @@
       <c r="AU54" s="13">
         <v>-900</v>
       </c>
-      <c r="AV54">
-        <f>AV53*AU58</f>
-        <v>12025</v>
-      </c>
     </row>
     <row r="55" spans="1:47">
       <c r="A55" s="18">
@@ -19675,9 +19678,7 @@
       <c r="C57" s="12">
         <v>-2500</v>
       </c>
-      <c r="D57" s="25">
-        <v>-4.4</v>
-      </c>
+      <c r="D57" s="25"/>
       <c r="E57" s="11">
         <v>55</v>
       </c>
@@ -19788,17 +19789,14 @@
       <c r="C58" s="12">
         <v>-2000</v>
       </c>
-      <c r="D58" s="25">
-        <f>C59*D57</f>
-        <v>8800</v>
-      </c>
-      <c r="E58" s="31">
+      <c r="D58" s="25"/>
+      <c r="E58" s="11">
         <v>56</v>
       </c>
-      <c r="F58" s="32" t="s">
+      <c r="F58" s="12" t="s">
         <v>570</v>
       </c>
-      <c r="G58" s="33">
+      <c r="G58" s="13">
         <v>-1550</v>
       </c>
       <c r="I58" s="11">
@@ -19810,23 +19808,27 @@
       <c r="K58" s="13">
         <v>-215</v>
       </c>
-      <c r="M58" s="31">
+      <c r="M58" s="11">
         <v>56</v>
       </c>
-      <c r="N58" s="34" t="s">
+      <c r="N58" s="18" t="s">
         <v>624</v>
       </c>
-      <c r="O58" s="33">
+      <c r="O58" s="13">
         <v>0</v>
       </c>
-      <c r="Q58" s="31">
+      <c r="Q58" s="14">
         <v>56</v>
       </c>
-      <c r="R58" s="34" t="s">
+      <c r="R58" s="17" t="s">
         <v>720</v>
       </c>
-      <c r="S58" s="33">
+      <c r="S58" s="16">
         <v>-600</v>
+      </c>
+      <c r="T58" s="17">
+        <f>2220+S58</f>
+        <v>1620</v>
       </c>
       <c r="U58" s="11">
         <v>56</v>
@@ -19868,13 +19870,15 @@
         <f>2600+SUM(AI56:AI58)</f>
         <v>1350</v>
       </c>
-      <c r="AK58" s="35">
+      <c r="AK58" s="11">
         <v>56</v>
       </c>
-      <c r="AL58" t="s">
+      <c r="AL58" s="18" t="s">
         <v>722</v>
       </c>
-      <c r="AM58" s="37"/>
+      <c r="AM58" s="13">
+        <v>0</v>
+      </c>
       <c r="AO58" s="14">
         <v>56</v>
       </c>
@@ -19888,58 +19892,55 @@
         <f>1162+SUM(AQ51:AQ58)</f>
         <v>92</v>
       </c>
-      <c r="AS58" s="31">
+      <c r="AS58" s="14">
         <v>56</v>
       </c>
-      <c r="AT58" s="34" t="s">
+      <c r="AT58" s="17" t="s">
         <v>673</v>
       </c>
-      <c r="AU58" s="33">
+      <c r="AU58" s="16">
         <v>-3250</v>
       </c>
-      <c r="AV58">
-        <f>AV54+SUM(AU50:AU58)</f>
-        <v>20</v>
+      <c r="AV58" s="17">
+        <f>12188+SUM(AU50:AU58)</f>
+        <v>183</v>
       </c>
     </row>
     <row r="59" spans="1:47">
-      <c r="A59" s="34">
+      <c r="A59" s="18">
         <v>57</v>
       </c>
-      <c r="B59" s="34" t="s">
+      <c r="B59" s="18" t="s">
         <v>624</v>
       </c>
-      <c r="C59" s="34">
+      <c r="C59" s="12">
         <v>-2000</v>
       </c>
-      <c r="D59" s="34">
-        <f>D58+SUM(C57:C59)</f>
-        <v>2300</v>
-      </c>
-      <c r="E59" s="35">
+      <c r="D59" s="31"/>
+      <c r="E59" s="32">
         <v>57</v>
       </c>
-      <c r="F59" s="36" t="s">
+      <c r="F59" s="33" t="s">
         <v>682</v>
       </c>
-      <c r="G59" s="37"/>
-      <c r="I59" s="31">
+      <c r="G59" s="34"/>
+      <c r="I59" s="42">
         <v>57</v>
       </c>
-      <c r="J59" s="34" t="s">
+      <c r="J59" s="43" t="s">
         <v>723</v>
       </c>
-      <c r="K59" s="33">
+      <c r="K59" s="44">
         <v>-298</v>
       </c>
-      <c r="M59" s="35">
+      <c r="M59" s="32">
         <v>57</v>
       </c>
       <c r="N59" t="s">
         <v>682</v>
       </c>
-      <c r="O59" s="37"/>
-      <c r="Q59" s="38">
+      <c r="O59" s="34"/>
+      <c r="Q59" s="35">
         <v>57</v>
       </c>
       <c r="R59" s="3" t="s">
@@ -19973,7 +19974,7 @@
       <c r="AE59" s="13">
         <v>0</v>
       </c>
-      <c r="AG59" s="38">
+      <c r="AG59" s="35">
         <v>57</v>
       </c>
       <c r="AH59" s="3" t="s">
@@ -19982,13 +19983,13 @@
       <c r="AI59" s="48">
         <v>0</v>
       </c>
-      <c r="AK59" s="35">
+      <c r="AK59" s="32">
         <v>57</v>
       </c>
       <c r="AL59" t="s">
         <v>724</v>
       </c>
-      <c r="AM59" s="37"/>
+      <c r="AM59" s="34"/>
       <c r="AO59" s="14">
         <v>57</v>
       </c>
@@ -20002,13 +20003,13 @@
         <f>2400+AQ59</f>
         <v>1800</v>
       </c>
-      <c r="AS59" s="35">
+      <c r="AS59" s="32">
         <v>57</v>
       </c>
       <c r="AT59" t="s">
         <v>673</v>
       </c>
-      <c r="AU59" s="37"/>
+      <c r="AU59" s="34"/>
     </row>
     <row r="60" spans="1:47">
       <c r="A60">
@@ -20018,28 +20019,28 @@
         <v>687</v>
       </c>
       <c r="D60" s="25"/>
-      <c r="E60" s="35">
+      <c r="E60" s="32">
         <v>58</v>
       </c>
-      <c r="F60" s="36" t="s">
+      <c r="F60" s="33" t="s">
         <v>592</v>
       </c>
-      <c r="G60" s="37"/>
-      <c r="I60" s="35">
+      <c r="G60" s="34"/>
+      <c r="I60" s="32">
         <v>58</v>
       </c>
       <c r="J60" t="s">
         <v>687</v>
       </c>
-      <c r="K60" s="37"/>
-      <c r="M60" s="35">
+      <c r="K60" s="34"/>
+      <c r="M60" s="32">
         <v>58</v>
       </c>
       <c r="N60" t="s">
         <v>725</v>
       </c>
-      <c r="O60" s="37"/>
-      <c r="Q60" s="38">
+      <c r="O60" s="34"/>
+      <c r="Q60" s="35">
         <v>58</v>
       </c>
       <c r="R60" s="3" t="s">
@@ -20059,39 +20060,39 @@
         <f>2054+SUM(W55:W60)</f>
         <v>476</v>
       </c>
-      <c r="Y60" s="31">
+      <c r="Y60" s="11">
         <v>58</v>
       </c>
-      <c r="Z60" s="34" t="s">
+      <c r="Z60" s="18" t="s">
         <v>724</v>
       </c>
-      <c r="AA60" s="33">
+      <c r="AA60" s="13">
         <v>-900</v>
       </c>
-      <c r="AC60" s="31">
+      <c r="AC60" s="42">
         <v>58</v>
       </c>
-      <c r="AD60" s="34" t="s">
+      <c r="AD60" s="43" t="s">
         <v>703</v>
       </c>
-      <c r="AE60" s="33">
+      <c r="AE60" s="44">
         <v>-600</v>
       </c>
-      <c r="AG60" s="38">
+      <c r="AG60" s="35">
         <v>58</v>
       </c>
       <c r="AH60" s="3" t="s">
         <v>583</v>
       </c>
       <c r="AI60" s="48"/>
-      <c r="AK60" s="35">
+      <c r="AK60" s="32">
         <v>58</v>
       </c>
       <c r="AL60" t="s">
         <v>519</v>
       </c>
-      <c r="AM60" s="37"/>
-      <c r="AO60" s="38">
+      <c r="AM60" s="34"/>
+      <c r="AO60" s="35">
         <v>58</v>
       </c>
       <c r="AP60" s="3" t="s">
@@ -20100,13 +20101,13 @@
       <c r="AQ60" s="48">
         <v>-600</v>
       </c>
-      <c r="AS60" s="35">
+      <c r="AS60" s="32">
         <v>58</v>
       </c>
       <c r="AT60" t="s">
         <v>727</v>
       </c>
-      <c r="AU60" s="37"/>
+      <c r="AU60" s="34"/>
     </row>
     <row r="61" spans="1:47">
       <c r="A61">
@@ -20116,83 +20117,83 @@
         <v>709</v>
       </c>
       <c r="D61" s="25"/>
-      <c r="E61" s="35">
+      <c r="E61" s="32">
         <v>59</v>
       </c>
-      <c r="F61" s="36" t="s">
+      <c r="F61" s="33" t="s">
         <v>728</v>
       </c>
-      <c r="G61" s="37"/>
-      <c r="I61" s="35">
+      <c r="G61" s="34"/>
+      <c r="I61" s="32">
         <v>59</v>
       </c>
       <c r="J61" t="s">
         <v>519</v>
       </c>
-      <c r="K61" s="37"/>
-      <c r="M61" s="35">
+      <c r="K61" s="34"/>
+      <c r="M61" s="32">
         <v>59</v>
       </c>
       <c r="N61" t="s">
         <v>725</v>
       </c>
-      <c r="O61" s="37"/>
-      <c r="Q61" s="38">
+      <c r="O61" s="34"/>
+      <c r="Q61" s="35">
         <v>59</v>
       </c>
       <c r="R61" s="3" t="s">
         <v>729</v>
       </c>
       <c r="S61" s="48"/>
-      <c r="U61" s="35">
+      <c r="U61" s="32">
         <v>59</v>
       </c>
       <c r="V61" t="s">
         <v>535</v>
       </c>
-      <c r="W61" s="37"/>
-      <c r="Y61" s="35">
+      <c r="W61" s="34"/>
+      <c r="Y61" s="32">
         <v>59</v>
       </c>
       <c r="Z61" t="s">
         <v>724</v>
       </c>
-      <c r="AA61" s="37"/>
-      <c r="AC61" s="35">
+      <c r="AA61" s="34"/>
+      <c r="AC61" s="32">
         <v>59</v>
       </c>
       <c r="AD61" t="s">
         <v>703</v>
       </c>
-      <c r="AE61" s="37"/>
-      <c r="AG61" s="38">
+      <c r="AE61" s="34"/>
+      <c r="AG61" s="35">
         <v>59</v>
       </c>
       <c r="AH61" s="3" t="s">
         <v>498</v>
       </c>
       <c r="AI61" s="48"/>
-      <c r="AK61" s="35">
+      <c r="AK61" s="32">
         <v>59</v>
       </c>
       <c r="AL61" t="s">
         <v>725</v>
       </c>
-      <c r="AM61" s="37"/>
-      <c r="AO61" s="38">
+      <c r="AM61" s="34"/>
+      <c r="AO61" s="35">
         <v>59</v>
       </c>
       <c r="AP61" s="3" t="s">
         <v>585</v>
       </c>
       <c r="AQ61" s="48"/>
-      <c r="AS61" s="35">
+      <c r="AS61" s="32">
         <v>59</v>
       </c>
       <c r="AT61" t="s">
         <v>443</v>
       </c>
-      <c r="AU61" s="37"/>
+      <c r="AU61" s="34"/>
     </row>
     <row r="62" spans="1:47">
       <c r="A62">
@@ -20202,83 +20203,83 @@
         <v>591</v>
       </c>
       <c r="D62" s="25"/>
-      <c r="E62" s="35">
+      <c r="E62" s="32">
         <v>60</v>
       </c>
-      <c r="F62" s="36" t="s">
+      <c r="F62" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="G62" s="37"/>
-      <c r="I62" s="35">
+      <c r="G62" s="34"/>
+      <c r="I62" s="32">
         <v>60</v>
       </c>
       <c r="J62" t="s">
         <v>593</v>
       </c>
-      <c r="K62" s="37"/>
-      <c r="M62" s="35">
+      <c r="K62" s="34"/>
+      <c r="M62" s="32">
         <v>60</v>
       </c>
       <c r="N62" t="s">
         <v>453</v>
       </c>
-      <c r="O62" s="37"/>
-      <c r="Q62" s="38">
+      <c r="O62" s="34"/>
+      <c r="Q62" s="35">
         <v>60</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>445</v>
       </c>
       <c r="S62" s="48"/>
-      <c r="U62" s="35">
+      <c r="U62" s="32">
         <v>60</v>
       </c>
       <c r="V62" t="s">
         <v>446</v>
       </c>
-      <c r="W62" s="37"/>
-      <c r="Y62" s="35">
+      <c r="W62" s="34"/>
+      <c r="Y62" s="32">
         <v>60</v>
       </c>
       <c r="Z62" t="s">
         <v>592</v>
       </c>
-      <c r="AA62" s="37"/>
-      <c r="AC62" s="35">
+      <c r="AA62" s="34"/>
+      <c r="AC62" s="32">
         <v>60</v>
       </c>
       <c r="AD62" t="s">
         <v>651</v>
       </c>
-      <c r="AE62" s="37"/>
-      <c r="AG62" s="38">
+      <c r="AE62" s="34"/>
+      <c r="AG62" s="35">
         <v>60</v>
       </c>
       <c r="AH62" s="3" t="s">
         <v>452</v>
       </c>
       <c r="AI62" s="48"/>
-      <c r="AK62" s="35">
+      <c r="AK62" s="32">
         <v>60</v>
       </c>
       <c r="AL62" t="s">
         <v>725</v>
       </c>
-      <c r="AM62" s="37"/>
-      <c r="AO62" s="38">
+      <c r="AM62" s="34"/>
+      <c r="AO62" s="35">
         <v>60</v>
       </c>
       <c r="AP62" s="3" t="s">
         <v>585</v>
       </c>
       <c r="AQ62" s="48"/>
-      <c r="AS62" s="35">
+      <c r="AS62" s="32">
         <v>60</v>
       </c>
       <c r="AT62" t="s">
         <v>712</v>
       </c>
-      <c r="AU62" s="37"/>
+      <c r="AU62" s="34"/>
     </row>
     <row r="63" spans="1:47">
       <c r="A63">
@@ -20287,83 +20288,83 @@
       <c r="B63" t="s">
         <v>498</v>
       </c>
-      <c r="E63" s="35">
+      <c r="E63" s="32">
         <v>61</v>
       </c>
-      <c r="F63" s="36" t="s">
+      <c r="F63" s="33" t="s">
         <v>493</v>
       </c>
-      <c r="G63" s="37"/>
-      <c r="I63" s="35">
+      <c r="G63" s="34"/>
+      <c r="I63" s="32">
         <v>61</v>
       </c>
       <c r="J63" t="s">
         <v>451</v>
       </c>
-      <c r="K63" s="37"/>
-      <c r="M63" s="35">
+      <c r="K63" s="34"/>
+      <c r="M63" s="32">
         <v>61</v>
       </c>
       <c r="N63" t="s">
         <v>457</v>
       </c>
-      <c r="O63" s="37"/>
-      <c r="Q63" s="38">
+      <c r="O63" s="34"/>
+      <c r="Q63" s="35">
         <v>61</v>
       </c>
       <c r="R63" s="3" t="s">
         <v>520</v>
       </c>
       <c r="S63" s="48"/>
-      <c r="U63" s="35">
+      <c r="U63" s="32">
         <v>61</v>
       </c>
       <c r="V63" t="s">
         <v>442</v>
       </c>
-      <c r="W63" s="37"/>
-      <c r="Y63" s="35">
+      <c r="W63" s="34"/>
+      <c r="Y63" s="32">
         <v>61</v>
       </c>
       <c r="Z63" t="s">
         <v>712</v>
       </c>
-      <c r="AA63" s="37"/>
-      <c r="AC63" s="35">
+      <c r="AA63" s="34"/>
+      <c r="AC63" s="32">
         <v>61</v>
       </c>
       <c r="AD63" t="s">
         <v>585</v>
       </c>
-      <c r="AE63" s="37"/>
-      <c r="AG63" s="38">
+      <c r="AE63" s="34"/>
+      <c r="AG63" s="35">
         <v>61</v>
       </c>
       <c r="AH63" s="3" t="s">
         <v>498</v>
       </c>
       <c r="AI63" s="48"/>
-      <c r="AK63" s="35">
+      <c r="AK63" s="32">
         <v>61</v>
       </c>
       <c r="AL63" t="s">
         <v>515</v>
       </c>
-      <c r="AM63" s="37"/>
-      <c r="AO63" s="38">
+      <c r="AM63" s="34"/>
+      <c r="AO63" s="35">
         <v>61</v>
       </c>
       <c r="AP63" s="3" t="s">
         <v>649</v>
       </c>
       <c r="AQ63" s="48"/>
-      <c r="AS63" s="35">
+      <c r="AS63" s="32">
         <v>61</v>
       </c>
       <c r="AT63" t="s">
         <v>730</v>
       </c>
-      <c r="AU63" s="37"/>
+      <c r="AU63" s="34"/>
     </row>
     <row r="64" spans="1:47">
       <c r="A64">
@@ -20372,83 +20373,83 @@
       <c r="B64" t="s">
         <v>525</v>
       </c>
-      <c r="E64" s="35">
+      <c r="E64" s="32">
         <v>62</v>
       </c>
-      <c r="F64" s="36" t="s">
+      <c r="F64" s="33" t="s">
         <v>644</v>
       </c>
-      <c r="G64" s="37"/>
-      <c r="I64" s="35">
+      <c r="G64" s="34"/>
+      <c r="I64" s="32">
         <v>62</v>
       </c>
       <c r="J64" t="s">
         <v>612</v>
       </c>
-      <c r="K64" s="37"/>
-      <c r="M64" s="35">
+      <c r="K64" s="34"/>
+      <c r="M64" s="32">
         <v>62</v>
       </c>
       <c r="N64" t="s">
         <v>731</v>
       </c>
-      <c r="O64" s="37"/>
-      <c r="Q64" s="38">
+      <c r="O64" s="34"/>
+      <c r="Q64" s="35">
         <v>62</v>
       </c>
       <c r="R64" s="3" t="s">
         <v>644</v>
       </c>
       <c r="S64" s="48"/>
-      <c r="U64" s="35">
+      <c r="U64" s="32">
         <v>62</v>
       </c>
       <c r="V64" t="s">
         <v>449</v>
       </c>
-      <c r="W64" s="37"/>
-      <c r="Y64" s="35">
+      <c r="W64" s="34"/>
+      <c r="Y64" s="32">
         <v>62</v>
       </c>
       <c r="Z64" t="s">
         <v>732</v>
       </c>
-      <c r="AA64" s="37"/>
-      <c r="AC64" s="35">
+      <c r="AA64" s="34"/>
+      <c r="AC64" s="32">
         <v>62</v>
       </c>
       <c r="AD64" t="s">
         <v>515</v>
       </c>
-      <c r="AE64" s="37"/>
-      <c r="AG64" s="38">
+      <c r="AE64" s="34"/>
+      <c r="AG64" s="35">
         <v>62</v>
       </c>
       <c r="AH64" s="3" t="s">
         <v>733</v>
       </c>
       <c r="AI64" s="48"/>
-      <c r="AK64" s="35">
+      <c r="AK64" s="32">
         <v>62</v>
       </c>
       <c r="AL64" t="s">
         <v>733</v>
       </c>
-      <c r="AM64" s="37"/>
-      <c r="AO64" s="35">
+      <c r="AM64" s="34"/>
+      <c r="AO64" s="32">
         <v>62</v>
       </c>
       <c r="AP64" t="s">
         <v>460</v>
       </c>
-      <c r="AQ64" s="37"/>
-      <c r="AS64" s="35">
+      <c r="AQ64" s="34"/>
+      <c r="AS64" s="32">
         <v>62</v>
       </c>
       <c r="AT64" t="s">
         <v>528</v>
       </c>
-      <c r="AU64" s="37"/>
+      <c r="AU64" s="34"/>
     </row>
     <row r="65" spans="1:47">
       <c r="A65">
@@ -20457,83 +20458,83 @@
       <c r="B65" t="s">
         <v>663</v>
       </c>
-      <c r="E65" s="35">
+      <c r="E65" s="32">
         <v>63</v>
       </c>
-      <c r="F65" s="36" t="s">
+      <c r="F65" s="33" t="s">
         <v>556</v>
       </c>
-      <c r="G65" s="37"/>
-      <c r="I65" s="35">
+      <c r="G65" s="34"/>
+      <c r="I65" s="32">
         <v>63</v>
       </c>
       <c r="J65" t="s">
         <v>493</v>
       </c>
-      <c r="K65" s="37"/>
-      <c r="M65" s="35">
+      <c r="K65" s="34"/>
+      <c r="M65" s="32">
         <v>63</v>
       </c>
       <c r="N65" t="s">
         <v>731</v>
       </c>
-      <c r="O65" s="37"/>
-      <c r="Q65" s="38">
+      <c r="O65" s="34"/>
+      <c r="Q65" s="35">
         <v>63</v>
       </c>
       <c r="R65" s="3" t="s">
         <v>466</v>
       </c>
       <c r="S65" s="48"/>
-      <c r="U65" s="35">
+      <c r="U65" s="32">
         <v>63</v>
       </c>
       <c r="V65" t="s">
         <v>734</v>
       </c>
-      <c r="W65" s="37"/>
-      <c r="Y65" s="35">
+      <c r="W65" s="34"/>
+      <c r="Y65" s="32">
         <v>63</v>
       </c>
       <c r="Z65" t="s">
         <v>689</v>
       </c>
-      <c r="AA65" s="37"/>
-      <c r="AC65" s="35">
+      <c r="AA65" s="34"/>
+      <c r="AC65" s="32">
         <v>63</v>
       </c>
       <c r="AD65" t="s">
         <v>735</v>
       </c>
-      <c r="AE65" s="37"/>
-      <c r="AG65" s="38">
+      <c r="AE65" s="34"/>
+      <c r="AG65" s="35">
         <v>63</v>
       </c>
       <c r="AH65" s="3" t="s">
         <v>733</v>
       </c>
       <c r="AI65" s="48"/>
-      <c r="AK65" s="35">
+      <c r="AK65" s="32">
         <v>63</v>
       </c>
       <c r="AL65" t="s">
         <v>736</v>
       </c>
-      <c r="AM65" s="37"/>
-      <c r="AO65" s="35">
+      <c r="AM65" s="34"/>
+      <c r="AO65" s="32">
         <v>63</v>
       </c>
       <c r="AP65" t="s">
         <v>663</v>
       </c>
-      <c r="AQ65" s="37"/>
-      <c r="AS65" s="35">
+      <c r="AQ65" s="34"/>
+      <c r="AS65" s="32">
         <v>63</v>
       </c>
       <c r="AT65" t="s">
         <v>528</v>
       </c>
-      <c r="AU65" s="37"/>
+      <c r="AU65" s="34"/>
     </row>
     <row r="66" spans="1:47">
       <c r="A66">
@@ -20542,83 +20543,83 @@
       <c r="B66" t="s">
         <v>689</v>
       </c>
-      <c r="E66" s="35">
+      <c r="E66" s="32">
         <v>64</v>
       </c>
-      <c r="F66" s="36" t="s">
+      <c r="F66" s="33" t="s">
         <v>737</v>
       </c>
-      <c r="G66" s="37"/>
-      <c r="I66" s="35">
+      <c r="G66" s="34"/>
+      <c r="I66" s="32">
         <v>64</v>
       </c>
       <c r="J66" t="s">
         <v>649</v>
       </c>
-      <c r="K66" s="37"/>
-      <c r="M66" s="35">
+      <c r="K66" s="34"/>
+      <c r="M66" s="32">
         <v>64</v>
       </c>
       <c r="N66" t="s">
         <v>738</v>
       </c>
-      <c r="O66" s="37"/>
-      <c r="Q66" s="38">
+      <c r="O66" s="34"/>
+      <c r="Q66" s="35">
         <v>64</v>
       </c>
       <c r="R66" s="3" t="s">
         <v>472</v>
       </c>
       <c r="S66" s="48"/>
-      <c r="U66" s="35">
+      <c r="U66" s="32">
         <v>64</v>
       </c>
       <c r="V66" t="s">
         <v>556</v>
       </c>
-      <c r="W66" s="37"/>
-      <c r="Y66" s="35">
+      <c r="W66" s="34"/>
+      <c r="Y66" s="32">
         <v>64</v>
       </c>
       <c r="Z66" t="s">
         <v>574</v>
       </c>
-      <c r="AA66" s="37"/>
-      <c r="AC66" s="35">
+      <c r="AA66" s="34"/>
+      <c r="AC66" s="32">
         <v>64</v>
       </c>
       <c r="AD66" t="s">
         <v>462</v>
       </c>
-      <c r="AE66" s="37"/>
-      <c r="AG66" s="38">
+      <c r="AE66" s="34"/>
+      <c r="AG66" s="35">
         <v>64</v>
       </c>
       <c r="AH66" s="3" t="s">
         <v>739</v>
       </c>
       <c r="AI66" s="48"/>
-      <c r="AK66" s="35">
+      <c r="AK66" s="32">
         <v>64</v>
       </c>
       <c r="AL66" t="s">
         <v>738</v>
       </c>
-      <c r="AM66" s="37"/>
-      <c r="AO66" s="35">
+      <c r="AM66" s="34"/>
+      <c r="AO66" s="32">
         <v>64</v>
       </c>
       <c r="AP66" t="s">
         <v>649</v>
       </c>
-      <c r="AQ66" s="37"/>
-      <c r="AS66" s="35">
+      <c r="AQ66" s="34"/>
+      <c r="AS66" s="32">
         <v>64</v>
       </c>
       <c r="AT66" t="s">
         <v>606</v>
       </c>
-      <c r="AU66" s="37"/>
+      <c r="AU66" s="34"/>
     </row>
     <row r="67" spans="1:47">
       <c r="A67">
@@ -20627,83 +20628,83 @@
       <c r="B67" t="s">
         <v>468</v>
       </c>
-      <c r="E67" s="35">
+      <c r="E67" s="32">
         <v>65</v>
       </c>
-      <c r="F67" s="36" t="s">
+      <c r="F67" s="33" t="s">
         <v>499</v>
       </c>
-      <c r="G67" s="37"/>
-      <c r="I67" s="35">
+      <c r="G67" s="34"/>
+      <c r="I67" s="32">
         <v>65</v>
       </c>
       <c r="J67" t="s">
         <v>666</v>
       </c>
-      <c r="K67" s="37"/>
-      <c r="M67" s="35">
+      <c r="K67" s="34"/>
+      <c r="M67" s="32">
         <v>65</v>
       </c>
       <c r="N67" t="s">
         <v>738</v>
       </c>
-      <c r="O67" s="37"/>
-      <c r="Q67" s="38">
+      <c r="O67" s="34"/>
+      <c r="Q67" s="35">
         <v>65</v>
       </c>
       <c r="R67" s="3" t="s">
         <v>740</v>
       </c>
       <c r="S67" s="48"/>
-      <c r="U67" s="35">
+      <c r="U67" s="32">
         <v>65</v>
       </c>
       <c r="V67" t="s">
         <v>741</v>
       </c>
-      <c r="W67" s="37"/>
-      <c r="Y67" s="35">
+      <c r="W67" s="34"/>
+      <c r="Y67" s="32">
         <v>65</v>
       </c>
       <c r="Z67" t="s">
         <v>631</v>
       </c>
-      <c r="AA67" s="37"/>
-      <c r="AC67" s="35">
+      <c r="AA67" s="34"/>
+      <c r="AC67" s="32">
         <v>65</v>
       </c>
       <c r="AD67" t="s">
         <v>666</v>
       </c>
-      <c r="AE67" s="37"/>
-      <c r="AG67" s="38">
+      <c r="AE67" s="34"/>
+      <c r="AG67" s="35">
         <v>65</v>
       </c>
       <c r="AH67" s="3" t="s">
         <v>739</v>
       </c>
       <c r="AI67" s="48"/>
-      <c r="AK67" s="35">
+      <c r="AK67" s="32">
         <v>65</v>
       </c>
       <c r="AL67" t="s">
         <v>738</v>
       </c>
-      <c r="AM67" s="37"/>
-      <c r="AO67" s="35">
+      <c r="AM67" s="34"/>
+      <c r="AO67" s="32">
         <v>65</v>
       </c>
       <c r="AP67" t="s">
         <v>742</v>
       </c>
-      <c r="AQ67" s="37"/>
-      <c r="AS67" s="35">
+      <c r="AQ67" s="34"/>
+      <c r="AS67" s="32">
         <v>65</v>
       </c>
       <c r="AT67" t="s">
         <v>606</v>
       </c>
-      <c r="AU67" s="37"/>
+      <c r="AU67" s="34"/>
     </row>
     <row r="68" spans="1:47">
       <c r="A68">
@@ -20712,83 +20713,83 @@
       <c r="B68" t="s">
         <v>628</v>
       </c>
-      <c r="E68" s="35">
+      <c r="E68" s="32">
         <v>66</v>
       </c>
-      <c r="F68" s="36" t="s">
+      <c r="F68" s="33" t="s">
         <v>743</v>
       </c>
-      <c r="G68" s="37"/>
-      <c r="I68" s="35">
+      <c r="G68" s="34"/>
+      <c r="I68" s="32">
         <v>66</v>
       </c>
       <c r="J68" t="s">
         <v>473</v>
       </c>
-      <c r="K68" s="37"/>
-      <c r="M68" s="35">
+      <c r="K68" s="34"/>
+      <c r="M68" s="32">
         <v>66</v>
       </c>
       <c r="N68" t="s">
         <v>713</v>
       </c>
-      <c r="O68" s="37"/>
-      <c r="Q68" s="38">
+      <c r="O68" s="34"/>
+      <c r="Q68" s="35">
         <v>66</v>
       </c>
       <c r="R68" s="3" t="s">
         <v>674</v>
       </c>
       <c r="S68" s="48"/>
-      <c r="U68" s="35">
+      <c r="U68" s="32">
         <v>66</v>
       </c>
       <c r="V68" t="s">
         <v>509</v>
       </c>
-      <c r="W68" s="37"/>
-      <c r="Y68" s="35">
+      <c r="W68" s="34"/>
+      <c r="Y68" s="32">
         <v>66</v>
       </c>
       <c r="Z68" t="s">
         <v>679</v>
       </c>
-      <c r="AA68" s="37"/>
-      <c r="AC68" s="35">
+      <c r="AA68" s="34"/>
+      <c r="AC68" s="32">
         <v>66</v>
       </c>
       <c r="AD68" t="s">
         <v>691</v>
       </c>
-      <c r="AE68" s="37"/>
-      <c r="AG68" s="35">
+      <c r="AE68" s="34"/>
+      <c r="AG68" s="32">
         <v>66</v>
       </c>
       <c r="AH68" t="s">
         <v>73</v>
       </c>
-      <c r="AI68" s="37"/>
-      <c r="AK68" s="35">
+      <c r="AI68" s="34"/>
+      <c r="AK68" s="32">
         <v>66</v>
       </c>
       <c r="AL68" t="s">
         <v>679</v>
       </c>
-      <c r="AM68" s="37"/>
-      <c r="AO68" s="35">
+      <c r="AM68" s="34"/>
+      <c r="AO68" s="32">
         <v>66</v>
       </c>
       <c r="AP68" t="s">
         <v>475</v>
       </c>
-      <c r="AQ68" s="37"/>
-      <c r="AS68" s="35">
+      <c r="AQ68" s="34"/>
+      <c r="AS68" s="32">
         <v>66</v>
       </c>
       <c r="AT68" t="s">
         <v>673</v>
       </c>
-      <c r="AU68" s="37"/>
+      <c r="AU68" s="34"/>
     </row>
     <row r="69" spans="1:47">
       <c r="A69">
@@ -20797,83 +20798,83 @@
       <c r="B69" t="s">
         <v>476</v>
       </c>
-      <c r="E69" s="35">
+      <c r="E69" s="32">
         <v>67</v>
       </c>
-      <c r="F69" s="36" t="s">
+      <c r="F69" s="33" t="s">
         <v>637</v>
       </c>
-      <c r="G69" s="37"/>
-      <c r="I69" s="35">
+      <c r="G69" s="34"/>
+      <c r="I69" s="32">
         <v>67</v>
       </c>
       <c r="J69" t="s">
         <v>615</v>
       </c>
-      <c r="K69" s="37"/>
-      <c r="M69" s="35">
+      <c r="K69" s="34"/>
+      <c r="M69" s="32">
         <v>67</v>
       </c>
       <c r="N69" t="s">
         <v>710</v>
       </c>
-      <c r="O69" s="37"/>
-      <c r="Q69" s="35">
+      <c r="O69" s="34"/>
+      <c r="Q69" s="32">
         <v>67</v>
       </c>
       <c r="R69" t="s">
         <v>615</v>
       </c>
-      <c r="S69" s="37"/>
-      <c r="U69" s="35">
+      <c r="S69" s="34"/>
+      <c r="U69" s="32">
         <v>67</v>
       </c>
       <c r="V69" t="s">
         <v>713</v>
       </c>
-      <c r="W69" s="37"/>
-      <c r="Y69" s="35">
+      <c r="W69" s="34"/>
+      <c r="Y69" s="32">
         <v>67</v>
       </c>
       <c r="Z69" t="s">
         <v>744</v>
       </c>
-      <c r="AA69" s="37"/>
-      <c r="AC69" s="35">
+      <c r="AA69" s="34"/>
+      <c r="AC69" s="32">
         <v>67</v>
       </c>
       <c r="AD69" t="s">
         <v>710</v>
       </c>
-      <c r="AE69" s="37"/>
-      <c r="AG69" s="35">
+      <c r="AE69" s="34"/>
+      <c r="AG69" s="32">
         <v>67</v>
       </c>
       <c r="AH69" t="s">
         <v>745</v>
       </c>
-      <c r="AI69" s="37"/>
-      <c r="AK69" s="35">
+      <c r="AI69" s="34"/>
+      <c r="AK69" s="32">
         <v>67</v>
       </c>
       <c r="AL69" t="s">
         <v>560</v>
       </c>
-      <c r="AM69" s="37"/>
-      <c r="AO69" s="35">
+      <c r="AM69" s="34"/>
+      <c r="AO69" s="32">
         <v>67</v>
       </c>
       <c r="AP69" t="s">
         <v>715</v>
       </c>
-      <c r="AQ69" s="37"/>
-      <c r="AS69" s="35">
+      <c r="AQ69" s="34"/>
+      <c r="AS69" s="32">
         <v>67</v>
       </c>
       <c r="AT69" t="s">
         <v>746</v>
       </c>
-      <c r="AU69" s="37"/>
+      <c r="AU69" s="34"/>
     </row>
     <row r="70" spans="1:47">
       <c r="A70">
@@ -20882,83 +20883,83 @@
       <c r="B70" t="s">
         <v>560</v>
       </c>
-      <c r="E70" s="58">
+      <c r="E70" s="59">
         <v>68</v>
       </c>
-      <c r="F70" s="59" t="s">
+      <c r="F70" s="60" t="s">
         <v>592</v>
       </c>
-      <c r="G70" s="60"/>
-      <c r="I70" s="58">
+      <c r="G70" s="61"/>
+      <c r="I70" s="59">
         <v>68</v>
       </c>
-      <c r="J70" s="59" t="s">
+      <c r="J70" s="60" t="s">
         <v>500</v>
       </c>
-      <c r="K70" s="60"/>
-      <c r="M70" s="58">
+      <c r="K70" s="61"/>
+      <c r="M70" s="59">
         <v>68</v>
       </c>
-      <c r="N70" s="59" t="s">
+      <c r="N70" s="60" t="s">
         <v>500</v>
       </c>
-      <c r="O70" s="60"/>
-      <c r="Q70" s="58">
+      <c r="O70" s="61"/>
+      <c r="Q70" s="59">
         <v>68</v>
       </c>
-      <c r="R70" s="59" t="s">
+      <c r="R70" s="60" t="s">
         <v>480</v>
       </c>
-      <c r="S70" s="60"/>
-      <c r="U70" s="58">
+      <c r="S70" s="61"/>
+      <c r="U70" s="59">
         <v>68</v>
       </c>
-      <c r="V70" s="59" t="s">
+      <c r="V70" s="60" t="s">
         <v>482</v>
       </c>
-      <c r="W70" s="60"/>
-      <c r="Y70" s="58">
+      <c r="W70" s="61"/>
+      <c r="Y70" s="59">
         <v>68</v>
       </c>
-      <c r="Z70" s="59" t="s">
+      <c r="Z70" s="60" t="s">
         <v>592</v>
       </c>
-      <c r="AA70" s="60"/>
-      <c r="AC70" s="58">
+      <c r="AA70" s="61"/>
+      <c r="AC70" s="59">
         <v>68</v>
       </c>
       <c r="AD70" t="s">
         <v>483</v>
       </c>
-      <c r="AE70" s="60"/>
-      <c r="AG70" s="58">
+      <c r="AE70" s="61"/>
+      <c r="AG70" s="59">
         <v>68</v>
       </c>
-      <c r="AH70" s="59" t="s">
+      <c r="AH70" s="60" t="s">
         <v>584</v>
       </c>
-      <c r="AI70" s="60"/>
-      <c r="AK70" s="58">
+      <c r="AI70" s="61"/>
+      <c r="AK70" s="59">
         <v>68</v>
       </c>
       <c r="AL70" t="s">
         <v>584</v>
       </c>
-      <c r="AM70" s="60"/>
-      <c r="AO70" s="58">
+      <c r="AM70" s="61"/>
+      <c r="AO70" s="59">
         <v>68</v>
       </c>
-      <c r="AP70" s="59" t="s">
+      <c r="AP70" s="60" t="s">
         <v>481</v>
       </c>
-      <c r="AQ70" s="60"/>
-      <c r="AS70" s="58">
+      <c r="AQ70" s="61"/>
+      <c r="AS70" s="59">
         <v>68</v>
       </c>
-      <c r="AT70" s="59" t="s">
+      <c r="AT70" s="60" t="s">
         <v>695</v>
       </c>
-      <c r="AU70" s="60"/>
+      <c r="AU70" s="61"/>
     </row>
     <row r="71" spans="1:48">
       <c r="A71" t="s">
@@ -20970,7 +20971,7 @@
       </c>
       <c r="D71" s="4">
         <f>SUM(D3:D70)</f>
-        <v>-30502.4</v>
+        <v>-41598</v>
       </c>
       <c r="E71" t="s">
         <v>484</v>
@@ -21014,7 +21015,7 @@
       </c>
       <c r="T71" s="4">
         <f>SUM(T3:T70)</f>
-        <v>573</v>
+        <v>2193</v>
       </c>
       <c r="U71" t="s">
         <v>484</v>
@@ -21091,42 +21092,42 @@
       </c>
       <c r="AV71" s="4">
         <f>SUM(AV3:AV70)</f>
-        <v>36504.3</v>
+        <v>24646</v>
       </c>
     </row>
     <row r="86" spans="10:15">
-      <c r="J86" s="61" t="s">
+      <c r="J86" s="62" t="s">
         <v>747</v>
       </c>
-      <c r="K86" s="62">
+      <c r="K86" s="63">
         <f>SUM(C71,G71,K71,O71,S71,W71,AA71,AE71,AI71,AM71,AQ71,AU71)</f>
         <v>-263814</v>
       </c>
-      <c r="N86" s="63" t="s">
+      <c r="N86" s="64" t="s">
         <v>748</v>
       </c>
-      <c r="O86" s="64">
+      <c r="O86" s="65">
         <f>SUM(D71,H71,L71,P71,T71,X71,AB71,AF71,AJ71,AN71,AR71,AV71)</f>
-        <v>30357.9</v>
+        <v>9024</v>
       </c>
     </row>
     <row r="87" spans="10:15">
-      <c r="J87" s="65"/>
-      <c r="K87" s="66"/>
-      <c r="N87" s="63"/>
-      <c r="O87" s="67"/>
+      <c r="J87" s="66"/>
+      <c r="K87" s="67"/>
+      <c r="N87" s="64"/>
+      <c r="O87" s="68"/>
     </row>
     <row r="88" spans="10:15">
-      <c r="J88" s="65"/>
-      <c r="K88" s="66"/>
-      <c r="N88" s="63"/>
-      <c r="O88" s="67"/>
+      <c r="J88" s="66"/>
+      <c r="K88" s="67"/>
+      <c r="N88" s="64"/>
+      <c r="O88" s="68"/>
     </row>
     <row r="89" spans="10:15">
-      <c r="J89" s="68"/>
-      <c r="K89" s="66"/>
-      <c r="N89" s="63"/>
-      <c r="O89" s="67"/>
+      <c r="J89" s="69"/>
+      <c r="K89" s="67"/>
+      <c r="N89" s="64"/>
+      <c r="O89" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="16">

--- a/Ставки/КХЛ 23-24.xlsx
+++ b/Ставки/КХЛ 23-24.xlsx
@@ -2664,7 +2664,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2737,7 +2737,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
@@ -2754,10 +2753,10 @@
     <xf numFmtId="0" fontId="6" fillId="10" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3425,256 +3424,256 @@
       </c>
       <c r="F1" s="81"/>
       <c r="G1" s="81"/>
-      <c r="H1" s="76">
+      <c r="H1" s="75">
         <v>3.6</v>
       </c>
-      <c r="J1" s="82" t="s">
+      <c r="J1" s="80" t="s">
         <v>28</v>
       </c>
       <c r="K1" s="81"/>
       <c r="L1" s="81"/>
-      <c r="M1" s="76">
+      <c r="M1" s="75">
         <v>3.7</v>
       </c>
-      <c r="O1" s="82" t="s">
+      <c r="O1" s="80" t="s">
         <v>29</v>
       </c>
       <c r="P1" s="81"/>
       <c r="Q1" s="81"/>
-      <c r="R1" s="76">
+      <c r="R1" s="75">
         <v>3.8</v>
       </c>
-      <c r="T1" s="82" t="s">
+      <c r="T1" s="80" t="s">
         <v>30</v>
       </c>
       <c r="U1" s="81"/>
       <c r="V1" s="81"/>
-      <c r="W1" s="76">
+      <c r="W1" s="75">
         <v>3.9</v>
       </c>
-      <c r="Y1" s="82" t="s">
+      <c r="Y1" s="80" t="s">
         <v>31</v>
       </c>
       <c r="Z1" s="81"/>
       <c r="AA1" s="81"/>
-      <c r="AB1" s="76">
+      <c r="AB1" s="75">
         <v>4</v>
       </c>
-      <c r="AD1" s="82" t="s">
+      <c r="AD1" s="80" t="s">
         <v>32</v>
       </c>
       <c r="AE1" s="81"/>
       <c r="AF1" s="81"/>
-      <c r="AG1" s="76">
+      <c r="AG1" s="75">
         <v>4.0999999999999996</v>
       </c>
-      <c r="AI1" s="82" t="s">
+      <c r="AI1" s="80" t="s">
         <v>33</v>
       </c>
       <c r="AJ1" s="81"/>
       <c r="AK1" s="81"/>
-      <c r="AL1" s="76">
+      <c r="AL1" s="75">
         <v>4.2</v>
       </c>
-      <c r="AN1" s="82" t="s">
+      <c r="AN1" s="80" t="s">
         <v>34</v>
       </c>
       <c r="AO1" s="81"/>
       <c r="AP1" s="81"/>
-      <c r="AQ1" s="76">
+      <c r="AQ1" s="75">
         <v>4.3</v>
       </c>
-      <c r="AS1" s="82" t="s">
+      <c r="AS1" s="80" t="s">
         <v>35</v>
       </c>
       <c r="AT1" s="81"/>
       <c r="AU1" s="81"/>
-      <c r="AV1" s="76">
+      <c r="AV1" s="75">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AX1" s="82" t="s">
+      <c r="AX1" s="80" t="s">
         <v>36</v>
       </c>
       <c r="AY1" s="81"/>
       <c r="AZ1" s="81"/>
-      <c r="BA1" s="76">
+      <c r="BA1" s="75">
         <v>4.5</v>
       </c>
-      <c r="BC1" s="82" t="s">
+      <c r="BC1" s="80" t="s">
         <v>37</v>
       </c>
       <c r="BD1" s="81"/>
       <c r="BE1" s="81"/>
-      <c r="BF1" s="76">
+      <c r="BF1" s="75">
         <v>4.5999999999999996</v>
       </c>
-      <c r="BH1" s="82" t="s">
+      <c r="BH1" s="80" t="s">
         <v>38</v>
       </c>
       <c r="BI1" s="81"/>
       <c r="BJ1" s="81"/>
-      <c r="BK1" s="76">
+      <c r="BK1" s="75">
         <v>4.7</v>
       </c>
     </row>
     <row r="2" spans="5:63" ht="15.75">
-      <c r="E2" s="75" t="s">
+      <c r="E2" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="75" t="s">
+      <c r="F2" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="75" t="s">
+      <c r="G2" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="75" t="s">
+      <c r="H2" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="75" t="s">
+      <c r="J2" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="75" t="s">
+      <c r="K2" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="75" t="s">
+      <c r="L2" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="M2" s="75" t="s">
+      <c r="M2" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="O2" s="75" t="s">
+      <c r="O2" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="75" t="s">
+      <c r="P2" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" s="75" t="s">
+      <c r="Q2" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="R2" s="75" t="s">
+      <c r="R2" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="T2" s="75" t="s">
+      <c r="T2" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="U2" s="75" t="s">
+      <c r="U2" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="V2" s="75" t="s">
+      <c r="V2" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="W2" s="75" t="s">
+      <c r="W2" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="Y2" s="75" t="s">
+      <c r="Y2" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="75" t="s">
+      <c r="Z2" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="AA2" s="75" t="s">
+      <c r="AA2" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="AB2" s="75" t="s">
+      <c r="AB2" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="AD2" s="75" t="s">
+      <c r="AD2" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="AE2" s="75" t="s">
+      <c r="AE2" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="AF2" s="75" t="s">
+      <c r="AF2" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="AG2" s="75" t="s">
+      <c r="AG2" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="AI2" s="75" t="s">
+      <c r="AI2" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="AJ2" s="75" t="s">
+      <c r="AJ2" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="AK2" s="75" t="s">
+      <c r="AK2" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="AL2" s="75" t="s">
+      <c r="AL2" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="AN2" s="80" t="s">
+      <c r="AN2" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="AO2" s="75" t="s">
+      <c r="AO2" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="AP2" s="75" t="s">
+      <c r="AP2" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="AQ2" s="75" t="s">
+      <c r="AQ2" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="AS2" s="75" t="s">
+      <c r="AS2" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="AT2" s="75" t="s">
+      <c r="AT2" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="AU2" s="75" t="s">
+      <c r="AU2" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="AV2" s="75" t="s">
+      <c r="AV2" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="AX2" s="75" t="s">
+      <c r="AX2" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="AY2" s="75" t="s">
+      <c r="AY2" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="AZ2" s="75" t="s">
+      <c r="AZ2" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="BA2" s="75" t="s">
+      <c r="BA2" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="BC2" s="75" t="s">
+      <c r="BC2" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="BD2" s="75" t="s">
+      <c r="BD2" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="BE2" s="75" t="s">
+      <c r="BE2" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="BF2" s="75" t="s">
+      <c r="BF2" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="BH2" s="75" t="s">
+      <c r="BH2" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="BI2" s="75" t="s">
+      <c r="BI2" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="BJ2" s="75" t="s">
+      <c r="BJ2" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="BK2" s="75" t="s">
+      <c r="BK2" s="74" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="3" spans="5:63">
-      <c r="E3" s="77">
+      <c r="E3" s="76">
         <v>1</v>
       </c>
-      <c r="F3" s="78">
+      <c r="F3" s="77">
         <v>60</v>
       </c>
-      <c r="G3" s="77">
+      <c r="G3" s="76">
         <f>$H$1*F3</f>
         <v>216</v>
       </c>
-      <c r="H3" s="77">
+      <c r="H3" s="76">
         <f>G3-F3</f>
         <v>156</v>
       </c>
@@ -3708,17 +3707,17 @@
       </c>
     </row>
     <row r="4" spans="5:63">
-      <c r="E4" s="77">
+      <c r="E4" s="76">
         <v>2</v>
       </c>
-      <c r="F4" s="78">
+      <c r="F4" s="77">
         <v>65</v>
       </c>
-      <c r="G4" s="77">
+      <c r="G4" s="76">
         <f>$H$1*F4</f>
         <v>234</v>
       </c>
-      <c r="H4" s="77">
+      <c r="H4" s="76">
         <f>G4-SUM($F$3:F4)</f>
         <v>109</v>
       </c>
@@ -3752,17 +3751,17 @@
       </c>
     </row>
     <row r="5" spans="5:63">
-      <c r="E5" s="77">
+      <c r="E5" s="76">
         <v>3</v>
       </c>
-      <c r="F5" s="78">
+      <c r="F5" s="77">
         <v>75</v>
       </c>
-      <c r="G5" s="77">
+      <c r="G5" s="76">
         <f t="shared" ref="G5:G23" si="1">$H$1*F5</f>
         <v>270</v>
       </c>
-      <c r="H5" s="77">
+      <c r="H5" s="76">
         <f>G5-SUM($F$3:F5)</f>
         <v>70</v>
       </c>
@@ -3796,17 +3795,17 @@
       </c>
     </row>
     <row r="6" spans="5:63">
-      <c r="E6" s="77">
+      <c r="E6" s="76">
         <v>4</v>
       </c>
-      <c r="F6" s="78">
+      <c r="F6" s="77">
         <v>90</v>
       </c>
-      <c r="G6" s="77">
+      <c r="G6" s="76">
         <f t="shared" si="1"/>
         <v>324</v>
       </c>
-      <c r="H6" s="77">
+      <c r="H6" s="76">
         <f>G6-SUM($F$3:F6)</f>
         <v>34</v>
       </c>
@@ -3840,17 +3839,17 @@
       </c>
     </row>
     <row r="7" spans="5:63">
-      <c r="E7" s="77">
+      <c r="E7" s="76">
         <v>5</v>
       </c>
-      <c r="F7" s="78">
+      <c r="F7" s="77">
         <v>112</v>
       </c>
-      <c r="G7" s="77">
+      <c r="G7" s="76">
         <f t="shared" si="1"/>
         <v>403.2</v>
       </c>
-      <c r="H7" s="77">
+      <c r="H7" s="76">
         <f>G7-SUM($F$3:F7)</f>
         <v>1.19999999999999</v>
       </c>
@@ -3873,17 +3872,17 @@
       </c>
     </row>
     <row r="8" spans="5:63">
-      <c r="E8" s="77">
+      <c r="E8" s="76">
         <v>6</v>
       </c>
-      <c r="F8" s="78">
+      <c r="F8" s="77">
         <v>155</v>
       </c>
-      <c r="G8" s="77">
+      <c r="G8" s="76">
         <f t="shared" si="1"/>
         <v>558</v>
       </c>
-      <c r="H8" s="77">
+      <c r="H8" s="76">
         <f>G8-SUM($F$3:F8)</f>
         <v>1</v>
       </c>
@@ -3906,17 +3905,17 @@
       </c>
     </row>
     <row r="9" spans="5:63">
-      <c r="E9" s="77">
+      <c r="E9" s="76">
         <v>7</v>
       </c>
-      <c r="F9" s="78">
+      <c r="F9" s="77">
         <v>215</v>
       </c>
-      <c r="G9" s="77">
+      <c r="G9" s="76">
         <f t="shared" si="1"/>
         <v>774</v>
       </c>
-      <c r="H9" s="77">
+      <c r="H9" s="76">
         <f>G9-SUM($F$3:F9)</f>
         <v>2</v>
       </c>
@@ -3939,17 +3938,17 @@
       </c>
     </row>
     <row r="10" spans="5:63">
-      <c r="E10" s="77">
+      <c r="E10" s="76">
         <v>8</v>
       </c>
-      <c r="F10" s="78">
+      <c r="F10" s="77">
         <v>298</v>
       </c>
-      <c r="G10" s="77">
+      <c r="G10" s="76">
         <f t="shared" si="1"/>
         <v>1072.8</v>
       </c>
-      <c r="H10" s="77">
+      <c r="H10" s="76">
         <f>G10-SUM($F$3:F10)</f>
         <v>2.7999999999999501</v>
       </c>
@@ -3972,17 +3971,17 @@
       </c>
     </row>
     <row r="11" spans="5:63">
-      <c r="E11" s="77">
+      <c r="E11" s="76">
         <v>9</v>
       </c>
-      <c r="F11" s="78">
+      <c r="F11" s="77">
         <v>415</v>
       </c>
-      <c r="G11" s="77">
+      <c r="G11" s="76">
         <f t="shared" si="1"/>
         <v>1494</v>
       </c>
-      <c r="H11" s="77">
+      <c r="H11" s="76">
         <f>G11-SUM($F$3:F11)</f>
         <v>9</v>
       </c>
@@ -4005,17 +4004,17 @@
       </c>
     </row>
     <row r="12" spans="5:63">
-      <c r="E12" s="77">
+      <c r="E12" s="76">
         <v>10</v>
       </c>
-      <c r="F12" s="78">
+      <c r="F12" s="77">
         <v>572</v>
       </c>
-      <c r="G12" s="77">
+      <c r="G12" s="76">
         <f t="shared" si="1"/>
         <v>2059.1999999999998</v>
       </c>
-      <c r="H12" s="77">
+      <c r="H12" s="76">
         <f>G12-SUM($F$3:F12)</f>
         <v>2.2000000000002702</v>
       </c>
@@ -4038,17 +4037,17 @@
       </c>
     </row>
     <row r="13" spans="5:63">
-      <c r="E13" s="77">
+      <c r="E13" s="76">
         <v>11</v>
       </c>
-      <c r="F13" s="78">
+      <c r="F13" s="77">
         <v>792</v>
       </c>
-      <c r="G13" s="77">
+      <c r="G13" s="76">
         <f t="shared" si="1"/>
         <v>2851.2</v>
       </c>
-      <c r="H13" s="77">
+      <c r="H13" s="76">
         <f>G13-SUM($F$3:F13)</f>
         <v>2.2000000000002702</v>
       </c>
@@ -4071,17 +4070,17 @@
       </c>
     </row>
     <row r="14" spans="5:63">
-      <c r="E14" s="77">
+      <c r="E14" s="76">
         <v>12</v>
       </c>
-      <c r="F14" s="78">
+      <c r="F14" s="77">
         <v>1098</v>
       </c>
-      <c r="G14" s="77">
+      <c r="G14" s="76">
         <f t="shared" si="1"/>
         <v>3952.8</v>
       </c>
-      <c r="H14" s="77">
+      <c r="H14" s="76">
         <f>G14-SUM($F$3:F14)</f>
         <v>5.8000000000001801</v>
       </c>
@@ -4104,17 +4103,17 @@
       </c>
     </row>
     <row r="15" spans="5:63">
-      <c r="E15" s="77">
+      <c r="E15" s="76">
         <v>13</v>
       </c>
-      <c r="F15" s="78">
+      <c r="F15" s="77">
         <v>1520</v>
       </c>
-      <c r="G15" s="77">
+      <c r="G15" s="76">
         <f t="shared" si="1"/>
         <v>5472</v>
       </c>
-      <c r="H15" s="77">
+      <c r="H15" s="76">
         <f>G15-SUM($F$3:F15)</f>
         <v>5</v>
       </c>
@@ -4137,17 +4136,17 @@
       </c>
     </row>
     <row r="16" spans="5:63">
-      <c r="E16" s="77">
+      <c r="E16" s="76">
         <v>14</v>
       </c>
-      <c r="F16" s="78">
+      <c r="F16" s="77">
         <v>2105</v>
       </c>
-      <c r="G16" s="77">
+      <c r="G16" s="76">
         <f t="shared" si="1"/>
         <v>7578</v>
       </c>
-      <c r="H16" s="77">
+      <c r="H16" s="76">
         <f>G16-SUM($F$3:F16)</f>
         <v>6</v>
       </c>
@@ -4170,17 +4169,17 @@
       </c>
     </row>
     <row r="17" spans="5:43">
-      <c r="E17" s="77">
+      <c r="E17" s="76">
         <v>15</v>
       </c>
-      <c r="F17" s="78">
+      <c r="F17" s="77">
         <v>2915</v>
       </c>
-      <c r="G17" s="77">
+      <c r="G17" s="76">
         <f t="shared" si="1"/>
         <v>10494</v>
       </c>
-      <c r="H17" s="77">
+      <c r="H17" s="76">
         <f>G17-SUM($F$3:F17)</f>
         <v>7</v>
       </c>
@@ -4203,17 +4202,17 @@
       </c>
     </row>
     <row r="18" spans="5:43">
-      <c r="E18" s="77">
+      <c r="E18" s="76">
         <v>16</v>
       </c>
-      <c r="F18" s="78">
+      <c r="F18" s="77">
         <v>4035</v>
       </c>
-      <c r="G18" s="77">
+      <c r="G18" s="76">
         <f t="shared" si="1"/>
         <v>14526</v>
       </c>
-      <c r="H18" s="77">
+      <c r="H18" s="76">
         <f>G18-SUM($F$3:F18)</f>
         <v>4</v>
       </c>
@@ -4236,17 +4235,17 @@
       </c>
     </row>
     <row r="19" spans="5:43">
-      <c r="E19" s="77">
+      <c r="E19" s="76">
         <v>17</v>
       </c>
-      <c r="F19" s="78">
+      <c r="F19" s="77">
         <v>5585</v>
       </c>
-      <c r="G19" s="77">
+      <c r="G19" s="76">
         <f t="shared" si="1"/>
         <v>20106</v>
       </c>
-      <c r="H19" s="77">
+      <c r="H19" s="76">
         <f>G19-SUM($F$3:F19)</f>
         <v>-1</v>
       </c>
@@ -4269,17 +4268,17 @@
       </c>
     </row>
     <row r="20" spans="5:43">
-      <c r="E20" s="77">
+      <c r="E20" s="76">
         <v>18</v>
       </c>
-      <c r="F20" s="78">
+      <c r="F20" s="77">
         <v>7735</v>
       </c>
-      <c r="G20" s="77">
+      <c r="G20" s="76">
         <f t="shared" si="1"/>
         <v>27846</v>
       </c>
-      <c r="H20" s="77">
+      <c r="H20" s="76">
         <f>G20-SUM($F$3:F20)</f>
         <v>4</v>
       </c>
@@ -4302,17 +4301,17 @@
       </c>
     </row>
     <row r="21" spans="5:43">
-      <c r="E21" s="77">
+      <c r="E21" s="76">
         <v>19</v>
       </c>
-      <c r="F21" s="78">
+      <c r="F21" s="77">
         <v>10710</v>
       </c>
-      <c r="G21" s="77">
+      <c r="G21" s="76">
         <f t="shared" si="1"/>
         <v>38556</v>
       </c>
-      <c r="H21" s="77">
+      <c r="H21" s="76">
         <f>G21-SUM($F$3:F21)</f>
         <v>4</v>
       </c>
@@ -4335,17 +4334,17 @@
       </c>
     </row>
     <row r="22" spans="5:43">
-      <c r="E22" s="77">
+      <c r="E22" s="76">
         <v>20</v>
       </c>
-      <c r="F22" s="78">
+      <c r="F22" s="77">
         <v>14830</v>
       </c>
-      <c r="G22" s="77">
+      <c r="G22" s="76">
         <f t="shared" si="1"/>
         <v>53388</v>
       </c>
-      <c r="H22" s="77">
+      <c r="H22" s="76">
         <f>G22-SUM($F$3:F22)</f>
         <v>6</v>
       </c>
@@ -4368,17 +4367,17 @@
       </c>
     </row>
     <row r="23" spans="5:43">
-      <c r="E23" s="77">
+      <c r="E23" s="76">
         <v>21</v>
       </c>
-      <c r="F23" s="78">
+      <c r="F23" s="77">
         <v>20850</v>
       </c>
-      <c r="G23" s="77">
+      <c r="G23" s="76">
         <f t="shared" si="1"/>
         <v>75060</v>
       </c>
-      <c r="H23" s="77">
+      <c r="H23" s="76">
         <f>G23-SUM($F$3:F23)</f>
         <v>828</v>
       </c>
@@ -4398,12 +4397,12 @@
       </c>
     </row>
     <row r="24" spans="5:43">
-      <c r="E24" s="77">
+      <c r="E24" s="76">
         <v>22</v>
       </c>
-      <c r="F24" s="78"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="77">
+      <c r="F24" s="77"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76">
         <f>G24-SUM($F$3:F24)</f>
         <v>-74232</v>
       </c>
@@ -4419,12 +4418,12 @@
       </c>
     </row>
     <row r="25" spans="5:43">
-      <c r="E25" s="77">
+      <c r="E25" s="76">
         <v>23</v>
       </c>
-      <c r="F25" s="78"/>
-      <c r="G25" s="77"/>
-      <c r="H25" s="77">
+      <c r="F25" s="77"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="76">
         <f>G25-SUM($F$3:F25)</f>
         <v>-74232</v>
       </c>
@@ -4440,12 +4439,12 @@
       </c>
     </row>
     <row r="26" spans="5:43">
-      <c r="E26" s="77">
+      <c r="E26" s="76">
         <v>24</v>
       </c>
-      <c r="F26" s="78"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="77">
+      <c r="F26" s="77"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76">
         <f>G26-SUM($F$3:F26)</f>
         <v>-74232</v>
       </c>
@@ -4466,351 +4465,351 @@
       </c>
       <c r="F29" s="81"/>
       <c r="G29" s="81"/>
-      <c r="H29" s="76">
+      <c r="H29" s="75">
         <v>3.6</v>
       </c>
     </row>
     <row r="30" spans="5:43" ht="15.75">
-      <c r="E30" s="75" t="s">
+      <c r="E30" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="F30" s="75" t="s">
+      <c r="F30" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="G30" s="75" t="s">
+      <c r="G30" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="H30" s="75" t="s">
+      <c r="H30" s="74" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="31" spans="5:43">
-      <c r="E31" s="77">
+      <c r="E31" s="76">
         <v>1</v>
       </c>
-      <c r="F31" s="78">
+      <c r="F31" s="77">
         <v>112</v>
       </c>
-      <c r="G31" s="79">
+      <c r="G31" s="78">
         <f>F31*$H$29</f>
         <v>403.2</v>
       </c>
-      <c r="H31" s="79">
+      <c r="H31" s="78">
         <f>G31-F31</f>
         <v>291.2</v>
       </c>
     </row>
     <row r="32" spans="5:43">
-      <c r="E32" s="77">
+      <c r="E32" s="76">
         <v>2</v>
       </c>
-      <c r="F32" s="78">
+      <c r="F32" s="77">
         <v>155</v>
       </c>
-      <c r="G32" s="79">
+      <c r="G32" s="78">
         <f>F32*$H$29</f>
         <v>558</v>
       </c>
-      <c r="H32" s="79">
+      <c r="H32" s="78">
         <f>G32-SUM($F$31:F32)</f>
         <v>291</v>
       </c>
     </row>
     <row r="33" spans="5:8">
-      <c r="E33" s="77">
+      <c r="E33" s="76">
         <v>3</v>
       </c>
-      <c r="F33" s="78">
+      <c r="F33" s="77">
         <v>215</v>
       </c>
-      <c r="G33" s="79">
+      <c r="G33" s="78">
         <f t="shared" ref="G33:G47" si="2">F33*$H$29</f>
         <v>774</v>
       </c>
-      <c r="H33" s="79">
+      <c r="H33" s="78">
         <f>G33-SUM($F$31:F33)</f>
         <v>292</v>
       </c>
     </row>
     <row r="34" spans="5:8">
-      <c r="E34" s="77">
+      <c r="E34" s="76">
         <v>4</v>
       </c>
-      <c r="F34" s="78">
+      <c r="F34" s="77">
         <v>298</v>
       </c>
-      <c r="G34" s="79">
+      <c r="G34" s="78">
         <f t="shared" si="2"/>
         <v>1072.8</v>
       </c>
-      <c r="H34" s="79">
+      <c r="H34" s="78">
         <f>G34-SUM($F$31:F34)</f>
         <v>292.8</v>
       </c>
     </row>
     <row r="35" spans="5:8">
-      <c r="E35" s="77">
+      <c r="E35" s="76">
         <v>5</v>
       </c>
-      <c r="F35" s="78">
+      <c r="F35" s="77">
         <v>415</v>
       </c>
-      <c r="G35" s="79">
+      <c r="G35" s="78">
         <f t="shared" si="2"/>
         <v>1494</v>
       </c>
-      <c r="H35" s="79">
+      <c r="H35" s="78">
         <f>G35-SUM($F$31:F35)</f>
         <v>299</v>
       </c>
     </row>
     <row r="36" spans="5:8">
-      <c r="E36" s="77">
+      <c r="E36" s="76">
         <v>6</v>
       </c>
-      <c r="F36" s="78">
+      <c r="F36" s="77">
         <v>572</v>
       </c>
-      <c r="G36" s="79">
+      <c r="G36" s="78">
         <f t="shared" si="2"/>
         <v>2059.1999999999998</v>
       </c>
-      <c r="H36" s="79">
+      <c r="H36" s="78">
         <f>G36-SUM($F$31:F36)</f>
         <v>292.2</v>
       </c>
     </row>
     <row r="37" spans="5:8">
-      <c r="E37" s="77">
+      <c r="E37" s="76">
         <v>7</v>
       </c>
-      <c r="F37" s="78">
+      <c r="F37" s="77">
         <v>792</v>
       </c>
-      <c r="G37" s="79">
+      <c r="G37" s="78">
         <f t="shared" si="2"/>
         <v>2851.2</v>
       </c>
-      <c r="H37" s="79">
+      <c r="H37" s="78">
         <f>G37-SUM($F$31:F37)</f>
         <v>292.2</v>
       </c>
     </row>
     <row r="38" spans="5:8">
-      <c r="E38" s="77">
+      <c r="E38" s="76">
         <v>8</v>
       </c>
-      <c r="F38" s="78">
+      <c r="F38" s="77">
         <v>1098</v>
       </c>
-      <c r="G38" s="79">
+      <c r="G38" s="78">
         <f t="shared" si="2"/>
         <v>3952.8</v>
       </c>
-      <c r="H38" s="79">
+      <c r="H38" s="78">
         <f>G38-SUM($F$31:F38)</f>
         <v>295.8</v>
       </c>
     </row>
     <row r="39" spans="5:8">
-      <c r="E39" s="77">
+      <c r="E39" s="76">
         <v>9</v>
       </c>
-      <c r="F39" s="78">
+      <c r="F39" s="77">
         <v>1520</v>
       </c>
-      <c r="G39" s="79">
+      <c r="G39" s="78">
         <f t="shared" si="2"/>
         <v>5472</v>
       </c>
-      <c r="H39" s="79">
+      <c r="H39" s="78">
         <f>G39-SUM($F$31:F39)</f>
         <v>295</v>
       </c>
     </row>
     <row r="40" spans="5:8">
-      <c r="E40" s="77">
+      <c r="E40" s="76">
         <v>10</v>
       </c>
-      <c r="F40" s="78">
+      <c r="F40" s="77">
         <v>2105</v>
       </c>
-      <c r="G40" s="79">
+      <c r="G40" s="78">
         <f t="shared" si="2"/>
         <v>7578</v>
       </c>
-      <c r="H40" s="79">
+      <c r="H40" s="78">
         <f>G40-SUM($F$31:F40)</f>
         <v>296</v>
       </c>
     </row>
     <row r="41" spans="5:8">
-      <c r="E41" s="77">
+      <c r="E41" s="76">
         <v>11</v>
       </c>
-      <c r="F41" s="78">
+      <c r="F41" s="77">
         <v>2915</v>
       </c>
-      <c r="G41" s="79">
+      <c r="G41" s="78">
         <f t="shared" si="2"/>
         <v>10494</v>
       </c>
-      <c r="H41" s="79">
+      <c r="H41" s="78">
         <f>G41-SUM($F$31:F41)</f>
         <v>297</v>
       </c>
     </row>
     <row r="42" spans="5:8">
-      <c r="E42" s="77">
+      <c r="E42" s="76">
         <v>12</v>
       </c>
-      <c r="F42" s="78">
+      <c r="F42" s="77">
         <v>4035</v>
       </c>
-      <c r="G42" s="79">
+      <c r="G42" s="78">
         <f t="shared" si="2"/>
         <v>14526</v>
       </c>
-      <c r="H42" s="79">
+      <c r="H42" s="78">
         <f>G42-SUM($F$31:F42)</f>
         <v>294</v>
       </c>
     </row>
     <row r="43" spans="5:8">
-      <c r="E43" s="77">
+      <c r="E43" s="76">
         <v>13</v>
       </c>
-      <c r="F43" s="78">
+      <c r="F43" s="77">
         <v>5585</v>
       </c>
-      <c r="G43" s="79">
+      <c r="G43" s="78">
         <f t="shared" si="2"/>
         <v>20106</v>
       </c>
-      <c r="H43" s="79">
+      <c r="H43" s="78">
         <f>G43-SUM($F$31:F43)</f>
         <v>289</v>
       </c>
     </row>
     <row r="44" spans="5:8">
-      <c r="E44" s="77">
+      <c r="E44" s="76">
         <v>14</v>
       </c>
-      <c r="F44" s="78">
+      <c r="F44" s="77">
         <v>7735</v>
       </c>
-      <c r="G44" s="79">
+      <c r="G44" s="78">
         <f t="shared" si="2"/>
         <v>27846</v>
       </c>
-      <c r="H44" s="79">
+      <c r="H44" s="78">
         <f>G44-SUM($F$31:F44)</f>
         <v>294</v>
       </c>
     </row>
     <row r="45" spans="5:8">
-      <c r="E45" s="77">
+      <c r="E45" s="76">
         <v>15</v>
       </c>
-      <c r="F45" s="78">
+      <c r="F45" s="77">
         <v>10710</v>
       </c>
-      <c r="G45" s="79">
+      <c r="G45" s="78">
         <f t="shared" si="2"/>
         <v>38556</v>
       </c>
-      <c r="H45" s="79">
+      <c r="H45" s="78">
         <f>G45-SUM($F$31:F45)</f>
         <v>294</v>
       </c>
     </row>
     <row r="46" spans="5:8">
-      <c r="E46" s="77">
+      <c r="E46" s="76">
         <v>16</v>
       </c>
-      <c r="F46" s="78">
+      <c r="F46" s="77">
         <v>14830</v>
       </c>
-      <c r="G46" s="79">
+      <c r="G46" s="78">
         <f t="shared" si="2"/>
         <v>53388</v>
       </c>
-      <c r="H46" s="79">
+      <c r="H46" s="78">
         <f>G46-SUM($F$31:F46)</f>
         <v>296</v>
       </c>
     </row>
     <row r="47" spans="5:8">
-      <c r="E47" s="77">
+      <c r="E47" s="76">
         <v>17</v>
       </c>
-      <c r="F47" s="78">
+      <c r="F47" s="77">
         <v>20850</v>
       </c>
-      <c r="G47" s="79">
+      <c r="G47" s="78">
         <f t="shared" si="2"/>
         <v>75060</v>
       </c>
-      <c r="H47" s="79">
+      <c r="H47" s="78">
         <f>G47-SUM($F$31:F47)</f>
         <v>1118</v>
       </c>
     </row>
     <row r="48" spans="5:8">
-      <c r="E48" s="77">
+      <c r="E48" s="76">
         <v>18</v>
       </c>
-      <c r="F48" s="78"/>
-      <c r="G48" s="79"/>
-      <c r="H48" s="79"/>
+      <c r="F48" s="77"/>
+      <c r="G48" s="78"/>
+      <c r="H48" s="78"/>
     </row>
     <row r="49" spans="5:8">
-      <c r="E49" s="77">
+      <c r="E49" s="76">
         <v>19</v>
       </c>
-      <c r="F49" s="78"/>
-      <c r="G49" s="79"/>
-      <c r="H49" s="79"/>
+      <c r="F49" s="77"/>
+      <c r="G49" s="78"/>
+      <c r="H49" s="78"/>
     </row>
     <row r="50" spans="5:8">
-      <c r="E50" s="77">
+      <c r="E50" s="76">
         <v>20</v>
       </c>
-      <c r="F50" s="78"/>
-      <c r="G50" s="79"/>
-      <c r="H50" s="79"/>
+      <c r="F50" s="77"/>
+      <c r="G50" s="78"/>
+      <c r="H50" s="78"/>
     </row>
     <row r="51" spans="5:8">
-      <c r="E51" s="77">
+      <c r="E51" s="76">
         <v>21</v>
       </c>
-      <c r="F51" s="78"/>
-      <c r="G51" s="79"/>
-      <c r="H51" s="79"/>
+      <c r="F51" s="77"/>
+      <c r="G51" s="78"/>
+      <c r="H51" s="78"/>
     </row>
     <row r="52" spans="5:8">
-      <c r="E52" s="77">
+      <c r="E52" s="76">
         <v>22</v>
       </c>
-      <c r="F52" s="78"/>
-      <c r="G52" s="79"/>
-      <c r="H52" s="79"/>
+      <c r="F52" s="77"/>
+      <c r="G52" s="78"/>
+      <c r="H52" s="78"/>
     </row>
     <row r="53" spans="5:8">
-      <c r="E53" s="77">
+      <c r="E53" s="76">
         <v>23</v>
       </c>
-      <c r="F53" s="78"/>
-      <c r="G53" s="79"/>
-      <c r="H53" s="79"/>
+      <c r="F53" s="77"/>
+      <c r="G53" s="78"/>
+      <c r="H53" s="78"/>
     </row>
     <row r="54" spans="5:8">
-      <c r="E54" s="77">
+      <c r="E54" s="76">
         <v>24</v>
       </c>
-      <c r="F54" s="78"/>
-      <c r="G54" s="79"/>
-      <c r="H54" s="79"/>
+      <c r="F54" s="77"/>
+      <c r="G54" s="78"/>
+      <c r="H54" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -4838,8 +4837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AR85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AE61" sqref="AE61"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AO59" sqref="AO59:AQ59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -4962,71 +4961,71 @@
       </c>
     </row>
     <row r="2" spans="1:44">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="85"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="84"/>
       <c r="D2" s="59"/>
-      <c r="E2" s="83" t="s">
+      <c r="E2" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="84"/>
-      <c r="G2" s="85"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="84"/>
       <c r="H2" s="60"/>
-      <c r="I2" s="83" t="s">
+      <c r="I2" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="84"/>
-      <c r="K2" s="85"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="84"/>
       <c r="L2" s="60"/>
-      <c r="M2" s="83" t="s">
+      <c r="M2" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="84"/>
-      <c r="O2" s="85"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="84"/>
       <c r="P2" s="60"/>
-      <c r="Q2" s="83" t="s">
+      <c r="Q2" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="84"/>
-      <c r="S2" s="85"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="84"/>
       <c r="T2" s="60"/>
-      <c r="U2" s="83" t="s">
+      <c r="U2" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="V2" s="84"/>
-      <c r="W2" s="85"/>
+      <c r="V2" s="83"/>
+      <c r="W2" s="84"/>
       <c r="X2" s="60"/>
-      <c r="Y2" s="83" t="s">
+      <c r="Y2" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="Z2" s="84"/>
-      <c r="AA2" s="85"/>
+      <c r="Z2" s="83"/>
+      <c r="AA2" s="84"/>
       <c r="AB2" s="60"/>
-      <c r="AC2" s="83" t="s">
+      <c r="AC2" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="AD2" s="84"/>
-      <c r="AE2" s="85"/>
+      <c r="AD2" s="83"/>
+      <c r="AE2" s="84"/>
       <c r="AF2" s="60"/>
-      <c r="AG2" s="83" t="s">
+      <c r="AG2" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="AH2" s="84"/>
-      <c r="AI2" s="85"/>
+      <c r="AH2" s="83"/>
+      <c r="AI2" s="84"/>
       <c r="AJ2" s="60"/>
-      <c r="AK2" s="83" t="s">
+      <c r="AK2" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="AL2" s="84"/>
-      <c r="AM2" s="85"/>
+      <c r="AL2" s="83"/>
+      <c r="AM2" s="84"/>
       <c r="AN2" s="60"/>
-      <c r="AO2" s="83" t="s">
+      <c r="AO2" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="AP2" s="84"/>
-      <c r="AQ2" s="85"/>
+      <c r="AP2" s="83"/>
+      <c r="AQ2" s="84"/>
       <c r="AR2" s="60"/>
     </row>
     <row r="3" spans="1:44">
@@ -6590,13 +6589,13 @@
         <f>278+SUM(S15:S17)</f>
         <v>78</v>
       </c>
-      <c r="U17" s="69">
+      <c r="U17" s="68">
         <v>15</v>
       </c>
-      <c r="V17" s="69" t="s">
+      <c r="V17" s="68" t="s">
         <v>164</v>
       </c>
-      <c r="W17" s="69">
+      <c r="W17" s="68">
         <v>-155</v>
       </c>
       <c r="Y17" s="11">
@@ -8079,7 +8078,7 @@
       <c r="AI30" s="25">
         <v>-75</v>
       </c>
-      <c r="AJ30" s="72"/>
+      <c r="AJ30" s="71"/>
       <c r="AK30" s="8">
         <v>28</v>
       </c>
@@ -8089,7 +8088,7 @@
       <c r="AM30" s="10">
         <v>-90</v>
       </c>
-      <c r="AN30" s="73"/>
+      <c r="AN30" s="72"/>
       <c r="AO30" s="8">
         <v>28</v>
       </c>
@@ -9382,7 +9381,7 @@
       <c r="S42" s="10">
         <v>-1000</v>
       </c>
-      <c r="T42" s="70"/>
+      <c r="T42" s="69"/>
       <c r="U42" s="11">
         <v>40</v>
       </c>
@@ -9608,7 +9607,7 @@
       <c r="U44" s="49">
         <v>42</v>
       </c>
-      <c r="V44" s="71" t="s">
+      <c r="V44" s="70" t="s">
         <v>359</v>
       </c>
       <c r="W44" s="51">
@@ -10305,7 +10304,7 @@
       <c r="AI50" s="10">
         <v>-1250</v>
       </c>
-      <c r="AJ50" s="74"/>
+      <c r="AJ50" s="73"/>
       <c r="AK50" s="8">
         <v>48</v>
       </c>
@@ -10411,7 +10410,7 @@
       <c r="AI51" s="10">
         <v>-1000</v>
       </c>
-      <c r="AJ51" s="74"/>
+      <c r="AJ51" s="73"/>
       <c r="AK51" s="11">
         <v>49</v>
       </c>
@@ -10517,7 +10516,7 @@
       <c r="AI52" s="10">
         <v>-1400</v>
       </c>
-      <c r="AJ52" s="74"/>
+      <c r="AJ52" s="73"/>
       <c r="AK52" s="8">
         <v>50</v>
       </c>
@@ -11196,13 +11195,13 @@
       <c r="C59" s="10">
         <v>-2500</v>
       </c>
-      <c r="E59" s="39">
+      <c r="E59" s="8">
         <v>57</v>
       </c>
-      <c r="F59" s="68" t="s">
+      <c r="F59" s="9" t="s">
         <v>390</v>
       </c>
-      <c r="G59" s="41">
+      <c r="G59" s="10">
         <v>-575</v>
       </c>
       <c r="H59" s="40">
@@ -11235,13 +11234,13 @@
         <f>3038+SUM(O50:O59)</f>
         <v>538</v>
       </c>
-      <c r="Q59" s="39">
+      <c r="Q59" s="8">
         <v>57</v>
       </c>
-      <c r="R59" s="40" t="s">
+      <c r="R59" s="15" t="s">
         <v>439</v>
       </c>
-      <c r="S59" s="41">
+      <c r="S59" s="10">
         <v>-600</v>
       </c>
       <c r="U59" s="29">
@@ -11271,31 +11270,31 @@
         <f>2633+SUM(AE58:AE59)</f>
         <v>1383</v>
       </c>
-      <c r="AG59" s="39">
+      <c r="AG59" s="8">
         <v>57</v>
       </c>
-      <c r="AH59" s="68" t="s">
+      <c r="AH59" s="9" t="s">
         <v>374</v>
       </c>
-      <c r="AI59" s="41">
+      <c r="AI59" s="10">
         <v>0</v>
       </c>
-      <c r="AK59" s="39">
+      <c r="AK59" s="8">
         <v>57</v>
       </c>
-      <c r="AL59" s="68" t="s">
+      <c r="AL59" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="AM59" s="41">
+      <c r="AM59" s="10">
         <v>-2500</v>
       </c>
-      <c r="AO59" s="39">
+      <c r="AO59" s="8">
         <v>57</v>
       </c>
-      <c r="AP59" s="40" t="s">
+      <c r="AP59" s="15" t="s">
         <v>390</v>
       </c>
-      <c r="AQ59" s="41">
+      <c r="AQ59" s="10">
         <v>0</v>
       </c>
     </row>
@@ -11399,13 +11398,13 @@
         <v>442</v>
       </c>
       <c r="G61" s="31"/>
-      <c r="I61" s="39">
+      <c r="I61" s="8">
         <v>59</v>
       </c>
-      <c r="J61" s="40" t="s">
+      <c r="J61" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="K61" s="41">
+      <c r="K61" s="10">
         <v>-2000</v>
       </c>
       <c r="M61" s="32">
@@ -12302,41 +12301,46 @@
       </c>
     </row>
     <row r="82" spans="10:15" ht="15" customHeight="1">
-      <c r="J82" s="86" t="s">
+      <c r="J82" s="85" t="s">
         <v>485</v>
       </c>
-      <c r="K82" s="89">
+      <c r="K82" s="88">
         <f>SUM(C71,G71,K71,O71,S71,W71,AA71,AE71,AI71,AM71,AQ71)</f>
         <v>-403432</v>
       </c>
-      <c r="N82" s="90" t="s">
+      <c r="N82" s="89" t="s">
         <v>486</v>
       </c>
-      <c r="O82" s="90">
+      <c r="O82" s="89">
         <f>SUM(D71,H71,L71,P71,T71,X71,AB71,AF71,AJ71,AN71,AR71)</f>
         <v>-33942.5</v>
       </c>
     </row>
     <row r="83" spans="10:15">
-      <c r="J83" s="87"/>
-      <c r="K83" s="89"/>
-      <c r="N83" s="90"/>
-      <c r="O83" s="90"/>
+      <c r="J83" s="86"/>
+      <c r="K83" s="88"/>
+      <c r="N83" s="89"/>
+      <c r="O83" s="89"/>
     </row>
     <row r="84" spans="10:15">
-      <c r="J84" s="87"/>
-      <c r="K84" s="89"/>
-      <c r="N84" s="90"/>
-      <c r="O84" s="90"/>
+      <c r="J84" s="86"/>
+      <c r="K84" s="88"/>
+      <c r="N84" s="89"/>
+      <c r="O84" s="89"/>
     </row>
     <row r="85" spans="10:15">
-      <c r="J85" s="88"/>
-      <c r="K85" s="89"/>
-      <c r="N85" s="90"/>
-      <c r="O85" s="90"/>
+      <c r="J85" s="87"/>
+      <c r="K85" s="88"/>
+      <c r="N85" s="89"/>
+      <c r="O85" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="AO2:AQ2"/>
     <mergeCell ref="J82:J85"/>
     <mergeCell ref="K82:K85"/>
@@ -12347,11 +12351,6 @@
     <mergeCell ref="AC2:AE2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="AK2:AM2"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>
@@ -12362,8 +12361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AV89"/>
   <sheetViews>
-    <sheetView topLeftCell="I31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U61" sqref="U61:W61"/>
+    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59:G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -12494,66 +12493,66 @@
       </c>
     </row>
     <row r="2" spans="1:48">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="82" t="s">
         <v>487</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="85"/>
-      <c r="E2" s="83" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="84"/>
+      <c r="E2" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="84"/>
-      <c r="G2" s="85"/>
-      <c r="I2" s="83" t="s">
+      <c r="F2" s="83"/>
+      <c r="G2" s="84"/>
+      <c r="I2" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="84"/>
-      <c r="K2" s="85"/>
-      <c r="M2" s="83" t="s">
+      <c r="J2" s="83"/>
+      <c r="K2" s="84"/>
+      <c r="M2" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="84"/>
-      <c r="O2" s="85"/>
-      <c r="Q2" s="83" t="s">
+      <c r="N2" s="83"/>
+      <c r="O2" s="84"/>
+      <c r="Q2" s="82" t="s">
         <v>488</v>
       </c>
-      <c r="R2" s="84"/>
-      <c r="S2" s="85"/>
-      <c r="U2" s="83" t="s">
+      <c r="R2" s="83"/>
+      <c r="S2" s="84"/>
+      <c r="U2" s="82" t="s">
         <v>489</v>
       </c>
-      <c r="V2" s="84"/>
-      <c r="W2" s="85"/>
-      <c r="Y2" s="83" t="s">
+      <c r="V2" s="83"/>
+      <c r="W2" s="84"/>
+      <c r="Y2" s="82" t="s">
         <v>490</v>
       </c>
-      <c r="Z2" s="84"/>
-      <c r="AA2" s="85"/>
-      <c r="AC2" s="83" t="s">
+      <c r="Z2" s="83"/>
+      <c r="AA2" s="84"/>
+      <c r="AC2" s="82" t="s">
         <v>491</v>
       </c>
-      <c r="AD2" s="84"/>
-      <c r="AE2" s="85"/>
-      <c r="AG2" s="83" t="s">
+      <c r="AD2" s="83"/>
+      <c r="AE2" s="84"/>
+      <c r="AG2" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="AH2" s="84"/>
-      <c r="AI2" s="85"/>
-      <c r="AK2" s="83" t="s">
+      <c r="AH2" s="83"/>
+      <c r="AI2" s="84"/>
+      <c r="AK2" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="AL2" s="84"/>
-      <c r="AM2" s="85"/>
-      <c r="AO2" s="83" t="s">
+      <c r="AL2" s="83"/>
+      <c r="AM2" s="84"/>
+      <c r="AO2" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="AP2" s="84"/>
-      <c r="AQ2" s="85"/>
-      <c r="AS2" s="83" t="s">
+      <c r="AP2" s="83"/>
+      <c r="AQ2" s="84"/>
+      <c r="AS2" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="AT2" s="84"/>
-      <c r="AU2" s="85"/>
+      <c r="AT2" s="83"/>
+      <c r="AU2" s="84"/>
     </row>
     <row r="3" spans="1:48">
       <c r="A3" s="8">
@@ -19415,13 +19414,13 @@
         <v>-2000</v>
       </c>
       <c r="D59" s="28"/>
-      <c r="E59" s="39">
+      <c r="E59" s="8">
         <v>57</v>
       </c>
-      <c r="F59" s="68" t="s">
+      <c r="F59" s="9" t="s">
         <v>682</v>
       </c>
-      <c r="G59" s="41">
+      <c r="G59" s="10">
         <v>-2150</v>
       </c>
       <c r="I59" s="8">
@@ -19433,13 +19432,13 @@
       <c r="K59" s="10">
         <v>-298</v>
       </c>
-      <c r="M59" s="39">
+      <c r="M59" s="8">
         <v>57</v>
       </c>
-      <c r="N59" s="40" t="s">
+      <c r="N59" s="15" t="s">
         <v>682</v>
       </c>
-      <c r="O59" s="41">
+      <c r="O59" s="10">
         <v>0</v>
       </c>
       <c r="Q59" s="32">
@@ -19557,7 +19556,9 @@
       <c r="R60" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="S60" s="45"/>
+      <c r="S60" s="45">
+        <v>-650</v>
+      </c>
       <c r="U60" s="11">
         <v>58</v>
       </c>
@@ -19589,13 +19590,13 @@
       <c r="AE60" s="10">
         <v>-600</v>
       </c>
-      <c r="AG60" s="32">
+      <c r="AG60" s="11">
         <v>58</v>
       </c>
-      <c r="AH60" s="3" t="s">
+      <c r="AH60" s="14" t="s">
         <v>583</v>
       </c>
-      <c r="AI60" s="45">
+      <c r="AI60" s="13">
         <v>0</v>
       </c>
       <c r="AK60" s="29">
@@ -19658,13 +19659,13 @@
         <v>729</v>
       </c>
       <c r="S61" s="45"/>
-      <c r="U61" s="39">
+      <c r="U61" s="11">
         <v>59</v>
       </c>
-      <c r="V61" s="40" t="s">
+      <c r="V61" s="14" t="s">
         <v>535</v>
       </c>
-      <c r="W61" s="41">
+      <c r="W61" s="13">
         <v>0</v>
       </c>
       <c r="Y61" s="8">
@@ -19774,13 +19775,15 @@
         <v>592</v>
       </c>
       <c r="AA62" s="31"/>
-      <c r="AC62" s="29">
+      <c r="AC62" s="39">
         <v>60</v>
       </c>
-      <c r="AD62" t="s">
+      <c r="AD62" s="40" t="s">
         <v>651</v>
       </c>
-      <c r="AE62" s="31"/>
+      <c r="AE62" s="41">
+        <v>0</v>
+      </c>
       <c r="AG62" s="32">
         <v>60</v>
       </c>
@@ -20540,7 +20543,7 @@
       </c>
       <c r="S71" s="3">
         <f>SUM(S3:S70)</f>
-        <v>-24479</v>
+        <v>-25129</v>
       </c>
       <c r="T71" s="4">
         <f>SUM(T3:T70)</f>
@@ -20625,41 +20628,46 @@
       </c>
     </row>
     <row r="86" spans="10:15">
-      <c r="J86" s="86" t="s">
+      <c r="J86" s="85" t="s">
         <v>747</v>
       </c>
-      <c r="K86" s="91">
+      <c r="K86" s="90">
         <f>SUM(C71,G71,K71,O71,S71,W71,AA71,AE71,AI71,AM71,AQ71,AU71)</f>
-        <v>-272349</v>
-      </c>
-      <c r="N86" s="90" t="s">
+        <v>-272999</v>
+      </c>
+      <c r="N86" s="89" t="s">
         <v>748</v>
       </c>
-      <c r="O86" s="93">
+      <c r="O86" s="92">
         <f>SUM(D71,H71,L71,P71,T71,X71,AB71,AF71,AJ71,AN71,AR71,AV71)</f>
         <v>11594</v>
       </c>
     </row>
     <row r="87" spans="10:15">
-      <c r="J87" s="87"/>
-      <c r="K87" s="92"/>
-      <c r="N87" s="90"/>
-      <c r="O87" s="94"/>
+      <c r="J87" s="86"/>
+      <c r="K87" s="91"/>
+      <c r="N87" s="89"/>
+      <c r="O87" s="93"/>
     </row>
     <row r="88" spans="10:15">
-      <c r="J88" s="87"/>
-      <c r="K88" s="92"/>
-      <c r="N88" s="90"/>
-      <c r="O88" s="94"/>
+      <c r="J88" s="86"/>
+      <c r="K88" s="91"/>
+      <c r="N88" s="89"/>
+      <c r="O88" s="93"/>
     </row>
     <row r="89" spans="10:15">
-      <c r="J89" s="88"/>
-      <c r="K89" s="92"/>
-      <c r="N89" s="90"/>
-      <c r="O89" s="94"/>
+      <c r="J89" s="87"/>
+      <c r="K89" s="91"/>
+      <c r="N89" s="89"/>
+      <c r="O89" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="AO2:AQ2"/>
     <mergeCell ref="AS2:AU2"/>
     <mergeCell ref="J86:J89"/>
@@ -20671,11 +20679,6 @@
     <mergeCell ref="AC2:AE2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="AK2:AM2"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Ставки/КХЛ 23-24.xlsx
+++ b/Ставки/КХЛ 23-24.xlsx
@@ -2664,7 +2664,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2795,6 +2795,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% - Акцент4" xfId="4" builtinId="42"/>
@@ -3408,7 +3409,7 @@
   <dimension ref="E1:BK54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -4837,8 +4838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AR85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AO59" sqref="AO59:AQ59"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U60" sqref="U60:W60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -11074,6 +11075,9 @@
       <c r="AM57" s="10">
         <v>0</v>
       </c>
+      <c r="AN57" s="9">
+        <v>-4.5999999999999996</v>
+      </c>
       <c r="AO57" s="11">
         <v>55</v>
       </c>
@@ -11175,6 +11179,10 @@
       <c r="AM58" s="10">
         <v>-2500</v>
       </c>
+      <c r="AN58">
+        <f>AM60*AN57</f>
+        <v>6899.9999999999991</v>
+      </c>
       <c r="AO58" s="8">
         <v>56</v>
       </c>
@@ -11243,20 +11251,24 @@
       <c r="S59" s="10">
         <v>-600</v>
       </c>
-      <c r="U59" s="29">
+      <c r="U59" s="8">
         <v>57</v>
       </c>
-      <c r="V59" s="30" t="s">
+      <c r="V59" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="W59" s="31"/>
-      <c r="Y59" s="29">
+      <c r="W59" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="39">
         <v>57</v>
       </c>
-      <c r="Z59" s="30" t="s">
+      <c r="Z59" s="94" t="s">
         <v>440</v>
       </c>
-      <c r="AA59" s="31"/>
+      <c r="AA59" s="41">
+        <v>0</v>
+      </c>
       <c r="AC59" s="11">
         <v>57</v>
       </c>
@@ -11299,20 +11311,24 @@
       </c>
     </row>
     <row r="60" spans="1:44">
-      <c r="A60" s="29">
+      <c r="A60" s="39">
         <v>58</v>
       </c>
-      <c r="B60" s="30" t="s">
+      <c r="B60" s="94" t="s">
         <v>155</v>
       </c>
-      <c r="C60" s="31"/>
-      <c r="E60" s="29">
+      <c r="C60" s="41">
+        <v>-2500</v>
+      </c>
+      <c r="E60" s="39">
         <v>58</v>
       </c>
-      <c r="F60" s="30" t="s">
+      <c r="F60" s="94" t="s">
         <v>155</v>
       </c>
-      <c r="G60" s="31"/>
+      <c r="G60" s="41">
+        <v>-700</v>
+      </c>
       <c r="I60" s="8">
         <v>58</v>
       </c>
@@ -11331,20 +11347,24 @@
       <c r="O60" s="45">
         <v>0</v>
       </c>
-      <c r="Q60" s="29">
+      <c r="Q60" s="39">
         <v>58</v>
       </c>
-      <c r="R60" t="s">
+      <c r="R60" s="40" t="s">
         <v>208</v>
       </c>
-      <c r="S60" s="31"/>
-      <c r="U60" s="29">
+      <c r="S60" s="41">
+        <v>-650</v>
+      </c>
+      <c r="U60" s="39">
         <v>58</v>
       </c>
-      <c r="V60" s="30" t="s">
+      <c r="V60" s="94" t="s">
         <v>288</v>
       </c>
-      <c r="W60" s="31"/>
+      <c r="W60" s="41">
+        <v>0</v>
+      </c>
       <c r="Y60" s="29">
         <v>58</v>
       </c>
@@ -11361,27 +11381,37 @@
       <c r="AE60" s="10">
         <v>0</v>
       </c>
-      <c r="AG60" s="29">
+      <c r="AG60" s="39">
         <v>58</v>
       </c>
-      <c r="AH60" s="30" t="s">
+      <c r="AH60" s="94" t="s">
         <v>440</v>
       </c>
-      <c r="AI60" s="31"/>
-      <c r="AK60" s="29">
+      <c r="AI60" s="41">
+        <v>0</v>
+      </c>
+      <c r="AK60" s="39">
         <v>58</v>
       </c>
-      <c r="AL60" s="30" t="s">
+      <c r="AL60" s="94" t="s">
         <v>208</v>
       </c>
-      <c r="AM60" s="31"/>
-      <c r="AO60" s="29">
+      <c r="AM60" s="41">
+        <v>-1500</v>
+      </c>
+      <c r="AN60">
+        <f>AN58+SUM(AM58:AM60)</f>
+        <v>399.99999999999909</v>
+      </c>
+      <c r="AO60" s="39">
         <v>58</v>
       </c>
-      <c r="AP60" t="s">
+      <c r="AP60" s="40" t="s">
         <v>293</v>
       </c>
-      <c r="AQ60" s="31"/>
+      <c r="AQ60" s="41">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="1:44">
       <c r="A61" s="29">
@@ -11413,7 +11443,9 @@
       <c r="N61" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="O61" s="45"/>
+      <c r="O61" s="45">
+        <v>0</v>
+      </c>
       <c r="Q61" s="29">
         <v>59</v>
       </c>
@@ -11481,20 +11513,24 @@
         <v>445</v>
       </c>
       <c r="G62" s="31"/>
-      <c r="I62" s="29">
+      <c r="I62" s="39">
         <v>60</v>
       </c>
-      <c r="J62" t="s">
+      <c r="J62" s="40" t="s">
         <v>446</v>
       </c>
-      <c r="K62" s="31"/>
+      <c r="K62" s="41">
+        <v>-2000</v>
+      </c>
       <c r="M62" s="32">
         <v>60</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="O62" s="45"/>
+      <c r="O62" s="45">
+        <v>0</v>
+      </c>
       <c r="Q62" s="29">
         <v>60</v>
       </c>
@@ -12183,7 +12219,7 @@
       </c>
       <c r="C71" s="3">
         <f>SUM(C3:C70)</f>
-        <v>-147102</v>
+        <v>-149602</v>
       </c>
       <c r="D71" s="4">
         <f>SUM(D3:D70)</f>
@@ -12194,7 +12230,7 @@
       </c>
       <c r="G71" s="3">
         <f>SUM(G3:G70)</f>
-        <v>-25252</v>
+        <v>-25952</v>
       </c>
       <c r="H71" s="4">
         <f>SUM(H3:H70)</f>
@@ -12205,7 +12241,7 @@
       </c>
       <c r="K71" s="3">
         <f>SUM(K3:K70)</f>
-        <v>-24799</v>
+        <v>-26799</v>
       </c>
       <c r="L71" s="4">
         <f>SUM(L3:L70)</f>
@@ -12227,7 +12263,7 @@
       </c>
       <c r="S71" s="3">
         <f>SUM(S3:S70)</f>
-        <v>-46289</v>
+        <v>-46939</v>
       </c>
       <c r="T71" s="4">
         <f>SUM(T3:T70)</f>
@@ -12282,11 +12318,11 @@
       </c>
       <c r="AM71" s="3">
         <f>SUM(AM3:AM70)</f>
-        <v>-14544</v>
+        <v>-16044</v>
       </c>
       <c r="AN71" s="4">
         <f>SUM(AN3:AN70)</f>
-        <v>947</v>
+        <v>8242.3999999999978</v>
       </c>
       <c r="AO71" t="s">
         <v>484</v>
@@ -12306,14 +12342,14 @@
       </c>
       <c r="K82" s="88">
         <f>SUM(C71,G71,K71,O71,S71,W71,AA71,AE71,AI71,AM71,AQ71)</f>
-        <v>-403432</v>
+        <v>-410782</v>
       </c>
       <c r="N82" s="89" t="s">
         <v>486</v>
       </c>
       <c r="O82" s="89">
         <f>SUM(D71,H71,L71,P71,T71,X71,AB71,AF71,AJ71,AN71,AR71)</f>
-        <v>-33942.5</v>
+        <v>-26647.100000000002</v>
       </c>
     </row>
     <row r="83" spans="10:15">
@@ -12336,11 +12372,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="AO2:AQ2"/>
     <mergeCell ref="J82:J85"/>
     <mergeCell ref="K82:K85"/>
@@ -12351,6 +12382,11 @@
     <mergeCell ref="AC2:AE2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="AK2:AM2"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>
@@ -12361,8 +12397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AV89"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59:G59"/>
+    <sheetView topLeftCell="X34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AS60" sqref="AS60:AU60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -19486,13 +19522,15 @@
       <c r="AI59" s="45">
         <v>0</v>
       </c>
-      <c r="AK59" s="29">
+      <c r="AK59" s="8">
         <v>57</v>
       </c>
-      <c r="AL59" t="s">
+      <c r="AL59" s="15" t="s">
         <v>724</v>
       </c>
-      <c r="AM59" s="31"/>
+      <c r="AM59" s="10">
+        <v>0</v>
+      </c>
       <c r="AO59" s="11">
         <v>57</v>
       </c>
@@ -19527,13 +19565,15 @@
         <v>-2350</v>
       </c>
       <c r="D60" s="22"/>
-      <c r="E60" s="29">
+      <c r="E60" s="39">
         <v>58</v>
       </c>
-      <c r="F60" s="30" t="s">
+      <c r="F60" s="94" t="s">
         <v>592</v>
       </c>
-      <c r="G60" s="31"/>
+      <c r="G60" s="41">
+        <v>-2980</v>
+      </c>
       <c r="I60" s="8">
         <v>58</v>
       </c>
@@ -19599,13 +19639,15 @@
       <c r="AI60" s="13">
         <v>0</v>
       </c>
-      <c r="AK60" s="29">
+      <c r="AK60" s="39">
         <v>58</v>
       </c>
-      <c r="AL60" t="s">
+      <c r="AL60" s="40" t="s">
         <v>519</v>
       </c>
-      <c r="AM60" s="31"/>
+      <c r="AM60" s="41">
+        <v>0</v>
+      </c>
       <c r="AO60" s="32">
         <v>58</v>
       </c>
@@ -19615,13 +19657,15 @@
       <c r="AQ60" s="45">
         <v>-600</v>
       </c>
-      <c r="AS60" s="29">
+      <c r="AS60" s="39">
         <v>58</v>
       </c>
-      <c r="AT60" t="s">
+      <c r="AT60" s="40" t="s">
         <v>727</v>
       </c>
-      <c r="AU60" s="31"/>
+      <c r="AU60" s="41">
+        <v>-650</v>
+      </c>
     </row>
     <row r="61" spans="1:48">
       <c r="A61">
@@ -19638,13 +19682,15 @@
         <v>728</v>
       </c>
       <c r="G61" s="31"/>
-      <c r="I61" s="29">
+      <c r="I61" s="39">
         <v>59</v>
       </c>
-      <c r="J61" t="s">
+      <c r="J61" s="40" t="s">
         <v>519</v>
       </c>
-      <c r="K61" s="31"/>
+      <c r="K61" s="41">
+        <v>-500</v>
+      </c>
       <c r="M61" s="29">
         <v>59</v>
       </c>
@@ -19761,27 +19807,31 @@
         <v>445</v>
       </c>
       <c r="S62" s="45"/>
-      <c r="U62" s="29">
+      <c r="U62" s="39">
         <v>60</v>
       </c>
-      <c r="V62" t="s">
+      <c r="V62" s="40" t="s">
         <v>446</v>
       </c>
-      <c r="W62" s="31"/>
-      <c r="Y62" s="29">
+      <c r="W62" s="41">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="39">
         <v>60</v>
       </c>
-      <c r="Z62" t="s">
+      <c r="Z62" s="40" t="s">
         <v>592</v>
       </c>
-      <c r="AA62" s="31"/>
-      <c r="AC62" s="39">
+      <c r="AA62" s="41">
+        <v>-1550</v>
+      </c>
+      <c r="AC62" s="8">
         <v>60</v>
       </c>
-      <c r="AD62" s="40" t="s">
+      <c r="AD62" s="15" t="s">
         <v>651</v>
       </c>
-      <c r="AE62" s="41">
+      <c r="AE62" s="10">
         <v>0</v>
       </c>
       <c r="AG62" s="32">
@@ -20510,7 +20560,7 @@
       </c>
       <c r="G71" s="3">
         <f>SUM(G3:G70)</f>
-        <v>-11410</v>
+        <v>-14390</v>
       </c>
       <c r="H71" s="4">
         <f>SUM(H3:H70)</f>
@@ -20521,7 +20571,7 @@
       </c>
       <c r="K71" s="3">
         <f>SUM(K3:K70)</f>
-        <v>-5307</v>
+        <v>-5807</v>
       </c>
       <c r="L71" s="4">
         <f>SUM(L3:L70)</f>
@@ -20565,7 +20615,7 @@
       </c>
       <c r="AA71" s="3">
         <f>SUM(AA3:AA70)</f>
-        <v>-9551</v>
+        <v>-11101</v>
       </c>
       <c r="AB71" s="4">
         <f>SUM(AB3:AB70)</f>
@@ -20620,7 +20670,7 @@
       </c>
       <c r="AU71" s="3">
         <f>SUM(AU3:AU70)</f>
-        <v>-35357</v>
+        <v>-36007</v>
       </c>
       <c r="AV71" s="4">
         <f>SUM(AV3:AV70)</f>
@@ -20633,7 +20683,7 @@
       </c>
       <c r="K86" s="90">
         <f>SUM(C71,G71,K71,O71,S71,W71,AA71,AE71,AI71,AM71,AQ71,AU71)</f>
-        <v>-272999</v>
+        <v>-278679</v>
       </c>
       <c r="N86" s="89" t="s">
         <v>748</v>
@@ -20663,11 +20713,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="AO2:AQ2"/>
     <mergeCell ref="AS2:AU2"/>
     <mergeCell ref="J86:J89"/>
@@ -20679,6 +20724,11 @@
     <mergeCell ref="AC2:AE2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="AK2:AM2"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Ставки/КХЛ 23-24.xlsx
+++ b/Ставки/КХЛ 23-24.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="11010" firstSheet="1" activeTab="3"/>
+    <workbookView windowWidth="24000" windowHeight="11010" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="22-23" sheetId="1" r:id="rId1"/>
@@ -2510,7 +2510,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2543,6 +2543,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2550,12 +2556,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2592,12 +2592,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2670,12 +2664,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3091,13 +3079,13 @@
     <xf numFmtId="0" fontId="16" fillId="14" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -3108,81 +3096,81 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3224,9 +3212,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="23" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="23" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="22" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3238,9 +3223,11 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="22" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="22" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="22" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="17" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="17" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="23" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="23" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3285,14 +3272,16 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="23" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="23" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="23" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="23" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="23" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="23" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="22" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="23" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="23" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="23" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="17" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3976,261 +3965,261 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="5:63">
-      <c r="E1" s="86" t="s">
+      <c r="E1" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="87">
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="88">
         <v>3.6</v>
       </c>
-      <c r="J1" s="91" t="s">
+      <c r="J1" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="87">
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="88">
         <v>3.7</v>
       </c>
-      <c r="O1" s="91" t="s">
+      <c r="O1" s="92" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="87">
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="88">
         <v>3.8</v>
       </c>
-      <c r="T1" s="91" t="s">
+      <c r="T1" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
-      <c r="W1" s="87">
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
+      <c r="W1" s="88">
         <v>3.9</v>
       </c>
-      <c r="Y1" s="91" t="s">
+      <c r="Y1" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="Z1" s="86"/>
-      <c r="AA1" s="86"/>
-      <c r="AB1" s="87">
+      <c r="Z1" s="87"/>
+      <c r="AA1" s="87"/>
+      <c r="AB1" s="88">
         <v>4</v>
       </c>
-      <c r="AD1" s="91" t="s">
+      <c r="AD1" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="AE1" s="86"/>
-      <c r="AF1" s="86"/>
-      <c r="AG1" s="87">
+      <c r="AE1" s="87"/>
+      <c r="AF1" s="87"/>
+      <c r="AG1" s="88">
         <v>4.1</v>
       </c>
-      <c r="AI1" s="91" t="s">
+      <c r="AI1" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="86"/>
-      <c r="AK1" s="86"/>
-      <c r="AL1" s="87">
+      <c r="AJ1" s="87"/>
+      <c r="AK1" s="87"/>
+      <c r="AL1" s="88">
         <v>4.2</v>
       </c>
-      <c r="AN1" s="91" t="s">
+      <c r="AN1" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="AO1" s="86"/>
-      <c r="AP1" s="86"/>
-      <c r="AQ1" s="87">
+      <c r="AO1" s="87"/>
+      <c r="AP1" s="87"/>
+      <c r="AQ1" s="88">
         <v>4.3</v>
       </c>
-      <c r="AS1" s="91" t="s">
+      <c r="AS1" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="AT1" s="86"/>
-      <c r="AU1" s="86"/>
-      <c r="AV1" s="87">
+      <c r="AT1" s="87"/>
+      <c r="AU1" s="87"/>
+      <c r="AV1" s="88">
         <v>4.4</v>
       </c>
-      <c r="AX1" s="91" t="s">
+      <c r="AX1" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="AY1" s="86"/>
-      <c r="AZ1" s="86"/>
-      <c r="BA1" s="87">
+      <c r="AY1" s="87"/>
+      <c r="AZ1" s="87"/>
+      <c r="BA1" s="88">
         <v>4.5</v>
       </c>
-      <c r="BC1" s="91" t="s">
+      <c r="BC1" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="BD1" s="86"/>
-      <c r="BE1" s="86"/>
-      <c r="BF1" s="87">
+      <c r="BD1" s="87"/>
+      <c r="BE1" s="87"/>
+      <c r="BF1" s="88">
         <v>4.6</v>
       </c>
-      <c r="BH1" s="91" t="s">
+      <c r="BH1" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="BI1" s="86"/>
-      <c r="BJ1" s="86"/>
-      <c r="BK1" s="87">
+      <c r="BI1" s="87"/>
+      <c r="BJ1" s="87"/>
+      <c r="BK1" s="88">
         <v>4.7</v>
       </c>
     </row>
     <row r="2" ht="15" spans="5:63">
-      <c r="E2" s="86" t="s">
+      <c r="E2" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="86" t="s">
+      <c r="F2" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="86" t="s">
+      <c r="G2" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="86" t="s">
+      <c r="H2" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="86" t="s">
+      <c r="J2" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="86" t="s">
+      <c r="K2" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="86" t="s">
+      <c r="L2" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="M2" s="86" t="s">
+      <c r="M2" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="O2" s="86" t="s">
+      <c r="O2" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="86" t="s">
+      <c r="P2" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" s="86" t="s">
+      <c r="Q2" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="R2" s="86" t="s">
+      <c r="R2" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="T2" s="86" t="s">
+      <c r="T2" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="U2" s="86" t="s">
+      <c r="U2" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="V2" s="86" t="s">
+      <c r="V2" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="W2" s="86" t="s">
+      <c r="W2" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="Y2" s="86" t="s">
+      <c r="Y2" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="86" t="s">
+      <c r="Z2" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="AA2" s="86" t="s">
+      <c r="AA2" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="AB2" s="86" t="s">
+      <c r="AB2" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="AD2" s="86" t="s">
+      <c r="AD2" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="AE2" s="86" t="s">
+      <c r="AE2" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="AF2" s="86" t="s">
+      <c r="AF2" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="AG2" s="86" t="s">
+      <c r="AG2" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="AI2" s="86" t="s">
+      <c r="AI2" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="AJ2" s="86" t="s">
+      <c r="AJ2" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="AK2" s="86" t="s">
+      <c r="AK2" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="AL2" s="86" t="s">
+      <c r="AL2" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="AN2" s="91" t="s">
+      <c r="AN2" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="AO2" s="86" t="s">
+      <c r="AO2" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="AP2" s="86" t="s">
+      <c r="AP2" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="AQ2" s="86" t="s">
+      <c r="AQ2" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="AS2" s="86" t="s">
+      <c r="AS2" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="AT2" s="86" t="s">
+      <c r="AT2" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="AU2" s="86" t="s">
+      <c r="AU2" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="AV2" s="86" t="s">
+      <c r="AV2" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="AX2" s="86" t="s">
+      <c r="AX2" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="AY2" s="86" t="s">
+      <c r="AY2" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="AZ2" s="86" t="s">
+      <c r="AZ2" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="BA2" s="86" t="s">
+      <c r="BA2" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="BC2" s="86" t="s">
+      <c r="BC2" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="BD2" s="86" t="s">
+      <c r="BD2" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="BE2" s="86" t="s">
+      <c r="BE2" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="BF2" s="86" t="s">
+      <c r="BF2" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="BH2" s="86" t="s">
+      <c r="BH2" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="BI2" s="86" t="s">
+      <c r="BI2" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="BJ2" s="86" t="s">
+      <c r="BJ2" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="BK2" s="86" t="s">
+      <c r="BK2" s="87" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="3" spans="5:43">
-      <c r="E3" s="88">
+      <c r="E3" s="89">
         <v>1</v>
       </c>
-      <c r="F3" s="89">
+      <c r="F3" s="90">
         <v>60</v>
       </c>
-      <c r="G3" s="88">
+      <c r="G3" s="89">
         <f>$H$1*F3</f>
         <v>216</v>
       </c>
-      <c r="H3" s="88">
+      <c r="H3" s="89">
         <f>G3-F3</f>
         <v>156</v>
       </c>
@@ -4264,17 +4253,17 @@
       </c>
     </row>
     <row r="4" spans="5:43">
-      <c r="E4" s="88">
+      <c r="E4" s="89">
         <v>2</v>
       </c>
-      <c r="F4" s="89">
+      <c r="F4" s="90">
         <v>65</v>
       </c>
-      <c r="G4" s="88">
+      <c r="G4" s="89">
         <f>$H$1*F4</f>
         <v>234</v>
       </c>
-      <c r="H4" s="88">
+      <c r="H4" s="89">
         <f>G4-SUM($F$3:F4)</f>
         <v>109</v>
       </c>
@@ -4308,17 +4297,17 @@
       </c>
     </row>
     <row r="5" spans="5:43">
-      <c r="E5" s="88">
+      <c r="E5" s="89">
         <v>3</v>
       </c>
-      <c r="F5" s="89">
+      <c r="F5" s="90">
         <v>75</v>
       </c>
-      <c r="G5" s="88">
+      <c r="G5" s="89">
         <f t="shared" ref="G5:G23" si="1">$H$1*F5</f>
         <v>270</v>
       </c>
-      <c r="H5" s="88">
+      <c r="H5" s="89">
         <f>G5-SUM($F$3:F5)</f>
         <v>70</v>
       </c>
@@ -4352,17 +4341,17 @@
       </c>
     </row>
     <row r="6" spans="5:43">
-      <c r="E6" s="88">
+      <c r="E6" s="89">
         <v>4</v>
       </c>
-      <c r="F6" s="89">
+      <c r="F6" s="90">
         <v>90</v>
       </c>
-      <c r="G6" s="88">
+      <c r="G6" s="89">
         <f t="shared" si="1"/>
         <v>324</v>
       </c>
-      <c r="H6" s="88">
+      <c r="H6" s="89">
         <f>G6-SUM($F$3:F6)</f>
         <v>34</v>
       </c>
@@ -4396,17 +4385,17 @@
       </c>
     </row>
     <row r="7" spans="5:43">
-      <c r="E7" s="88">
+      <c r="E7" s="89">
         <v>5</v>
       </c>
-      <c r="F7" s="89">
+      <c r="F7" s="90">
         <v>112</v>
       </c>
-      <c r="G7" s="88">
+      <c r="G7" s="89">
         <f t="shared" si="1"/>
         <v>403.2</v>
       </c>
-      <c r="H7" s="88">
+      <c r="H7" s="89">
         <f>G7-SUM($F$3:F7)</f>
         <v>1.19999999999999</v>
       </c>
@@ -4429,17 +4418,17 @@
       </c>
     </row>
     <row r="8" spans="5:43">
-      <c r="E8" s="88">
+      <c r="E8" s="89">
         <v>6</v>
       </c>
-      <c r="F8" s="89">
+      <c r="F8" s="90">
         <v>155</v>
       </c>
-      <c r="G8" s="88">
+      <c r="G8" s="89">
         <f t="shared" si="1"/>
         <v>558</v>
       </c>
-      <c r="H8" s="88">
+      <c r="H8" s="89">
         <f>G8-SUM($F$3:F8)</f>
         <v>1</v>
       </c>
@@ -4462,17 +4451,17 @@
       </c>
     </row>
     <row r="9" spans="5:43">
-      <c r="E9" s="88">
+      <c r="E9" s="89">
         <v>7</v>
       </c>
-      <c r="F9" s="89">
+      <c r="F9" s="90">
         <v>215</v>
       </c>
-      <c r="G9" s="88">
+      <c r="G9" s="89">
         <f t="shared" si="1"/>
         <v>774</v>
       </c>
-      <c r="H9" s="88">
+      <c r="H9" s="89">
         <f>G9-SUM($F$3:F9)</f>
         <v>2</v>
       </c>
@@ -4495,17 +4484,17 @@
       </c>
     </row>
     <row r="10" spans="5:43">
-      <c r="E10" s="88">
+      <c r="E10" s="89">
         <v>8</v>
       </c>
-      <c r="F10" s="89">
+      <c r="F10" s="90">
         <v>298</v>
       </c>
-      <c r="G10" s="88">
+      <c r="G10" s="89">
         <f t="shared" si="1"/>
         <v>1072.8</v>
       </c>
-      <c r="H10" s="88">
+      <c r="H10" s="89">
         <f>G10-SUM($F$3:F10)</f>
         <v>2.79999999999995</v>
       </c>
@@ -4528,17 +4517,17 @@
       </c>
     </row>
     <row r="11" spans="5:43">
-      <c r="E11" s="88">
+      <c r="E11" s="89">
         <v>9</v>
       </c>
-      <c r="F11" s="89">
+      <c r="F11" s="90">
         <v>415</v>
       </c>
-      <c r="G11" s="88">
+      <c r="G11" s="89">
         <f t="shared" si="1"/>
         <v>1494</v>
       </c>
-      <c r="H11" s="88">
+      <c r="H11" s="89">
         <f>G11-SUM($F$3:F11)</f>
         <v>9</v>
       </c>
@@ -4561,17 +4550,17 @@
       </c>
     </row>
     <row r="12" spans="5:43">
-      <c r="E12" s="88">
+      <c r="E12" s="89">
         <v>10</v>
       </c>
-      <c r="F12" s="89">
+      <c r="F12" s="90">
         <v>572</v>
       </c>
-      <c r="G12" s="88">
+      <c r="G12" s="89">
         <f t="shared" si="1"/>
         <v>2059.2</v>
       </c>
-      <c r="H12" s="88">
+      <c r="H12" s="89">
         <f>G12-SUM($F$3:F12)</f>
         <v>2.20000000000027</v>
       </c>
@@ -4594,17 +4583,17 @@
       </c>
     </row>
     <row r="13" spans="5:43">
-      <c r="E13" s="88">
+      <c r="E13" s="89">
         <v>11</v>
       </c>
-      <c r="F13" s="89">
+      <c r="F13" s="90">
         <v>792</v>
       </c>
-      <c r="G13" s="88">
+      <c r="G13" s="89">
         <f t="shared" si="1"/>
         <v>2851.2</v>
       </c>
-      <c r="H13" s="88">
+      <c r="H13" s="89">
         <f>G13-SUM($F$3:F13)</f>
         <v>2.20000000000027</v>
       </c>
@@ -4627,17 +4616,17 @@
       </c>
     </row>
     <row r="14" spans="5:43">
-      <c r="E14" s="88">
+      <c r="E14" s="89">
         <v>12</v>
       </c>
-      <c r="F14" s="89">
+      <c r="F14" s="90">
         <v>1098</v>
       </c>
-      <c r="G14" s="88">
+      <c r="G14" s="89">
         <f t="shared" si="1"/>
         <v>3952.8</v>
       </c>
-      <c r="H14" s="88">
+      <c r="H14" s="89">
         <f>G14-SUM($F$3:F14)</f>
         <v>5.80000000000018</v>
       </c>
@@ -4660,17 +4649,17 @@
       </c>
     </row>
     <row r="15" spans="5:43">
-      <c r="E15" s="88">
+      <c r="E15" s="89">
         <v>13</v>
       </c>
-      <c r="F15" s="89">
+      <c r="F15" s="90">
         <v>1520</v>
       </c>
-      <c r="G15" s="88">
+      <c r="G15" s="89">
         <f t="shared" si="1"/>
         <v>5472</v>
       </c>
-      <c r="H15" s="88">
+      <c r="H15" s="89">
         <f>G15-SUM($F$3:F15)</f>
         <v>5</v>
       </c>
@@ -4693,17 +4682,17 @@
       </c>
     </row>
     <row r="16" spans="5:43">
-      <c r="E16" s="88">
+      <c r="E16" s="89">
         <v>14</v>
       </c>
-      <c r="F16" s="89">
+      <c r="F16" s="90">
         <v>2105</v>
       </c>
-      <c r="G16" s="88">
+      <c r="G16" s="89">
         <f t="shared" si="1"/>
         <v>7578</v>
       </c>
-      <c r="H16" s="88">
+      <c r="H16" s="89">
         <f>G16-SUM($F$3:F16)</f>
         <v>6</v>
       </c>
@@ -4726,17 +4715,17 @@
       </c>
     </row>
     <row r="17" spans="5:43">
-      <c r="E17" s="88">
+      <c r="E17" s="89">
         <v>15</v>
       </c>
-      <c r="F17" s="89">
+      <c r="F17" s="90">
         <v>2915</v>
       </c>
-      <c r="G17" s="88">
+      <c r="G17" s="89">
         <f t="shared" si="1"/>
         <v>10494</v>
       </c>
-      <c r="H17" s="88">
+      <c r="H17" s="89">
         <f>G17-SUM($F$3:F17)</f>
         <v>7</v>
       </c>
@@ -4759,17 +4748,17 @@
       </c>
     </row>
     <row r="18" spans="5:43">
-      <c r="E18" s="88">
+      <c r="E18" s="89">
         <v>16</v>
       </c>
-      <c r="F18" s="89">
+      <c r="F18" s="90">
         <v>4035</v>
       </c>
-      <c r="G18" s="88">
+      <c r="G18" s="89">
         <f t="shared" si="1"/>
         <v>14526</v>
       </c>
-      <c r="H18" s="88">
+      <c r="H18" s="89">
         <f>G18-SUM($F$3:F18)</f>
         <v>4</v>
       </c>
@@ -4792,17 +4781,17 @@
       </c>
     </row>
     <row r="19" spans="5:43">
-      <c r="E19" s="88">
+      <c r="E19" s="89">
         <v>17</v>
       </c>
-      <c r="F19" s="89">
+      <c r="F19" s="90">
         <v>5585</v>
       </c>
-      <c r="G19" s="88">
+      <c r="G19" s="89">
         <f t="shared" si="1"/>
         <v>20106</v>
       </c>
-      <c r="H19" s="88">
+      <c r="H19" s="89">
         <f>G19-SUM($F$3:F19)</f>
         <v>-1</v>
       </c>
@@ -4825,17 +4814,17 @@
       </c>
     </row>
     <row r="20" spans="5:43">
-      <c r="E20" s="88">
+      <c r="E20" s="89">
         <v>18</v>
       </c>
-      <c r="F20" s="89">
+      <c r="F20" s="90">
         <v>7735</v>
       </c>
-      <c r="G20" s="88">
+      <c r="G20" s="89">
         <f t="shared" si="1"/>
         <v>27846</v>
       </c>
-      <c r="H20" s="88">
+      <c r="H20" s="89">
         <f>G20-SUM($F$3:F20)</f>
         <v>4</v>
       </c>
@@ -4858,17 +4847,17 @@
       </c>
     </row>
     <row r="21" spans="5:43">
-      <c r="E21" s="88">
+      <c r="E21" s="89">
         <v>19</v>
       </c>
-      <c r="F21" s="89">
+      <c r="F21" s="90">
         <v>10710</v>
       </c>
-      <c r="G21" s="88">
+      <c r="G21" s="89">
         <f t="shared" si="1"/>
         <v>38556</v>
       </c>
-      <c r="H21" s="88">
+      <c r="H21" s="89">
         <f>G21-SUM($F$3:F21)</f>
         <v>4</v>
       </c>
@@ -4891,17 +4880,17 @@
       </c>
     </row>
     <row r="22" spans="5:43">
-      <c r="E22" s="88">
+      <c r="E22" s="89">
         <v>20</v>
       </c>
-      <c r="F22" s="89">
+      <c r="F22" s="90">
         <v>14830</v>
       </c>
-      <c r="G22" s="88">
+      <c r="G22" s="89">
         <f t="shared" si="1"/>
         <v>53388</v>
       </c>
-      <c r="H22" s="88">
+      <c r="H22" s="89">
         <f>G22-SUM($F$3:F22)</f>
         <v>6</v>
       </c>
@@ -4924,17 +4913,17 @@
       </c>
     </row>
     <row r="23" spans="5:43">
-      <c r="E23" s="88">
+      <c r="E23" s="89">
         <v>21</v>
       </c>
-      <c r="F23" s="89">
+      <c r="F23" s="90">
         <v>20850</v>
       </c>
-      <c r="G23" s="88">
+      <c r="G23" s="89">
         <f t="shared" si="1"/>
         <v>75060</v>
       </c>
-      <c r="H23" s="88">
+      <c r="H23" s="89">
         <f>G23-SUM($F$3:F23)</f>
         <v>828</v>
       </c>
@@ -4954,12 +4943,12 @@
       </c>
     </row>
     <row r="24" spans="5:43">
-      <c r="E24" s="88">
+      <c r="E24" s="89">
         <v>22</v>
       </c>
-      <c r="F24" s="89"/>
-      <c r="G24" s="88"/>
-      <c r="H24" s="88">
+      <c r="F24" s="90"/>
+      <c r="G24" s="89"/>
+      <c r="H24" s="89">
         <f>G24-SUM($F$3:F24)</f>
         <v>-74232</v>
       </c>
@@ -4975,12 +4964,12 @@
       </c>
     </row>
     <row r="25" spans="5:43">
-      <c r="E25" s="88">
+      <c r="E25" s="89">
         <v>23</v>
       </c>
-      <c r="F25" s="89"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="88">
+      <c r="F25" s="90"/>
+      <c r="G25" s="89"/>
+      <c r="H25" s="89">
         <f>G25-SUM($F$3:F25)</f>
         <v>-74232</v>
       </c>
@@ -4996,12 +4985,12 @@
       </c>
     </row>
     <row r="26" spans="5:43">
-      <c r="E26" s="88">
+      <c r="E26" s="89">
         <v>24</v>
       </c>
-      <c r="F26" s="89"/>
-      <c r="G26" s="88"/>
-      <c r="H26" s="88">
+      <c r="F26" s="90"/>
+      <c r="G26" s="89"/>
+      <c r="H26" s="89">
         <f>G26-SUM($F$3:F26)</f>
         <v>-74232</v>
       </c>
@@ -5017,356 +5006,356 @@
       </c>
     </row>
     <row r="29" ht="15" spans="5:8">
-      <c r="E29" s="86" t="s">
+      <c r="E29" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="F29" s="86"/>
-      <c r="G29" s="86"/>
-      <c r="H29" s="87">
+      <c r="F29" s="87"/>
+      <c r="G29" s="87"/>
+      <c r="H29" s="88">
         <v>3.6</v>
       </c>
     </row>
     <row r="30" ht="15" spans="5:8">
-      <c r="E30" s="86" t="s">
+      <c r="E30" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="F30" s="86" t="s">
+      <c r="F30" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="G30" s="86" t="s">
+      <c r="G30" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="H30" s="86" t="s">
+      <c r="H30" s="87" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="31" spans="5:8">
-      <c r="E31" s="88">
+      <c r="E31" s="89">
         <v>1</v>
       </c>
-      <c r="F31" s="89">
+      <c r="F31" s="90">
         <v>112</v>
       </c>
-      <c r="G31" s="90">
+      <c r="G31" s="91">
         <f>F31*$H$29</f>
         <v>403.2</v>
       </c>
-      <c r="H31" s="90">
+      <c r="H31" s="91">
         <f>G31-F31</f>
         <v>291.2</v>
       </c>
     </row>
     <row r="32" spans="5:8">
-      <c r="E32" s="88">
+      <c r="E32" s="89">
         <v>2</v>
       </c>
-      <c r="F32" s="89">
+      <c r="F32" s="90">
         <v>155</v>
       </c>
-      <c r="G32" s="90">
+      <c r="G32" s="91">
         <f>F32*$H$29</f>
         <v>558</v>
       </c>
-      <c r="H32" s="90">
+      <c r="H32" s="91">
         <f>G32-SUM($F$31:F32)</f>
         <v>291</v>
       </c>
     </row>
     <row r="33" spans="5:8">
-      <c r="E33" s="88">
+      <c r="E33" s="89">
         <v>3</v>
       </c>
-      <c r="F33" s="89">
+      <c r="F33" s="90">
         <v>215</v>
       </c>
-      <c r="G33" s="90">
+      <c r="G33" s="91">
         <f t="shared" ref="G33:G47" si="2">F33*$H$29</f>
         <v>774</v>
       </c>
-      <c r="H33" s="90">
+      <c r="H33" s="91">
         <f>G33-SUM($F$31:F33)</f>
         <v>292</v>
       </c>
     </row>
     <row r="34" spans="5:8">
-      <c r="E34" s="88">
+      <c r="E34" s="89">
         <v>4</v>
       </c>
-      <c r="F34" s="89">
+      <c r="F34" s="90">
         <v>298</v>
       </c>
-      <c r="G34" s="90">
+      <c r="G34" s="91">
         <f t="shared" si="2"/>
         <v>1072.8</v>
       </c>
-      <c r="H34" s="90">
+      <c r="H34" s="91">
         <f>G34-SUM($F$31:F34)</f>
         <v>292.8</v>
       </c>
     </row>
     <row r="35" spans="5:8">
-      <c r="E35" s="88">
+      <c r="E35" s="89">
         <v>5</v>
       </c>
-      <c r="F35" s="89">
+      <c r="F35" s="90">
         <v>415</v>
       </c>
-      <c r="G35" s="90">
+      <c r="G35" s="91">
         <f t="shared" si="2"/>
         <v>1494</v>
       </c>
-      <c r="H35" s="90">
+      <c r="H35" s="91">
         <f>G35-SUM($F$31:F35)</f>
         <v>299</v>
       </c>
     </row>
     <row r="36" spans="5:8">
-      <c r="E36" s="88">
+      <c r="E36" s="89">
         <v>6</v>
       </c>
-      <c r="F36" s="89">
+      <c r="F36" s="90">
         <v>572</v>
       </c>
-      <c r="G36" s="90">
+      <c r="G36" s="91">
         <f t="shared" si="2"/>
         <v>2059.2</v>
       </c>
-      <c r="H36" s="90">
+      <c r="H36" s="91">
         <f>G36-SUM($F$31:F36)</f>
         <v>292.2</v>
       </c>
     </row>
     <row r="37" spans="5:8">
-      <c r="E37" s="88">
+      <c r="E37" s="89">
         <v>7</v>
       </c>
-      <c r="F37" s="89">
+      <c r="F37" s="90">
         <v>792</v>
       </c>
-      <c r="G37" s="90">
+      <c r="G37" s="91">
         <f t="shared" si="2"/>
         <v>2851.2</v>
       </c>
-      <c r="H37" s="90">
+      <c r="H37" s="91">
         <f>G37-SUM($F$31:F37)</f>
         <v>292.2</v>
       </c>
     </row>
     <row r="38" spans="5:8">
-      <c r="E38" s="88">
+      <c r="E38" s="89">
         <v>8</v>
       </c>
-      <c r="F38" s="89">
+      <c r="F38" s="90">
         <v>1098</v>
       </c>
-      <c r="G38" s="90">
+      <c r="G38" s="91">
         <f t="shared" si="2"/>
         <v>3952.8</v>
       </c>
-      <c r="H38" s="90">
+      <c r="H38" s="91">
         <f>G38-SUM($F$31:F38)</f>
         <v>295.8</v>
       </c>
     </row>
     <row r="39" spans="5:8">
-      <c r="E39" s="88">
+      <c r="E39" s="89">
         <v>9</v>
       </c>
-      <c r="F39" s="89">
+      <c r="F39" s="90">
         <v>1520</v>
       </c>
-      <c r="G39" s="90">
+      <c r="G39" s="91">
         <f t="shared" si="2"/>
         <v>5472</v>
       </c>
-      <c r="H39" s="90">
+      <c r="H39" s="91">
         <f>G39-SUM($F$31:F39)</f>
         <v>295</v>
       </c>
     </row>
     <row r="40" spans="5:8">
-      <c r="E40" s="88">
+      <c r="E40" s="89">
         <v>10</v>
       </c>
-      <c r="F40" s="89">
+      <c r="F40" s="90">
         <v>2105</v>
       </c>
-      <c r="G40" s="90">
+      <c r="G40" s="91">
         <f t="shared" si="2"/>
         <v>7578</v>
       </c>
-      <c r="H40" s="90">
+      <c r="H40" s="91">
         <f>G40-SUM($F$31:F40)</f>
         <v>296</v>
       </c>
     </row>
     <row r="41" spans="5:8">
-      <c r="E41" s="88">
+      <c r="E41" s="89">
         <v>11</v>
       </c>
-      <c r="F41" s="89">
+      <c r="F41" s="90">
         <v>2915</v>
       </c>
-      <c r="G41" s="90">
+      <c r="G41" s="91">
         <f t="shared" si="2"/>
         <v>10494</v>
       </c>
-      <c r="H41" s="90">
+      <c r="H41" s="91">
         <f>G41-SUM($F$31:F41)</f>
         <v>297</v>
       </c>
     </row>
     <row r="42" spans="5:8">
-      <c r="E42" s="88">
+      <c r="E42" s="89">
         <v>12</v>
       </c>
-      <c r="F42" s="89">
+      <c r="F42" s="90">
         <v>4035</v>
       </c>
-      <c r="G42" s="90">
+      <c r="G42" s="91">
         <f t="shared" si="2"/>
         <v>14526</v>
       </c>
-      <c r="H42" s="90">
+      <c r="H42" s="91">
         <f>G42-SUM($F$31:F42)</f>
         <v>294</v>
       </c>
     </row>
     <row r="43" spans="5:8">
-      <c r="E43" s="88">
+      <c r="E43" s="89">
         <v>13</v>
       </c>
-      <c r="F43" s="89">
+      <c r="F43" s="90">
         <v>5585</v>
       </c>
-      <c r="G43" s="90">
+      <c r="G43" s="91">
         <f t="shared" si="2"/>
         <v>20106</v>
       </c>
-      <c r="H43" s="90">
+      <c r="H43" s="91">
         <f>G43-SUM($F$31:F43)</f>
         <v>289</v>
       </c>
     </row>
     <row r="44" spans="5:8">
-      <c r="E44" s="88">
+      <c r="E44" s="89">
         <v>14</v>
       </c>
-      <c r="F44" s="89">
+      <c r="F44" s="90">
         <v>7735</v>
       </c>
-      <c r="G44" s="90">
+      <c r="G44" s="91">
         <f t="shared" si="2"/>
         <v>27846</v>
       </c>
-      <c r="H44" s="90">
+      <c r="H44" s="91">
         <f>G44-SUM($F$31:F44)</f>
         <v>294</v>
       </c>
     </row>
     <row r="45" spans="5:8">
-      <c r="E45" s="88">
+      <c r="E45" s="89">
         <v>15</v>
       </c>
-      <c r="F45" s="89">
+      <c r="F45" s="90">
         <v>10710</v>
       </c>
-      <c r="G45" s="90">
+      <c r="G45" s="91">
         <f t="shared" si="2"/>
         <v>38556</v>
       </c>
-      <c r="H45" s="90">
+      <c r="H45" s="91">
         <f>G45-SUM($F$31:F45)</f>
         <v>294</v>
       </c>
     </row>
     <row r="46" spans="5:8">
-      <c r="E46" s="88">
+      <c r="E46" s="89">
         <v>16</v>
       </c>
-      <c r="F46" s="89">
+      <c r="F46" s="90">
         <v>14830</v>
       </c>
-      <c r="G46" s="90">
+      <c r="G46" s="91">
         <f t="shared" si="2"/>
         <v>53388</v>
       </c>
-      <c r="H46" s="90">
+      <c r="H46" s="91">
         <f>G46-SUM($F$31:F46)</f>
         <v>296</v>
       </c>
     </row>
     <row r="47" spans="5:8">
-      <c r="E47" s="88">
+      <c r="E47" s="89">
         <v>17</v>
       </c>
-      <c r="F47" s="89">
+      <c r="F47" s="90">
         <v>20850</v>
       </c>
-      <c r="G47" s="90">
+      <c r="G47" s="91">
         <f t="shared" si="2"/>
         <v>75060</v>
       </c>
-      <c r="H47" s="90">
+      <c r="H47" s="91">
         <f>G47-SUM($F$31:F47)</f>
         <v>1118</v>
       </c>
     </row>
     <row r="48" spans="5:8">
-      <c r="E48" s="88">
+      <c r="E48" s="89">
         <v>18</v>
       </c>
-      <c r="F48" s="89"/>
-      <c r="G48" s="90"/>
-      <c r="H48" s="90"/>
+      <c r="F48" s="90"/>
+      <c r="G48" s="91"/>
+      <c r="H48" s="91"/>
     </row>
     <row r="49" spans="5:8">
-      <c r="E49" s="88">
+      <c r="E49" s="89">
         <v>19</v>
       </c>
-      <c r="F49" s="89"/>
-      <c r="G49" s="90"/>
-      <c r="H49" s="90"/>
+      <c r="F49" s="90"/>
+      <c r="G49" s="91"/>
+      <c r="H49" s="91"/>
     </row>
     <row r="50" spans="5:8">
-      <c r="E50" s="88">
+      <c r="E50" s="89">
         <v>20</v>
       </c>
-      <c r="F50" s="89"/>
-      <c r="G50" s="90"/>
-      <c r="H50" s="90"/>
+      <c r="F50" s="90"/>
+      <c r="G50" s="91"/>
+      <c r="H50" s="91"/>
     </row>
     <row r="51" spans="5:8">
-      <c r="E51" s="88">
+      <c r="E51" s="89">
         <v>21</v>
       </c>
-      <c r="F51" s="89"/>
-      <c r="G51" s="90"/>
-      <c r="H51" s="90"/>
+      <c r="F51" s="90"/>
+      <c r="G51" s="91"/>
+      <c r="H51" s="91"/>
     </row>
     <row r="52" spans="5:8">
-      <c r="E52" s="88">
+      <c r="E52" s="89">
         <v>22</v>
       </c>
-      <c r="F52" s="89"/>
-      <c r="G52" s="90"/>
-      <c r="H52" s="90"/>
+      <c r="F52" s="90"/>
+      <c r="G52" s="91"/>
+      <c r="H52" s="91"/>
     </row>
     <row r="53" spans="5:8">
-      <c r="E53" s="88">
+      <c r="E53" s="89">
         <v>23</v>
       </c>
-      <c r="F53" s="89"/>
-      <c r="G53" s="90"/>
-      <c r="H53" s="90"/>
+      <c r="F53" s="90"/>
+      <c r="G53" s="91"/>
+      <c r="H53" s="91"/>
     </row>
     <row r="54" spans="5:8">
-      <c r="E54" s="88">
+      <c r="E54" s="89">
         <v>24</v>
       </c>
-      <c r="F54" s="89"/>
-      <c r="G54" s="90"/>
-      <c r="H54" s="90"/>
+      <c r="F54" s="90"/>
+      <c r="G54" s="91"/>
+      <c r="H54" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -5396,8 +5385,8 @@
   <sheetPr/>
   <dimension ref="A1:AR85"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="U60" sqref="U60:W60"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="H33" workbookViewId="0">
+      <selection activeCell="U61" sqref="U61:W61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5525,67 +5514,67 @@
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="10"/>
-      <c r="D2" s="70"/>
+      <c r="D2" s="69"/>
       <c r="E2" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="71"/>
+      <c r="H2" s="70"/>
       <c r="I2" s="8" t="s">
         <v>13</v>
       </c>
       <c r="J2" s="9"/>
       <c r="K2" s="10"/>
-      <c r="L2" s="71"/>
+      <c r="L2" s="70"/>
       <c r="M2" s="8" t="s">
         <v>14</v>
       </c>
       <c r="N2" s="9"/>
       <c r="O2" s="10"/>
-      <c r="P2" s="71"/>
+      <c r="P2" s="70"/>
       <c r="Q2" s="8" t="s">
         <v>10</v>
       </c>
       <c r="R2" s="9"/>
       <c r="S2" s="10"/>
-      <c r="T2" s="71"/>
+      <c r="T2" s="70"/>
       <c r="U2" s="8" t="s">
         <v>9</v>
       </c>
       <c r="V2" s="9"/>
       <c r="W2" s="10"/>
-      <c r="X2" s="71"/>
+      <c r="X2" s="70"/>
       <c r="Y2" s="8" t="s">
         <v>42</v>
       </c>
       <c r="Z2" s="9"/>
       <c r="AA2" s="10"/>
-      <c r="AB2" s="71"/>
+      <c r="AB2" s="70"/>
       <c r="AC2" s="8" t="s">
         <v>15</v>
       </c>
       <c r="AD2" s="9"/>
       <c r="AE2" s="10"/>
-      <c r="AF2" s="71"/>
+      <c r="AF2" s="70"/>
       <c r="AG2" s="8" t="s">
         <v>43</v>
       </c>
       <c r="AH2" s="9"/>
       <c r="AI2" s="10"/>
-      <c r="AJ2" s="71"/>
+      <c r="AJ2" s="70"/>
       <c r="AK2" s="8" t="s">
         <v>7</v>
       </c>
       <c r="AL2" s="9"/>
       <c r="AM2" s="10"/>
-      <c r="AN2" s="71"/>
+      <c r="AN2" s="70"/>
       <c r="AO2" s="8" t="s">
         <v>8</v>
       </c>
       <c r="AP2" s="9"/>
       <c r="AQ2" s="10"/>
-      <c r="AR2" s="71"/>
+      <c r="AR2" s="70"/>
     </row>
     <row r="3" spans="1:43">
       <c r="A3" s="11">
@@ -5912,7 +5901,7 @@
       <c r="C6" s="13">
         <v>-90</v>
       </c>
-      <c r="D6" s="72"/>
+      <c r="D6" s="71"/>
       <c r="E6" s="11">
         <v>4</v>
       </c>
@@ -7148,13 +7137,13 @@
         <f>278+SUM(S15:S17)</f>
         <v>78</v>
       </c>
-      <c r="U17" s="79">
+      <c r="U17" s="80">
         <v>15</v>
       </c>
-      <c r="V17" s="79" t="s">
+      <c r="V17" s="80" t="s">
         <v>164</v>
       </c>
-      <c r="W17" s="79">
+      <c r="W17" s="80">
         <v>-155</v>
       </c>
       <c r="Y17" s="14">
@@ -7434,16 +7423,16 @@
       </c>
     </row>
     <row r="20" spans="1:43">
-      <c r="A20" s="73">
+      <c r="A20" s="72">
         <v>18</v>
       </c>
-      <c r="B20" s="74" t="s">
+      <c r="B20" s="73" t="s">
         <v>183</v>
       </c>
-      <c r="C20" s="75">
+      <c r="C20" s="74">
         <v>-5100</v>
       </c>
-      <c r="D20" s="76"/>
+      <c r="D20" s="75"/>
       <c r="E20" s="12">
         <v>18</v>
       </c>
@@ -8111,7 +8100,7 @@
       <c r="C26" s="13">
         <v>-15000</v>
       </c>
-      <c r="D26" s="47"/>
+      <c r="D26" s="31"/>
       <c r="E26" s="11">
         <v>24</v>
       </c>
@@ -8637,7 +8626,7 @@
       <c r="AI30" s="28">
         <v>-75</v>
       </c>
-      <c r="AJ30" s="82"/>
+      <c r="AJ30" s="83"/>
       <c r="AK30" s="11">
         <v>28</v>
       </c>
@@ -8647,7 +8636,7 @@
       <c r="AM30" s="13">
         <v>-90</v>
       </c>
-      <c r="AN30" s="83"/>
+      <c r="AN30" s="84"/>
       <c r="AO30" s="11">
         <v>28</v>
       </c>
@@ -8769,22 +8758,22 @@
       </c>
     </row>
     <row r="32" spans="1:43">
-      <c r="A32" s="77">
+      <c r="A32" s="76">
         <v>30</v>
       </c>
-      <c r="B32" s="40" t="s">
+      <c r="B32" s="37" t="s">
         <v>274</v>
       </c>
-      <c r="C32" s="41">
+      <c r="C32" s="38">
         <v>-75</v>
       </c>
-      <c r="E32" s="39">
+      <c r="E32" s="36">
         <v>30</v>
       </c>
-      <c r="F32" s="40" t="s">
+      <c r="F32" s="37" t="s">
         <v>275</v>
       </c>
-      <c r="G32" s="41">
+      <c r="G32" s="38">
         <v>-155</v>
       </c>
       <c r="I32" s="19">
@@ -8800,22 +8789,22 @@
         <f>14430+SUM(K16:K32)</f>
         <v>130</v>
       </c>
-      <c r="M32" s="39">
+      <c r="M32" s="36">
         <v>30</v>
       </c>
-      <c r="N32" s="41" t="s">
+      <c r="N32" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="O32" s="41">
-        <v>-60</v>
-      </c>
-      <c r="Q32" s="39">
+      <c r="O32" s="38">
+        <v>-60</v>
+      </c>
+      <c r="Q32" s="36">
         <v>30</v>
       </c>
-      <c r="R32" s="41" t="s">
+      <c r="R32" s="38" t="s">
         <v>277</v>
       </c>
-      <c r="S32" s="41">
+      <c r="S32" s="38">
         <v>-3000</v>
       </c>
       <c r="U32" s="17">
@@ -8831,92 +8820,92 @@
         <f>260+SUM(W31:W32)</f>
         <v>135</v>
       </c>
-      <c r="Y32" s="77">
+      <c r="Y32" s="76">
         <v>30</v>
       </c>
-      <c r="Z32" s="41" t="s">
+      <c r="Z32" s="38" t="s">
         <v>279</v>
       </c>
-      <c r="AA32" s="41">
+      <c r="AA32" s="38">
         <v>-3000</v>
       </c>
-      <c r="AC32" s="39">
+      <c r="AC32" s="36">
         <v>30</v>
       </c>
-      <c r="AD32" s="41" t="s">
+      <c r="AD32" s="38" t="s">
         <v>277</v>
       </c>
-      <c r="AE32" s="41">
+      <c r="AE32" s="38">
         <v>-3300</v>
       </c>
-      <c r="AG32" s="39">
+      <c r="AG32" s="36">
         <v>30</v>
       </c>
-      <c r="AH32" s="41" t="s">
+      <c r="AH32" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="AI32" s="41">
+      <c r="AI32" s="38">
         <v>-112</v>
       </c>
       <c r="AJ32" s="25"/>
-      <c r="AK32" s="39">
+      <c r="AK32" s="36">
         <v>30</v>
       </c>
-      <c r="AL32" s="41" t="s">
+      <c r="AL32" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="AM32" s="41">
+      <c r="AM32" s="38">
         <v>-155</v>
       </c>
-      <c r="AO32" s="39">
+      <c r="AO32" s="36">
         <v>30</v>
       </c>
-      <c r="AP32" s="41" t="s">
+      <c r="AP32" s="38" t="s">
         <v>280</v>
       </c>
-      <c r="AQ32" s="41">
+      <c r="AQ32" s="38">
         <v>-90</v>
       </c>
     </row>
     <row r="33" spans="1:43">
-      <c r="A33" s="78">
+      <c r="A33" s="77">
         <v>31</v>
       </c>
-      <c r="B33" s="40" t="s">
+      <c r="B33" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="41">
+      <c r="C33" s="38">
         <v>-3000</v>
       </c>
-      <c r="E33" s="39">
+      <c r="E33" s="36">
         <v>31</v>
       </c>
-      <c r="F33" s="40" t="s">
+      <c r="F33" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="G33" s="41">
+      <c r="G33" s="38">
         <v>-215</v>
       </c>
-      <c r="I33" s="42">
+      <c r="I33" s="39">
         <v>31</v>
       </c>
-      <c r="J33" s="43" t="s">
+      <c r="J33" s="40" t="s">
         <v>281</v>
       </c>
-      <c r="K33" s="44">
+      <c r="K33" s="41">
         <v>-60</v>
       </c>
       <c r="L33" s="17">
         <f>240+K33</f>
         <v>180</v>
       </c>
-      <c r="M33" s="42">
+      <c r="M33" s="39">
         <v>31</v>
       </c>
-      <c r="N33" s="43" t="s">
+      <c r="N33" s="40" t="s">
         <v>241</v>
       </c>
-      <c r="O33" s="44">
+      <c r="O33" s="41">
         <v>-65</v>
       </c>
       <c r="P33" s="17">
@@ -8935,10 +8924,10 @@
       <c r="U33" s="18">
         <v>31</v>
       </c>
-      <c r="V33" s="41" t="s">
+      <c r="V33" s="38" t="s">
         <v>282</v>
       </c>
-      <c r="W33" s="41">
+      <c r="W33" s="38">
         <v>-1000</v>
       </c>
       <c r="Y33" s="11">
@@ -8969,13 +8958,13 @@
         <v>-155</v>
       </c>
       <c r="AJ33" s="25"/>
-      <c r="AK33" s="39">
+      <c r="AK33" s="36">
         <v>31</v>
       </c>
-      <c r="AL33" s="41" t="s">
+      <c r="AL33" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="AM33" s="41">
+      <c r="AM33" s="38">
         <v>-215</v>
       </c>
       <c r="AO33" s="22">
@@ -9041,10 +9030,10 @@
       <c r="U34" s="18">
         <v>32</v>
       </c>
-      <c r="V34" s="41" t="s">
+      <c r="V34" s="38" t="s">
         <v>288</v>
       </c>
-      <c r="W34" s="41">
+      <c r="W34" s="38">
         <v>-1300</v>
       </c>
       <c r="Y34" s="11">
@@ -9056,7 +9045,7 @@
       <c r="AA34" s="13">
         <v>-3000</v>
       </c>
-      <c r="AB34" s="47"/>
+      <c r="AB34" s="31"/>
       <c r="AC34" s="14">
         <v>32</v>
       </c>
@@ -9109,7 +9098,7 @@
       <c r="C35" s="13">
         <v>-2000</v>
       </c>
-      <c r="D35" s="47"/>
+      <c r="D35" s="31"/>
       <c r="E35" s="11">
         <v>33</v>
       </c>
@@ -9940,7 +9929,7 @@
       <c r="S42" s="13">
         <v>-1000</v>
       </c>
-      <c r="T42" s="80"/>
+      <c r="T42" s="81"/>
       <c r="U42" s="14">
         <v>40</v>
       </c>
@@ -10163,16 +10152,16 @@
       <c r="S44" s="28">
         <v>-1000</v>
       </c>
-      <c r="U44" s="52">
+      <c r="U44" s="51">
         <v>42</v>
       </c>
-      <c r="V44" s="81" t="s">
+      <c r="V44" s="82" t="s">
         <v>359</v>
       </c>
-      <c r="W44" s="54">
+      <c r="W44" s="53">
         <v>-65</v>
       </c>
-      <c r="X44" s="53">
+      <c r="X44" s="52">
         <f>280+SUM(W43:W44)</f>
         <v>155</v>
       </c>
@@ -10863,7 +10852,7 @@
       <c r="AI50" s="13">
         <v>-1250</v>
       </c>
-      <c r="AJ50" s="84"/>
+      <c r="AJ50" s="85"/>
       <c r="AK50" s="11">
         <v>48</v>
       </c>
@@ -10969,7 +10958,7 @@
       <c r="AI51" s="13">
         <v>-1000</v>
       </c>
-      <c r="AJ51" s="84"/>
+      <c r="AJ51" s="85"/>
       <c r="AK51" s="14">
         <v>49</v>
       </c>
@@ -11075,7 +11064,7 @@
       <c r="AI52" s="13">
         <v>-1400</v>
       </c>
-      <c r="AJ52" s="84"/>
+      <c r="AJ52" s="85"/>
       <c r="AK52" s="11">
         <v>50</v>
       </c>
@@ -11441,9 +11430,7 @@
       <c r="G56" s="13">
         <v>0</v>
       </c>
-      <c r="H56" s="12">
-        <v>-4.5</v>
-      </c>
+      <c r="H56" s="78"/>
       <c r="I56" s="11">
         <v>54</v>
       </c>
@@ -11553,10 +11540,7 @@
       <c r="G57" s="13">
         <v>0</v>
       </c>
-      <c r="H57">
-        <f>H56*G59</f>
-        <v>2587.5</v>
-      </c>
+      <c r="H57"/>
       <c r="I57" s="14">
         <v>55</v>
       </c>
@@ -11633,8 +11617,8 @@
       <c r="AM57" s="13">
         <v>0</v>
       </c>
-      <c r="AN57" s="12">
-        <v>-4.6</v>
+      <c r="AN57" s="78">
+        <v>-3.8</v>
       </c>
       <c r="AO57" s="14">
         <v>55</v>
@@ -11665,6 +11649,9 @@
       <c r="G58" s="13">
         <v>-450</v>
       </c>
+      <c r="H58">
+        <v>-4</v>
+      </c>
       <c r="I58" s="11">
         <v>56</v>
       </c>
@@ -11738,8 +11725,8 @@
         <v>-2500</v>
       </c>
       <c r="AN58">
-        <f>AM60*AN57</f>
-        <v>6900</v>
+        <f>AM61*AN57</f>
+        <v>8930</v>
       </c>
       <c r="AO58" s="11">
         <v>56</v>
@@ -11770,9 +11757,9 @@
       <c r="G59" s="13">
         <v>-575</v>
       </c>
-      <c r="H59" s="34">
-        <f>H57+SUM(G56:G59)+H55</f>
-        <v>77.5</v>
+      <c r="H59" s="31">
+        <f>H58*G61</f>
+        <v>4400</v>
       </c>
       <c r="I59" s="14">
         <v>57</v>
@@ -11818,13 +11805,13 @@
       <c r="W59" s="13">
         <v>0</v>
       </c>
-      <c r="Y59" s="31">
+      <c r="Y59" s="11">
         <v>57</v>
       </c>
-      <c r="Z59" s="32" t="s">
+      <c r="Z59" s="12" t="s">
         <v>440</v>
       </c>
-      <c r="AA59" s="33">
+      <c r="AA59" s="13">
         <v>0</v>
       </c>
       <c r="AC59" s="14">
@@ -11869,22 +11856,22 @@
       </c>
     </row>
     <row r="60" spans="1:43">
-      <c r="A60" s="31">
+      <c r="A60" s="11">
         <v>58</v>
       </c>
-      <c r="B60" s="32" t="s">
+      <c r="B60" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="C60" s="33">
+      <c r="C60" s="13">
         <v>-2500</v>
       </c>
-      <c r="E60" s="31">
+      <c r="E60" s="11">
         <v>58</v>
       </c>
-      <c r="F60" s="32" t="s">
+      <c r="F60" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="G60" s="33">
+      <c r="G60" s="13">
         <v>-700</v>
       </c>
       <c r="I60" s="11">
@@ -11896,40 +11883,42 @@
       <c r="K60" s="13">
         <v>-2500</v>
       </c>
-      <c r="M60" s="38">
+      <c r="M60" s="35">
         <v>58</v>
       </c>
       <c r="N60" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="O60" s="48">
+      <c r="O60" s="47">
         <v>0</v>
       </c>
-      <c r="Q60" s="31">
+      <c r="Q60" s="11">
         <v>58</v>
       </c>
-      <c r="R60" s="34" t="s">
+      <c r="R60" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="S60" s="33">
+      <c r="S60" s="13">
         <v>-650</v>
       </c>
-      <c r="U60" s="31">
+      <c r="U60" s="14">
         <v>58</v>
       </c>
-      <c r="V60" s="32" t="s">
+      <c r="V60" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="W60" s="33">
+      <c r="W60" s="16">
         <v>0</v>
       </c>
-      <c r="Y60" s="35">
+      <c r="Y60" s="42">
         <v>58</v>
       </c>
-      <c r="Z60" s="36" t="s">
+      <c r="Z60" s="79" t="s">
         <v>178</v>
       </c>
-      <c r="AA60" s="37"/>
+      <c r="AA60" s="44">
+        <v>0</v>
+      </c>
       <c r="AC60" s="11">
         <v>58</v>
       </c>
@@ -11939,53 +11928,58 @@
       <c r="AE60" s="13">
         <v>0</v>
       </c>
-      <c r="AG60" s="31">
+      <c r="AG60" s="11">
         <v>58</v>
       </c>
-      <c r="AH60" s="32" t="s">
+      <c r="AH60" s="12" t="s">
         <v>440</v>
       </c>
-      <c r="AI60" s="33">
+      <c r="AI60" s="13">
         <v>0</v>
       </c>
-      <c r="AK60" s="31">
+      <c r="AK60" s="11">
         <v>58</v>
       </c>
-      <c r="AL60" s="32" t="s">
+      <c r="AL60" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="AM60" s="33">
+      <c r="AM60" s="13">
         <v>-1500</v>
       </c>
-      <c r="AN60">
-        <f>AN58+SUM(AM58:AM60)</f>
-        <v>399.999999999999</v>
-      </c>
-      <c r="AO60" s="31">
+      <c r="AN60"/>
+      <c r="AO60" s="14">
         <v>58</v>
       </c>
-      <c r="AP60" s="34" t="s">
+      <c r="AP60" s="17" t="s">
         <v>293</v>
       </c>
-      <c r="AQ60" s="33">
+      <c r="AQ60" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:43">
-      <c r="A61" s="35">
+      <c r="A61" s="42">
         <v>59</v>
       </c>
-      <c r="B61" s="36" t="s">
+      <c r="B61" s="79" t="s">
         <v>441</v>
       </c>
-      <c r="C61" s="37"/>
-      <c r="E61" s="35">
+      <c r="C61" s="44">
+        <v>-2000</v>
+      </c>
+      <c r="E61" s="42">
         <v>59</v>
       </c>
-      <c r="F61" s="36" t="s">
+      <c r="F61" s="79" t="s">
         <v>442</v>
       </c>
-      <c r="G61" s="37"/>
+      <c r="G61" s="44">
+        <v>-1100</v>
+      </c>
+      <c r="H61">
+        <f>H59+SUM(G56:G61)+H55</f>
+        <v>90</v>
+      </c>
       <c r="I61" s="11">
         <v>59</v>
       </c>
@@ -11995,781 +11989,797 @@
       <c r="K61" s="13">
         <v>-2000</v>
       </c>
-      <c r="M61" s="38">
+      <c r="M61" s="35">
         <v>59</v>
       </c>
       <c r="N61" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="O61" s="48">
+      <c r="O61" s="47">
         <v>0</v>
       </c>
-      <c r="Q61" s="35">
+      <c r="Q61" s="42">
         <v>59</v>
       </c>
-      <c r="R61" t="s">
+      <c r="R61" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="S61" s="37"/>
-      <c r="U61" s="35">
+      <c r="S61" s="44">
+        <v>-750</v>
+      </c>
+      <c r="U61" s="42">
         <v>59</v>
       </c>
-      <c r="V61" s="36" t="s">
+      <c r="V61" s="79" t="s">
         <v>159</v>
       </c>
-      <c r="W61" s="37"/>
-      <c r="Y61" s="35">
+      <c r="W61" s="44">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="32">
         <v>59</v>
       </c>
-      <c r="Z61" s="36" t="s">
+      <c r="Z61" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="AA61" s="37"/>
-      <c r="AC61" s="35">
+      <c r="AA61" s="34"/>
+      <c r="AC61" s="32">
         <v>59</v>
       </c>
-      <c r="AD61" s="36" t="s">
+      <c r="AD61" s="33" t="s">
         <v>374</v>
       </c>
-      <c r="AE61" s="37">
+      <c r="AE61" s="34">
         <v>0</v>
       </c>
-      <c r="AG61" s="35">
+      <c r="AG61" s="42">
         <v>59</v>
       </c>
-      <c r="AH61" s="36" t="s">
+      <c r="AH61" s="79" t="s">
         <v>443</v>
       </c>
-      <c r="AI61" s="37"/>
-      <c r="AK61" s="35">
+      <c r="AI61" s="44">
+        <v>0</v>
+      </c>
+      <c r="AK61" s="42">
         <v>59</v>
       </c>
-      <c r="AL61" s="36" t="s">
+      <c r="AL61" s="79" t="s">
         <v>159</v>
       </c>
-      <c r="AM61" s="37"/>
-      <c r="AO61" s="35">
+      <c r="AM61" s="44">
+        <v>-2350</v>
+      </c>
+      <c r="AN61">
+        <f>AN58+SUM(AM55:AM61)</f>
+        <v>80</v>
+      </c>
+      <c r="AO61" s="42">
         <v>59</v>
       </c>
-      <c r="AP61" t="s">
+      <c r="AP61" s="43" t="s">
         <v>178</v>
       </c>
-      <c r="AQ61" s="37"/>
+      <c r="AQ61" s="44">
+        <v>0</v>
+      </c>
     </row>
     <row r="62" spans="1:43">
-      <c r="A62" s="35">
+      <c r="A62" s="32">
         <v>60</v>
       </c>
-      <c r="B62" s="36" t="s">
+      <c r="B62" s="33" t="s">
         <v>444</v>
       </c>
-      <c r="C62" s="37"/>
-      <c r="E62" s="35">
+      <c r="C62" s="34"/>
+      <c r="E62" s="32">
         <v>60</v>
       </c>
-      <c r="F62" s="36" t="s">
+      <c r="F62" s="33" t="s">
         <v>445</v>
       </c>
-      <c r="G62" s="37"/>
-      <c r="I62" s="31">
+      <c r="G62" s="34"/>
+      <c r="I62" s="11">
         <v>60</v>
       </c>
-      <c r="J62" s="34" t="s">
+      <c r="J62" s="18" t="s">
         <v>446</v>
       </c>
-      <c r="K62" s="33">
+      <c r="K62" s="13">
         <v>-2000</v>
       </c>
-      <c r="M62" s="38">
+      <c r="M62" s="35">
         <v>60</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="O62" s="48">
+      <c r="O62" s="47">
         <v>0</v>
       </c>
-      <c r="Q62" s="35">
+      <c r="Q62" s="32">
         <v>60</v>
       </c>
       <c r="R62" t="s">
         <v>448</v>
       </c>
-      <c r="S62" s="37"/>
-      <c r="U62" s="35">
+      <c r="S62" s="34"/>
+      <c r="U62" s="32">
         <v>60</v>
       </c>
-      <c r="V62" s="36" t="s">
+      <c r="V62" s="33" t="s">
         <v>449</v>
       </c>
-      <c r="W62" s="37"/>
-      <c r="Y62" s="35">
+      <c r="W62" s="34"/>
+      <c r="Y62" s="32">
         <v>60</v>
       </c>
-      <c r="Z62" s="36" t="s">
+      <c r="Z62" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="AA62" s="37"/>
-      <c r="AC62" s="35">
+      <c r="AA62" s="34"/>
+      <c r="AC62" s="32">
         <v>60</v>
       </c>
-      <c r="AD62" s="36" t="s">
+      <c r="AD62" s="33" t="s">
         <v>433</v>
       </c>
-      <c r="AE62" s="37"/>
-      <c r="AG62" s="35">
+      <c r="AE62" s="34"/>
+      <c r="AG62" s="32">
         <v>60</v>
       </c>
-      <c r="AH62" s="36" t="s">
+      <c r="AH62" s="33" t="s">
         <v>450</v>
       </c>
-      <c r="AI62" s="37"/>
-      <c r="AK62" s="35">
+      <c r="AI62" s="34"/>
+      <c r="AK62" s="32">
         <v>60</v>
       </c>
-      <c r="AL62" s="36" t="s">
+      <c r="AL62" s="33" t="s">
         <v>451</v>
       </c>
-      <c r="AM62" s="37"/>
-      <c r="AO62" s="35">
+      <c r="AM62" s="34"/>
+      <c r="AO62" s="32">
         <v>60</v>
       </c>
       <c r="AP62" t="s">
         <v>452</v>
       </c>
-      <c r="AQ62" s="37"/>
+      <c r="AQ62" s="34"/>
     </row>
     <row r="63" spans="1:43">
-      <c r="A63" s="35">
+      <c r="A63" s="32">
         <v>61</v>
       </c>
-      <c r="B63" s="36" t="s">
+      <c r="B63" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="C63" s="37"/>
-      <c r="E63" s="35">
+      <c r="C63" s="34"/>
+      <c r="E63" s="32">
         <v>61</v>
       </c>
-      <c r="F63" s="36" t="s">
+      <c r="F63" s="33" t="s">
         <v>299</v>
       </c>
-      <c r="G63" s="37"/>
-      <c r="I63" s="35">
+      <c r="G63" s="34"/>
+      <c r="I63" s="32">
         <v>61</v>
       </c>
       <c r="J63" t="s">
         <v>454</v>
       </c>
-      <c r="K63" s="37"/>
-      <c r="M63" s="38">
+      <c r="K63" s="34"/>
+      <c r="M63" s="35">
         <v>61</v>
       </c>
       <c r="N63" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="O63" s="48"/>
-      <c r="Q63" s="35">
+      <c r="O63" s="47">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="32">
         <v>61</v>
       </c>
       <c r="R63" t="s">
         <v>98</v>
       </c>
-      <c r="S63" s="37"/>
-      <c r="U63" s="35">
+      <c r="S63" s="34"/>
+      <c r="U63" s="32">
         <v>61</v>
       </c>
-      <c r="V63" s="36" t="s">
+      <c r="V63" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="W63" s="37"/>
-      <c r="Y63" s="35">
+      <c r="W63" s="34"/>
+      <c r="Y63" s="32">
         <v>61</v>
       </c>
-      <c r="Z63" s="36" t="s">
+      <c r="Z63" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="AA63" s="37"/>
-      <c r="AC63" s="35">
+      <c r="AA63" s="34"/>
+      <c r="AC63" s="32">
         <v>61</v>
       </c>
-      <c r="AD63" s="36" t="s">
+      <c r="AD63" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="AE63" s="37"/>
-      <c r="AG63" s="35">
+      <c r="AE63" s="34"/>
+      <c r="AG63" s="32">
         <v>61</v>
       </c>
-      <c r="AH63" s="36" t="s">
+      <c r="AH63" s="33" t="s">
         <v>299</v>
       </c>
-      <c r="AI63" s="37"/>
-      <c r="AK63" s="35">
+      <c r="AI63" s="34"/>
+      <c r="AK63" s="32">
         <v>61</v>
       </c>
-      <c r="AL63" s="36" t="s">
+      <c r="AL63" s="33" t="s">
         <v>456</v>
       </c>
-      <c r="AM63" s="37"/>
-      <c r="AO63" s="35">
+      <c r="AM63" s="34"/>
+      <c r="AO63" s="32">
         <v>61</v>
       </c>
       <c r="AP63" t="s">
         <v>146</v>
       </c>
-      <c r="AQ63" s="37"/>
+      <c r="AQ63" s="34"/>
     </row>
     <row r="64" spans="1:43">
-      <c r="A64" s="35">
+      <c r="A64" s="32">
         <v>62</v>
       </c>
-      <c r="B64" s="36" t="s">
+      <c r="B64" s="33" t="s">
         <v>345</v>
       </c>
-      <c r="C64" s="37"/>
-      <c r="E64" s="35">
+      <c r="C64" s="34"/>
+      <c r="E64" s="32">
         <v>62</v>
       </c>
-      <c r="F64" s="36" t="s">
+      <c r="F64" s="33" t="s">
         <v>340</v>
       </c>
-      <c r="G64" s="37"/>
-      <c r="I64" s="35">
+      <c r="G64" s="34"/>
+      <c r="I64" s="32">
         <v>62</v>
       </c>
       <c r="J64" t="s">
         <v>457</v>
       </c>
-      <c r="K64" s="37"/>
-      <c r="M64" s="35">
+      <c r="K64" s="34"/>
+      <c r="M64" s="32">
         <v>62</v>
       </c>
       <c r="N64" t="s">
         <v>458</v>
       </c>
-      <c r="O64" s="37"/>
-      <c r="Q64" s="35">
+      <c r="O64" s="34"/>
+      <c r="Q64" s="32">
         <v>62</v>
       </c>
       <c r="R64" t="s">
         <v>348</v>
       </c>
-      <c r="S64" s="37"/>
-      <c r="U64" s="35">
+      <c r="S64" s="34"/>
+      <c r="U64" s="32">
         <v>62</v>
       </c>
-      <c r="V64" s="36" t="s">
+      <c r="V64" s="33" t="s">
         <v>459</v>
       </c>
-      <c r="W64" s="37"/>
-      <c r="Y64" s="35">
+      <c r="W64" s="34"/>
+      <c r="Y64" s="32">
         <v>62</v>
       </c>
-      <c r="Z64" s="36" t="s">
+      <c r="Z64" s="33" t="s">
         <v>440</v>
       </c>
-      <c r="AA64" s="37"/>
-      <c r="AC64" s="35">
+      <c r="AA64" s="34"/>
+      <c r="AC64" s="32">
         <v>62</v>
       </c>
-      <c r="AD64" s="36" t="s">
+      <c r="AD64" s="33" t="s">
         <v>345</v>
       </c>
-      <c r="AE64" s="37"/>
-      <c r="AG64" s="35">
+      <c r="AE64" s="34"/>
+      <c r="AG64" s="32">
         <v>62</v>
       </c>
-      <c r="AH64" s="36" t="s">
+      <c r="AH64" s="33" t="s">
         <v>440</v>
       </c>
-      <c r="AI64" s="37"/>
-      <c r="AK64" s="35">
+      <c r="AI64" s="34"/>
+      <c r="AK64" s="32">
         <v>62</v>
       </c>
-      <c r="AL64" s="36" t="s">
+      <c r="AL64" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="AM64" s="37"/>
-      <c r="AO64" s="35">
+      <c r="AM64" s="34"/>
+      <c r="AO64" s="32">
         <v>62</v>
       </c>
       <c r="AP64" t="s">
         <v>460</v>
       </c>
-      <c r="AQ64" s="37"/>
+      <c r="AQ64" s="34"/>
     </row>
     <row r="65" spans="1:43">
-      <c r="A65" s="35">
+      <c r="A65" s="32">
         <v>63</v>
       </c>
-      <c r="B65" s="36" t="s">
+      <c r="B65" s="33" t="s">
         <v>461</v>
       </c>
-      <c r="C65" s="37"/>
-      <c r="E65" s="35">
+      <c r="C65" s="34"/>
+      <c r="E65" s="32">
         <v>63</v>
       </c>
-      <c r="F65" s="36" t="s">
+      <c r="F65" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="G65" s="37"/>
-      <c r="I65" s="35">
+      <c r="G65" s="34"/>
+      <c r="I65" s="32">
         <v>63</v>
       </c>
       <c r="J65" t="s">
         <v>292</v>
       </c>
-      <c r="K65" s="37"/>
-      <c r="M65" s="35">
+      <c r="K65" s="34"/>
+      <c r="M65" s="32">
         <v>63</v>
       </c>
       <c r="N65" t="s">
         <v>462</v>
       </c>
-      <c r="O65" s="37"/>
-      <c r="Q65" s="35">
+      <c r="O65" s="34"/>
+      <c r="Q65" s="32">
         <v>63</v>
       </c>
       <c r="R65" t="s">
         <v>55</v>
       </c>
-      <c r="S65" s="37"/>
-      <c r="U65" s="35">
+      <c r="S65" s="34"/>
+      <c r="U65" s="32">
         <v>63</v>
       </c>
-      <c r="V65" s="36" t="s">
+      <c r="V65" s="33" t="s">
         <v>421</v>
       </c>
-      <c r="W65" s="37"/>
-      <c r="Y65" s="35">
+      <c r="W65" s="34"/>
+      <c r="Y65" s="32">
         <v>63</v>
       </c>
-      <c r="Z65" s="36" t="s">
+      <c r="Z65" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="AA65" s="37"/>
-      <c r="AC65" s="35">
+      <c r="AA65" s="34"/>
+      <c r="AC65" s="32">
         <v>63</v>
       </c>
-      <c r="AD65" s="36" t="s">
+      <c r="AD65" s="33" t="s">
         <v>463</v>
       </c>
-      <c r="AE65" s="37"/>
-      <c r="AG65" s="35">
+      <c r="AE65" s="34"/>
+      <c r="AG65" s="32">
         <v>63</v>
       </c>
-      <c r="AH65" s="36" t="s">
+      <c r="AH65" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="AI65" s="37"/>
-      <c r="AK65" s="35">
+      <c r="AI65" s="34"/>
+      <c r="AK65" s="32">
         <v>63</v>
       </c>
-      <c r="AL65" s="36" t="s">
+      <c r="AL65" s="33" t="s">
         <v>464</v>
       </c>
-      <c r="AM65" s="37"/>
-      <c r="AO65" s="35">
+      <c r="AM65" s="34"/>
+      <c r="AO65" s="32">
         <v>63</v>
       </c>
       <c r="AP65" t="s">
         <v>465</v>
       </c>
-      <c r="AQ65" s="37"/>
+      <c r="AQ65" s="34"/>
     </row>
     <row r="66" spans="1:43">
-      <c r="A66" s="35">
+      <c r="A66" s="32">
         <v>64</v>
       </c>
-      <c r="B66" s="36" t="s">
+      <c r="B66" s="33" t="s">
         <v>466</v>
       </c>
-      <c r="C66" s="37"/>
-      <c r="E66" s="35">
+      <c r="C66" s="34"/>
+      <c r="E66" s="32">
         <v>64</v>
       </c>
-      <c r="F66" s="36" t="s">
+      <c r="F66" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="G66" s="37"/>
-      <c r="I66" s="35">
+      <c r="G66" s="34"/>
+      <c r="I66" s="32">
         <v>64</v>
       </c>
       <c r="J66" t="s">
         <v>124</v>
       </c>
-      <c r="K66" s="37"/>
-      <c r="M66" s="35">
+      <c r="K66" s="34"/>
+      <c r="M66" s="32">
         <v>64</v>
       </c>
       <c r="N66" t="s">
         <v>199</v>
       </c>
-      <c r="O66" s="37"/>
-      <c r="Q66" s="35">
+      <c r="O66" s="34"/>
+      <c r="Q66" s="32">
         <v>64</v>
       </c>
       <c r="R66" t="s">
         <v>256</v>
       </c>
-      <c r="S66" s="37"/>
-      <c r="U66" s="35">
+      <c r="S66" s="34"/>
+      <c r="U66" s="32">
         <v>64</v>
       </c>
-      <c r="V66" s="36" t="s">
+      <c r="V66" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="W66" s="37"/>
-      <c r="Y66" s="35">
+      <c r="W66" s="34"/>
+      <c r="Y66" s="32">
         <v>64</v>
       </c>
-      <c r="Z66" s="36" t="s">
+      <c r="Z66" s="33" t="s">
         <v>467</v>
       </c>
-      <c r="AA66" s="37"/>
-      <c r="AC66" s="35">
+      <c r="AA66" s="34"/>
+      <c r="AC66" s="32">
         <v>64</v>
       </c>
-      <c r="AD66" s="36" t="s">
+      <c r="AD66" s="33" t="s">
         <v>463</v>
       </c>
-      <c r="AE66" s="37"/>
-      <c r="AG66" s="35">
+      <c r="AE66" s="34"/>
+      <c r="AG66" s="32">
         <v>64</v>
       </c>
-      <c r="AH66" s="36" t="s">
+      <c r="AH66" s="33" t="s">
         <v>417</v>
       </c>
-      <c r="AI66" s="37"/>
-      <c r="AK66" s="35">
+      <c r="AI66" s="34"/>
+      <c r="AK66" s="32">
         <v>64</v>
       </c>
-      <c r="AL66" s="36" t="s">
+      <c r="AL66" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="AM66" s="37"/>
-      <c r="AO66" s="35">
+      <c r="AM66" s="34"/>
+      <c r="AO66" s="32">
         <v>64</v>
       </c>
       <c r="AP66" t="s">
         <v>465</v>
       </c>
-      <c r="AQ66" s="37"/>
+      <c r="AQ66" s="34"/>
     </row>
     <row r="67" spans="1:43">
-      <c r="A67" s="35">
+      <c r="A67" s="32">
         <v>65</v>
       </c>
-      <c r="B67" s="36" t="s">
+      <c r="B67" s="33" t="s">
         <v>302</v>
       </c>
-      <c r="C67" s="37"/>
-      <c r="E67" s="35">
+      <c r="C67" s="34"/>
+      <c r="E67" s="32">
         <v>65</v>
       </c>
-      <c r="F67" s="36" t="s">
+      <c r="F67" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="G67" s="37"/>
-      <c r="I67" s="35">
+      <c r="G67" s="34"/>
+      <c r="I67" s="32">
         <v>65</v>
       </c>
       <c r="J67" t="s">
         <v>468</v>
       </c>
-      <c r="K67" s="37"/>
-      <c r="M67" s="35">
+      <c r="K67" s="34"/>
+      <c r="M67" s="32">
         <v>65</v>
       </c>
       <c r="N67" t="s">
         <v>469</v>
       </c>
-      <c r="O67" s="37"/>
-      <c r="Q67" s="35">
+      <c r="O67" s="34"/>
+      <c r="Q67" s="32">
         <v>65</v>
       </c>
       <c r="R67" t="s">
         <v>148</v>
       </c>
-      <c r="S67" s="37"/>
-      <c r="U67" s="35">
+      <c r="S67" s="34"/>
+      <c r="U67" s="32">
         <v>65</v>
       </c>
-      <c r="V67" s="36" t="s">
+      <c r="V67" s="33" t="s">
         <v>470</v>
       </c>
-      <c r="W67" s="37"/>
-      <c r="Y67" s="35">
+      <c r="W67" s="34"/>
+      <c r="Y67" s="32">
         <v>65</v>
       </c>
-      <c r="Z67" s="36" t="s">
+      <c r="Z67" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="AA67" s="37"/>
-      <c r="AC67" s="35">
+      <c r="AA67" s="34"/>
+      <c r="AC67" s="32">
         <v>65</v>
       </c>
-      <c r="AD67" s="36" t="s">
+      <c r="AD67" s="33" t="s">
         <v>471</v>
       </c>
-      <c r="AE67" s="37"/>
-      <c r="AG67" s="35">
+      <c r="AE67" s="34"/>
+      <c r="AG67" s="32">
         <v>65</v>
       </c>
-      <c r="AH67" s="36" t="s">
+      <c r="AH67" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="AI67" s="37"/>
-      <c r="AK67" s="35">
+      <c r="AI67" s="34"/>
+      <c r="AK67" s="32">
         <v>65</v>
       </c>
-      <c r="AL67" s="36" t="s">
+      <c r="AL67" s="33" t="s">
         <v>472</v>
       </c>
-      <c r="AM67" s="37"/>
-      <c r="AO67" s="35">
+      <c r="AM67" s="34"/>
+      <c r="AO67" s="32">
         <v>65</v>
       </c>
       <c r="AP67" t="s">
         <v>302</v>
       </c>
-      <c r="AQ67" s="37"/>
+      <c r="AQ67" s="34"/>
     </row>
     <row r="68" spans="1:43">
-      <c r="A68" s="35">
+      <c r="A68" s="32">
         <v>66</v>
       </c>
-      <c r="B68" s="36" t="s">
+      <c r="B68" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="C68" s="37"/>
-      <c r="E68" s="35">
+      <c r="C68" s="34"/>
+      <c r="E68" s="32">
         <v>66</v>
       </c>
-      <c r="F68" s="36" t="s">
+      <c r="F68" s="33" t="s">
         <v>473</v>
       </c>
-      <c r="G68" s="37"/>
-      <c r="I68" s="35">
+      <c r="G68" s="34"/>
+      <c r="I68" s="32">
         <v>66</v>
       </c>
       <c r="J68" t="s">
         <v>254</v>
       </c>
-      <c r="K68" s="37"/>
-      <c r="M68" s="35">
+      <c r="K68" s="34"/>
+      <c r="M68" s="32">
         <v>66</v>
       </c>
       <c r="N68" t="s">
         <v>438</v>
       </c>
-      <c r="O68" s="37"/>
-      <c r="Q68" s="35">
+      <c r="O68" s="34"/>
+      <c r="Q68" s="32">
         <v>66</v>
       </c>
       <c r="R68" t="s">
         <v>474</v>
       </c>
-      <c r="S68" s="37"/>
-      <c r="U68" s="35">
+      <c r="S68" s="34"/>
+      <c r="U68" s="32">
         <v>66</v>
       </c>
-      <c r="V68" s="36" t="s">
+      <c r="V68" s="33" t="s">
         <v>201</v>
       </c>
-      <c r="W68" s="37"/>
-      <c r="Y68" s="35">
+      <c r="W68" s="34"/>
+      <c r="Y68" s="32">
         <v>66</v>
       </c>
-      <c r="Z68" s="36" t="s">
+      <c r="Z68" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="AA68" s="37"/>
-      <c r="AC68" s="35">
+      <c r="AA68" s="34"/>
+      <c r="AC68" s="32">
         <v>66</v>
       </c>
-      <c r="AD68" s="36" t="s">
+      <c r="AD68" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="AE68" s="37"/>
-      <c r="AG68" s="35">
+      <c r="AE68" s="34"/>
+      <c r="AG68" s="32">
         <v>66</v>
       </c>
-      <c r="AH68" s="36" t="s">
+      <c r="AH68" s="33" t="s">
         <v>475</v>
       </c>
-      <c r="AI68" s="37"/>
-      <c r="AK68" s="35">
+      <c r="AI68" s="34"/>
+      <c r="AK68" s="32">
         <v>66</v>
       </c>
-      <c r="AL68" s="36" t="s">
+      <c r="AL68" s="33" t="s">
         <v>476</v>
       </c>
-      <c r="AM68" s="37"/>
-      <c r="AO68" s="35">
+      <c r="AM68" s="34"/>
+      <c r="AO68" s="32">
         <v>66</v>
       </c>
       <c r="AP68" t="s">
         <v>254</v>
       </c>
-      <c r="AQ68" s="37"/>
+      <c r="AQ68" s="34"/>
     </row>
     <row r="69" spans="1:43">
-      <c r="A69" s="35">
+      <c r="A69" s="32">
         <v>67</v>
       </c>
-      <c r="B69" s="36" t="s">
+      <c r="B69" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="C69" s="37"/>
-      <c r="E69" s="35">
+      <c r="C69" s="34"/>
+      <c r="E69" s="32">
         <v>67</v>
       </c>
-      <c r="F69" s="36" t="s">
+      <c r="F69" s="33" t="s">
         <v>419</v>
       </c>
-      <c r="G69" s="37"/>
-      <c r="I69" s="35">
+      <c r="G69" s="34"/>
+      <c r="I69" s="32">
         <v>67</v>
       </c>
       <c r="J69" t="s">
         <v>53</v>
       </c>
-      <c r="K69" s="37"/>
-      <c r="M69" s="35">
+      <c r="K69" s="34"/>
+      <c r="M69" s="32">
         <v>67</v>
       </c>
       <c r="N69" t="s">
         <v>205</v>
       </c>
-      <c r="O69" s="37"/>
-      <c r="Q69" s="35">
+      <c r="O69" s="34"/>
+      <c r="Q69" s="32">
         <v>67</v>
       </c>
       <c r="R69" t="s">
         <v>477</v>
       </c>
-      <c r="S69" s="37"/>
-      <c r="U69" s="35">
+      <c r="S69" s="34"/>
+      <c r="U69" s="32">
         <v>67</v>
       </c>
-      <c r="V69" s="36" t="s">
+      <c r="V69" s="33" t="s">
         <v>478</v>
       </c>
-      <c r="W69" s="37"/>
-      <c r="Y69" s="35">
+      <c r="W69" s="34"/>
+      <c r="Y69" s="32">
         <v>67</v>
       </c>
-      <c r="Z69" s="36" t="s">
+      <c r="Z69" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="AA69" s="37"/>
-      <c r="AC69" s="35">
+      <c r="AA69" s="34"/>
+      <c r="AC69" s="32">
         <v>67</v>
       </c>
-      <c r="AD69" s="36" t="s">
+      <c r="AD69" s="33" t="s">
         <v>438</v>
       </c>
-      <c r="AE69" s="37"/>
-      <c r="AG69" s="35">
+      <c r="AE69" s="34"/>
+      <c r="AG69" s="32">
         <v>67</v>
       </c>
-      <c r="AH69" s="36" t="s">
+      <c r="AH69" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="AI69" s="37"/>
-      <c r="AK69" s="35">
+      <c r="AI69" s="34"/>
+      <c r="AK69" s="32">
         <v>67</v>
       </c>
-      <c r="AL69" s="36" t="s">
+      <c r="AL69" s="33" t="s">
         <v>479</v>
       </c>
-      <c r="AM69" s="37"/>
-      <c r="AO69" s="35">
+      <c r="AM69" s="34"/>
+      <c r="AO69" s="32">
         <v>67</v>
       </c>
       <c r="AP69" t="s">
         <v>425</v>
       </c>
-      <c r="AQ69" s="37"/>
+      <c r="AQ69" s="34"/>
     </row>
     <row r="70" spans="1:43">
-      <c r="A70" s="59">
+      <c r="A70" s="58">
         <v>68</v>
       </c>
-      <c r="B70" s="60" t="s">
+      <c r="B70" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="C70" s="61"/>
-      <c r="E70" s="59">
+      <c r="C70" s="60"/>
+      <c r="E70" s="58">
         <v>68</v>
       </c>
-      <c r="F70" s="60" t="s">
+      <c r="F70" s="59" t="s">
         <v>346</v>
       </c>
-      <c r="G70" s="61"/>
-      <c r="I70" s="59">
+      <c r="G70" s="60"/>
+      <c r="I70" s="58">
         <v>68</v>
       </c>
       <c r="J70" t="s">
         <v>350</v>
       </c>
-      <c r="K70" s="61"/>
-      <c r="M70" s="59">
+      <c r="K70" s="60"/>
+      <c r="M70" s="58">
         <v>68</v>
       </c>
-      <c r="N70" s="60" t="s">
+      <c r="N70" s="59" t="s">
         <v>439</v>
       </c>
-      <c r="O70" s="61"/>
-      <c r="Q70" s="59">
+      <c r="O70" s="60"/>
+      <c r="Q70" s="58">
         <v>68</v>
       </c>
-      <c r="R70" s="60" t="s">
+      <c r="R70" s="59" t="s">
         <v>439</v>
       </c>
-      <c r="S70" s="61"/>
-      <c r="U70" s="59">
+      <c r="S70" s="60"/>
+      <c r="U70" s="58">
         <v>68</v>
       </c>
-      <c r="V70" s="60" t="s">
+      <c r="V70" s="59" t="s">
         <v>356</v>
       </c>
-      <c r="W70" s="61"/>
-      <c r="Y70" s="59">
+      <c r="W70" s="60"/>
+      <c r="Y70" s="58">
         <v>68</v>
       </c>
-      <c r="Z70" s="60" t="s">
+      <c r="Z70" s="59" t="s">
         <v>480</v>
       </c>
-      <c r="AA70" s="61"/>
-      <c r="AC70" s="59">
+      <c r="AA70" s="60"/>
+      <c r="AC70" s="58">
         <v>68</v>
       </c>
-      <c r="AD70" s="60" t="s">
+      <c r="AD70" s="59" t="s">
         <v>481</v>
       </c>
-      <c r="AE70" s="61"/>
-      <c r="AG70" s="59">
+      <c r="AE70" s="60"/>
+      <c r="AG70" s="58">
         <v>68</v>
       </c>
-      <c r="AH70" s="60" t="s">
+      <c r="AH70" s="59" t="s">
         <v>350</v>
       </c>
-      <c r="AI70" s="61"/>
-      <c r="AK70" s="59">
+      <c r="AI70" s="60"/>
+      <c r="AK70" s="58">
         <v>68</v>
       </c>
-      <c r="AL70" s="60" t="s">
+      <c r="AL70" s="59" t="s">
         <v>482</v>
       </c>
-      <c r="AM70" s="61"/>
-      <c r="AO70" s="59">
+      <c r="AM70" s="60"/>
+      <c r="AO70" s="58">
         <v>68</v>
       </c>
-      <c r="AP70" s="60" t="s">
+      <c r="AP70" s="59" t="s">
         <v>483</v>
       </c>
-      <c r="AQ70" s="61"/>
+      <c r="AQ70" s="60"/>
     </row>
     <row r="71" spans="1:44">
       <c r="A71" t="s">
@@ -12777,7 +12787,7 @@
       </c>
       <c r="C71" s="3">
         <f>SUM(C3:C70)</f>
-        <v>-149602</v>
+        <v>-151602</v>
       </c>
       <c r="D71" s="4">
         <f>SUM(D3:D70)</f>
@@ -12788,11 +12798,11 @@
       </c>
       <c r="G71" s="3">
         <f>SUM(G3:G70)</f>
-        <v>-25952</v>
+        <v>-27052</v>
       </c>
       <c r="H71" s="4">
         <f>SUM(H3:H70)</f>
-        <v>2071.5</v>
+        <v>3897</v>
       </c>
       <c r="I71" t="s">
         <v>484</v>
@@ -12821,7 +12831,7 @@
       </c>
       <c r="S71" s="3">
         <f>SUM(S3:S70)</f>
-        <v>-46939</v>
+        <v>-47689</v>
       </c>
       <c r="T71" s="4">
         <f>SUM(T3:T70)</f>
@@ -12876,11 +12886,11 @@
       </c>
       <c r="AM71" s="3">
         <f>SUM(AM3:AM70)</f>
-        <v>-16044</v>
+        <v>-18394</v>
       </c>
       <c r="AN71" s="4">
         <f>SUM(AN3:AN70)</f>
-        <v>8242.4</v>
+        <v>9953.2</v>
       </c>
       <c r="AO71" t="s">
         <v>484</v>
@@ -12895,38 +12905,38 @@
       </c>
     </row>
     <row r="82" ht="15" customHeight="1" spans="10:15">
-      <c r="J82" s="62" t="s">
+      <c r="J82" s="61" t="s">
         <v>485</v>
       </c>
-      <c r="K82" s="85">
+      <c r="K82" s="86">
         <f>SUM(C71,G71,K71,O71,S71,W71,AA71,AE71,AI71,AM71,AQ71)</f>
-        <v>-410782</v>
-      </c>
-      <c r="N82" s="64" t="s">
+        <v>-416982</v>
+      </c>
+      <c r="N82" s="63" t="s">
         <v>486</v>
       </c>
-      <c r="O82" s="64">
+      <c r="O82" s="63">
         <f>SUM(D71,H71,L71,P71,T71,X71,AB71,AF71,AJ71,AN71,AR71)</f>
-        <v>-26647.1</v>
+        <v>-23110.8</v>
       </c>
     </row>
     <row r="83" spans="10:15">
-      <c r="J83" s="66"/>
-      <c r="K83" s="85"/>
-      <c r="N83" s="64"/>
-      <c r="O83" s="64"/>
+      <c r="J83" s="65"/>
+      <c r="K83" s="86"/>
+      <c r="N83" s="63"/>
+      <c r="O83" s="63"/>
     </row>
     <row r="84" spans="10:15">
-      <c r="J84" s="66"/>
-      <c r="K84" s="85"/>
-      <c r="N84" s="64"/>
-      <c r="O84" s="64"/>
+      <c r="J84" s="65"/>
+      <c r="K84" s="86"/>
+      <c r="N84" s="63"/>
+      <c r="O84" s="63"/>
     </row>
     <row r="85" spans="10:15">
-      <c r="J85" s="69"/>
-      <c r="K85" s="85"/>
-      <c r="N85" s="64"/>
-      <c r="O85" s="64"/>
+      <c r="J85" s="68"/>
+      <c r="K85" s="86"/>
+      <c r="N85" s="63"/>
+      <c r="O85" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -12957,8 +12967,8 @@
   <sheetPr/>
   <dimension ref="A1:AV89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61:D61"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="AD28" workbookViewId="0">
+      <selection activeCell="AS61" sqref="AS61:AU61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -14033,7 +14043,7 @@
       <c r="K10" s="13">
         <v>-75</v>
       </c>
-      <c r="M10" s="38">
+      <c r="M10" s="35">
         <v>8</v>
       </c>
       <c r="N10" s="12" t="s">
@@ -14042,7 +14052,7 @@
       <c r="O10" s="13">
         <v>-75</v>
       </c>
-      <c r="Q10" s="38">
+      <c r="Q10" s="35">
         <v>8</v>
       </c>
       <c r="R10" s="12" t="s">
@@ -14060,7 +14070,7 @@
       <c r="W10" s="13">
         <v>-112</v>
       </c>
-      <c r="Y10" s="38">
+      <c r="Y10" s="35">
         <v>8</v>
       </c>
       <c r="Z10" s="12" t="s">
@@ -16479,10 +16489,7 @@
       <c r="C30" s="13">
         <v>-155</v>
       </c>
-      <c r="D30">
-        <f>C49*D29</f>
-        <v>0</v>
-      </c>
+      <c r="D30"/>
       <c r="E30" s="11">
         <v>28</v>
       </c>
@@ -16728,94 +16735,94 @@
         <f>278+SUM(G30:G32)</f>
         <v>78</v>
       </c>
-      <c r="I32" s="39">
+      <c r="I32" s="36">
         <v>30</v>
       </c>
-      <c r="J32" s="40" t="s">
+      <c r="J32" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="K32" s="41">
+      <c r="K32" s="38">
         <v>-75</v>
       </c>
-      <c r="M32" s="39">
+      <c r="M32" s="36">
         <v>30</v>
       </c>
-      <c r="N32" s="40" t="s">
+      <c r="N32" s="37" t="s">
         <v>630</v>
       </c>
-      <c r="O32" s="41">
+      <c r="O32" s="38">
         <v>-75</v>
       </c>
-      <c r="Q32" s="39">
+      <c r="Q32" s="36">
         <v>30</v>
       </c>
-      <c r="R32" s="40" t="s">
+      <c r="R32" s="37" t="s">
         <v>567</v>
       </c>
-      <c r="S32" s="41">
+      <c r="S32" s="38">
         <v>-550</v>
       </c>
-      <c r="U32" s="39">
+      <c r="U32" s="36">
         <v>30</v>
       </c>
-      <c r="V32" s="40" t="s">
+      <c r="V32" s="37" t="s">
         <v>622</v>
       </c>
-      <c r="W32" s="41">
-        <v>-60</v>
-      </c>
-      <c r="Y32" s="39">
+      <c r="W32" s="38">
+        <v>-60</v>
+      </c>
+      <c r="Y32" s="36">
         <v>30</v>
       </c>
-      <c r="Z32" s="40" t="s">
+      <c r="Z32" s="37" t="s">
         <v>631</v>
       </c>
-      <c r="AA32" s="41">
+      <c r="AA32" s="38">
         <v>-215</v>
       </c>
-      <c r="AC32" s="39">
+      <c r="AC32" s="36">
         <v>30</v>
       </c>
-      <c r="AD32" s="40" t="s">
+      <c r="AD32" s="37" t="s">
         <v>601</v>
       </c>
-      <c r="AE32" s="41">
+      <c r="AE32" s="38">
         <v>-112</v>
       </c>
-      <c r="AG32" s="39">
+      <c r="AG32" s="36">
         <v>30</v>
       </c>
-      <c r="AH32" s="40" t="s">
+      <c r="AH32" s="37" t="s">
         <v>567</v>
       </c>
-      <c r="AI32" s="41">
-        <v>-60</v>
-      </c>
-      <c r="AK32" s="49">
+      <c r="AI32" s="38">
+        <v>-60</v>
+      </c>
+      <c r="AK32" s="48">
         <v>30</v>
       </c>
-      <c r="AL32" s="50" t="s">
+      <c r="AL32" s="49" t="s">
         <v>275</v>
       </c>
-      <c r="AM32" s="51">
+      <c r="AM32" s="50">
         <v>-298</v>
       </c>
-      <c r="AO32" s="39">
+      <c r="AO32" s="36">
         <v>30</v>
       </c>
-      <c r="AP32" s="40" t="s">
+      <c r="AP32" s="37" t="s">
         <v>267</v>
       </c>
-      <c r="AQ32" s="41">
+      <c r="AQ32" s="38">
         <v>-215</v>
       </c>
-      <c r="AS32" s="39">
+      <c r="AS32" s="36">
         <v>30</v>
       </c>
       <c r="AT32" s="18" t="s">
         <v>632</v>
       </c>
-      <c r="AU32" s="41">
+      <c r="AU32" s="38">
         <v>-60</v>
       </c>
     </row>
@@ -16842,13 +16849,13 @@
         <f>270+G33</f>
         <v>210</v>
       </c>
-      <c r="I33" s="42">
+      <c r="I33" s="39">
         <v>31</v>
       </c>
-      <c r="J33" s="43" t="s">
+      <c r="J33" s="40" t="s">
         <v>633</v>
       </c>
-      <c r="K33" s="44">
+      <c r="K33" s="41">
         <v>-90</v>
       </c>
       <c r="L33" s="17">
@@ -16891,13 +16898,13 @@
       <c r="AA33" s="24">
         <v>-298</v>
       </c>
-      <c r="AC33" s="42">
+      <c r="AC33" s="39">
         <v>31</v>
       </c>
-      <c r="AD33" s="43" t="s">
+      <c r="AD33" s="40" t="s">
         <v>276</v>
       </c>
-      <c r="AE33" s="44">
+      <c r="AE33" s="41">
         <v>-155</v>
       </c>
       <c r="AF33" s="17">
@@ -16913,28 +16920,28 @@
       <c r="AI33" s="24">
         <v>-65</v>
       </c>
-      <c r="AK33" s="49">
+      <c r="AK33" s="48">
         <v>31</v>
       </c>
-      <c r="AL33" s="50" t="s">
+      <c r="AL33" s="49" t="s">
         <v>553</v>
       </c>
-      <c r="AM33" s="51">
+      <c r="AM33" s="50">
         <v>-385</v>
       </c>
-      <c r="AO33" s="39">
+      <c r="AO33" s="36">
         <v>31</v>
       </c>
-      <c r="AP33" s="40" t="s">
+      <c r="AP33" s="37" t="s">
         <v>553</v>
       </c>
-      <c r="AQ33" s="41">
+      <c r="AQ33" s="38">
         <v>-298</v>
       </c>
       <c r="AS33" s="22">
         <v>31</v>
       </c>
-      <c r="AT33" s="40" t="s">
+      <c r="AT33" s="37" t="s">
         <v>632</v>
       </c>
       <c r="AU33" s="24">
@@ -16961,13 +16968,13 @@
       <c r="G34" s="13">
         <v>-60</v>
       </c>
-      <c r="I34" s="42">
+      <c r="I34" s="39">
         <v>32</v>
       </c>
-      <c r="J34" s="43" t="s">
+      <c r="J34" s="40" t="s">
         <v>317</v>
       </c>
-      <c r="K34" s="44">
+      <c r="K34" s="41">
         <v>-60</v>
       </c>
       <c r="L34" s="17">
@@ -17138,13 +17145,13 @@
       <c r="AA35" s="24">
         <v>-60</v>
       </c>
-      <c r="AC35" s="39">
+      <c r="AC35" s="36">
         <v>33</v>
       </c>
-      <c r="AD35" s="40" t="s">
+      <c r="AD35" s="37" t="s">
         <v>639</v>
       </c>
-      <c r="AE35" s="41">
+      <c r="AE35" s="38">
         <v>-60</v>
       </c>
       <c r="AG35" s="14">
@@ -17239,7 +17246,7 @@
       <c r="S36" s="13">
         <v>-1725</v>
       </c>
-      <c r="T36" s="47"/>
+      <c r="T36" s="31"/>
       <c r="U36" s="11">
         <v>34</v>
       </c>
@@ -17566,7 +17573,7 @@
       <c r="AU38" s="13">
         <v>-60</v>
       </c>
-      <c r="AV38" s="55"/>
+      <c r="AV38" s="54"/>
     </row>
     <row r="39" spans="1:48">
       <c r="A39" s="11">
@@ -17716,13 +17723,13 @@
       <c r="G40" s="13">
         <v>-65</v>
       </c>
-      <c r="I40" s="42">
+      <c r="I40" s="39">
         <v>38</v>
       </c>
-      <c r="J40" s="43" t="s">
+      <c r="J40" s="40" t="s">
         <v>650</v>
       </c>
-      <c r="K40" s="44">
+      <c r="K40" s="41">
         <v>-155</v>
       </c>
       <c r="L40" s="17">
@@ -18282,16 +18289,16 @@
       <c r="AF44" s="17">
         <v>89</v>
       </c>
-      <c r="AG44" s="52">
+      <c r="AG44" s="51">
         <v>42</v>
       </c>
-      <c r="AH44" s="53" t="s">
+      <c r="AH44" s="52" t="s">
         <v>678</v>
       </c>
-      <c r="AI44" s="54">
-        <v>-60</v>
-      </c>
-      <c r="AJ44" s="53">
+      <c r="AI44" s="53">
+        <v>-60</v>
+      </c>
+      <c r="AJ44" s="52">
         <f>285+AI44</f>
         <v>225</v>
       </c>
@@ -18321,10 +18328,10 @@
         <f>4424+SUM(AQ40:AQ44)</f>
         <v>1529</v>
       </c>
-      <c r="AS44" s="56">
+      <c r="AS44" s="55">
         <v>42</v>
       </c>
-      <c r="AT44" s="57" t="s">
+      <c r="AT44" s="56" t="s">
         <v>373</v>
       </c>
       <c r="AU44" s="13">
@@ -18437,10 +18444,10 @@
       <c r="AQ45" s="13">
         <v>-60</v>
       </c>
-      <c r="AS45" s="56">
+      <c r="AS45" s="55">
         <v>43</v>
       </c>
-      <c r="AT45" s="57" t="s">
+      <c r="AT45" s="56" t="s">
         <v>686</v>
       </c>
       <c r="AU45" s="13">
@@ -18548,10 +18555,10 @@
       <c r="AQ46" s="13">
         <v>-65</v>
       </c>
-      <c r="AS46" s="56">
+      <c r="AS46" s="55">
         <v>44</v>
       </c>
-      <c r="AT46" s="57" t="s">
+      <c r="AT46" s="56" t="s">
         <v>686</v>
       </c>
       <c r="AU46" s="13">
@@ -18663,10 +18670,10 @@
       <c r="AQ47" s="13">
         <v>-75</v>
       </c>
-      <c r="AS47" s="56">
+      <c r="AS47" s="55">
         <v>45</v>
       </c>
-      <c r="AT47" s="57" t="s">
+      <c r="AT47" s="56" t="s">
         <v>650</v>
       </c>
       <c r="AU47" s="13">
@@ -19167,7 +19174,7 @@
       <c r="AS51" s="22">
         <v>49</v>
       </c>
-      <c r="AT51" s="40" t="s">
+      <c r="AT51" s="37" t="s">
         <v>708</v>
       </c>
       <c r="AU51" s="24">
@@ -19404,7 +19411,7 @@
       <c r="AU53" s="13">
         <v>-750</v>
       </c>
-      <c r="AV53" s="58"/>
+      <c r="AV53" s="57"/>
     </row>
     <row r="54" spans="1:47">
       <c r="A54" s="18">
@@ -19882,9 +19889,7 @@
       <c r="C58" s="12">
         <v>-2000</v>
       </c>
-      <c r="D58" s="25">
-        <v>-3.73</v>
-      </c>
+      <c r="D58" s="25"/>
       <c r="E58" s="11">
         <v>56</v>
       </c>
@@ -20011,10 +20016,7 @@
       <c r="C59" s="12">
         <v>-2000</v>
       </c>
-      <c r="D59" s="25">
-        <f>D58*C61</f>
-        <v>12122.5</v>
-      </c>
+      <c r="D59" s="25"/>
       <c r="E59" s="11">
         <v>57</v>
       </c>
@@ -20042,13 +20044,13 @@
       <c r="O59" s="13">
         <v>0</v>
       </c>
-      <c r="Q59" s="38">
+      <c r="Q59" s="35">
         <v>57</v>
       </c>
       <c r="R59" s="3" t="s">
         <v>720</v>
       </c>
-      <c r="S59" s="48">
+      <c r="S59" s="47">
         <v>-600</v>
       </c>
       <c r="U59" s="11">
@@ -20078,13 +20080,13 @@
       <c r="AE59" s="13">
         <v>0</v>
       </c>
-      <c r="AG59" s="38">
+      <c r="AG59" s="35">
         <v>57</v>
       </c>
       <c r="AH59" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="AI59" s="48">
+      <c r="AI59" s="47">
         <v>0</v>
       </c>
       <c r="AK59" s="11">
@@ -20130,14 +20132,18 @@
         <v>-2350</v>
       </c>
       <c r="D60" s="25"/>
-      <c r="E60" s="31">
+      <c r="E60" s="14">
         <v>58</v>
       </c>
-      <c r="F60" s="32" t="s">
+      <c r="F60" s="15" t="s">
         <v>592</v>
       </c>
-      <c r="G60" s="33">
+      <c r="G60" s="16">
         <v>-2980</v>
+      </c>
+      <c r="H60" s="17">
+        <f>11622+SUM(G50:G60)</f>
+        <v>922</v>
       </c>
       <c r="I60" s="11">
         <v>58</v>
@@ -20148,20 +20154,22 @@
       <c r="K60" s="13">
         <v>-415</v>
       </c>
-      <c r="M60" s="35">
+      <c r="M60" s="42">
         <v>58</v>
       </c>
-      <c r="N60" t="s">
+      <c r="N60" s="43" t="s">
         <v>725</v>
       </c>
-      <c r="O60" s="37"/>
-      <c r="Q60" s="38">
+      <c r="O60" s="44">
+        <v>-600</v>
+      </c>
+      <c r="Q60" s="35">
         <v>58</v>
       </c>
       <c r="R60" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="S60" s="48">
+      <c r="S60" s="47">
         <v>-650</v>
       </c>
       <c r="U60" s="14">
@@ -20204,78 +20212,81 @@
       <c r="AI60" s="16">
         <v>0</v>
       </c>
-      <c r="AK60" s="31">
+      <c r="AK60" s="14">
         <v>58</v>
       </c>
-      <c r="AL60" s="34" t="s">
+      <c r="AL60" s="17" t="s">
         <v>519</v>
       </c>
-      <c r="AM60" s="33">
+      <c r="AM60" s="16">
         <v>0</v>
       </c>
-      <c r="AO60" s="38">
+      <c r="AO60" s="35">
         <v>58</v>
       </c>
       <c r="AP60" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="AQ60" s="48">
+      <c r="AQ60" s="47">
         <v>-600</v>
       </c>
-      <c r="AS60" s="31">
+      <c r="AS60" s="11">
         <v>58</v>
       </c>
-      <c r="AT60" s="34" t="s">
+      <c r="AT60" s="18" t="s">
         <v>727</v>
       </c>
-      <c r="AU60" s="33">
+      <c r="AU60" s="13">
         <v>-650</v>
       </c>
     </row>
     <row r="61" spans="1:47">
-      <c r="A61" s="34">
+      <c r="A61" s="18">
         <v>59</v>
       </c>
-      <c r="B61" s="34" t="s">
+      <c r="B61" s="18" t="s">
         <v>709</v>
       </c>
-      <c r="C61" s="34">
+      <c r="C61" s="12">
         <v>-3250</v>
       </c>
-      <c r="D61" s="34">
-        <f>D59+SUM(C57:C61)</f>
-        <v>22.5</v>
-      </c>
-      <c r="E61" s="35">
+      <c r="D61" s="31"/>
+      <c r="E61" s="32">
         <v>59</v>
       </c>
-      <c r="F61" s="36" t="s">
+      <c r="F61" s="33" t="s">
         <v>728</v>
       </c>
-      <c r="G61" s="37"/>
-      <c r="I61" s="31">
+      <c r="G61" s="34"/>
+      <c r="I61" s="14">
         <v>59</v>
       </c>
-      <c r="J61" s="34" t="s">
+      <c r="J61" s="17" t="s">
         <v>519</v>
       </c>
-      <c r="K61" s="33">
-        <v>-500</v>
-      </c>
-      <c r="M61" s="35">
+      <c r="K61" s="16">
+        <v>-600</v>
+      </c>
+      <c r="L61" s="17">
+        <f>1675+335+SUM(K51:K61)</f>
+        <v>-75</v>
+      </c>
+      <c r="M61" s="32">
         <v>59</v>
       </c>
       <c r="N61" t="s">
         <v>725</v>
       </c>
-      <c r="O61" s="37"/>
-      <c r="Q61" s="38">
+      <c r="O61" s="34"/>
+      <c r="Q61" s="35">
         <v>59</v>
       </c>
       <c r="R61" s="3" t="s">
         <v>729</v>
       </c>
-      <c r="S61" s="48"/>
+      <c r="S61" s="47">
+        <v>-750</v>
+      </c>
       <c r="U61" s="14">
         <v>59</v>
       </c>
@@ -20307,22 +20318,24 @@
         <f>2535+SUM(AE60:AE61)</f>
         <v>1285</v>
       </c>
-      <c r="AG61" s="38">
+      <c r="AG61" s="35">
         <v>59</v>
       </c>
       <c r="AH61" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="AI61" s="48">
+      <c r="AI61" s="47">
         <v>0</v>
       </c>
-      <c r="AK61" s="35">
+      <c r="AK61" s="42">
         <v>59</v>
       </c>
-      <c r="AL61" t="s">
+      <c r="AL61" s="43" t="s">
         <v>725</v>
       </c>
-      <c r="AM61" s="37"/>
+      <c r="AM61" s="44">
+        <v>-600</v>
+      </c>
       <c r="AO61" s="14">
         <v>59</v>
       </c>
@@ -20336,13 +20349,15 @@
         <f>2535+SUM(AQ60:AQ61)</f>
         <v>1285</v>
       </c>
-      <c r="AS61" s="35">
+      <c r="AS61" s="42">
         <v>59</v>
       </c>
-      <c r="AT61" t="s">
+      <c r="AT61" s="43" t="s">
         <v>443</v>
       </c>
-      <c r="AU61" s="37"/>
+      <c r="AU61" s="44">
+        <v>-750</v>
+      </c>
     </row>
     <row r="62" spans="1:47">
       <c r="A62">
@@ -20352,51 +20367,55 @@
         <v>591</v>
       </c>
       <c r="D62" s="25"/>
-      <c r="E62" s="35">
+      <c r="E62" s="32">
         <v>60</v>
       </c>
-      <c r="F62" s="36" t="s">
+      <c r="F62" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="G62" s="37"/>
-      <c r="I62" s="35">
+      <c r="G62" s="34"/>
+      <c r="I62" s="32">
         <v>60</v>
       </c>
       <c r="J62" t="s">
         <v>593</v>
       </c>
-      <c r="K62" s="37"/>
-      <c r="M62" s="35">
+      <c r="K62" s="34"/>
+      <c r="M62" s="32">
         <v>60</v>
       </c>
       <c r="N62" t="s">
         <v>453</v>
       </c>
-      <c r="O62" s="37"/>
-      <c r="Q62" s="38">
+      <c r="O62" s="34"/>
+      <c r="Q62" s="35">
         <v>60</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="S62" s="48"/>
-      <c r="U62" s="31">
+      <c r="S62" s="47"/>
+      <c r="U62" s="11">
         <v>60</v>
       </c>
-      <c r="V62" s="34" t="s">
+      <c r="V62" s="18" t="s">
         <v>446</v>
       </c>
-      <c r="W62" s="33">
+      <c r="W62" s="13">
         <v>0</v>
       </c>
-      <c r="Y62" s="31">
+      <c r="Y62" s="14">
         <v>60</v>
       </c>
-      <c r="Z62" s="34" t="s">
+      <c r="Z62" s="17" t="s">
         <v>592</v>
       </c>
-      <c r="AA62" s="33">
+      <c r="AA62" s="16">
         <v>-1550</v>
+      </c>
+      <c r="AB62" s="17">
+        <f>6045+SUM(AA52:AA62)</f>
+        <v>475</v>
       </c>
       <c r="AC62" s="11">
         <v>60</v>
@@ -20407,34 +20426,34 @@
       <c r="AE62" s="13">
         <v>0</v>
       </c>
-      <c r="AG62" s="38">
+      <c r="AG62" s="35">
         <v>60</v>
       </c>
       <c r="AH62" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="AI62" s="48"/>
-      <c r="AK62" s="35">
+      <c r="AI62" s="47"/>
+      <c r="AK62" s="32">
         <v>60</v>
       </c>
       <c r="AL62" t="s">
         <v>725</v>
       </c>
-      <c r="AM62" s="37"/>
-      <c r="AO62" s="38">
+      <c r="AM62" s="34"/>
+      <c r="AO62" s="35">
         <v>60</v>
       </c>
       <c r="AP62" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="AQ62" s="48"/>
-      <c r="AS62" s="35">
+      <c r="AQ62" s="47"/>
+      <c r="AS62" s="32">
         <v>60</v>
       </c>
       <c r="AT62" t="s">
         <v>712</v>
       </c>
-      <c r="AU62" s="37"/>
+      <c r="AU62" s="34"/>
     </row>
     <row r="63" spans="1:47">
       <c r="A63">
@@ -20443,83 +20462,85 @@
       <c r="B63" t="s">
         <v>498</v>
       </c>
-      <c r="E63" s="35">
+      <c r="E63" s="32">
         <v>61</v>
       </c>
-      <c r="F63" s="36" t="s">
+      <c r="F63" s="33" t="s">
         <v>493</v>
       </c>
-      <c r="G63" s="37"/>
-      <c r="I63" s="35">
+      <c r="G63" s="34"/>
+      <c r="I63" s="32">
         <v>61</v>
       </c>
       <c r="J63" t="s">
         <v>451</v>
       </c>
-      <c r="K63" s="37"/>
-      <c r="M63" s="35">
+      <c r="K63" s="34"/>
+      <c r="M63" s="32">
         <v>61</v>
       </c>
       <c r="N63" t="s">
         <v>457</v>
       </c>
-      <c r="O63" s="37"/>
-      <c r="Q63" s="38">
+      <c r="O63" s="34"/>
+      <c r="Q63" s="35">
         <v>61</v>
       </c>
       <c r="R63" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="S63" s="48"/>
-      <c r="U63" s="35">
+      <c r="S63" s="47"/>
+      <c r="U63" s="42">
         <v>61</v>
       </c>
-      <c r="V63" t="s">
+      <c r="V63" s="43" t="s">
         <v>442</v>
       </c>
-      <c r="W63" s="37"/>
-      <c r="Y63" s="35">
+      <c r="W63" s="44">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="32">
         <v>61</v>
       </c>
       <c r="Z63" t="s">
         <v>712</v>
       </c>
-      <c r="AA63" s="37"/>
-      <c r="AC63" s="35">
+      <c r="AA63" s="34"/>
+      <c r="AC63" s="32">
         <v>61</v>
       </c>
       <c r="AD63" t="s">
         <v>585</v>
       </c>
-      <c r="AE63" s="37"/>
-      <c r="AG63" s="38">
+      <c r="AE63" s="34"/>
+      <c r="AG63" s="35">
         <v>61</v>
       </c>
       <c r="AH63" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="AI63" s="48"/>
-      <c r="AK63" s="35">
+      <c r="AI63" s="47"/>
+      <c r="AK63" s="32">
         <v>61</v>
       </c>
       <c r="AL63" t="s">
         <v>515</v>
       </c>
-      <c r="AM63" s="37"/>
-      <c r="AO63" s="38">
+      <c r="AM63" s="34"/>
+      <c r="AO63" s="35">
         <v>61</v>
       </c>
       <c r="AP63" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="AQ63" s="48"/>
-      <c r="AS63" s="35">
+      <c r="AQ63" s="47"/>
+      <c r="AS63" s="32">
         <v>61</v>
       </c>
       <c r="AT63" t="s">
         <v>730</v>
       </c>
-      <c r="AU63" s="37"/>
+      <c r="AU63" s="34"/>
     </row>
     <row r="64" spans="1:47">
       <c r="A64">
@@ -20528,83 +20549,83 @@
       <c r="B64" t="s">
         <v>525</v>
       </c>
-      <c r="E64" s="35">
+      <c r="E64" s="32">
         <v>62</v>
       </c>
-      <c r="F64" s="36" t="s">
+      <c r="F64" s="33" t="s">
         <v>644</v>
       </c>
-      <c r="G64" s="37"/>
-      <c r="I64" s="35">
+      <c r="G64" s="34"/>
+      <c r="I64" s="32">
         <v>62</v>
       </c>
       <c r="J64" t="s">
         <v>612</v>
       </c>
-      <c r="K64" s="37"/>
-      <c r="M64" s="35">
+      <c r="K64" s="34"/>
+      <c r="M64" s="32">
         <v>62</v>
       </c>
       <c r="N64" t="s">
         <v>731</v>
       </c>
-      <c r="O64" s="37"/>
-      <c r="Q64" s="38">
+      <c r="O64" s="34"/>
+      <c r="Q64" s="35">
         <v>62</v>
       </c>
       <c r="R64" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="S64" s="48"/>
-      <c r="U64" s="35">
+      <c r="S64" s="47"/>
+      <c r="U64" s="32">
         <v>62</v>
       </c>
       <c r="V64" t="s">
         <v>449</v>
       </c>
-      <c r="W64" s="37"/>
-      <c r="Y64" s="35">
+      <c r="W64" s="34"/>
+      <c r="Y64" s="32">
         <v>62</v>
       </c>
       <c r="Z64" t="s">
         <v>732</v>
       </c>
-      <c r="AA64" s="37"/>
-      <c r="AC64" s="35">
+      <c r="AA64" s="34"/>
+      <c r="AC64" s="32">
         <v>62</v>
       </c>
       <c r="AD64" t="s">
         <v>515</v>
       </c>
-      <c r="AE64" s="37"/>
-      <c r="AG64" s="38">
+      <c r="AE64" s="34"/>
+      <c r="AG64" s="35">
         <v>62</v>
       </c>
       <c r="AH64" s="3" t="s">
         <v>733</v>
       </c>
-      <c r="AI64" s="48"/>
-      <c r="AK64" s="35">
+      <c r="AI64" s="47"/>
+      <c r="AK64" s="32">
         <v>62</v>
       </c>
       <c r="AL64" t="s">
         <v>733</v>
       </c>
-      <c r="AM64" s="37"/>
-      <c r="AO64" s="35">
+      <c r="AM64" s="34"/>
+      <c r="AO64" s="32">
         <v>62</v>
       </c>
       <c r="AP64" t="s">
         <v>460</v>
       </c>
-      <c r="AQ64" s="37"/>
-      <c r="AS64" s="35">
+      <c r="AQ64" s="34"/>
+      <c r="AS64" s="32">
         <v>62</v>
       </c>
       <c r="AT64" t="s">
         <v>528</v>
       </c>
-      <c r="AU64" s="37"/>
+      <c r="AU64" s="34"/>
     </row>
     <row r="65" spans="1:47">
       <c r="A65">
@@ -20613,83 +20634,83 @@
       <c r="B65" t="s">
         <v>663</v>
       </c>
-      <c r="E65" s="35">
+      <c r="E65" s="32">
         <v>63</v>
       </c>
-      <c r="F65" s="36" t="s">
+      <c r="F65" s="33" t="s">
         <v>556</v>
       </c>
-      <c r="G65" s="37"/>
-      <c r="I65" s="35">
+      <c r="G65" s="34"/>
+      <c r="I65" s="32">
         <v>63</v>
       </c>
       <c r="J65" t="s">
         <v>493</v>
       </c>
-      <c r="K65" s="37"/>
-      <c r="M65" s="35">
+      <c r="K65" s="34"/>
+      <c r="M65" s="32">
         <v>63</v>
       </c>
       <c r="N65" t="s">
         <v>731</v>
       </c>
-      <c r="O65" s="37"/>
-      <c r="Q65" s="38">
+      <c r="O65" s="34"/>
+      <c r="Q65" s="35">
         <v>63</v>
       </c>
       <c r="R65" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="S65" s="48"/>
-      <c r="U65" s="35">
+      <c r="S65" s="47"/>
+      <c r="U65" s="32">
         <v>63</v>
       </c>
       <c r="V65" t="s">
         <v>734</v>
       </c>
-      <c r="W65" s="37"/>
-      <c r="Y65" s="35">
+      <c r="W65" s="34"/>
+      <c r="Y65" s="32">
         <v>63</v>
       </c>
       <c r="Z65" t="s">
         <v>689</v>
       </c>
-      <c r="AA65" s="37"/>
-      <c r="AC65" s="35">
+      <c r="AA65" s="34"/>
+      <c r="AC65" s="32">
         <v>63</v>
       </c>
       <c r="AD65" t="s">
         <v>735</v>
       </c>
-      <c r="AE65" s="37"/>
-      <c r="AG65" s="38">
+      <c r="AE65" s="34"/>
+      <c r="AG65" s="35">
         <v>63</v>
       </c>
       <c r="AH65" s="3" t="s">
         <v>733</v>
       </c>
-      <c r="AI65" s="48"/>
-      <c r="AK65" s="35">
+      <c r="AI65" s="47"/>
+      <c r="AK65" s="32">
         <v>63</v>
       </c>
       <c r="AL65" t="s">
         <v>736</v>
       </c>
-      <c r="AM65" s="37"/>
-      <c r="AO65" s="35">
+      <c r="AM65" s="34"/>
+      <c r="AO65" s="32">
         <v>63</v>
       </c>
       <c r="AP65" t="s">
         <v>663</v>
       </c>
-      <c r="AQ65" s="37"/>
-      <c r="AS65" s="35">
+      <c r="AQ65" s="34"/>
+      <c r="AS65" s="32">
         <v>63</v>
       </c>
       <c r="AT65" t="s">
         <v>528</v>
       </c>
-      <c r="AU65" s="37"/>
+      <c r="AU65" s="34"/>
     </row>
     <row r="66" spans="1:47">
       <c r="A66">
@@ -20698,83 +20719,83 @@
       <c r="B66" t="s">
         <v>689</v>
       </c>
-      <c r="E66" s="35">
+      <c r="E66" s="32">
         <v>64</v>
       </c>
-      <c r="F66" s="36" t="s">
+      <c r="F66" s="33" t="s">
         <v>737</v>
       </c>
-      <c r="G66" s="37"/>
-      <c r="I66" s="35">
+      <c r="G66" s="34"/>
+      <c r="I66" s="32">
         <v>64</v>
       </c>
       <c r="J66" t="s">
         <v>649</v>
       </c>
-      <c r="K66" s="37"/>
-      <c r="M66" s="35">
+      <c r="K66" s="34"/>
+      <c r="M66" s="32">
         <v>64</v>
       </c>
       <c r="N66" t="s">
         <v>738</v>
       </c>
-      <c r="O66" s="37"/>
-      <c r="Q66" s="38">
+      <c r="O66" s="34"/>
+      <c r="Q66" s="35">
         <v>64</v>
       </c>
       <c r="R66" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="S66" s="48"/>
-      <c r="U66" s="35">
+      <c r="S66" s="47"/>
+      <c r="U66" s="32">
         <v>64</v>
       </c>
       <c r="V66" t="s">
         <v>556</v>
       </c>
-      <c r="W66" s="37"/>
-      <c r="Y66" s="35">
+      <c r="W66" s="34"/>
+      <c r="Y66" s="32">
         <v>64</v>
       </c>
       <c r="Z66" t="s">
         <v>574</v>
       </c>
-      <c r="AA66" s="37"/>
-      <c r="AC66" s="35">
+      <c r="AA66" s="34"/>
+      <c r="AC66" s="32">
         <v>64</v>
       </c>
       <c r="AD66" t="s">
         <v>462</v>
       </c>
-      <c r="AE66" s="37"/>
-      <c r="AG66" s="38">
+      <c r="AE66" s="34"/>
+      <c r="AG66" s="35">
         <v>64</v>
       </c>
       <c r="AH66" s="3" t="s">
         <v>739</v>
       </c>
-      <c r="AI66" s="48"/>
-      <c r="AK66" s="35">
+      <c r="AI66" s="47"/>
+      <c r="AK66" s="32">
         <v>64</v>
       </c>
       <c r="AL66" t="s">
         <v>738</v>
       </c>
-      <c r="AM66" s="37"/>
-      <c r="AO66" s="35">
+      <c r="AM66" s="34"/>
+      <c r="AO66" s="32">
         <v>64</v>
       </c>
       <c r="AP66" t="s">
         <v>649</v>
       </c>
-      <c r="AQ66" s="37"/>
-      <c r="AS66" s="35">
+      <c r="AQ66" s="34"/>
+      <c r="AS66" s="32">
         <v>64</v>
       </c>
       <c r="AT66" t="s">
         <v>606</v>
       </c>
-      <c r="AU66" s="37"/>
+      <c r="AU66" s="34"/>
     </row>
     <row r="67" spans="1:47">
       <c r="A67">
@@ -20783,83 +20804,83 @@
       <c r="B67" t="s">
         <v>468</v>
       </c>
-      <c r="E67" s="35">
+      <c r="E67" s="32">
         <v>65</v>
       </c>
-      <c r="F67" s="36" t="s">
+      <c r="F67" s="33" t="s">
         <v>499</v>
       </c>
-      <c r="G67" s="37"/>
-      <c r="I67" s="35">
+      <c r="G67" s="34"/>
+      <c r="I67" s="32">
         <v>65</v>
       </c>
       <c r="J67" t="s">
         <v>666</v>
       </c>
-      <c r="K67" s="37"/>
-      <c r="M67" s="35">
+      <c r="K67" s="34"/>
+      <c r="M67" s="32">
         <v>65</v>
       </c>
       <c r="N67" t="s">
         <v>738</v>
       </c>
-      <c r="O67" s="37"/>
-      <c r="Q67" s="38">
+      <c r="O67" s="34"/>
+      <c r="Q67" s="35">
         <v>65</v>
       </c>
       <c r="R67" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="S67" s="48"/>
-      <c r="U67" s="35">
+      <c r="S67" s="47"/>
+      <c r="U67" s="32">
         <v>65</v>
       </c>
       <c r="V67" t="s">
         <v>741</v>
       </c>
-      <c r="W67" s="37"/>
-      <c r="Y67" s="35">
+      <c r="W67" s="34"/>
+      <c r="Y67" s="32">
         <v>65</v>
       </c>
       <c r="Z67" t="s">
         <v>631</v>
       </c>
-      <c r="AA67" s="37"/>
-      <c r="AC67" s="35">
+      <c r="AA67" s="34"/>
+      <c r="AC67" s="32">
         <v>65</v>
       </c>
       <c r="AD67" t="s">
         <v>666</v>
       </c>
-      <c r="AE67" s="37"/>
-      <c r="AG67" s="38">
+      <c r="AE67" s="34"/>
+      <c r="AG67" s="35">
         <v>65</v>
       </c>
       <c r="AH67" s="3" t="s">
         <v>739</v>
       </c>
-      <c r="AI67" s="48"/>
-      <c r="AK67" s="35">
+      <c r="AI67" s="47"/>
+      <c r="AK67" s="32">
         <v>65</v>
       </c>
       <c r="AL67" t="s">
         <v>738</v>
       </c>
-      <c r="AM67" s="37"/>
-      <c r="AO67" s="35">
+      <c r="AM67" s="34"/>
+      <c r="AO67" s="32">
         <v>65</v>
       </c>
       <c r="AP67" t="s">
         <v>742</v>
       </c>
-      <c r="AQ67" s="37"/>
-      <c r="AS67" s="35">
+      <c r="AQ67" s="34"/>
+      <c r="AS67" s="32">
         <v>65</v>
       </c>
       <c r="AT67" t="s">
         <v>606</v>
       </c>
-      <c r="AU67" s="37"/>
+      <c r="AU67" s="34"/>
     </row>
     <row r="68" spans="1:47">
       <c r="A68">
@@ -20868,83 +20889,83 @@
       <c r="B68" t="s">
         <v>628</v>
       </c>
-      <c r="E68" s="35">
+      <c r="E68" s="32">
         <v>66</v>
       </c>
-      <c r="F68" s="36" t="s">
+      <c r="F68" s="33" t="s">
         <v>743</v>
       </c>
-      <c r="G68" s="37"/>
-      <c r="I68" s="35">
+      <c r="G68" s="34"/>
+      <c r="I68" s="32">
         <v>66</v>
       </c>
       <c r="J68" t="s">
         <v>473</v>
       </c>
-      <c r="K68" s="37"/>
-      <c r="M68" s="35">
+      <c r="K68" s="34"/>
+      <c r="M68" s="32">
         <v>66</v>
       </c>
       <c r="N68" t="s">
         <v>713</v>
       </c>
-      <c r="O68" s="37"/>
-      <c r="Q68" s="38">
+      <c r="O68" s="34"/>
+      <c r="Q68" s="35">
         <v>66</v>
       </c>
       <c r="R68" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="S68" s="48"/>
-      <c r="U68" s="35">
+      <c r="S68" s="47"/>
+      <c r="U68" s="32">
         <v>66</v>
       </c>
       <c r="V68" t="s">
         <v>509</v>
       </c>
-      <c r="W68" s="37"/>
-      <c r="Y68" s="35">
+      <c r="W68" s="34"/>
+      <c r="Y68" s="32">
         <v>66</v>
       </c>
       <c r="Z68" t="s">
         <v>679</v>
       </c>
-      <c r="AA68" s="37"/>
-      <c r="AC68" s="35">
+      <c r="AA68" s="34"/>
+      <c r="AC68" s="32">
         <v>66</v>
       </c>
       <c r="AD68" t="s">
         <v>691</v>
       </c>
-      <c r="AE68" s="37"/>
-      <c r="AG68" s="35">
+      <c r="AE68" s="34"/>
+      <c r="AG68" s="32">
         <v>66</v>
       </c>
       <c r="AH68" t="s">
         <v>73</v>
       </c>
-      <c r="AI68" s="37"/>
-      <c r="AK68" s="35">
+      <c r="AI68" s="34"/>
+      <c r="AK68" s="32">
         <v>66</v>
       </c>
       <c r="AL68" t="s">
         <v>679</v>
       </c>
-      <c r="AM68" s="37"/>
-      <c r="AO68" s="35">
+      <c r="AM68" s="34"/>
+      <c r="AO68" s="32">
         <v>66</v>
       </c>
       <c r="AP68" t="s">
         <v>475</v>
       </c>
-      <c r="AQ68" s="37"/>
-      <c r="AS68" s="35">
+      <c r="AQ68" s="34"/>
+      <c r="AS68" s="32">
         <v>66</v>
       </c>
       <c r="AT68" t="s">
         <v>673</v>
       </c>
-      <c r="AU68" s="37"/>
+      <c r="AU68" s="34"/>
     </row>
     <row r="69" spans="1:47">
       <c r="A69">
@@ -20953,83 +20974,83 @@
       <c r="B69" t="s">
         <v>476</v>
       </c>
-      <c r="E69" s="35">
+      <c r="E69" s="32">
         <v>67</v>
       </c>
-      <c r="F69" s="36" t="s">
+      <c r="F69" s="33" t="s">
         <v>637</v>
       </c>
-      <c r="G69" s="37"/>
-      <c r="I69" s="35">
+      <c r="G69" s="34"/>
+      <c r="I69" s="32">
         <v>67</v>
       </c>
       <c r="J69" t="s">
         <v>615</v>
       </c>
-      <c r="K69" s="37"/>
-      <c r="M69" s="35">
+      <c r="K69" s="34"/>
+      <c r="M69" s="32">
         <v>67</v>
       </c>
       <c r="N69" t="s">
         <v>710</v>
       </c>
-      <c r="O69" s="37"/>
-      <c r="Q69" s="35">
+      <c r="O69" s="34"/>
+      <c r="Q69" s="32">
         <v>67</v>
       </c>
       <c r="R69" t="s">
         <v>615</v>
       </c>
-      <c r="S69" s="37"/>
-      <c r="U69" s="35">
+      <c r="S69" s="34"/>
+      <c r="U69" s="32">
         <v>67</v>
       </c>
       <c r="V69" t="s">
         <v>713</v>
       </c>
-      <c r="W69" s="37"/>
-      <c r="Y69" s="35">
+      <c r="W69" s="34"/>
+      <c r="Y69" s="32">
         <v>67</v>
       </c>
       <c r="Z69" t="s">
         <v>744</v>
       </c>
-      <c r="AA69" s="37"/>
-      <c r="AC69" s="35">
+      <c r="AA69" s="34"/>
+      <c r="AC69" s="32">
         <v>67</v>
       </c>
       <c r="AD69" t="s">
         <v>710</v>
       </c>
-      <c r="AE69" s="37"/>
-      <c r="AG69" s="35">
+      <c r="AE69" s="34"/>
+      <c r="AG69" s="32">
         <v>67</v>
       </c>
       <c r="AH69" t="s">
         <v>745</v>
       </c>
-      <c r="AI69" s="37"/>
-      <c r="AK69" s="35">
+      <c r="AI69" s="34"/>
+      <c r="AK69" s="32">
         <v>67</v>
       </c>
       <c r="AL69" t="s">
         <v>560</v>
       </c>
-      <c r="AM69" s="37"/>
-      <c r="AO69" s="35">
+      <c r="AM69" s="34"/>
+      <c r="AO69" s="32">
         <v>67</v>
       </c>
       <c r="AP69" t="s">
         <v>715</v>
       </c>
-      <c r="AQ69" s="37"/>
-      <c r="AS69" s="35">
+      <c r="AQ69" s="34"/>
+      <c r="AS69" s="32">
         <v>67</v>
       </c>
       <c r="AT69" t="s">
         <v>746</v>
       </c>
-      <c r="AU69" s="37"/>
+      <c r="AU69" s="34"/>
     </row>
     <row r="70" spans="1:47">
       <c r="A70">
@@ -21038,83 +21059,83 @@
       <c r="B70" t="s">
         <v>560</v>
       </c>
-      <c r="E70" s="59">
+      <c r="E70" s="58">
         <v>68</v>
       </c>
-      <c r="F70" s="60" t="s">
+      <c r="F70" s="59" t="s">
         <v>592</v>
       </c>
-      <c r="G70" s="61"/>
-      <c r="I70" s="59">
+      <c r="G70" s="60"/>
+      <c r="I70" s="58">
         <v>68</v>
       </c>
-      <c r="J70" s="60" t="s">
+      <c r="J70" s="59" t="s">
         <v>500</v>
       </c>
-      <c r="K70" s="61"/>
-      <c r="M70" s="59">
+      <c r="K70" s="60"/>
+      <c r="M70" s="58">
         <v>68</v>
       </c>
-      <c r="N70" s="60" t="s">
+      <c r="N70" s="59" t="s">
         <v>500</v>
       </c>
-      <c r="O70" s="61"/>
-      <c r="Q70" s="59">
+      <c r="O70" s="60"/>
+      <c r="Q70" s="58">
         <v>68</v>
       </c>
-      <c r="R70" s="60" t="s">
+      <c r="R70" s="59" t="s">
         <v>480</v>
       </c>
-      <c r="S70" s="61"/>
-      <c r="U70" s="59">
+      <c r="S70" s="60"/>
+      <c r="U70" s="58">
         <v>68</v>
       </c>
-      <c r="V70" s="60" t="s">
+      <c r="V70" s="59" t="s">
         <v>482</v>
       </c>
-      <c r="W70" s="61"/>
-      <c r="Y70" s="59">
+      <c r="W70" s="60"/>
+      <c r="Y70" s="58">
         <v>68</v>
       </c>
-      <c r="Z70" s="60" t="s">
+      <c r="Z70" s="59" t="s">
         <v>592</v>
       </c>
-      <c r="AA70" s="61"/>
-      <c r="AC70" s="59">
+      <c r="AA70" s="60"/>
+      <c r="AC70" s="58">
         <v>68</v>
       </c>
       <c r="AD70" t="s">
         <v>483</v>
       </c>
-      <c r="AE70" s="61"/>
-      <c r="AG70" s="59">
+      <c r="AE70" s="60"/>
+      <c r="AG70" s="58">
         <v>68</v>
       </c>
-      <c r="AH70" s="60" t="s">
+      <c r="AH70" s="59" t="s">
         <v>584</v>
       </c>
-      <c r="AI70" s="61"/>
-      <c r="AK70" s="59">
+      <c r="AI70" s="60"/>
+      <c r="AK70" s="58">
         <v>68</v>
       </c>
       <c r="AL70" t="s">
         <v>584</v>
       </c>
-      <c r="AM70" s="61"/>
-      <c r="AO70" s="59">
+      <c r="AM70" s="60"/>
+      <c r="AO70" s="58">
         <v>68</v>
       </c>
-      <c r="AP70" s="60" t="s">
+      <c r="AP70" s="59" t="s">
         <v>481</v>
       </c>
-      <c r="AQ70" s="61"/>
-      <c r="AS70" s="59">
+      <c r="AQ70" s="60"/>
+      <c r="AS70" s="58">
         <v>68</v>
       </c>
-      <c r="AT70" s="60" t="s">
+      <c r="AT70" s="59" t="s">
         <v>695</v>
       </c>
-      <c r="AU70" s="61"/>
+      <c r="AU70" s="60"/>
     </row>
     <row r="71" spans="1:48">
       <c r="A71" t="s">
@@ -21126,7 +21147,7 @@
       </c>
       <c r="D71" s="4">
         <f>SUM(D3:D70)</f>
-        <v>-29456.73</v>
+        <v>-41598</v>
       </c>
       <c r="E71" t="s">
         <v>484</v>
@@ -21137,25 +21158,25 @@
       </c>
       <c r="H71" s="4">
         <f>SUM(H3:H70)</f>
-        <v>1621</v>
+        <v>2543</v>
       </c>
       <c r="I71" t="s">
         <v>484</v>
       </c>
       <c r="K71" s="3">
         <f>SUM(K3:K70)</f>
-        <v>-5807</v>
+        <v>-5907</v>
       </c>
       <c r="L71" s="4">
         <f>SUM(L3:L70)</f>
-        <v>1720</v>
+        <v>1645</v>
       </c>
       <c r="M71" t="s">
         <v>484</v>
       </c>
       <c r="O71" s="3">
         <f>SUM(O3:O70)</f>
-        <v>-4111</v>
+        <v>-4711</v>
       </c>
       <c r="P71" s="4">
         <f>SUM(P3:P70)</f>
@@ -21166,7 +21187,7 @@
       </c>
       <c r="S71" s="3">
         <f>SUM(S3:S70)</f>
-        <v>-25129</v>
+        <v>-25879</v>
       </c>
       <c r="T71" s="4">
         <f>SUM(T3:T70)</f>
@@ -21192,7 +21213,7 @@
       </c>
       <c r="AB71" s="4">
         <f>SUM(AB3:AB70)</f>
-        <v>3710</v>
+        <v>4185</v>
       </c>
       <c r="AC71" t="s">
         <v>484</v>
@@ -21221,7 +21242,7 @@
       </c>
       <c r="AM71" s="3">
         <f>SUM(AM3:AM70)</f>
-        <v>-11829</v>
+        <v>-12429</v>
       </c>
       <c r="AN71" s="4">
         <f>SUM(AN3:AN70)</f>
@@ -21243,7 +21264,7 @@
       </c>
       <c r="AU71" s="3">
         <f>SUM(AU3:AU70)</f>
-        <v>-36007</v>
+        <v>-36757</v>
       </c>
       <c r="AV71" s="4">
         <f>SUM(AV3:AV70)</f>
@@ -21251,38 +21272,38 @@
       </c>
     </row>
     <row r="86" spans="10:15">
-      <c r="J86" s="62" t="s">
+      <c r="J86" s="61" t="s">
         <v>747</v>
       </c>
-      <c r="K86" s="63">
+      <c r="K86" s="62">
         <f>SUM(C71,G71,K71,O71,S71,W71,AA71,AE71,AI71,AM71,AQ71,AU71)</f>
-        <v>-281929</v>
-      </c>
-      <c r="N86" s="64" t="s">
+        <v>-284729</v>
+      </c>
+      <c r="N86" s="63" t="s">
         <v>748</v>
       </c>
-      <c r="O86" s="65">
+      <c r="O86" s="64">
         <f>SUM(D71,H71,L71,P71,T71,X71,AB71,AF71,AJ71,AN71,AR71,AV71)</f>
-        <v>23735.27</v>
+        <v>12916</v>
       </c>
     </row>
     <row r="87" spans="10:15">
-      <c r="J87" s="66"/>
-      <c r="K87" s="67"/>
-      <c r="N87" s="64"/>
-      <c r="O87" s="68"/>
+      <c r="J87" s="65"/>
+      <c r="K87" s="66"/>
+      <c r="N87" s="63"/>
+      <c r="O87" s="67"/>
     </row>
     <row r="88" spans="10:15">
-      <c r="J88" s="66"/>
-      <c r="K88" s="67"/>
-      <c r="N88" s="64"/>
-      <c r="O88" s="68"/>
+      <c r="J88" s="65"/>
+      <c r="K88" s="66"/>
+      <c r="N88" s="63"/>
+      <c r="O88" s="67"/>
     </row>
     <row r="89" spans="10:15">
-      <c r="J89" s="69"/>
-      <c r="K89" s="67"/>
-      <c r="N89" s="64"/>
-      <c r="O89" s="68"/>
+      <c r="J89" s="68"/>
+      <c r="K89" s="66"/>
+      <c r="N89" s="63"/>
+      <c r="O89" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="16">

--- a/Ставки/КХЛ 23-24.xlsx
+++ b/Ставки/КХЛ 23-24.xlsx
@@ -2319,7 +2319,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2373,6 +2373,22 @@
       <sz val="9"/>
       <name val="Tahoma"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="13">
@@ -2664,7 +2680,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2753,10 +2769,10 @@
     <xf numFmtId="0" fontId="6" fillId="10" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2795,7 +2811,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% - Акцент4" xfId="4" builtinId="42"/>
@@ -3420,99 +3440,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="5:63" ht="15.75">
-      <c r="E1" s="80" t="s">
+      <c r="E1" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
       <c r="H1" s="75">
         <v>3.6</v>
       </c>
-      <c r="J1" s="81" t="s">
+      <c r="J1" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
       <c r="M1" s="75">
         <v>3.7</v>
       </c>
-      <c r="O1" s="81" t="s">
+      <c r="O1" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
       <c r="R1" s="75">
         <v>3.8</v>
       </c>
-      <c r="T1" s="81" t="s">
+      <c r="T1" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
       <c r="W1" s="75">
         <v>3.9</v>
       </c>
-      <c r="Y1" s="81" t="s">
+      <c r="Y1" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="Z1" s="80"/>
-      <c r="AA1" s="80"/>
+      <c r="Z1" s="81"/>
+      <c r="AA1" s="81"/>
       <c r="AB1" s="75">
         <v>4</v>
       </c>
-      <c r="AD1" s="81" t="s">
+      <c r="AD1" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="AE1" s="80"/>
-      <c r="AF1" s="80"/>
+      <c r="AE1" s="81"/>
+      <c r="AF1" s="81"/>
       <c r="AG1" s="75">
         <v>4.0999999999999996</v>
       </c>
-      <c r="AI1" s="81" t="s">
+      <c r="AI1" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="80"/>
-      <c r="AK1" s="80"/>
+      <c r="AJ1" s="81"/>
+      <c r="AK1" s="81"/>
       <c r="AL1" s="75">
         <v>4.2</v>
       </c>
-      <c r="AN1" s="81" t="s">
+      <c r="AN1" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="AO1" s="80"/>
-      <c r="AP1" s="80"/>
+      <c r="AO1" s="81"/>
+      <c r="AP1" s="81"/>
       <c r="AQ1" s="75">
         <v>4.3</v>
       </c>
-      <c r="AS1" s="81" t="s">
+      <c r="AS1" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="AT1" s="80"/>
-      <c r="AU1" s="80"/>
+      <c r="AT1" s="81"/>
+      <c r="AU1" s="81"/>
       <c r="AV1" s="75">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AX1" s="81" t="s">
+      <c r="AX1" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="AY1" s="80"/>
-      <c r="AZ1" s="80"/>
+      <c r="AY1" s="81"/>
+      <c r="AZ1" s="81"/>
       <c r="BA1" s="75">
         <v>4.5</v>
       </c>
-      <c r="BC1" s="81" t="s">
+      <c r="BC1" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="BD1" s="80"/>
-      <c r="BE1" s="80"/>
+      <c r="BD1" s="81"/>
+      <c r="BE1" s="81"/>
       <c r="BF1" s="75">
         <v>4.5999999999999996</v>
       </c>
-      <c r="BH1" s="81" t="s">
+      <c r="BH1" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="BI1" s="80"/>
-      <c r="BJ1" s="80"/>
+      <c r="BI1" s="81"/>
+      <c r="BJ1" s="81"/>
       <c r="BK1" s="75">
         <v>4.7</v>
       </c>
@@ -4461,11 +4481,11 @@
       </c>
     </row>
     <row r="29" spans="5:43" ht="15.75">
-      <c r="E29" s="80" t="s">
+      <c r="E29" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="F29" s="80"/>
-      <c r="G29" s="80"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="81"/>
       <c r="H29" s="75">
         <v>3.6</v>
       </c>
@@ -4838,8 +4858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AR85"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y60" sqref="Y60:AA60"/>
+    <sheetView topLeftCell="U28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AO62" sqref="AO62:AQ62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -11090,6 +11110,9 @@
       <c r="C58" s="10">
         <v>0</v>
       </c>
+      <c r="D58">
+        <v>-4.0999999999999996</v>
+      </c>
       <c r="E58" s="8">
         <v>56</v>
       </c>
@@ -11191,6 +11214,10 @@
       <c r="C59" s="10">
         <v>-2500</v>
       </c>
+      <c r="D59">
+        <f>D58*C62</f>
+        <v>10250</v>
+      </c>
       <c r="E59" s="8">
         <v>57</v>
       </c>
@@ -11455,20 +11482,22 @@
       <c r="W61" s="13">
         <v>0</v>
       </c>
-      <c r="Y61" s="29">
+      <c r="Y61" s="39">
         <v>59</v>
       </c>
-      <c r="Z61" s="30" t="s">
+      <c r="Z61" s="95" t="s">
         <v>218</v>
       </c>
-      <c r="AA61" s="31"/>
-      <c r="AC61" s="29">
+      <c r="AA61" s="41">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="96">
         <v>59</v>
       </c>
-      <c r="AD61" s="30" t="s">
+      <c r="AD61" s="97" t="s">
         <v>374</v>
       </c>
-      <c r="AE61" s="31">
+      <c r="AE61" s="98">
         <v>0</v>
       </c>
       <c r="AG61" s="8">
@@ -11503,13 +11532,19 @@
       </c>
     </row>
     <row r="62" spans="1:44">
-      <c r="A62" s="29">
+      <c r="A62" s="39">
         <v>60</v>
       </c>
-      <c r="B62" s="30" t="s">
+      <c r="B62" s="95" t="s">
         <v>444</v>
       </c>
-      <c r="C62" s="31"/>
+      <c r="C62" s="41">
+        <v>-2500</v>
+      </c>
+      <c r="D62">
+        <f>D59+SUM(C57:C62)</f>
+        <v>750</v>
+      </c>
       <c r="E62" s="29">
         <v>60</v>
       </c>
@@ -11535,20 +11570,24 @@
       <c r="O62" s="44">
         <v>0</v>
       </c>
-      <c r="Q62" s="29">
+      <c r="Q62" s="39">
         <v>60</v>
       </c>
-      <c r="R62" t="s">
+      <c r="R62" s="40" t="s">
         <v>448</v>
       </c>
-      <c r="S62" s="31"/>
-      <c r="U62" s="29">
+      <c r="S62" s="41">
+        <v>-900</v>
+      </c>
+      <c r="U62" s="39">
         <v>60</v>
       </c>
-      <c r="V62" s="30" t="s">
+      <c r="V62" s="95" t="s">
         <v>449</v>
       </c>
-      <c r="W62" s="31"/>
+      <c r="W62" s="41">
+        <v>0</v>
+      </c>
       <c r="Y62" s="29">
         <v>60</v>
       </c>
@@ -11556,20 +11595,24 @@
         <v>83</v>
       </c>
       <c r="AA62" s="31"/>
-      <c r="AC62" s="29">
+      <c r="AC62" s="39">
         <v>60</v>
       </c>
-      <c r="AD62" s="30" t="s">
+      <c r="AD62" s="95" t="s">
         <v>433</v>
       </c>
-      <c r="AE62" s="31"/>
-      <c r="AG62" s="29">
+      <c r="AE62" s="41">
+        <v>0</v>
+      </c>
+      <c r="AG62" s="39">
         <v>60</v>
       </c>
-      <c r="AH62" s="30" t="s">
+      <c r="AH62" s="95" t="s">
         <v>450</v>
       </c>
-      <c r="AI62" s="31"/>
+      <c r="AI62" s="41">
+        <v>0</v>
+      </c>
       <c r="AK62" s="29">
         <v>60</v>
       </c>
@@ -11577,13 +11620,15 @@
         <v>451</v>
       </c>
       <c r="AM62" s="31"/>
-      <c r="AO62" s="29">
+      <c r="AO62" s="39">
         <v>60</v>
       </c>
-      <c r="AP62" t="s">
+      <c r="AP62" s="40" t="s">
         <v>452</v>
       </c>
-      <c r="AQ62" s="31"/>
+      <c r="AQ62" s="41">
+        <v>0</v>
+      </c>
     </row>
     <row r="63" spans="1:44">
       <c r="A63" s="29">
@@ -12225,11 +12270,11 @@
       </c>
       <c r="C71" s="3">
         <f>SUM(C3:C70)</f>
-        <v>-151602</v>
+        <v>-154102</v>
       </c>
       <c r="D71" s="4">
         <f>SUM(D3:D70)</f>
-        <v>-41254</v>
+        <v>-30258.1</v>
       </c>
       <c r="E71" t="s">
         <v>484</v>
@@ -12269,7 +12314,7 @@
       </c>
       <c r="S71" s="3">
         <f>SUM(S3:S70)</f>
-        <v>-47689</v>
+        <v>-48589</v>
       </c>
       <c r="T71" s="4">
         <f>SUM(T3:T70)</f>
@@ -12348,14 +12393,14 @@
       </c>
       <c r="K82" s="88">
         <f>SUM(C71,G71,K71,O71,S71,W71,AA71,AE71,AI71,AM71,AQ71)</f>
-        <v>-416982</v>
+        <v>-420382</v>
       </c>
       <c r="N82" s="89" t="s">
         <v>486</v>
       </c>
       <c r="O82" s="89">
         <f>SUM(D71,H71,L71,P71,T71,X71,AB71,AF71,AJ71,AN71,AR71)</f>
-        <v>-36433</v>
+        <v>-25437.1</v>
       </c>
     </row>
     <row r="83" spans="10:15">
@@ -12378,6 +12423,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="AO2:AQ2"/>
     <mergeCell ref="J82:J85"/>
     <mergeCell ref="K82:K85"/>
@@ -12388,11 +12438,6 @@
     <mergeCell ref="AC2:AE2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="AK2:AM2"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>
@@ -12403,8 +12448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AV89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62:D62"/>
+    <sheetView tabSelected="1" topLeftCell="X34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AI63" sqref="AI63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -19324,9 +19369,7 @@
       <c r="C58" s="9">
         <v>-2000</v>
       </c>
-      <c r="D58" s="22">
-        <v>-4.2</v>
-      </c>
+      <c r="D58" s="22"/>
       <c r="E58" s="8">
         <v>56</v>
       </c>
@@ -19453,10 +19496,7 @@
       <c r="C59" s="9">
         <v>-2000</v>
       </c>
-      <c r="D59" s="22">
-        <f>C62*D58</f>
-        <v>15120</v>
-      </c>
+      <c r="D59" s="22"/>
       <c r="E59" s="8">
         <v>57</v>
       </c>
@@ -19616,6 +19656,9 @@
       <c r="S60" s="44">
         <v>-650</v>
       </c>
+      <c r="T60">
+        <v>-4.05</v>
+      </c>
       <c r="U60" s="11">
         <v>58</v>
       </c>
@@ -19695,13 +19738,15 @@
         <v>-3250</v>
       </c>
       <c r="D61" s="28"/>
-      <c r="E61" s="29">
+      <c r="E61" s="39">
         <v>59</v>
       </c>
-      <c r="F61" s="30" t="s">
+      <c r="F61" s="95" t="s">
         <v>728</v>
       </c>
-      <c r="G61" s="31"/>
+      <c r="G61" s="41">
+        <v>0</v>
+      </c>
       <c r="I61" s="11">
         <v>59</v>
       </c>
@@ -19715,13 +19760,15 @@
         <f>1675+335+SUM(K51:K61)</f>
         <v>-75</v>
       </c>
-      <c r="M61" s="29">
+      <c r="M61" s="39">
         <v>59</v>
       </c>
-      <c r="N61" t="s">
+      <c r="N61" s="40" t="s">
         <v>725</v>
       </c>
-      <c r="O61" s="31"/>
+      <c r="O61" s="41">
+        <v>0</v>
+      </c>
       <c r="Q61" s="32">
         <v>59</v>
       </c>
@@ -19730,6 +19777,10 @@
       </c>
       <c r="S61" s="44">
         <v>-1500</v>
+      </c>
+      <c r="T61">
+        <f>S62*T60</f>
+        <v>4050</v>
       </c>
       <c r="U61" s="11">
         <v>59</v>
@@ -19808,19 +19859,16 @@
       </c>
     </row>
     <row r="62" spans="1:48">
-      <c r="A62" s="40">
+      <c r="A62" s="15">
         <v>60</v>
       </c>
-      <c r="B62" s="40" t="s">
+      <c r="B62" s="15" t="s">
         <v>591</v>
       </c>
-      <c r="C62" s="94">
+      <c r="C62" s="9">
         <v>-3600</v>
       </c>
-      <c r="D62" s="40">
-        <f>D59+SUM(C57:C62)</f>
-        <v>-580</v>
-      </c>
+      <c r="D62" s="22"/>
       <c r="E62" s="29">
         <v>60</v>
       </c>
@@ -19828,13 +19876,13 @@
         <v>454</v>
       </c>
       <c r="G62" s="31"/>
-      <c r="I62" s="39">
+      <c r="I62" s="8">
         <v>60</v>
       </c>
-      <c r="J62" s="40" t="s">
+      <c r="J62" s="15" t="s">
         <v>593</v>
       </c>
-      <c r="K62" s="41">
+      <c r="K62" s="10">
         <v>0</v>
       </c>
       <c r="M62" s="29">
@@ -19850,7 +19898,13 @@
       <c r="R62" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="S62" s="44"/>
+      <c r="S62" s="44">
+        <v>-1000</v>
+      </c>
+      <c r="T62">
+        <f>T61+SUM(S59:S62)</f>
+        <v>300</v>
+      </c>
       <c r="U62" s="8">
         <v>60</v>
       </c>
@@ -19888,30 +19942,36 @@
       <c r="AH62" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="AI62" s="44"/>
-      <c r="AK62" s="29">
+      <c r="AI62" s="44">
+        <v>0</v>
+      </c>
+      <c r="AK62" s="39">
         <v>60</v>
       </c>
-      <c r="AL62" t="s">
+      <c r="AL62" s="40" t="s">
         <v>725</v>
       </c>
-      <c r="AM62" s="31"/>
+      <c r="AM62" s="41">
+        <v>0</v>
+      </c>
       <c r="AO62" s="32">
         <v>60</v>
       </c>
       <c r="AP62" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="AQ62" s="41">
+      <c r="AQ62" s="94">
         <v>0</v>
       </c>
-      <c r="AS62" s="29">
+      <c r="AS62" s="39">
         <v>60</v>
       </c>
-      <c r="AT62" t="s">
+      <c r="AT62" s="40" t="s">
         <v>712</v>
       </c>
-      <c r="AU62" s="31"/>
+      <c r="AU62" s="41">
+        <v>-900</v>
+      </c>
     </row>
     <row r="63" spans="1:48">
       <c r="A63">
@@ -19957,20 +20017,22 @@
       <c r="W63" s="13">
         <v>0</v>
       </c>
-      <c r="Y63" s="29">
+      <c r="Y63" s="39">
         <v>61</v>
       </c>
-      <c r="Z63" t="s">
+      <c r="Z63" s="40" t="s">
         <v>712</v>
       </c>
-      <c r="AA63" s="31"/>
-      <c r="AC63" s="39">
+      <c r="AA63" s="41">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="8">
         <v>61</v>
       </c>
-      <c r="AD63" s="40" t="s">
+      <c r="AD63" s="15" t="s">
         <v>585</v>
       </c>
-      <c r="AE63" s="41">
+      <c r="AE63" s="10">
         <v>0</v>
       </c>
       <c r="AG63" s="32">
@@ -20037,13 +20099,15 @@
         <v>644</v>
       </c>
       <c r="S64" s="44"/>
-      <c r="U64" s="29">
+      <c r="U64" s="39">
         <v>62</v>
       </c>
-      <c r="V64" t="s">
+      <c r="V64" s="40" t="s">
         <v>449</v>
       </c>
-      <c r="W64" s="31"/>
+      <c r="W64" s="41">
+        <v>0</v>
+      </c>
       <c r="Y64" s="29">
         <v>62</v>
       </c>
@@ -20607,7 +20671,7 @@
       </c>
       <c r="D71" s="4">
         <f>SUM(D3:D70)</f>
-        <v>-27062.199999999997</v>
+        <v>-41598</v>
       </c>
       <c r="E71" t="s">
         <v>484</v>
@@ -20647,11 +20711,11 @@
       </c>
       <c r="S71" s="3">
         <f>SUM(S3:S70)</f>
-        <v>-26629</v>
+        <v>-27629</v>
       </c>
       <c r="T71" s="4">
         <f>SUM(T3:T70)</f>
-        <v>2193</v>
+        <v>6538.95</v>
       </c>
       <c r="U71" t="s">
         <v>484</v>
@@ -20724,7 +20788,7 @@
       </c>
       <c r="AU71" s="3">
         <f>SUM(AU3:AU70)</f>
-        <v>-36757</v>
+        <v>-37657</v>
       </c>
       <c r="AV71" s="4">
         <f>SUM(AV3:AV70)</f>
@@ -20737,14 +20801,14 @@
       </c>
       <c r="K86" s="90">
         <f>SUM(C71,G71,K71,O71,S71,W71,AA71,AE71,AI71,AM71,AQ71,AU71)</f>
-        <v>-289079</v>
+        <v>-290979</v>
       </c>
       <c r="N86" s="89" t="s">
         <v>748</v>
       </c>
       <c r="O86" s="92">
         <f>SUM(D71,H71,L71,P71,T71,X71,AB71,AF71,AJ71,AN71,AR71,AV71)</f>
-        <v>31051.800000000003</v>
+        <v>20861.95</v>
       </c>
     </row>
     <row r="87" spans="10:15">
@@ -20767,6 +20831,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="AO2:AQ2"/>
     <mergeCell ref="AS2:AU2"/>
     <mergeCell ref="J86:J89"/>
@@ -20778,14 +20847,9 @@
     <mergeCell ref="AC2:AE2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="AK2:AM2"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Ставки/КХЛ 23-24.xlsx
+++ b/Ставки/КХЛ 23-24.xlsx
@@ -2769,6 +2769,11 @@
     <xf numFmtId="0" fontId="6" fillId="10" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2811,11 +2816,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% - Акцент4" xfId="4" builtinId="42"/>
@@ -3440,99 +3440,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="5:63" ht="15.75">
-      <c r="E1" s="81" t="s">
+      <c r="E1" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
       <c r="H1" s="75">
         <v>3.6</v>
       </c>
-      <c r="J1" s="80" t="s">
+      <c r="J1" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
       <c r="M1" s="75">
         <v>3.7</v>
       </c>
-      <c r="O1" s="80" t="s">
+      <c r="O1" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
       <c r="R1" s="75">
         <v>3.8</v>
       </c>
-      <c r="T1" s="80" t="s">
+      <c r="T1" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
       <c r="W1" s="75">
         <v>3.9</v>
       </c>
-      <c r="Y1" s="80" t="s">
+      <c r="Y1" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="Z1" s="81"/>
-      <c r="AA1" s="81"/>
+      <c r="Z1" s="86"/>
+      <c r="AA1" s="86"/>
       <c r="AB1" s="75">
         <v>4</v>
       </c>
-      <c r="AD1" s="80" t="s">
+      <c r="AD1" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="AE1" s="81"/>
-      <c r="AF1" s="81"/>
+      <c r="AE1" s="86"/>
+      <c r="AF1" s="86"/>
       <c r="AG1" s="75">
         <v>4.0999999999999996</v>
       </c>
-      <c r="AI1" s="80" t="s">
+      <c r="AI1" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="81"/>
-      <c r="AK1" s="81"/>
+      <c r="AJ1" s="86"/>
+      <c r="AK1" s="86"/>
       <c r="AL1" s="75">
         <v>4.2</v>
       </c>
-      <c r="AN1" s="80" t="s">
+      <c r="AN1" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="AO1" s="81"/>
-      <c r="AP1" s="81"/>
+      <c r="AO1" s="86"/>
+      <c r="AP1" s="86"/>
       <c r="AQ1" s="75">
         <v>4.3</v>
       </c>
-      <c r="AS1" s="80" t="s">
+      <c r="AS1" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="AT1" s="81"/>
-      <c r="AU1" s="81"/>
+      <c r="AT1" s="86"/>
+      <c r="AU1" s="86"/>
       <c r="AV1" s="75">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AX1" s="80" t="s">
+      <c r="AX1" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="AY1" s="81"/>
-      <c r="AZ1" s="81"/>
+      <c r="AY1" s="86"/>
+      <c r="AZ1" s="86"/>
       <c r="BA1" s="75">
         <v>4.5</v>
       </c>
-      <c r="BC1" s="80" t="s">
+      <c r="BC1" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="BD1" s="81"/>
-      <c r="BE1" s="81"/>
+      <c r="BD1" s="86"/>
+      <c r="BE1" s="86"/>
       <c r="BF1" s="75">
         <v>4.5999999999999996</v>
       </c>
-      <c r="BH1" s="80" t="s">
+      <c r="BH1" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="BI1" s="81"/>
-      <c r="BJ1" s="81"/>
+      <c r="BI1" s="86"/>
+      <c r="BJ1" s="86"/>
       <c r="BK1" s="75">
         <v>4.7</v>
       </c>
@@ -4481,11 +4481,11 @@
       </c>
     </row>
     <row r="29" spans="5:43" ht="15.75">
-      <c r="E29" s="81" t="s">
+      <c r="E29" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="F29" s="81"/>
-      <c r="G29" s="81"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="86"/>
       <c r="H29" s="75">
         <v>3.6</v>
       </c>
@@ -4859,7 +4859,7 @@
   <dimension ref="A1:AR85"/>
   <sheetViews>
     <sheetView topLeftCell="U28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AO62" sqref="AO62:AQ62"/>
+      <selection activeCell="AK62" sqref="AK62:AM62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -4982,71 +4982,71 @@
       </c>
     </row>
     <row r="2" spans="1:44">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="84"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="89"/>
       <c r="D2" s="58"/>
-      <c r="E2" s="82" t="s">
+      <c r="E2" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="83"/>
-      <c r="G2" s="84"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="89"/>
       <c r="H2" s="59"/>
-      <c r="I2" s="82" t="s">
+      <c r="I2" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="83"/>
-      <c r="K2" s="84"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="89"/>
       <c r="L2" s="59"/>
-      <c r="M2" s="82" t="s">
+      <c r="M2" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="83"/>
-      <c r="O2" s="84"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="89"/>
       <c r="P2" s="59"/>
-      <c r="Q2" s="82" t="s">
+      <c r="Q2" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="83"/>
-      <c r="S2" s="84"/>
+      <c r="R2" s="88"/>
+      <c r="S2" s="89"/>
       <c r="T2" s="59"/>
-      <c r="U2" s="82" t="s">
+      <c r="U2" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="V2" s="83"/>
-      <c r="W2" s="84"/>
+      <c r="V2" s="88"/>
+      <c r="W2" s="89"/>
       <c r="X2" s="59"/>
-      <c r="Y2" s="82" t="s">
+      <c r="Y2" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="Z2" s="83"/>
-      <c r="AA2" s="84"/>
+      <c r="Z2" s="88"/>
+      <c r="AA2" s="89"/>
       <c r="AB2" s="59"/>
-      <c r="AC2" s="82" t="s">
+      <c r="AC2" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="AD2" s="83"/>
-      <c r="AE2" s="84"/>
+      <c r="AD2" s="88"/>
+      <c r="AE2" s="89"/>
       <c r="AF2" s="59"/>
-      <c r="AG2" s="82" t="s">
+      <c r="AG2" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="AH2" s="83"/>
-      <c r="AI2" s="84"/>
+      <c r="AH2" s="88"/>
+      <c r="AI2" s="89"/>
       <c r="AJ2" s="59"/>
-      <c r="AK2" s="82" t="s">
+      <c r="AK2" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="AL2" s="83"/>
-      <c r="AM2" s="84"/>
+      <c r="AL2" s="88"/>
+      <c r="AM2" s="89"/>
       <c r="AN2" s="59"/>
-      <c r="AO2" s="82" t="s">
+      <c r="AO2" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="AP2" s="83"/>
-      <c r="AQ2" s="84"/>
+      <c r="AP2" s="88"/>
+      <c r="AQ2" s="89"/>
       <c r="AR2" s="59"/>
     </row>
     <row r="3" spans="1:44">
@@ -11482,22 +11482,22 @@
       <c r="W61" s="13">
         <v>0</v>
       </c>
-      <c r="Y61" s="39">
+      <c r="Y61" s="8">
         <v>59</v>
       </c>
-      <c r="Z61" s="95" t="s">
+      <c r="Z61" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="AA61" s="41">
+      <c r="AA61" s="10">
         <v>0</v>
       </c>
-      <c r="AC61" s="96">
+      <c r="AC61" s="82">
         <v>59</v>
       </c>
-      <c r="AD61" s="97" t="s">
+      <c r="AD61" s="83" t="s">
         <v>374</v>
       </c>
-      <c r="AE61" s="98">
+      <c r="AE61" s="84">
         <v>0</v>
       </c>
       <c r="AG61" s="8">
@@ -11532,13 +11532,13 @@
       </c>
     </row>
     <row r="62" spans="1:44">
-      <c r="A62" s="39">
+      <c r="A62" s="8">
         <v>60</v>
       </c>
-      <c r="B62" s="95" t="s">
+      <c r="B62" s="9" t="s">
         <v>444</v>
       </c>
-      <c r="C62" s="41">
+      <c r="C62" s="10">
         <v>-2500</v>
       </c>
       <c r="D62">
@@ -11570,22 +11570,22 @@
       <c r="O62" s="44">
         <v>0</v>
       </c>
-      <c r="Q62" s="39">
+      <c r="Q62" s="8">
         <v>60</v>
       </c>
-      <c r="R62" s="40" t="s">
+      <c r="R62" s="15" t="s">
         <v>448</v>
       </c>
-      <c r="S62" s="41">
+      <c r="S62" s="10">
         <v>-900</v>
       </c>
-      <c r="U62" s="39">
+      <c r="U62" s="8">
         <v>60</v>
       </c>
-      <c r="V62" s="95" t="s">
+      <c r="V62" s="9" t="s">
         <v>449</v>
       </c>
-      <c r="W62" s="41">
+      <c r="W62" s="10">
         <v>0</v>
       </c>
       <c r="Y62" s="29">
@@ -11595,38 +11595,40 @@
         <v>83</v>
       </c>
       <c r="AA62" s="31"/>
-      <c r="AC62" s="39">
+      <c r="AC62" s="8">
         <v>60</v>
       </c>
-      <c r="AD62" s="95" t="s">
+      <c r="AD62" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="AE62" s="41">
+      <c r="AE62" s="10">
         <v>0</v>
       </c>
-      <c r="AG62" s="39">
+      <c r="AG62" s="8">
         <v>60</v>
       </c>
-      <c r="AH62" s="95" t="s">
+      <c r="AH62" s="9" t="s">
         <v>450</v>
       </c>
-      <c r="AI62" s="41">
+      <c r="AI62" s="10">
         <v>0</v>
       </c>
-      <c r="AK62" s="29">
+      <c r="AK62" s="39">
         <v>60</v>
       </c>
-      <c r="AL62" s="30" t="s">
+      <c r="AL62" s="81" t="s">
         <v>451</v>
       </c>
-      <c r="AM62" s="31"/>
-      <c r="AO62" s="39">
+      <c r="AM62" s="41">
+        <v>0</v>
+      </c>
+      <c r="AO62" s="8">
         <v>60</v>
       </c>
-      <c r="AP62" s="40" t="s">
+      <c r="AP62" s="15" t="s">
         <v>452</v>
       </c>
-      <c r="AQ62" s="41">
+      <c r="AQ62" s="10">
         <v>0</v>
       </c>
     </row>
@@ -12388,46 +12390,41 @@
       </c>
     </row>
     <row r="82" spans="10:15" ht="15" customHeight="1">
-      <c r="J82" s="85" t="s">
+      <c r="J82" s="90" t="s">
         <v>485</v>
       </c>
-      <c r="K82" s="88">
+      <c r="K82" s="93">
         <f>SUM(C71,G71,K71,O71,S71,W71,AA71,AE71,AI71,AM71,AQ71)</f>
         <v>-420382</v>
       </c>
-      <c r="N82" s="89" t="s">
+      <c r="N82" s="94" t="s">
         <v>486</v>
       </c>
-      <c r="O82" s="89">
+      <c r="O82" s="94">
         <f>SUM(D71,H71,L71,P71,T71,X71,AB71,AF71,AJ71,AN71,AR71)</f>
         <v>-25437.1</v>
       </c>
     </row>
     <row r="83" spans="10:15">
-      <c r="J83" s="86"/>
-      <c r="K83" s="88"/>
-      <c r="N83" s="89"/>
-      <c r="O83" s="89"/>
+      <c r="J83" s="91"/>
+      <c r="K83" s="93"/>
+      <c r="N83" s="94"/>
+      <c r="O83" s="94"/>
     </row>
     <row r="84" spans="10:15">
-      <c r="J84" s="86"/>
-      <c r="K84" s="88"/>
-      <c r="N84" s="89"/>
-      <c r="O84" s="89"/>
+      <c r="J84" s="91"/>
+      <c r="K84" s="93"/>
+      <c r="N84" s="94"/>
+      <c r="O84" s="94"/>
     </row>
     <row r="85" spans="10:15">
-      <c r="J85" s="87"/>
-      <c r="K85" s="88"/>
-      <c r="N85" s="89"/>
-      <c r="O85" s="89"/>
+      <c r="J85" s="92"/>
+      <c r="K85" s="93"/>
+      <c r="N85" s="94"/>
+      <c r="O85" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="AO2:AQ2"/>
     <mergeCell ref="J82:J85"/>
     <mergeCell ref="K82:K85"/>
@@ -12438,6 +12435,11 @@
     <mergeCell ref="AC2:AE2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="AK2:AM2"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>
@@ -12448,8 +12450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AV89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AI63" sqref="AI63"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I63" sqref="I63:K63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -12580,66 +12582,66 @@
       </c>
     </row>
     <row r="2" spans="1:48">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="87" t="s">
         <v>487</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="84"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="88"/>
+      <c r="C2" s="89"/>
+      <c r="E2" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="83"/>
-      <c r="G2" s="84"/>
-      <c r="I2" s="82" t="s">
+      <c r="F2" s="88"/>
+      <c r="G2" s="89"/>
+      <c r="I2" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="83"/>
-      <c r="K2" s="84"/>
-      <c r="M2" s="82" t="s">
+      <c r="J2" s="88"/>
+      <c r="K2" s="89"/>
+      <c r="M2" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="83"/>
-      <c r="O2" s="84"/>
-      <c r="Q2" s="82" t="s">
+      <c r="N2" s="88"/>
+      <c r="O2" s="89"/>
+      <c r="Q2" s="87" t="s">
         <v>488</v>
       </c>
-      <c r="R2" s="83"/>
-      <c r="S2" s="84"/>
-      <c r="U2" s="82" t="s">
+      <c r="R2" s="88"/>
+      <c r="S2" s="89"/>
+      <c r="U2" s="87" t="s">
         <v>489</v>
       </c>
-      <c r="V2" s="83"/>
-      <c r="W2" s="84"/>
-      <c r="Y2" s="82" t="s">
+      <c r="V2" s="88"/>
+      <c r="W2" s="89"/>
+      <c r="Y2" s="87" t="s">
         <v>490</v>
       </c>
-      <c r="Z2" s="83"/>
-      <c r="AA2" s="84"/>
-      <c r="AC2" s="82" t="s">
+      <c r="Z2" s="88"/>
+      <c r="AA2" s="89"/>
+      <c r="AC2" s="87" t="s">
         <v>491</v>
       </c>
-      <c r="AD2" s="83"/>
-      <c r="AE2" s="84"/>
-      <c r="AG2" s="82" t="s">
+      <c r="AD2" s="88"/>
+      <c r="AE2" s="89"/>
+      <c r="AG2" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="AH2" s="83"/>
-      <c r="AI2" s="84"/>
-      <c r="AK2" s="82" t="s">
+      <c r="AH2" s="88"/>
+      <c r="AI2" s="89"/>
+      <c r="AK2" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="AL2" s="83"/>
-      <c r="AM2" s="84"/>
-      <c r="AO2" s="82" t="s">
+      <c r="AL2" s="88"/>
+      <c r="AM2" s="89"/>
+      <c r="AO2" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="AP2" s="83"/>
-      <c r="AQ2" s="84"/>
-      <c r="AS2" s="82" t="s">
+      <c r="AP2" s="88"/>
+      <c r="AQ2" s="89"/>
+      <c r="AS2" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="AT2" s="83"/>
-      <c r="AU2" s="84"/>
+      <c r="AT2" s="88"/>
+      <c r="AU2" s="89"/>
     </row>
     <row r="3" spans="1:48">
       <c r="A3" s="8">
@@ -19738,13 +19740,13 @@
         <v>-3250</v>
       </c>
       <c r="D61" s="28"/>
-      <c r="E61" s="39">
+      <c r="E61" s="8">
         <v>59</v>
       </c>
-      <c r="F61" s="95" t="s">
+      <c r="F61" s="9" t="s">
         <v>728</v>
       </c>
-      <c r="G61" s="41">
+      <c r="G61" s="10">
         <v>0</v>
       </c>
       <c r="I61" s="11">
@@ -19760,13 +19762,13 @@
         <f>1675+335+SUM(K51:K61)</f>
         <v>-75</v>
       </c>
-      <c r="M61" s="39">
+      <c r="M61" s="8">
         <v>59</v>
       </c>
-      <c r="N61" s="40" t="s">
+      <c r="N61" s="15" t="s">
         <v>725</v>
       </c>
-      <c r="O61" s="41">
+      <c r="O61" s="10">
         <v>0</v>
       </c>
       <c r="Q61" s="32">
@@ -19945,13 +19947,13 @@
       <c r="AI62" s="44">
         <v>0</v>
       </c>
-      <c r="AK62" s="39">
+      <c r="AK62" s="8">
         <v>60</v>
       </c>
-      <c r="AL62" s="40" t="s">
+      <c r="AL62" s="15" t="s">
         <v>725</v>
       </c>
-      <c r="AM62" s="41">
+      <c r="AM62" s="10">
         <v>0</v>
       </c>
       <c r="AO62" s="32">
@@ -19960,16 +19962,16 @@
       <c r="AP62" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="AQ62" s="94">
+      <c r="AQ62" s="80">
         <v>0</v>
       </c>
-      <c r="AS62" s="39">
+      <c r="AS62" s="8">
         <v>60</v>
       </c>
-      <c r="AT62" s="40" t="s">
+      <c r="AT62" s="15" t="s">
         <v>712</v>
       </c>
-      <c r="AU62" s="41">
+      <c r="AU62" s="10">
         <v>-900</v>
       </c>
     </row>
@@ -19987,13 +19989,15 @@
         <v>493</v>
       </c>
       <c r="G63" s="31"/>
-      <c r="I63" s="29">
+      <c r="I63" s="39">
         <v>61</v>
       </c>
-      <c r="J63" t="s">
+      <c r="J63" s="40" t="s">
         <v>451</v>
       </c>
-      <c r="K63" s="31"/>
+      <c r="K63" s="41">
+        <v>0</v>
+      </c>
       <c r="M63" s="29">
         <v>61</v>
       </c>
@@ -20017,13 +20021,13 @@
       <c r="W63" s="13">
         <v>0</v>
       </c>
-      <c r="Y63" s="39">
+      <c r="Y63" s="8">
         <v>61</v>
       </c>
-      <c r="Z63" s="40" t="s">
+      <c r="Z63" s="15" t="s">
         <v>712</v>
       </c>
-      <c r="AA63" s="41">
+      <c r="AA63" s="10">
         <v>0</v>
       </c>
       <c r="AC63" s="8">
@@ -20099,13 +20103,13 @@
         <v>644</v>
       </c>
       <c r="S64" s="44"/>
-      <c r="U64" s="39">
+      <c r="U64" s="8">
         <v>62</v>
       </c>
-      <c r="V64" s="40" t="s">
+      <c r="V64" s="15" t="s">
         <v>449</v>
       </c>
-      <c r="W64" s="41">
+      <c r="W64" s="10">
         <v>0</v>
       </c>
       <c r="Y64" s="29">
@@ -20796,46 +20800,41 @@
       </c>
     </row>
     <row r="86" spans="10:15">
-      <c r="J86" s="85" t="s">
+      <c r="J86" s="90" t="s">
         <v>747</v>
       </c>
-      <c r="K86" s="90">
+      <c r="K86" s="95">
         <f>SUM(C71,G71,K71,O71,S71,W71,AA71,AE71,AI71,AM71,AQ71,AU71)</f>
         <v>-290979</v>
       </c>
-      <c r="N86" s="89" t="s">
+      <c r="N86" s="94" t="s">
         <v>748</v>
       </c>
-      <c r="O86" s="92">
+      <c r="O86" s="97">
         <f>SUM(D71,H71,L71,P71,T71,X71,AB71,AF71,AJ71,AN71,AR71,AV71)</f>
         <v>20861.95</v>
       </c>
     </row>
     <row r="87" spans="10:15">
-      <c r="J87" s="86"/>
-      <c r="K87" s="91"/>
-      <c r="N87" s="89"/>
-      <c r="O87" s="93"/>
+      <c r="J87" s="91"/>
+      <c r="K87" s="96"/>
+      <c r="N87" s="94"/>
+      <c r="O87" s="98"/>
     </row>
     <row r="88" spans="10:15">
-      <c r="J88" s="86"/>
-      <c r="K88" s="91"/>
-      <c r="N88" s="89"/>
-      <c r="O88" s="93"/>
+      <c r="J88" s="91"/>
+      <c r="K88" s="96"/>
+      <c r="N88" s="94"/>
+      <c r="O88" s="98"/>
     </row>
     <row r="89" spans="10:15">
-      <c r="J89" s="87"/>
-      <c r="K89" s="91"/>
-      <c r="N89" s="89"/>
-      <c r="O89" s="93"/>
+      <c r="J89" s="92"/>
+      <c r="K89" s="96"/>
+      <c r="N89" s="94"/>
+      <c r="O89" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="AO2:AQ2"/>
     <mergeCell ref="AS2:AU2"/>
     <mergeCell ref="J86:J89"/>
@@ -20847,6 +20846,11 @@
     <mergeCell ref="AC2:AE2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="AK2:AM2"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Ставки/КХЛ 23-24.xlsx
+++ b/Ставки/КХЛ 23-24.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11010" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11010" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="22-23" sheetId="1" r:id="rId1"/>
@@ -2680,7 +2680,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2816,6 +2816,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="3" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% - Акцент4" xfId="4" builtinId="42"/>
@@ -4858,8 +4859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AR85"/>
   <sheetViews>
-    <sheetView topLeftCell="U28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AK62" sqref="AK62:AM62"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62:G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -11215,8 +11216,8 @@
         <v>-2500</v>
       </c>
       <c r="D59">
-        <f>D58*C62</f>
-        <v>10250</v>
+        <f>D58*C63</f>
+        <v>0</v>
       </c>
       <c r="E59" s="8">
         <v>57</v>
@@ -11455,6 +11456,9 @@
       <c r="K61" s="10">
         <v>-2000</v>
       </c>
+      <c r="L61" s="9">
+        <v>-4.2</v>
+      </c>
       <c r="M61" s="32">
         <v>59</v>
       </c>
@@ -11541,17 +11545,15 @@
       <c r="C62" s="10">
         <v>-2500</v>
       </c>
-      <c r="D62">
-        <f>D59+SUM(C57:C62)</f>
-        <v>750</v>
-      </c>
-      <c r="E62" s="29">
+      <c r="E62" s="39">
         <v>60</v>
       </c>
-      <c r="F62" s="30" t="s">
+      <c r="F62" s="81" t="s">
         <v>445</v>
       </c>
-      <c r="G62" s="31"/>
+      <c r="G62" s="41">
+        <v>0</v>
+      </c>
       <c r="I62" s="8">
         <v>60</v>
       </c>
@@ -11561,6 +11563,10 @@
       <c r="K62" s="10">
         <v>-2000</v>
       </c>
+      <c r="L62">
+        <f>K63*L61</f>
+        <v>8820</v>
+      </c>
       <c r="M62" s="32">
         <v>60</v>
       </c>
@@ -11588,13 +11594,15 @@
       <c r="W62" s="10">
         <v>0</v>
       </c>
-      <c r="Y62" s="29">
+      <c r="Y62" s="39">
         <v>60</v>
       </c>
-      <c r="Z62" s="30" t="s">
+      <c r="Z62" s="81" t="s">
         <v>83</v>
       </c>
-      <c r="AA62" s="31"/>
+      <c r="AA62" s="41">
+        <v>0</v>
+      </c>
       <c r="AC62" s="8">
         <v>60</v>
       </c>
@@ -11613,13 +11621,13 @@
       <c r="AI62" s="10">
         <v>0</v>
       </c>
-      <c r="AK62" s="39">
+      <c r="AK62" s="11">
         <v>60</v>
       </c>
-      <c r="AL62" s="81" t="s">
+      <c r="AL62" s="12" t="s">
         <v>451</v>
       </c>
-      <c r="AM62" s="41">
+      <c r="AM62" s="13">
         <v>0</v>
       </c>
       <c r="AO62" s="8">
@@ -11633,13 +11641,13 @@
       </c>
     </row>
     <row r="63" spans="1:44">
-      <c r="A63" s="29">
+      <c r="A63" s="39">
         <v>61</v>
       </c>
-      <c r="B63" s="30" t="s">
+      <c r="B63" s="81" t="s">
         <v>453</v>
       </c>
-      <c r="C63" s="31"/>
+      <c r="C63" s="41"/>
       <c r="E63" s="29">
         <v>61</v>
       </c>
@@ -11647,13 +11655,19 @@
         <v>299</v>
       </c>
       <c r="G63" s="31"/>
-      <c r="I63" s="29">
+      <c r="I63" s="39">
         <v>61</v>
       </c>
-      <c r="J63" t="s">
+      <c r="J63" s="40" t="s">
         <v>454</v>
       </c>
-      <c r="K63" s="31"/>
+      <c r="K63" s="41">
+        <v>-2100</v>
+      </c>
+      <c r="L63">
+        <f>L62+SUM(K60:K63)</f>
+        <v>220</v>
+      </c>
       <c r="M63" s="32">
         <v>61</v>
       </c>
@@ -11663,13 +11677,15 @@
       <c r="O63" s="44">
         <v>0</v>
       </c>
-      <c r="Q63" s="29">
+      <c r="Q63" s="39">
         <v>61</v>
       </c>
-      <c r="R63" t="s">
+      <c r="R63" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="S63" s="31"/>
+      <c r="S63" s="41">
+        <v>-1120</v>
+      </c>
       <c r="U63" s="29">
         <v>61</v>
       </c>
@@ -11691,20 +11707,24 @@
         <v>144</v>
       </c>
       <c r="AE63" s="31"/>
-      <c r="AG63" s="29">
+      <c r="AG63" s="39">
         <v>61</v>
       </c>
-      <c r="AH63" s="30" t="s">
+      <c r="AH63" s="81" t="s">
         <v>299</v>
       </c>
-      <c r="AI63" s="31"/>
-      <c r="AK63" s="29">
+      <c r="AI63" s="41">
+        <v>0</v>
+      </c>
+      <c r="AK63" s="39">
         <v>61</v>
       </c>
-      <c r="AL63" s="30" t="s">
+      <c r="AL63" s="81" t="s">
         <v>456</v>
       </c>
-      <c r="AM63" s="31"/>
+      <c r="AM63" s="41">
+        <v>0</v>
+      </c>
       <c r="AO63" s="29">
         <v>61</v>
       </c>
@@ -12276,7 +12296,7 @@
       </c>
       <c r="D71" s="4">
         <f>SUM(D3:D70)</f>
-        <v>-30258.1</v>
+        <v>-41258.1</v>
       </c>
       <c r="E71" t="s">
         <v>484</v>
@@ -12294,11 +12314,11 @@
       </c>
       <c r="K71" s="3">
         <f>SUM(K3:K70)</f>
-        <v>-26799</v>
+        <v>-28899</v>
       </c>
       <c r="L71" s="4">
         <f>SUM(L3:L70)</f>
-        <v>2412</v>
+        <v>11447.8</v>
       </c>
       <c r="M71" t="s">
         <v>484</v>
@@ -12316,7 +12336,7 @@
       </c>
       <c r="S71" s="3">
         <f>SUM(S3:S70)</f>
-        <v>-48589</v>
+        <v>-49709</v>
       </c>
       <c r="T71" s="4">
         <f>SUM(T3:T70)</f>
@@ -12395,14 +12415,14 @@
       </c>
       <c r="K82" s="93">
         <f>SUM(C71,G71,K71,O71,S71,W71,AA71,AE71,AI71,AM71,AQ71)</f>
-        <v>-420382</v>
+        <v>-423602</v>
       </c>
       <c r="N82" s="94" t="s">
         <v>486</v>
       </c>
       <c r="O82" s="94">
         <f>SUM(D71,H71,L71,P71,T71,X71,AB71,AF71,AJ71,AN71,AR71)</f>
-        <v>-25437.1</v>
+        <v>-27401.300000000003</v>
       </c>
     </row>
     <row r="83" spans="10:15">
@@ -12425,6 +12445,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="AO2:AQ2"/>
     <mergeCell ref="J82:J85"/>
     <mergeCell ref="K82:K85"/>
@@ -12435,11 +12460,6 @@
     <mergeCell ref="AC2:AE2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="AK2:AM2"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>
@@ -12450,8 +12470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AV89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I63" sqref="I63:K63"/>
+    <sheetView topLeftCell="X34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AS63" sqref="AS63:AU63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -19498,7 +19518,9 @@
       <c r="C59" s="9">
         <v>-2000</v>
       </c>
-      <c r="D59" s="22"/>
+      <c r="D59" s="22">
+        <v>-3.95</v>
+      </c>
       <c r="E59" s="8">
         <v>57</v>
       </c>
@@ -19613,7 +19635,10 @@
       <c r="C60" s="9">
         <v>-2350</v>
       </c>
-      <c r="D60" s="22"/>
+      <c r="D60" s="22">
+        <f>D59*C63</f>
+        <v>20935</v>
+      </c>
       <c r="E60" s="11">
         <v>58</v>
       </c>
@@ -19871,13 +19896,15 @@
         <v>-3600</v>
       </c>
       <c r="D62" s="22"/>
-      <c r="E62" s="29">
+      <c r="E62" s="39">
         <v>60</v>
       </c>
-      <c r="F62" s="30" t="s">
+      <c r="F62" s="81" t="s">
         <v>454</v>
       </c>
-      <c r="G62" s="31"/>
+      <c r="G62" s="41">
+        <v>0</v>
+      </c>
       <c r="I62" s="8">
         <v>60</v>
       </c>
@@ -19887,13 +19914,15 @@
       <c r="K62" s="10">
         <v>0</v>
       </c>
-      <c r="M62" s="29">
+      <c r="M62" s="39">
         <v>60</v>
       </c>
-      <c r="N62" t="s">
+      <c r="N62" s="40" t="s">
         <v>453</v>
       </c>
-      <c r="O62" s="31"/>
+      <c r="O62" s="41">
+        <v>0</v>
+      </c>
       <c r="Q62" s="32">
         <v>60</v>
       </c>
@@ -19976,11 +20005,18 @@
       </c>
     </row>
     <row r="63" spans="1:48">
-      <c r="A63">
+      <c r="A63" s="40">
         <v>61</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="40" t="s">
         <v>498</v>
+      </c>
+      <c r="C63" s="99">
+        <v>-5300</v>
+      </c>
+      <c r="D63">
+        <f>D60+SUM(C57:C63)</f>
+        <v>-65</v>
       </c>
       <c r="E63" s="29">
         <v>61</v>
@@ -19989,13 +20025,13 @@
         <v>493</v>
       </c>
       <c r="G63" s="31"/>
-      <c r="I63" s="39">
+      <c r="I63" s="11">
         <v>61</v>
       </c>
-      <c r="J63" s="40" t="s">
+      <c r="J63" s="14" t="s">
         <v>451</v>
       </c>
-      <c r="K63" s="41">
+      <c r="K63" s="13">
         <v>0</v>
       </c>
       <c r="M63" s="29">
@@ -20045,14 +20081,18 @@
       <c r="AH63" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="AI63" s="44"/>
-      <c r="AK63" s="29">
+      <c r="AI63" s="44">
+        <v>0</v>
+      </c>
+      <c r="AK63" s="39">
         <v>61</v>
       </c>
-      <c r="AL63" t="s">
+      <c r="AL63" s="40" t="s">
         <v>515</v>
       </c>
-      <c r="AM63" s="31"/>
+      <c r="AM63" s="41">
+        <v>0</v>
+      </c>
       <c r="AO63" s="32">
         <v>61</v>
       </c>
@@ -20060,13 +20100,15 @@
         <v>649</v>
       </c>
       <c r="AQ63" s="44"/>
-      <c r="AS63" s="29">
+      <c r="AS63" s="39">
         <v>61</v>
       </c>
-      <c r="AT63" t="s">
+      <c r="AT63" s="40" t="s">
         <v>730</v>
       </c>
-      <c r="AU63" s="31"/>
+      <c r="AU63" s="41">
+        <v>-1120</v>
+      </c>
     </row>
     <row r="64" spans="1:48">
       <c r="A64">
@@ -20119,13 +20161,15 @@
         <v>732</v>
       </c>
       <c r="AA64" s="31"/>
-      <c r="AC64" s="29">
+      <c r="AC64" s="39">
         <v>62</v>
       </c>
-      <c r="AD64" t="s">
+      <c r="AD64" s="40" t="s">
         <v>515</v>
       </c>
-      <c r="AE64" s="31"/>
+      <c r="AE64" s="41">
+        <v>0</v>
+      </c>
       <c r="AG64" s="32">
         <v>62</v>
       </c>
@@ -20671,11 +20715,11 @@
       </c>
       <c r="C71" s="3">
         <f>SUM(C3:C70)</f>
-        <v>-146562</v>
+        <v>-151862</v>
       </c>
       <c r="D71" s="4">
         <f>SUM(D3:D70)</f>
-        <v>-41598</v>
+        <v>-20731.949999999997</v>
       </c>
       <c r="E71" t="s">
         <v>484</v>
@@ -20792,7 +20836,7 @@
       </c>
       <c r="AU71" s="3">
         <f>SUM(AU3:AU70)</f>
-        <v>-37657</v>
+        <v>-38777</v>
       </c>
       <c r="AV71" s="4">
         <f>SUM(AV3:AV70)</f>
@@ -20805,14 +20849,14 @@
       </c>
       <c r="K86" s="95">
         <f>SUM(C71,G71,K71,O71,S71,W71,AA71,AE71,AI71,AM71,AQ71,AU71)</f>
-        <v>-290979</v>
+        <v>-297399</v>
       </c>
       <c r="N86" s="94" t="s">
         <v>748</v>
       </c>
       <c r="O86" s="97">
         <f>SUM(D71,H71,L71,P71,T71,X71,AB71,AF71,AJ71,AN71,AR71,AV71)</f>
-        <v>20861.95</v>
+        <v>41728</v>
       </c>
     </row>
     <row r="87" spans="10:15">
@@ -20835,6 +20879,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="AO2:AQ2"/>
     <mergeCell ref="AS2:AU2"/>
     <mergeCell ref="J86:J89"/>
@@ -20846,11 +20895,6 @@
     <mergeCell ref="AC2:AE2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="AK2:AM2"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Ставки/КХЛ 23-24.xlsx
+++ b/Ставки/КХЛ 23-24.xlsx
@@ -2774,6 +2774,7 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="3" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2816,7 +2817,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="3" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% - Акцент4" xfId="4" builtinId="42"/>
@@ -3441,99 +3441,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="5:63" ht="15.75">
-      <c r="E1" s="86" t="s">
+      <c r="E1" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
       <c r="H1" s="75">
         <v>3.6</v>
       </c>
-      <c r="J1" s="85" t="s">
+      <c r="J1" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
       <c r="M1" s="75">
         <v>3.7</v>
       </c>
-      <c r="O1" s="85" t="s">
+      <c r="O1" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
       <c r="R1" s="75">
         <v>3.8</v>
       </c>
-      <c r="T1" s="85" t="s">
+      <c r="T1" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="75">
         <v>3.9</v>
       </c>
-      <c r="Y1" s="85" t="s">
+      <c r="Y1" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="Z1" s="86"/>
-      <c r="AA1" s="86"/>
+      <c r="Z1" s="87"/>
+      <c r="AA1" s="87"/>
       <c r="AB1" s="75">
         <v>4</v>
       </c>
-      <c r="AD1" s="85" t="s">
+      <c r="AD1" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="AE1" s="86"/>
-      <c r="AF1" s="86"/>
+      <c r="AE1" s="87"/>
+      <c r="AF1" s="87"/>
       <c r="AG1" s="75">
         <v>4.0999999999999996</v>
       </c>
-      <c r="AI1" s="85" t="s">
+      <c r="AI1" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="86"/>
-      <c r="AK1" s="86"/>
+      <c r="AJ1" s="87"/>
+      <c r="AK1" s="87"/>
       <c r="AL1" s="75">
         <v>4.2</v>
       </c>
-      <c r="AN1" s="85" t="s">
+      <c r="AN1" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="AO1" s="86"/>
-      <c r="AP1" s="86"/>
+      <c r="AO1" s="87"/>
+      <c r="AP1" s="87"/>
       <c r="AQ1" s="75">
         <v>4.3</v>
       </c>
-      <c r="AS1" s="85" t="s">
+      <c r="AS1" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="AT1" s="86"/>
-      <c r="AU1" s="86"/>
+      <c r="AT1" s="87"/>
+      <c r="AU1" s="87"/>
       <c r="AV1" s="75">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AX1" s="85" t="s">
+      <c r="AX1" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="AY1" s="86"/>
-      <c r="AZ1" s="86"/>
+      <c r="AY1" s="87"/>
+      <c r="AZ1" s="87"/>
       <c r="BA1" s="75">
         <v>4.5</v>
       </c>
-      <c r="BC1" s="85" t="s">
+      <c r="BC1" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="BD1" s="86"/>
-      <c r="BE1" s="86"/>
+      <c r="BD1" s="87"/>
+      <c r="BE1" s="87"/>
       <c r="BF1" s="75">
         <v>4.5999999999999996</v>
       </c>
-      <c r="BH1" s="85" t="s">
+      <c r="BH1" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="BI1" s="86"/>
-      <c r="BJ1" s="86"/>
+      <c r="BI1" s="87"/>
+      <c r="BJ1" s="87"/>
       <c r="BK1" s="75">
         <v>4.7</v>
       </c>
@@ -4482,11 +4482,11 @@
       </c>
     </row>
     <row r="29" spans="5:43" ht="15.75">
-      <c r="E29" s="86" t="s">
+      <c r="E29" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="F29" s="86"/>
-      <c r="G29" s="86"/>
+      <c r="F29" s="87"/>
+      <c r="G29" s="87"/>
       <c r="H29" s="75">
         <v>3.6</v>
       </c>
@@ -4860,7 +4860,7 @@
   <dimension ref="A1:AR85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62:G62"/>
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -4983,71 +4983,71 @@
       </c>
     </row>
     <row r="2" spans="1:44">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="89"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="90"/>
       <c r="D2" s="58"/>
-      <c r="E2" s="87" t="s">
+      <c r="E2" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="88"/>
-      <c r="G2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="90"/>
       <c r="H2" s="59"/>
-      <c r="I2" s="87" t="s">
+      <c r="I2" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="88"/>
-      <c r="K2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="90"/>
       <c r="L2" s="59"/>
-      <c r="M2" s="87" t="s">
+      <c r="M2" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="88"/>
-      <c r="O2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="90"/>
       <c r="P2" s="59"/>
-      <c r="Q2" s="87" t="s">
+      <c r="Q2" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="88"/>
-      <c r="S2" s="89"/>
+      <c r="R2" s="89"/>
+      <c r="S2" s="90"/>
       <c r="T2" s="59"/>
-      <c r="U2" s="87" t="s">
+      <c r="U2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="V2" s="88"/>
-      <c r="W2" s="89"/>
+      <c r="V2" s="89"/>
+      <c r="W2" s="90"/>
       <c r="X2" s="59"/>
-      <c r="Y2" s="87" t="s">
+      <c r="Y2" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="Z2" s="88"/>
-      <c r="AA2" s="89"/>
+      <c r="Z2" s="89"/>
+      <c r="AA2" s="90"/>
       <c r="AB2" s="59"/>
-      <c r="AC2" s="87" t="s">
+      <c r="AC2" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="AD2" s="88"/>
-      <c r="AE2" s="89"/>
+      <c r="AD2" s="89"/>
+      <c r="AE2" s="90"/>
       <c r="AF2" s="59"/>
-      <c r="AG2" s="87" t="s">
+      <c r="AG2" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="AH2" s="88"/>
-      <c r="AI2" s="89"/>
+      <c r="AH2" s="89"/>
+      <c r="AI2" s="90"/>
       <c r="AJ2" s="59"/>
-      <c r="AK2" s="87" t="s">
+      <c r="AK2" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="AL2" s="88"/>
-      <c r="AM2" s="89"/>
+      <c r="AL2" s="89"/>
+      <c r="AM2" s="90"/>
       <c r="AN2" s="59"/>
-      <c r="AO2" s="87" t="s">
+      <c r="AO2" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="AP2" s="88"/>
-      <c r="AQ2" s="89"/>
+      <c r="AP2" s="89"/>
+      <c r="AQ2" s="90"/>
       <c r="AR2" s="59"/>
     </row>
     <row r="3" spans="1:44">
@@ -11217,7 +11217,7 @@
       </c>
       <c r="D59">
         <f>D58*C63</f>
-        <v>0</v>
+        <v>13324.999999999998</v>
       </c>
       <c r="E59" s="8">
         <v>57</v>
@@ -11434,6 +11434,9 @@
       <c r="C61" s="10">
         <v>-2000</v>
       </c>
+      <c r="D61">
+        <v>-3.9</v>
+      </c>
       <c r="E61" s="11">
         <v>59</v>
       </c>
@@ -11545,6 +11548,10 @@
       <c r="C62" s="10">
         <v>-2500</v>
       </c>
+      <c r="D62">
+        <f>C63*D61</f>
+        <v>12675</v>
+      </c>
       <c r="E62" s="39">
         <v>60</v>
       </c>
@@ -11647,7 +11654,13 @@
       <c r="B63" s="81" t="s">
         <v>453</v>
       </c>
-      <c r="C63" s="41"/>
+      <c r="C63" s="41">
+        <v>-3250</v>
+      </c>
+      <c r="D63">
+        <f>D62+SUM(C57:C63)</f>
+        <v>-75</v>
+      </c>
       <c r="E63" s="29">
         <v>61</v>
       </c>
@@ -12292,11 +12305,11 @@
       </c>
       <c r="C71" s="3">
         <f>SUM(C3:C70)</f>
-        <v>-154102</v>
+        <v>-157352</v>
       </c>
       <c r="D71" s="4">
         <f>SUM(D3:D70)</f>
-        <v>-41258.1</v>
+        <v>-15337</v>
       </c>
       <c r="E71" t="s">
         <v>484</v>
@@ -12410,46 +12423,41 @@
       </c>
     </row>
     <row r="82" spans="10:15" ht="15" customHeight="1">
-      <c r="J82" s="90" t="s">
+      <c r="J82" s="91" t="s">
         <v>485</v>
       </c>
-      <c r="K82" s="93">
+      <c r="K82" s="94">
         <f>SUM(C71,G71,K71,O71,S71,W71,AA71,AE71,AI71,AM71,AQ71)</f>
-        <v>-423602</v>
-      </c>
-      <c r="N82" s="94" t="s">
+        <v>-426852</v>
+      </c>
+      <c r="N82" s="95" t="s">
         <v>486</v>
       </c>
-      <c r="O82" s="94">
+      <c r="O82" s="95">
         <f>SUM(D71,H71,L71,P71,T71,X71,AB71,AF71,AJ71,AN71,AR71)</f>
-        <v>-27401.300000000003</v>
+        <v>-1480.2000000000007</v>
       </c>
     </row>
     <row r="83" spans="10:15">
-      <c r="J83" s="91"/>
-      <c r="K83" s="93"/>
-      <c r="N83" s="94"/>
-      <c r="O83" s="94"/>
+      <c r="J83" s="92"/>
+      <c r="K83" s="94"/>
+      <c r="N83" s="95"/>
+      <c r="O83" s="95"/>
     </row>
     <row r="84" spans="10:15">
-      <c r="J84" s="91"/>
-      <c r="K84" s="93"/>
-      <c r="N84" s="94"/>
-      <c r="O84" s="94"/>
+      <c r="J84" s="92"/>
+      <c r="K84" s="94"/>
+      <c r="N84" s="95"/>
+      <c r="O84" s="95"/>
     </row>
     <row r="85" spans="10:15">
-      <c r="J85" s="92"/>
-      <c r="K85" s="93"/>
-      <c r="N85" s="94"/>
-      <c r="O85" s="94"/>
+      <c r="J85" s="93"/>
+      <c r="K85" s="94"/>
+      <c r="N85" s="95"/>
+      <c r="O85" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="AO2:AQ2"/>
     <mergeCell ref="J82:J85"/>
     <mergeCell ref="K82:K85"/>
@@ -12460,6 +12468,11 @@
     <mergeCell ref="AC2:AE2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="AK2:AM2"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>
@@ -12602,66 +12615,66 @@
       </c>
     </row>
     <row r="2" spans="1:48">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="88" t="s">
         <v>487</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="89"/>
-      <c r="E2" s="87" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="90"/>
+      <c r="E2" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="88"/>
-      <c r="G2" s="89"/>
-      <c r="I2" s="87" t="s">
+      <c r="F2" s="89"/>
+      <c r="G2" s="90"/>
+      <c r="I2" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="88"/>
-      <c r="K2" s="89"/>
-      <c r="M2" s="87" t="s">
+      <c r="J2" s="89"/>
+      <c r="K2" s="90"/>
+      <c r="M2" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="88"/>
-      <c r="O2" s="89"/>
-      <c r="Q2" s="87" t="s">
+      <c r="N2" s="89"/>
+      <c r="O2" s="90"/>
+      <c r="Q2" s="88" t="s">
         <v>488</v>
       </c>
-      <c r="R2" s="88"/>
-      <c r="S2" s="89"/>
-      <c r="U2" s="87" t="s">
+      <c r="R2" s="89"/>
+      <c r="S2" s="90"/>
+      <c r="U2" s="88" t="s">
         <v>489</v>
       </c>
-      <c r="V2" s="88"/>
-      <c r="W2" s="89"/>
-      <c r="Y2" s="87" t="s">
+      <c r="V2" s="89"/>
+      <c r="W2" s="90"/>
+      <c r="Y2" s="88" t="s">
         <v>490</v>
       </c>
-      <c r="Z2" s="88"/>
-      <c r="AA2" s="89"/>
-      <c r="AC2" s="87" t="s">
+      <c r="Z2" s="89"/>
+      <c r="AA2" s="90"/>
+      <c r="AC2" s="88" t="s">
         <v>491</v>
       </c>
-      <c r="AD2" s="88"/>
-      <c r="AE2" s="89"/>
-      <c r="AG2" s="87" t="s">
+      <c r="AD2" s="89"/>
+      <c r="AE2" s="90"/>
+      <c r="AG2" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="AH2" s="88"/>
-      <c r="AI2" s="89"/>
-      <c r="AK2" s="87" t="s">
+      <c r="AH2" s="89"/>
+      <c r="AI2" s="90"/>
+      <c r="AK2" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="AL2" s="88"/>
-      <c r="AM2" s="89"/>
-      <c r="AO2" s="87" t="s">
+      <c r="AL2" s="89"/>
+      <c r="AM2" s="90"/>
+      <c r="AO2" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="AP2" s="88"/>
-      <c r="AQ2" s="89"/>
-      <c r="AS2" s="87" t="s">
+      <c r="AP2" s="89"/>
+      <c r="AQ2" s="90"/>
+      <c r="AS2" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="AT2" s="88"/>
-      <c r="AU2" s="89"/>
+      <c r="AT2" s="89"/>
+      <c r="AU2" s="90"/>
     </row>
     <row r="3" spans="1:48">
       <c r="A3" s="8">
@@ -20011,7 +20024,7 @@
       <c r="B63" s="40" t="s">
         <v>498</v>
       </c>
-      <c r="C63" s="99">
+      <c r="C63" s="85">
         <v>-5300</v>
       </c>
       <c r="D63">
@@ -20844,46 +20857,41 @@
       </c>
     </row>
     <row r="86" spans="10:15">
-      <c r="J86" s="90" t="s">
+      <c r="J86" s="91" t="s">
         <v>747</v>
       </c>
-      <c r="K86" s="95">
+      <c r="K86" s="96">
         <f>SUM(C71,G71,K71,O71,S71,W71,AA71,AE71,AI71,AM71,AQ71,AU71)</f>
         <v>-297399</v>
       </c>
-      <c r="N86" s="94" t="s">
+      <c r="N86" s="95" t="s">
         <v>748</v>
       </c>
-      <c r="O86" s="97">
+      <c r="O86" s="98">
         <f>SUM(D71,H71,L71,P71,T71,X71,AB71,AF71,AJ71,AN71,AR71,AV71)</f>
         <v>41728</v>
       </c>
     </row>
     <row r="87" spans="10:15">
-      <c r="J87" s="91"/>
-      <c r="K87" s="96"/>
-      <c r="N87" s="94"/>
-      <c r="O87" s="98"/>
+      <c r="J87" s="92"/>
+      <c r="K87" s="97"/>
+      <c r="N87" s="95"/>
+      <c r="O87" s="99"/>
     </row>
     <row r="88" spans="10:15">
-      <c r="J88" s="91"/>
-      <c r="K88" s="96"/>
-      <c r="N88" s="94"/>
-      <c r="O88" s="98"/>
+      <c r="J88" s="92"/>
+      <c r="K88" s="97"/>
+      <c r="N88" s="95"/>
+      <c r="O88" s="99"/>
     </row>
     <row r="89" spans="10:15">
-      <c r="J89" s="92"/>
-      <c r="K89" s="96"/>
-      <c r="N89" s="94"/>
-      <c r="O89" s="98"/>
+      <c r="J89" s="93"/>
+      <c r="K89" s="97"/>
+      <c r="N89" s="95"/>
+      <c r="O89" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="AO2:AQ2"/>
     <mergeCell ref="AS2:AU2"/>
     <mergeCell ref="J86:J89"/>
@@ -20895,6 +20903,11 @@
     <mergeCell ref="AC2:AE2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="AK2:AM2"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Ставки/КХЛ 23-24.xlsx
+++ b/Ставки/КХЛ 23-24.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11010" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11010" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="22-23" sheetId="1" r:id="rId1"/>
@@ -2680,7 +2680,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2774,7 +2774,6 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="3" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3441,99 +3440,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="5:63" ht="15.75">
-      <c r="E1" s="87" t="s">
+      <c r="E1" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
       <c r="H1" s="75">
         <v>3.6</v>
       </c>
-      <c r="J1" s="86" t="s">
+      <c r="J1" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
       <c r="M1" s="75">
         <v>3.7</v>
       </c>
-      <c r="O1" s="86" t="s">
+      <c r="O1" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
       <c r="R1" s="75">
         <v>3.8</v>
       </c>
-      <c r="T1" s="86" t="s">
+      <c r="T1" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
       <c r="W1" s="75">
         <v>3.9</v>
       </c>
-      <c r="Y1" s="86" t="s">
+      <c r="Y1" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="Z1" s="87"/>
-      <c r="AA1" s="87"/>
+      <c r="Z1" s="86"/>
+      <c r="AA1" s="86"/>
       <c r="AB1" s="75">
         <v>4</v>
       </c>
-      <c r="AD1" s="86" t="s">
+      <c r="AD1" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="AE1" s="87"/>
-      <c r="AF1" s="87"/>
+      <c r="AE1" s="86"/>
+      <c r="AF1" s="86"/>
       <c r="AG1" s="75">
         <v>4.0999999999999996</v>
       </c>
-      <c r="AI1" s="86" t="s">
+      <c r="AI1" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="87"/>
-      <c r="AK1" s="87"/>
+      <c r="AJ1" s="86"/>
+      <c r="AK1" s="86"/>
       <c r="AL1" s="75">
         <v>4.2</v>
       </c>
-      <c r="AN1" s="86" t="s">
+      <c r="AN1" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="AO1" s="87"/>
-      <c r="AP1" s="87"/>
+      <c r="AO1" s="86"/>
+      <c r="AP1" s="86"/>
       <c r="AQ1" s="75">
         <v>4.3</v>
       </c>
-      <c r="AS1" s="86" t="s">
+      <c r="AS1" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="AT1" s="87"/>
-      <c r="AU1" s="87"/>
+      <c r="AT1" s="86"/>
+      <c r="AU1" s="86"/>
       <c r="AV1" s="75">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AX1" s="86" t="s">
+      <c r="AX1" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="AY1" s="87"/>
-      <c r="AZ1" s="87"/>
+      <c r="AY1" s="86"/>
+      <c r="AZ1" s="86"/>
       <c r="BA1" s="75">
         <v>4.5</v>
       </c>
-      <c r="BC1" s="86" t="s">
+      <c r="BC1" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="BD1" s="87"/>
-      <c r="BE1" s="87"/>
+      <c r="BD1" s="86"/>
+      <c r="BE1" s="86"/>
       <c r="BF1" s="75">
         <v>4.5999999999999996</v>
       </c>
-      <c r="BH1" s="86" t="s">
+      <c r="BH1" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="BI1" s="87"/>
-      <c r="BJ1" s="87"/>
+      <c r="BI1" s="86"/>
+      <c r="BJ1" s="86"/>
       <c r="BK1" s="75">
         <v>4.7</v>
       </c>
@@ -4482,11 +4481,11 @@
       </c>
     </row>
     <row r="29" spans="5:43" ht="15.75">
-      <c r="E29" s="87" t="s">
+      <c r="E29" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="F29" s="87"/>
-      <c r="G29" s="87"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="86"/>
       <c r="H29" s="75">
         <v>3.6</v>
       </c>
@@ -4859,8 +4858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AR85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView topLeftCell="U34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AC63" sqref="AC63:AE63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -4983,71 +4982,71 @@
       </c>
     </row>
     <row r="2" spans="1:44">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="90"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="89"/>
       <c r="D2" s="58"/>
-      <c r="E2" s="88" t="s">
+      <c r="E2" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="89"/>
-      <c r="G2" s="90"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="89"/>
       <c r="H2" s="59"/>
-      <c r="I2" s="88" t="s">
+      <c r="I2" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="89"/>
-      <c r="K2" s="90"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="89"/>
       <c r="L2" s="59"/>
-      <c r="M2" s="88" t="s">
+      <c r="M2" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="89"/>
-      <c r="O2" s="90"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="89"/>
       <c r="P2" s="59"/>
-      <c r="Q2" s="88" t="s">
+      <c r="Q2" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="89"/>
-      <c r="S2" s="90"/>
+      <c r="R2" s="88"/>
+      <c r="S2" s="89"/>
       <c r="T2" s="59"/>
-      <c r="U2" s="88" t="s">
+      <c r="U2" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="V2" s="89"/>
-      <c r="W2" s="90"/>
+      <c r="V2" s="88"/>
+      <c r="W2" s="89"/>
       <c r="X2" s="59"/>
-      <c r="Y2" s="88" t="s">
+      <c r="Y2" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="Z2" s="89"/>
-      <c r="AA2" s="90"/>
+      <c r="Z2" s="88"/>
+      <c r="AA2" s="89"/>
       <c r="AB2" s="59"/>
-      <c r="AC2" s="88" t="s">
+      <c r="AC2" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="AD2" s="89"/>
-      <c r="AE2" s="90"/>
+      <c r="AD2" s="88"/>
+      <c r="AE2" s="89"/>
       <c r="AF2" s="59"/>
-      <c r="AG2" s="88" t="s">
+      <c r="AG2" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="AH2" s="89"/>
-      <c r="AI2" s="90"/>
+      <c r="AH2" s="88"/>
+      <c r="AI2" s="89"/>
       <c r="AJ2" s="59"/>
-      <c r="AK2" s="88" t="s">
+      <c r="AK2" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="AL2" s="89"/>
-      <c r="AM2" s="90"/>
+      <c r="AL2" s="88"/>
+      <c r="AM2" s="89"/>
       <c r="AN2" s="59"/>
-      <c r="AO2" s="88" t="s">
+      <c r="AO2" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="AP2" s="89"/>
-      <c r="AQ2" s="90"/>
+      <c r="AP2" s="88"/>
+      <c r="AQ2" s="89"/>
       <c r="AR2" s="59"/>
     </row>
     <row r="3" spans="1:44">
@@ -11111,9 +11110,6 @@
       <c r="C58" s="10">
         <v>0</v>
       </c>
-      <c r="D58">
-        <v>-4.0999999999999996</v>
-      </c>
       <c r="E58" s="8">
         <v>56</v>
       </c>
@@ -11215,10 +11211,6 @@
       <c r="C59" s="10">
         <v>-2500</v>
       </c>
-      <c r="D59">
-        <f>D58*C63</f>
-        <v>13324.999999999998</v>
-      </c>
       <c r="E59" s="8">
         <v>57</v>
       </c>
@@ -11434,9 +11426,6 @@
       <c r="C61" s="10">
         <v>-2000</v>
       </c>
-      <c r="D61">
-        <v>-3.9</v>
-      </c>
       <c r="E61" s="11">
         <v>59</v>
       </c>
@@ -11548,17 +11537,13 @@
       <c r="C62" s="10">
         <v>-2500</v>
       </c>
-      <c r="D62">
-        <f>C63*D61</f>
-        <v>12675</v>
-      </c>
-      <c r="E62" s="39">
+      <c r="E62" s="8">
         <v>60</v>
       </c>
-      <c r="F62" s="81" t="s">
+      <c r="F62" s="9" t="s">
         <v>445</v>
       </c>
-      <c r="G62" s="41">
+      <c r="G62" s="10">
         <v>0</v>
       </c>
       <c r="I62" s="8">
@@ -11601,13 +11586,13 @@
       <c r="W62" s="10">
         <v>0</v>
       </c>
-      <c r="Y62" s="39">
+      <c r="Y62" s="11">
         <v>60</v>
       </c>
-      <c r="Z62" s="81" t="s">
+      <c r="Z62" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="AA62" s="41">
+      <c r="AA62" s="13">
         <v>0</v>
       </c>
       <c r="AC62" s="8">
@@ -11648,33 +11633,34 @@
       </c>
     </row>
     <row r="63" spans="1:44">
-      <c r="A63" s="39">
+      <c r="A63" s="11">
         <v>61</v>
       </c>
-      <c r="B63" s="81" t="s">
+      <c r="B63" s="12" t="s">
         <v>453</v>
       </c>
-      <c r="C63" s="41">
+      <c r="C63" s="13">
         <v>-3250</v>
       </c>
-      <c r="D63">
-        <f>D62+SUM(C57:C63)</f>
+      <c r="D63" s="14">
         <v>-75</v>
       </c>
-      <c r="E63" s="29">
+      <c r="E63" s="8">
         <v>61</v>
       </c>
-      <c r="F63" s="30" t="s">
+      <c r="F63" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="G63" s="31"/>
-      <c r="I63" s="39">
+      <c r="G63" s="10">
+        <v>0</v>
+      </c>
+      <c r="I63" s="8">
         <v>61</v>
       </c>
-      <c r="J63" s="40" t="s">
+      <c r="J63" s="15" t="s">
         <v>454</v>
       </c>
-      <c r="K63" s="41">
+      <c r="K63" s="10">
         <v>-2100</v>
       </c>
       <c r="L63">
@@ -11690,14 +11676,18 @@
       <c r="O63" s="44">
         <v>0</v>
       </c>
-      <c r="Q63" s="39">
+      <c r="Q63" s="11">
         <v>61</v>
       </c>
-      <c r="R63" s="40" t="s">
+      <c r="R63" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="S63" s="41">
+      <c r="S63" s="13">
         <v>-1120</v>
+      </c>
+      <c r="T63" s="14">
+        <f>5040+SUM(S56:S63)</f>
+        <v>1020</v>
       </c>
       <c r="U63" s="29">
         <v>61</v>
@@ -11713,38 +11703,42 @@
         <v>133</v>
       </c>
       <c r="AA63" s="31"/>
-      <c r="AC63" s="29">
+      <c r="AC63" s="39">
         <v>61</v>
       </c>
-      <c r="AD63" s="30" t="s">
+      <c r="AD63" s="81" t="s">
         <v>144</v>
       </c>
-      <c r="AE63" s="31"/>
-      <c r="AG63" s="39">
+      <c r="AE63" s="41">
+        <v>0</v>
+      </c>
+      <c r="AG63" s="8">
         <v>61</v>
       </c>
-      <c r="AH63" s="81" t="s">
+      <c r="AH63" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="AI63" s="41">
+      <c r="AI63" s="10">
         <v>0</v>
       </c>
-      <c r="AK63" s="39">
+      <c r="AK63" s="8">
         <v>61</v>
       </c>
-      <c r="AL63" s="81" t="s">
+      <c r="AL63" s="9" t="s">
         <v>456</v>
       </c>
-      <c r="AM63" s="41">
+      <c r="AM63" s="10">
         <v>0</v>
       </c>
-      <c r="AO63" s="29">
+      <c r="AO63" s="39">
         <v>61</v>
       </c>
-      <c r="AP63" t="s">
+      <c r="AP63" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="AQ63" s="31"/>
+      <c r="AQ63" s="41">
+        <v>0</v>
+      </c>
     </row>
     <row r="64" spans="1:44">
       <c r="A64" s="29">
@@ -12309,7 +12303,7 @@
       </c>
       <c r="D71" s="4">
         <f>SUM(D3:D70)</f>
-        <v>-15337</v>
+        <v>-41329</v>
       </c>
       <c r="E71" t="s">
         <v>484</v>
@@ -12353,7 +12347,7 @@
       </c>
       <c r="T71" s="4">
         <f>SUM(T3:T70)</f>
-        <v>-7711</v>
+        <v>-6691</v>
       </c>
       <c r="U71" t="s">
         <v>484</v>
@@ -12423,41 +12417,46 @@
       </c>
     </row>
     <row r="82" spans="10:15" ht="15" customHeight="1">
-      <c r="J82" s="91" t="s">
+      <c r="J82" s="90" t="s">
         <v>485</v>
       </c>
-      <c r="K82" s="94">
+      <c r="K82" s="93">
         <f>SUM(C71,G71,K71,O71,S71,W71,AA71,AE71,AI71,AM71,AQ71)</f>
         <v>-426852</v>
       </c>
-      <c r="N82" s="95" t="s">
+      <c r="N82" s="94" t="s">
         <v>486</v>
       </c>
-      <c r="O82" s="95">
+      <c r="O82" s="94">
         <f>SUM(D71,H71,L71,P71,T71,X71,AB71,AF71,AJ71,AN71,AR71)</f>
-        <v>-1480.2000000000007</v>
+        <v>-26452.199999999997</v>
       </c>
     </row>
     <row r="83" spans="10:15">
-      <c r="J83" s="92"/>
-      <c r="K83" s="94"/>
-      <c r="N83" s="95"/>
-      <c r="O83" s="95"/>
+      <c r="J83" s="91"/>
+      <c r="K83" s="93"/>
+      <c r="N83" s="94"/>
+      <c r="O83" s="94"/>
     </row>
     <row r="84" spans="10:15">
-      <c r="J84" s="92"/>
-      <c r="K84" s="94"/>
-      <c r="N84" s="95"/>
-      <c r="O84" s="95"/>
+      <c r="J84" s="91"/>
+      <c r="K84" s="93"/>
+      <c r="N84" s="94"/>
+      <c r="O84" s="94"/>
     </row>
     <row r="85" spans="10:15">
-      <c r="J85" s="93"/>
-      <c r="K85" s="94"/>
-      <c r="N85" s="95"/>
-      <c r="O85" s="95"/>
+      <c r="J85" s="92"/>
+      <c r="K85" s="93"/>
+      <c r="N85" s="94"/>
+      <c r="O85" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="AO2:AQ2"/>
     <mergeCell ref="J82:J85"/>
     <mergeCell ref="K82:K85"/>
@@ -12468,11 +12467,6 @@
     <mergeCell ref="AC2:AE2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="AK2:AM2"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>
@@ -12483,8 +12477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AV89"/>
   <sheetViews>
-    <sheetView topLeftCell="X34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AS63" sqref="AS63:AU63"/>
+    <sheetView tabSelected="1" topLeftCell="X40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AQ64" sqref="AQ64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -12615,66 +12609,66 @@
       </c>
     </row>
     <row r="2" spans="1:48">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="87" t="s">
         <v>487</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="90"/>
-      <c r="E2" s="88" t="s">
+      <c r="B2" s="88"/>
+      <c r="C2" s="89"/>
+      <c r="E2" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="89"/>
-      <c r="G2" s="90"/>
-      <c r="I2" s="88" t="s">
+      <c r="F2" s="88"/>
+      <c r="G2" s="89"/>
+      <c r="I2" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="89"/>
-      <c r="K2" s="90"/>
-      <c r="M2" s="88" t="s">
+      <c r="J2" s="88"/>
+      <c r="K2" s="89"/>
+      <c r="M2" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="89"/>
-      <c r="O2" s="90"/>
-      <c r="Q2" s="88" t="s">
+      <c r="N2" s="88"/>
+      <c r="O2" s="89"/>
+      <c r="Q2" s="87" t="s">
         <v>488</v>
       </c>
-      <c r="R2" s="89"/>
-      <c r="S2" s="90"/>
-      <c r="U2" s="88" t="s">
+      <c r="R2" s="88"/>
+      <c r="S2" s="89"/>
+      <c r="U2" s="87" t="s">
         <v>489</v>
       </c>
-      <c r="V2" s="89"/>
-      <c r="W2" s="90"/>
-      <c r="Y2" s="88" t="s">
+      <c r="V2" s="88"/>
+      <c r="W2" s="89"/>
+      <c r="Y2" s="87" t="s">
         <v>490</v>
       </c>
-      <c r="Z2" s="89"/>
-      <c r="AA2" s="90"/>
-      <c r="AC2" s="88" t="s">
+      <c r="Z2" s="88"/>
+      <c r="AA2" s="89"/>
+      <c r="AC2" s="87" t="s">
         <v>491</v>
       </c>
-      <c r="AD2" s="89"/>
-      <c r="AE2" s="90"/>
-      <c r="AG2" s="88" t="s">
+      <c r="AD2" s="88"/>
+      <c r="AE2" s="89"/>
+      <c r="AG2" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="AH2" s="89"/>
-      <c r="AI2" s="90"/>
-      <c r="AK2" s="88" t="s">
+      <c r="AH2" s="88"/>
+      <c r="AI2" s="89"/>
+      <c r="AK2" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="AL2" s="89"/>
-      <c r="AM2" s="90"/>
-      <c r="AO2" s="88" t="s">
+      <c r="AL2" s="88"/>
+      <c r="AM2" s="89"/>
+      <c r="AO2" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="AP2" s="89"/>
-      <c r="AQ2" s="90"/>
-      <c r="AS2" s="88" t="s">
+      <c r="AP2" s="88"/>
+      <c r="AQ2" s="89"/>
+      <c r="AS2" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="AT2" s="89"/>
-      <c r="AU2" s="90"/>
+      <c r="AT2" s="88"/>
+      <c r="AU2" s="89"/>
     </row>
     <row r="3" spans="1:48">
       <c r="A3" s="8">
@@ -19909,13 +19903,13 @@
         <v>-3600</v>
       </c>
       <c r="D62" s="22"/>
-      <c r="E62" s="39">
+      <c r="E62" s="8">
         <v>60</v>
       </c>
-      <c r="F62" s="81" t="s">
+      <c r="F62" s="9" t="s">
         <v>454</v>
       </c>
-      <c r="G62" s="41">
+      <c r="G62" s="10">
         <v>0</v>
       </c>
       <c r="I62" s="8">
@@ -19927,13 +19921,13 @@
       <c r="K62" s="10">
         <v>0</v>
       </c>
-      <c r="M62" s="39">
+      <c r="M62" s="11">
         <v>60</v>
       </c>
-      <c r="N62" s="40" t="s">
+      <c r="N62" s="14" t="s">
         <v>453</v>
       </c>
-      <c r="O62" s="41">
+      <c r="O62" s="13">
         <v>0</v>
       </c>
       <c r="Q62" s="32">
@@ -20018,18 +20012,14 @@
       </c>
     </row>
     <row r="63" spans="1:48">
-      <c r="A63" s="40">
+      <c r="A63" s="15">
         <v>61</v>
       </c>
-      <c r="B63" s="40" t="s">
+      <c r="B63" s="15" t="s">
         <v>498</v>
       </c>
-      <c r="C63" s="85">
+      <c r="C63" s="9">
         <v>-5300</v>
-      </c>
-      <c r="D63">
-        <f>D60+SUM(C57:C63)</f>
-        <v>-65</v>
       </c>
       <c r="E63" s="29">
         <v>61</v>
@@ -20097,13 +20087,13 @@
       <c r="AI63" s="44">
         <v>0</v>
       </c>
-      <c r="AK63" s="39">
+      <c r="AK63" s="11">
         <v>61</v>
       </c>
-      <c r="AL63" s="40" t="s">
+      <c r="AL63" s="14" t="s">
         <v>515</v>
       </c>
-      <c r="AM63" s="41">
+      <c r="AM63" s="13">
         <v>0</v>
       </c>
       <c r="AO63" s="32">
@@ -20112,14 +20102,16 @@
       <c r="AP63" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="AQ63" s="44"/>
-      <c r="AS63" s="39">
+      <c r="AQ63" s="44">
+        <v>0</v>
+      </c>
+      <c r="AS63" s="8">
         <v>61</v>
       </c>
-      <c r="AT63" s="40" t="s">
+      <c r="AT63" s="15" t="s">
         <v>730</v>
       </c>
-      <c r="AU63" s="41">
+      <c r="AU63" s="10">
         <v>-1120</v>
       </c>
     </row>
@@ -20137,13 +20129,15 @@
         <v>644</v>
       </c>
       <c r="G64" s="31"/>
-      <c r="I64" s="29">
+      <c r="I64" s="39">
         <v>62</v>
       </c>
-      <c r="J64" t="s">
+      <c r="J64" s="40" t="s">
         <v>612</v>
       </c>
-      <c r="K64" s="31"/>
+      <c r="K64" s="41">
+        <v>0</v>
+      </c>
       <c r="M64" s="29">
         <v>62</v>
       </c>
@@ -20174,13 +20168,13 @@
         <v>732</v>
       </c>
       <c r="AA64" s="31"/>
-      <c r="AC64" s="39">
+      <c r="AC64" s="11">
         <v>62</v>
       </c>
-      <c r="AD64" s="40" t="s">
+      <c r="AD64" s="14" t="s">
         <v>515</v>
       </c>
-      <c r="AE64" s="41">
+      <c r="AE64" s="13">
         <v>0</v>
       </c>
       <c r="AG64" s="32">
@@ -20732,7 +20726,7 @@
       </c>
       <c r="D71" s="4">
         <f>SUM(D3:D70)</f>
-        <v>-20731.949999999997</v>
+        <v>-20666.949999999997</v>
       </c>
       <c r="E71" t="s">
         <v>484</v>
@@ -20857,41 +20851,46 @@
       </c>
     </row>
     <row r="86" spans="10:15">
-      <c r="J86" s="91" t="s">
+      <c r="J86" s="90" t="s">
         <v>747</v>
       </c>
-      <c r="K86" s="96">
+      <c r="K86" s="95">
         <f>SUM(C71,G71,K71,O71,S71,W71,AA71,AE71,AI71,AM71,AQ71,AU71)</f>
         <v>-297399</v>
       </c>
-      <c r="N86" s="95" t="s">
+      <c r="N86" s="94" t="s">
         <v>748</v>
       </c>
-      <c r="O86" s="98">
+      <c r="O86" s="97">
         <f>SUM(D71,H71,L71,P71,T71,X71,AB71,AF71,AJ71,AN71,AR71,AV71)</f>
-        <v>41728</v>
+        <v>41793</v>
       </c>
     </row>
     <row r="87" spans="10:15">
-      <c r="J87" s="92"/>
-      <c r="K87" s="97"/>
-      <c r="N87" s="95"/>
-      <c r="O87" s="99"/>
+      <c r="J87" s="91"/>
+      <c r="K87" s="96"/>
+      <c r="N87" s="94"/>
+      <c r="O87" s="98"/>
     </row>
     <row r="88" spans="10:15">
-      <c r="J88" s="92"/>
-      <c r="K88" s="97"/>
-      <c r="N88" s="95"/>
-      <c r="O88" s="99"/>
+      <c r="J88" s="91"/>
+      <c r="K88" s="96"/>
+      <c r="N88" s="94"/>
+      <c r="O88" s="98"/>
     </row>
     <row r="89" spans="10:15">
-      <c r="J89" s="93"/>
-      <c r="K89" s="97"/>
-      <c r="N89" s="95"/>
-      <c r="O89" s="99"/>
+      <c r="J89" s="92"/>
+      <c r="K89" s="96"/>
+      <c r="N89" s="94"/>
+      <c r="O89" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="AO2:AQ2"/>
     <mergeCell ref="AS2:AU2"/>
     <mergeCell ref="J86:J89"/>
@@ -20903,11 +20902,6 @@
     <mergeCell ref="AC2:AE2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="AK2:AM2"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Ставки/КХЛ 23-24.xlsx
+++ b/Ставки/КХЛ 23-24.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11010" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11010" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="22-23" sheetId="1" r:id="rId1"/>
@@ -2678,7 +2678,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2771,10 +2771,10 @@
     <xf numFmtId="0" fontId="8" fillId="10" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2813,6 +2813,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="3" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% - Акцент4" xfId="4" builtinId="42"/>
@@ -3437,99 +3439,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="5:63" ht="15.75">
-      <c r="E1" s="84" t="s">
+      <c r="E1" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
       <c r="H1" s="79">
         <v>3.6</v>
       </c>
-      <c r="J1" s="85" t="s">
+      <c r="J1" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
       <c r="M1" s="79">
         <v>3.7</v>
       </c>
-      <c r="O1" s="85" t="s">
+      <c r="O1" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
       <c r="R1" s="79">
         <v>3.8</v>
       </c>
-      <c r="T1" s="85" t="s">
+      <c r="T1" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
       <c r="W1" s="79">
         <v>3.9</v>
       </c>
-      <c r="Y1" s="85" t="s">
+      <c r="Y1" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="Z1" s="84"/>
-      <c r="AA1" s="84"/>
+      <c r="Z1" s="85"/>
+      <c r="AA1" s="85"/>
       <c r="AB1" s="79">
         <v>4</v>
       </c>
-      <c r="AD1" s="85" t="s">
+      <c r="AD1" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="AE1" s="84"/>
-      <c r="AF1" s="84"/>
+      <c r="AE1" s="85"/>
+      <c r="AF1" s="85"/>
       <c r="AG1" s="79">
         <v>4.0999999999999996</v>
       </c>
-      <c r="AI1" s="85" t="s">
+      <c r="AI1" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="84"/>
-      <c r="AK1" s="84"/>
+      <c r="AJ1" s="85"/>
+      <c r="AK1" s="85"/>
       <c r="AL1" s="79">
         <v>4.2</v>
       </c>
-      <c r="AN1" s="85" t="s">
+      <c r="AN1" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="AO1" s="84"/>
-      <c r="AP1" s="84"/>
+      <c r="AO1" s="85"/>
+      <c r="AP1" s="85"/>
       <c r="AQ1" s="79">
         <v>4.3</v>
       </c>
-      <c r="AS1" s="85" t="s">
+      <c r="AS1" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="AT1" s="84"/>
-      <c r="AU1" s="84"/>
+      <c r="AT1" s="85"/>
+      <c r="AU1" s="85"/>
       <c r="AV1" s="79">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AX1" s="85" t="s">
+      <c r="AX1" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="AY1" s="84"/>
-      <c r="AZ1" s="84"/>
+      <c r="AY1" s="85"/>
+      <c r="AZ1" s="85"/>
       <c r="BA1" s="79">
         <v>4.5</v>
       </c>
-      <c r="BC1" s="85" t="s">
+      <c r="BC1" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="BD1" s="84"/>
-      <c r="BE1" s="84"/>
+      <c r="BD1" s="85"/>
+      <c r="BE1" s="85"/>
       <c r="BF1" s="79">
         <v>4.5999999999999996</v>
       </c>
-      <c r="BH1" s="85" t="s">
+      <c r="BH1" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="BI1" s="84"/>
-      <c r="BJ1" s="84"/>
+      <c r="BI1" s="85"/>
+      <c r="BJ1" s="85"/>
       <c r="BK1" s="79">
         <v>4.7</v>
       </c>
@@ -4478,11 +4480,11 @@
       </c>
     </row>
     <row r="29" spans="5:43" ht="15.75">
-      <c r="E29" s="84" t="s">
+      <c r="E29" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="F29" s="84"/>
-      <c r="G29" s="84"/>
+      <c r="F29" s="85"/>
+      <c r="G29" s="85"/>
       <c r="H29" s="79">
         <v>3.6</v>
       </c>
@@ -4855,8 +4857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AR85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I65" sqref="I65:L65"/>
+    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65:C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -11683,13 +11685,15 @@
         <f>5040+SUM(S56:S63)</f>
         <v>1020</v>
       </c>
-      <c r="U63" s="29">
+      <c r="U63" s="11">
         <v>61</v>
       </c>
-      <c r="V63" s="30" t="s">
+      <c r="V63" s="12" t="s">
         <v>455</v>
       </c>
-      <c r="W63" s="31"/>
+      <c r="W63" s="13">
+        <v>0</v>
+      </c>
       <c r="Y63" s="29">
         <v>61</v>
       </c>
@@ -11742,13 +11746,15 @@
         <v>345</v>
       </c>
       <c r="C64" s="31"/>
-      <c r="E64" s="29">
+      <c r="E64" s="40">
         <v>62</v>
       </c>
-      <c r="F64" s="30" t="s">
+      <c r="F64" s="98" t="s">
         <v>340</v>
       </c>
-      <c r="G64" s="31"/>
+      <c r="G64" s="41">
+        <v>0</v>
+      </c>
       <c r="I64" s="40">
         <v>62</v>
       </c>
@@ -11761,13 +11767,15 @@
       <c r="L64" t="s">
         <v>26</v>
       </c>
-      <c r="M64" s="29">
+      <c r="M64" s="40">
         <v>62</v>
       </c>
-      <c r="N64" t="s">
+      <c r="N64" s="32" t="s">
         <v>458</v>
       </c>
-      <c r="O64" s="31"/>
+      <c r="O64" s="41">
+        <v>0</v>
+      </c>
       <c r="Q64" s="29">
         <v>62</v>
       </c>
@@ -11775,13 +11783,15 @@
         <v>348</v>
       </c>
       <c r="S64" s="31"/>
-      <c r="U64" s="29">
+      <c r="U64" s="40">
         <v>62</v>
       </c>
-      <c r="V64" s="30" t="s">
+      <c r="V64" s="98" t="s">
         <v>459</v>
       </c>
-      <c r="W64" s="31"/>
+      <c r="W64" s="41">
+        <v>0</v>
+      </c>
       <c r="Y64" s="29">
         <v>62</v>
       </c>
@@ -11819,13 +11829,15 @@
       <c r="AQ64" s="31"/>
     </row>
     <row r="65" spans="1:44">
-      <c r="A65" s="29">
+      <c r="A65" s="40">
         <v>63</v>
       </c>
-      <c r="B65" s="30" t="s">
+      <c r="B65" s="98" t="s">
         <v>461</v>
       </c>
-      <c r="C65" s="31"/>
+      <c r="C65" s="41">
+        <v>0</v>
+      </c>
       <c r="E65" s="29">
         <v>63</v>
       </c>
@@ -11853,13 +11865,15 @@
         <v>462</v>
       </c>
       <c r="O65" s="31"/>
-      <c r="Q65" s="29">
+      <c r="Q65" s="40">
         <v>63</v>
       </c>
-      <c r="R65" t="s">
+      <c r="R65" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="S65" s="31"/>
+      <c r="S65" s="41">
+        <v>0</v>
+      </c>
       <c r="U65" s="29">
         <v>63</v>
       </c>
@@ -11881,13 +11895,15 @@
         <v>463</v>
       </c>
       <c r="AE65" s="31"/>
-      <c r="AG65" s="29">
+      <c r="AG65" s="40">
         <v>63</v>
       </c>
-      <c r="AH65" s="30" t="s">
+      <c r="AH65" s="98" t="s">
         <v>58</v>
       </c>
-      <c r="AI65" s="31"/>
+      <c r="AI65" s="41">
+        <v>0</v>
+      </c>
       <c r="AK65" s="29">
         <v>63</v>
       </c>
@@ -12457,6 +12473,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="AO2:AQ2"/>
     <mergeCell ref="J82:J85"/>
     <mergeCell ref="K82:K85"/>
@@ -12467,11 +12488,6 @@
     <mergeCell ref="AC2:AE2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="AK2:AM2"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>
@@ -12482,8 +12498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AV89"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64:C64"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65:C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -19531,7 +19547,7 @@
         <v>-2000</v>
       </c>
       <c r="D59" s="22">
-        <v>-3.75</v>
+        <v>-3.95</v>
       </c>
       <c r="E59" s="8">
         <v>57</v>
@@ -19648,8 +19664,8 @@
         <v>-2350</v>
       </c>
       <c r="D60" s="22">
-        <f>D59*C64</f>
-        <v>28125</v>
+        <f>D59*C65</f>
+        <v>35550</v>
       </c>
       <c r="E60" s="11">
         <v>58</v>
@@ -19696,7 +19712,7 @@
         <v>-650</v>
       </c>
       <c r="T60">
-        <v>-3.75</v>
+        <v>-3.85</v>
       </c>
       <c r="U60" s="11">
         <v>58</v>
@@ -19818,8 +19834,8 @@
         <v>-1500</v>
       </c>
       <c r="T61">
-        <f>S63*T60</f>
-        <v>5625</v>
+        <f>S64*T60</f>
+        <v>7315</v>
       </c>
       <c r="U61" s="11">
         <v>59</v>
@@ -19945,8 +19961,8 @@
         <v>-1000</v>
       </c>
       <c r="T62">
-        <f>T61+SUM(S59:S63)</f>
-        <v>375</v>
+        <f>T61+SUM(S59:S64)</f>
+        <v>165</v>
       </c>
       <c r="U62" s="8">
         <v>60</v>
@@ -20042,13 +20058,13 @@
       <c r="K63" s="13">
         <v>0</v>
       </c>
-      <c r="M63" s="40">
+      <c r="M63" s="8">
         <v>61</v>
       </c>
-      <c r="N63" s="32" t="s">
+      <c r="N63" s="15" t="s">
         <v>457</v>
       </c>
-      <c r="O63" s="41">
+      <c r="O63" s="10">
         <v>-2100</v>
       </c>
       <c r="Q63" s="33">
@@ -20125,26 +20141,28 @@
       </c>
     </row>
     <row r="64" spans="1:48">
-      <c r="A64" s="32">
+      <c r="A64" s="15">
         <v>62</v>
       </c>
-      <c r="B64" s="32" t="s">
+      <c r="B64" s="15" t="s">
         <v>525</v>
       </c>
-      <c r="C64" s="32">
+      <c r="C64" s="15">
         <v>-7500</v>
       </c>
       <c r="D64">
-        <f>D60+SUM(C57:C64)</f>
-        <v>-375</v>
-      </c>
-      <c r="E64" s="29">
+        <f>D60+SUM(C57:C65)</f>
+        <v>-1950</v>
+      </c>
+      <c r="E64" s="40">
         <v>62</v>
       </c>
-      <c r="F64" s="30" t="s">
+      <c r="F64" s="98" t="s">
         <v>644</v>
       </c>
-      <c r="G64" s="31"/>
+      <c r="G64" s="41">
+        <v>0</v>
+      </c>
       <c r="I64" s="11">
         <v>62</v>
       </c>
@@ -20154,20 +20172,24 @@
       <c r="K64" s="13">
         <v>0</v>
       </c>
-      <c r="M64" s="29">
+      <c r="M64" s="40">
         <v>62</v>
       </c>
-      <c r="N64" t="s">
+      <c r="N64" s="32" t="s">
         <v>731</v>
       </c>
-      <c r="O64" s="31"/>
+      <c r="O64" s="41">
+        <v>-2000</v>
+      </c>
       <c r="Q64" s="33">
         <v>62</v>
       </c>
       <c r="R64" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="S64" s="44"/>
+      <c r="S64" s="44">
+        <v>-1900</v>
+      </c>
       <c r="U64" s="8">
         <v>62</v>
       </c>
@@ -20177,13 +20199,15 @@
       <c r="W64" s="10">
         <v>0</v>
       </c>
-      <c r="Y64" s="29">
+      <c r="Y64" s="11">
         <v>62</v>
       </c>
-      <c r="Z64" t="s">
+      <c r="Z64" s="14" t="s">
         <v>732</v>
       </c>
-      <c r="AA64" s="31"/>
+      <c r="AA64" s="13">
+        <v>0</v>
+      </c>
       <c r="AC64" s="11">
         <v>62</v>
       </c>
@@ -20199,14 +20223,18 @@
       <c r="AH64" s="3" t="s">
         <v>733</v>
       </c>
-      <c r="AI64" s="44"/>
-      <c r="AK64" s="29">
+      <c r="AI64" s="44">
+        <v>1000</v>
+      </c>
+      <c r="AK64" s="40">
         <v>62</v>
       </c>
-      <c r="AL64" t="s">
+      <c r="AL64" s="32" t="s">
         <v>733</v>
       </c>
-      <c r="AM64" s="31"/>
+      <c r="AM64" s="41">
+        <v>0</v>
+      </c>
       <c r="AO64" s="29">
         <v>62</v>
       </c>
@@ -20214,20 +20242,25 @@
         <v>460</v>
       </c>
       <c r="AQ64" s="31"/>
-      <c r="AS64" s="29">
+      <c r="AS64" s="40">
         <v>62</v>
       </c>
-      <c r="AT64" t="s">
+      <c r="AT64" s="32" t="s">
         <v>528</v>
       </c>
-      <c r="AU64" s="31"/>
+      <c r="AU64" s="41">
+        <v>-1550</v>
+      </c>
     </row>
     <row r="65" spans="1:48">
-      <c r="A65">
+      <c r="A65" s="32">
         <v>63</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="32" t="s">
         <v>663</v>
+      </c>
+      <c r="C65" s="99">
+        <v>-9000</v>
       </c>
       <c r="E65" s="29">
         <v>63</v>
@@ -20257,13 +20290,15 @@
         <v>466</v>
       </c>
       <c r="S65" s="44"/>
-      <c r="U65" s="29">
+      <c r="U65" s="40">
         <v>63</v>
       </c>
-      <c r="V65" t="s">
+      <c r="V65" s="32" t="s">
         <v>734</v>
       </c>
-      <c r="W65" s="31"/>
+      <c r="W65" s="41">
+        <v>0</v>
+      </c>
       <c r="Y65" s="29">
         <v>63</v>
       </c>
@@ -20271,13 +20306,15 @@
         <v>689</v>
       </c>
       <c r="AA65" s="31"/>
-      <c r="AC65" s="29">
+      <c r="AC65" s="40">
         <v>63</v>
       </c>
-      <c r="AD65" t="s">
+      <c r="AD65" s="32" t="s">
         <v>735</v>
       </c>
-      <c r="AE65" s="31"/>
+      <c r="AE65" s="41">
+        <v>0</v>
+      </c>
       <c r="AG65" s="33">
         <v>63</v>
       </c>
@@ -20292,13 +20329,15 @@
         <v>736</v>
       </c>
       <c r="AM65" s="31"/>
-      <c r="AO65" s="29">
+      <c r="AO65" s="40">
         <v>63</v>
       </c>
-      <c r="AP65" t="s">
+      <c r="AP65" s="32" t="s">
         <v>663</v>
       </c>
-      <c r="AQ65" s="31"/>
+      <c r="AQ65" s="41">
+        <v>0</v>
+      </c>
       <c r="AS65" s="29">
         <v>63</v>
       </c>
@@ -20738,11 +20777,11 @@
       </c>
       <c r="C71" s="3">
         <f>SUM(C3:C70)</f>
-        <v>-159362</v>
+        <v>-168362</v>
       </c>
       <c r="D71" s="4">
         <f>SUM(D3:D70)</f>
-        <v>-13851.75</v>
+        <v>-8001.9499999999971</v>
       </c>
       <c r="E71" t="s">
         <v>484</v>
@@ -20771,7 +20810,7 @@
       </c>
       <c r="O71" s="3">
         <f>SUM(O3:O70)</f>
-        <v>-6811</v>
+        <v>-8811</v>
       </c>
       <c r="P71" s="4">
         <f>SUM(P3:P70)</f>
@@ -20782,11 +20821,11 @@
       </c>
       <c r="S71" s="3">
         <f>SUM(S3:S70)</f>
-        <v>-29129</v>
+        <v>-31029</v>
       </c>
       <c r="T71" s="4">
         <f>SUM(T3:T70)</f>
-        <v>8189.25</v>
+        <v>9669.15</v>
       </c>
       <c r="U71" t="s">
         <v>484</v>
@@ -20826,7 +20865,7 @@
       </c>
       <c r="AI71" s="3">
         <f>SUM(AI3:AI70)</f>
-        <v>-7432</v>
+        <v>-6432</v>
       </c>
       <c r="AJ71" s="4">
         <f>SUM(AJ3:AJ70)</f>
@@ -20859,7 +20898,7 @@
       </c>
       <c r="AU71" s="3">
         <f>SUM(AU3:AU70)</f>
-        <v>-38777</v>
+        <v>-40327</v>
       </c>
       <c r="AV71" s="4">
         <f>SUM(AV3:AV70)</f>
@@ -20872,14 +20911,14 @@
       </c>
       <c r="K86" s="94">
         <f>SUM(C71,G71,K71,O71,S71,W71,AA71,AE71,AI71,AM71,AQ71,AU71)</f>
-        <v>-308499</v>
+        <v>-321949</v>
       </c>
       <c r="N86" s="93" t="s">
         <v>748</v>
       </c>
       <c r="O86" s="96">
         <f>SUM(D71,H71,L71,P71,T71,X71,AB71,AF71,AJ71,AN71,AR71,AV71)</f>
-        <v>50258.5</v>
+        <v>57588.200000000004</v>
       </c>
     </row>
     <row r="87" spans="10:15">
@@ -20902,6 +20941,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="AO2:AQ2"/>
     <mergeCell ref="AS2:AU2"/>
     <mergeCell ref="J86:J89"/>
@@ -20913,11 +20957,6 @@
     <mergeCell ref="AC2:AE2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="AK2:AM2"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Ставки/КХЛ 23-24.xlsx
+++ b/Ставки/КХЛ 23-24.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11010" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11010" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="22-23" sheetId="1" r:id="rId1"/>
@@ -2678,7 +2678,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2771,6 +2771,7 @@
     <xf numFmtId="0" fontId="8" fillId="10" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2813,8 +2814,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="3" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% - Акцент4" xfId="4" builtinId="42"/>
@@ -3439,99 +3438,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="5:63" ht="15.75">
-      <c r="E1" s="85" t="s">
+      <c r="E1" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
       <c r="H1" s="79">
         <v>3.6</v>
       </c>
-      <c r="J1" s="84" t="s">
+      <c r="J1" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
       <c r="M1" s="79">
         <v>3.7</v>
       </c>
-      <c r="O1" s="84" t="s">
+      <c r="O1" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
       <c r="R1" s="79">
         <v>3.8</v>
       </c>
-      <c r="T1" s="84" t="s">
+      <c r="T1" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
       <c r="W1" s="79">
         <v>3.9</v>
       </c>
-      <c r="Y1" s="84" t="s">
+      <c r="Y1" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="Z1" s="85"/>
-      <c r="AA1" s="85"/>
+      <c r="Z1" s="86"/>
+      <c r="AA1" s="86"/>
       <c r="AB1" s="79">
         <v>4</v>
       </c>
-      <c r="AD1" s="84" t="s">
+      <c r="AD1" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="AE1" s="85"/>
-      <c r="AF1" s="85"/>
+      <c r="AE1" s="86"/>
+      <c r="AF1" s="86"/>
       <c r="AG1" s="79">
         <v>4.0999999999999996</v>
       </c>
-      <c r="AI1" s="84" t="s">
+      <c r="AI1" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="85"/>
-      <c r="AK1" s="85"/>
+      <c r="AJ1" s="86"/>
+      <c r="AK1" s="86"/>
       <c r="AL1" s="79">
         <v>4.2</v>
       </c>
-      <c r="AN1" s="84" t="s">
+      <c r="AN1" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="AO1" s="85"/>
-      <c r="AP1" s="85"/>
+      <c r="AO1" s="86"/>
+      <c r="AP1" s="86"/>
       <c r="AQ1" s="79">
         <v>4.3</v>
       </c>
-      <c r="AS1" s="84" t="s">
+      <c r="AS1" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="AT1" s="85"/>
-      <c r="AU1" s="85"/>
+      <c r="AT1" s="86"/>
+      <c r="AU1" s="86"/>
       <c r="AV1" s="79">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AX1" s="84" t="s">
+      <c r="AX1" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="AY1" s="85"/>
-      <c r="AZ1" s="85"/>
+      <c r="AY1" s="86"/>
+      <c r="AZ1" s="86"/>
       <c r="BA1" s="79">
         <v>4.5</v>
       </c>
-      <c r="BC1" s="84" t="s">
+      <c r="BC1" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="BD1" s="85"/>
-      <c r="BE1" s="85"/>
+      <c r="BD1" s="86"/>
+      <c r="BE1" s="86"/>
       <c r="BF1" s="79">
         <v>4.5999999999999996</v>
       </c>
-      <c r="BH1" s="84" t="s">
+      <c r="BH1" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="BI1" s="85"/>
-      <c r="BJ1" s="85"/>
+      <c r="BI1" s="86"/>
+      <c r="BJ1" s="86"/>
       <c r="BK1" s="79">
         <v>4.7</v>
       </c>
@@ -4480,11 +4479,11 @@
       </c>
     </row>
     <row r="29" spans="5:43" ht="15.75">
-      <c r="E29" s="85" t="s">
+      <c r="E29" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="F29" s="85"/>
-      <c r="G29" s="85"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="86"/>
       <c r="H29" s="79">
         <v>3.6</v>
       </c>
@@ -4857,8 +4856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AR85"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65:C65"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K67" sqref="K67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -4981,71 +4980,71 @@
       </c>
     </row>
     <row r="2" spans="1:44">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="89"/>
       <c r="D2" s="60"/>
-      <c r="E2" s="86" t="s">
+      <c r="E2" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="87"/>
-      <c r="G2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="89"/>
       <c r="H2" s="61"/>
-      <c r="I2" s="86" t="s">
+      <c r="I2" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="87"/>
-      <c r="K2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="89"/>
       <c r="L2" s="61"/>
-      <c r="M2" s="86" t="s">
+      <c r="M2" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="87"/>
-      <c r="O2" s="88"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="89"/>
       <c r="P2" s="61"/>
-      <c r="Q2" s="86" t="s">
+      <c r="Q2" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="87"/>
-      <c r="S2" s="88"/>
+      <c r="R2" s="88"/>
+      <c r="S2" s="89"/>
       <c r="T2" s="61"/>
-      <c r="U2" s="86" t="s">
+      <c r="U2" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="V2" s="87"/>
-      <c r="W2" s="88"/>
+      <c r="V2" s="88"/>
+      <c r="W2" s="89"/>
       <c r="X2" s="61"/>
-      <c r="Y2" s="86" t="s">
+      <c r="Y2" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="Z2" s="87"/>
-      <c r="AA2" s="88"/>
+      <c r="Z2" s="88"/>
+      <c r="AA2" s="89"/>
       <c r="AB2" s="61"/>
-      <c r="AC2" s="86" t="s">
+      <c r="AC2" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="AD2" s="87"/>
-      <c r="AE2" s="88"/>
+      <c r="AD2" s="88"/>
+      <c r="AE2" s="89"/>
       <c r="AF2" s="61"/>
-      <c r="AG2" s="86" t="s">
+      <c r="AG2" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="AH2" s="87"/>
-      <c r="AI2" s="88"/>
+      <c r="AH2" s="88"/>
+      <c r="AI2" s="89"/>
       <c r="AJ2" s="61"/>
-      <c r="AK2" s="86" t="s">
+      <c r="AK2" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="AL2" s="87"/>
-      <c r="AM2" s="88"/>
+      <c r="AL2" s="88"/>
+      <c r="AM2" s="89"/>
       <c r="AN2" s="61"/>
-      <c r="AO2" s="86" t="s">
+      <c r="AO2" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="AP2" s="87"/>
-      <c r="AQ2" s="88"/>
+      <c r="AP2" s="88"/>
+      <c r="AQ2" s="89"/>
       <c r="AR2" s="61"/>
     </row>
     <row r="3" spans="1:44">
@@ -11749,7 +11748,7 @@
       <c r="E64" s="40">
         <v>62</v>
       </c>
-      <c r="F64" s="98" t="s">
+      <c r="F64" s="84" t="s">
         <v>340</v>
       </c>
       <c r="G64" s="41">
@@ -11783,13 +11782,13 @@
         <v>348</v>
       </c>
       <c r="S64" s="31"/>
-      <c r="U64" s="40">
+      <c r="U64" s="11">
         <v>62</v>
       </c>
-      <c r="V64" s="98" t="s">
+      <c r="V64" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="W64" s="41">
+      <c r="W64" s="13">
         <v>0</v>
       </c>
       <c r="Y64" s="29">
@@ -11832,7 +11831,7 @@
       <c r="A65" s="40">
         <v>63</v>
       </c>
-      <c r="B65" s="98" t="s">
+      <c r="B65" s="84" t="s">
         <v>461</v>
       </c>
       <c r="C65" s="41">
@@ -11845,13 +11844,13 @@
         <v>79</v>
       </c>
       <c r="G65" s="31"/>
-      <c r="I65" s="40">
+      <c r="I65" s="8">
         <v>63</v>
       </c>
-      <c r="J65" s="32" t="s">
+      <c r="J65" s="15" t="s">
         <v>292</v>
       </c>
-      <c r="K65" s="41">
+      <c r="K65" s="10">
         <v>-2250</v>
       </c>
       <c r="L65" s="32">
@@ -11881,13 +11880,15 @@
         <v>421</v>
       </c>
       <c r="W65" s="31"/>
-      <c r="Y65" s="29">
+      <c r="Y65" s="40">
         <v>63</v>
       </c>
-      <c r="Z65" s="30" t="s">
+      <c r="Z65" s="84" t="s">
         <v>124</v>
       </c>
-      <c r="AA65" s="31"/>
+      <c r="AA65" s="41">
+        <v>0</v>
+      </c>
       <c r="AC65" s="29">
         <v>63</v>
       </c>
@@ -11898,7 +11899,7 @@
       <c r="AG65" s="40">
         <v>63</v>
       </c>
-      <c r="AH65" s="98" t="s">
+      <c r="AH65" s="84" t="s">
         <v>58</v>
       </c>
       <c r="AI65" s="41">
@@ -11934,13 +11935,15 @@
         <v>118</v>
       </c>
       <c r="G66" s="31"/>
-      <c r="I66" s="29">
+      <c r="I66" s="40">
         <v>64</v>
       </c>
-      <c r="J66" t="s">
+      <c r="J66" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="K66" s="31"/>
+      <c r="K66" s="41">
+        <v>-2300</v>
+      </c>
       <c r="M66" s="29">
         <v>64</v>
       </c>
@@ -12342,7 +12345,7 @@
       </c>
       <c r="K71" s="3">
         <f>SUM(K3:K70)</f>
-        <v>-31149</v>
+        <v>-33449</v>
       </c>
       <c r="L71" s="4">
         <f>SUM(L3:L70)</f>
@@ -12438,46 +12441,41 @@
       </c>
     </row>
     <row r="82" spans="10:15" ht="15" customHeight="1">
-      <c r="J82" s="89" t="s">
+      <c r="J82" s="90" t="s">
         <v>485</v>
       </c>
-      <c r="K82" s="92">
+      <c r="K82" s="93">
         <f>SUM(C71,G71,K71,O71,S71,W71,AA71,AE71,AI71,AM71,AQ71)</f>
-        <v>-429102</v>
-      </c>
-      <c r="N82" s="93" t="s">
+        <v>-431402</v>
+      </c>
+      <c r="N82" s="94" t="s">
         <v>486</v>
       </c>
-      <c r="O82" s="93">
+      <c r="O82" s="94">
         <f>SUM(D71,H71,L71,P71,T71,X71,AB71,AF71,AJ71,AN71,AR71)</f>
         <v>-26766.85</v>
       </c>
     </row>
     <row r="83" spans="10:15">
-      <c r="J83" s="90"/>
-      <c r="K83" s="92"/>
-      <c r="N83" s="93"/>
-      <c r="O83" s="93"/>
+      <c r="J83" s="91"/>
+      <c r="K83" s="93"/>
+      <c r="N83" s="94"/>
+      <c r="O83" s="94"/>
     </row>
     <row r="84" spans="10:15">
-      <c r="J84" s="90"/>
-      <c r="K84" s="92"/>
-      <c r="N84" s="93"/>
-      <c r="O84" s="93"/>
+      <c r="J84" s="91"/>
+      <c r="K84" s="93"/>
+      <c r="N84" s="94"/>
+      <c r="O84" s="94"/>
     </row>
     <row r="85" spans="10:15">
-      <c r="J85" s="91"/>
-      <c r="K85" s="92"/>
-      <c r="N85" s="93"/>
-      <c r="O85" s="93"/>
+      <c r="J85" s="92"/>
+      <c r="K85" s="93"/>
+      <c r="N85" s="94"/>
+      <c r="O85" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="AO2:AQ2"/>
     <mergeCell ref="J82:J85"/>
     <mergeCell ref="K82:K85"/>
@@ -12488,6 +12486,11 @@
     <mergeCell ref="AC2:AE2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="AK2:AM2"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>
@@ -12498,8 +12501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AV89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65:C65"/>
+    <sheetView topLeftCell="W25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AS65" sqref="AS65:AU65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -12630,66 +12633,66 @@
       </c>
     </row>
     <row r="2" spans="1:48">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="87" t="s">
         <v>487</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="88"/>
-      <c r="E2" s="86" t="s">
+      <c r="B2" s="88"/>
+      <c r="C2" s="89"/>
+      <c r="E2" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="87"/>
-      <c r="G2" s="88"/>
-      <c r="I2" s="86" t="s">
+      <c r="F2" s="88"/>
+      <c r="G2" s="89"/>
+      <c r="I2" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="87"/>
-      <c r="K2" s="88"/>
-      <c r="M2" s="86" t="s">
+      <c r="J2" s="88"/>
+      <c r="K2" s="89"/>
+      <c r="M2" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="87"/>
-      <c r="O2" s="88"/>
-      <c r="Q2" s="86" t="s">
+      <c r="N2" s="88"/>
+      <c r="O2" s="89"/>
+      <c r="Q2" s="87" t="s">
         <v>488</v>
       </c>
-      <c r="R2" s="87"/>
-      <c r="S2" s="88"/>
-      <c r="U2" s="86" t="s">
+      <c r="R2" s="88"/>
+      <c r="S2" s="89"/>
+      <c r="U2" s="87" t="s">
         <v>489</v>
       </c>
-      <c r="V2" s="87"/>
-      <c r="W2" s="88"/>
-      <c r="Y2" s="86" t="s">
+      <c r="V2" s="88"/>
+      <c r="W2" s="89"/>
+      <c r="Y2" s="87" t="s">
         <v>490</v>
       </c>
-      <c r="Z2" s="87"/>
-      <c r="AA2" s="88"/>
-      <c r="AC2" s="86" t="s">
+      <c r="Z2" s="88"/>
+      <c r="AA2" s="89"/>
+      <c r="AC2" s="87" t="s">
         <v>491</v>
       </c>
-      <c r="AD2" s="87"/>
-      <c r="AE2" s="88"/>
-      <c r="AG2" s="86" t="s">
+      <c r="AD2" s="88"/>
+      <c r="AE2" s="89"/>
+      <c r="AG2" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="AH2" s="87"/>
-      <c r="AI2" s="88"/>
-      <c r="AK2" s="86" t="s">
+      <c r="AH2" s="88"/>
+      <c r="AI2" s="89"/>
+      <c r="AK2" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="AL2" s="87"/>
-      <c r="AM2" s="88"/>
-      <c r="AO2" s="86" t="s">
+      <c r="AL2" s="88"/>
+      <c r="AM2" s="89"/>
+      <c r="AO2" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="AP2" s="87"/>
-      <c r="AQ2" s="88"/>
-      <c r="AS2" s="86" t="s">
+      <c r="AP2" s="88"/>
+      <c r="AQ2" s="89"/>
+      <c r="AS2" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="AT2" s="87"/>
-      <c r="AU2" s="88"/>
+      <c r="AT2" s="88"/>
+      <c r="AU2" s="89"/>
     </row>
     <row r="3" spans="1:48">
       <c r="A3" s="8">
@@ -20154,13 +20157,13 @@
         <f>D60+SUM(C57:C65)</f>
         <v>-1950</v>
       </c>
-      <c r="E64" s="40">
+      <c r="E64" s="8">
         <v>62</v>
       </c>
-      <c r="F64" s="98" t="s">
+      <c r="F64" s="9" t="s">
         <v>644</v>
       </c>
-      <c r="G64" s="41">
+      <c r="G64" s="10">
         <v>0</v>
       </c>
       <c r="I64" s="11">
@@ -20172,13 +20175,13 @@
       <c r="K64" s="13">
         <v>0</v>
       </c>
-      <c r="M64" s="40">
+      <c r="M64" s="8">
         <v>62</v>
       </c>
-      <c r="N64" s="32" t="s">
+      <c r="N64" s="15" t="s">
         <v>731</v>
       </c>
-      <c r="O64" s="41">
+      <c r="O64" s="10">
         <v>-2000</v>
       </c>
       <c r="Q64" s="33">
@@ -20224,15 +20227,16 @@
         <v>733</v>
       </c>
       <c r="AI64" s="44">
-        <v>1000</v>
-      </c>
-      <c r="AK64" s="40">
+        <f>-1000</f>
+        <v>-1000</v>
+      </c>
+      <c r="AK64" s="8">
         <v>62</v>
       </c>
-      <c r="AL64" s="32" t="s">
+      <c r="AL64" s="15" t="s">
         <v>733</v>
       </c>
-      <c r="AM64" s="41">
+      <c r="AM64" s="10">
         <v>0</v>
       </c>
       <c r="AO64" s="29">
@@ -20242,24 +20246,24 @@
         <v>460</v>
       </c>
       <c r="AQ64" s="31"/>
-      <c r="AS64" s="40">
+      <c r="AS64" s="8">
         <v>62</v>
       </c>
-      <c r="AT64" s="32" t="s">
+      <c r="AT64" s="15" t="s">
         <v>528</v>
       </c>
-      <c r="AU64" s="41">
+      <c r="AU64" s="10">
         <v>-1550</v>
       </c>
     </row>
     <row r="65" spans="1:48">
-      <c r="A65" s="32">
+      <c r="A65" s="15">
         <v>63</v>
       </c>
-      <c r="B65" s="32" t="s">
+      <c r="B65" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="C65" s="99">
+      <c r="C65" s="15">
         <v>-9000</v>
       </c>
       <c r="E65" s="29">
@@ -20276,13 +20280,15 @@
         <v>493</v>
       </c>
       <c r="K65" s="31"/>
-      <c r="M65" s="29">
+      <c r="M65" s="40">
         <v>63</v>
       </c>
-      <c r="N65" t="s">
+      <c r="N65" s="32" t="s">
         <v>731</v>
       </c>
-      <c r="O65" s="31"/>
+      <c r="O65" s="41">
+        <v>-2000</v>
+      </c>
       <c r="Q65" s="33">
         <v>63</v>
       </c>
@@ -20290,13 +20296,13 @@
         <v>466</v>
       </c>
       <c r="S65" s="44"/>
-      <c r="U65" s="40">
+      <c r="U65" s="11">
         <v>63</v>
       </c>
-      <c r="V65" s="32" t="s">
+      <c r="V65" s="14" t="s">
         <v>734</v>
       </c>
-      <c r="W65" s="41">
+      <c r="W65" s="13">
         <v>0</v>
       </c>
       <c r="Y65" s="29">
@@ -20321,30 +20327,36 @@
       <c r="AH65" s="3" t="s">
         <v>733</v>
       </c>
-      <c r="AI65" s="44"/>
-      <c r="AK65" s="29">
+      <c r="AI65" s="44">
+        <v>-1200</v>
+      </c>
+      <c r="AK65" s="40">
         <v>63</v>
       </c>
-      <c r="AL65" t="s">
+      <c r="AL65" s="32" t="s">
         <v>736</v>
       </c>
-      <c r="AM65" s="31"/>
-      <c r="AO65" s="40">
+      <c r="AM65" s="41">
+        <v>0</v>
+      </c>
+      <c r="AO65" s="8">
         <v>63</v>
       </c>
-      <c r="AP65" s="32" t="s">
+      <c r="AP65" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="AQ65" s="41">
-        <v>0</v>
-      </c>
-      <c r="AS65" s="29">
+      <c r="AQ65" s="10">
+        <v>0</v>
+      </c>
+      <c r="AS65" s="40">
         <v>63</v>
       </c>
-      <c r="AT65" t="s">
+      <c r="AT65" s="32" t="s">
         <v>528</v>
       </c>
-      <c r="AU65" s="31"/>
+      <c r="AU65" s="41">
+        <v>-2150</v>
+      </c>
     </row>
     <row r="66" spans="1:48">
       <c r="A66">
@@ -20810,7 +20822,7 @@
       </c>
       <c r="O71" s="3">
         <f>SUM(O3:O70)</f>
-        <v>-8811</v>
+        <v>-10811</v>
       </c>
       <c r="P71" s="4">
         <f>SUM(P3:P70)</f>
@@ -20865,7 +20877,7 @@
       </c>
       <c r="AI71" s="3">
         <f>SUM(AI3:AI70)</f>
-        <v>-6432</v>
+        <v>-9632</v>
       </c>
       <c r="AJ71" s="4">
         <f>SUM(AJ3:AJ70)</f>
@@ -20898,7 +20910,7 @@
       </c>
       <c r="AU71" s="3">
         <f>SUM(AU3:AU70)</f>
-        <v>-40327</v>
+        <v>-42477</v>
       </c>
       <c r="AV71" s="4">
         <f>SUM(AV3:AV70)</f>
@@ -20906,46 +20918,41 @@
       </c>
     </row>
     <row r="86" spans="10:15">
-      <c r="J86" s="89" t="s">
+      <c r="J86" s="90" t="s">
         <v>747</v>
       </c>
-      <c r="K86" s="94">
+      <c r="K86" s="95">
         <f>SUM(C71,G71,K71,O71,S71,W71,AA71,AE71,AI71,AM71,AQ71,AU71)</f>
-        <v>-321949</v>
-      </c>
-      <c r="N86" s="93" t="s">
+        <v>-329299</v>
+      </c>
+      <c r="N86" s="94" t="s">
         <v>748</v>
       </c>
-      <c r="O86" s="96">
+      <c r="O86" s="97">
         <f>SUM(D71,H71,L71,P71,T71,X71,AB71,AF71,AJ71,AN71,AR71,AV71)</f>
         <v>57588.200000000004</v>
       </c>
     </row>
     <row r="87" spans="10:15">
-      <c r="J87" s="90"/>
-      <c r="K87" s="95"/>
-      <c r="N87" s="93"/>
-      <c r="O87" s="97"/>
+      <c r="J87" s="91"/>
+      <c r="K87" s="96"/>
+      <c r="N87" s="94"/>
+      <c r="O87" s="98"/>
     </row>
     <row r="88" spans="10:15">
-      <c r="J88" s="90"/>
-      <c r="K88" s="95"/>
-      <c r="N88" s="93"/>
-      <c r="O88" s="97"/>
+      <c r="J88" s="91"/>
+      <c r="K88" s="96"/>
+      <c r="N88" s="94"/>
+      <c r="O88" s="98"/>
     </row>
     <row r="89" spans="10:15">
-      <c r="J89" s="91"/>
-      <c r="K89" s="95"/>
-      <c r="N89" s="93"/>
-      <c r="O89" s="97"/>
+      <c r="J89" s="92"/>
+      <c r="K89" s="96"/>
+      <c r="N89" s="94"/>
+      <c r="O89" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="AO2:AQ2"/>
     <mergeCell ref="AS2:AU2"/>
     <mergeCell ref="J86:J89"/>
@@ -20957,6 +20964,11 @@
     <mergeCell ref="AC2:AE2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="AK2:AM2"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Ставки/КХЛ 23-24.xlsx
+++ b/Ставки/КХЛ 23-24.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11010" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11010" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="22-23" sheetId="1" r:id="rId1"/>
@@ -2678,7 +2678,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2814,6 +2814,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="3" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% - Акцент4" xfId="4" builtinId="42"/>
@@ -4856,8 +4857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AR85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K67" sqref="K67"/>
+    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -11873,13 +11874,15 @@
       <c r="S65" s="41">
         <v>0</v>
       </c>
-      <c r="U65" s="29">
+      <c r="U65" s="40">
         <v>63</v>
       </c>
-      <c r="V65" s="30" t="s">
+      <c r="V65" s="84" t="s">
         <v>421</v>
       </c>
-      <c r="W65" s="31"/>
+      <c r="W65" s="41">
+        <v>0</v>
+      </c>
       <c r="Y65" s="40">
         <v>63</v>
       </c>
@@ -11927,14 +11930,18 @@
       <c r="B66" s="30" t="s">
         <v>466</v>
       </c>
-      <c r="C66" s="31"/>
-      <c r="E66" s="29">
+      <c r="C66" s="31">
+        <v>0</v>
+      </c>
+      <c r="E66" s="40">
         <v>64</v>
       </c>
-      <c r="F66" s="30" t="s">
+      <c r="F66" s="84" t="s">
         <v>118</v>
       </c>
-      <c r="G66" s="31"/>
+      <c r="G66" s="41">
+        <v>0</v>
+      </c>
       <c r="I66" s="40">
         <v>64</v>
       </c>
@@ -11979,20 +11986,24 @@
         <v>463</v>
       </c>
       <c r="AE66" s="31"/>
-      <c r="AG66" s="29">
+      <c r="AG66" s="40">
         <v>64</v>
       </c>
-      <c r="AH66" s="30" t="s">
+      <c r="AH66" s="84" t="s">
         <v>417</v>
       </c>
-      <c r="AI66" s="31"/>
-      <c r="AK66" s="29">
+      <c r="AI66" s="41">
+        <v>0</v>
+      </c>
+      <c r="AK66" s="40">
         <v>64</v>
       </c>
-      <c r="AL66" s="30" t="s">
+      <c r="AL66" s="84" t="s">
         <v>118</v>
       </c>
-      <c r="AM66" s="31"/>
+      <c r="AM66" s="41">
+        <v>0</v>
+      </c>
       <c r="AO66" s="29">
         <v>64</v>
       </c>
@@ -12476,6 +12487,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="AO2:AQ2"/>
     <mergeCell ref="J82:J85"/>
     <mergeCell ref="K82:K85"/>
@@ -12486,11 +12502,6 @@
     <mergeCell ref="AC2:AE2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="AK2:AM2"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>
@@ -12501,8 +12512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AV89"/>
   <sheetViews>
-    <sheetView topLeftCell="W25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AS65" sqref="AS65:AU65"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="S66" sqref="S66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -19550,7 +19561,7 @@
         <v>-2000</v>
       </c>
       <c r="D59" s="22">
-        <v>-3.95</v>
+        <v>-3.85</v>
       </c>
       <c r="E59" s="8">
         <v>57</v>
@@ -19667,8 +19678,8 @@
         <v>-2350</v>
       </c>
       <c r="D60" s="22">
-        <f>D59*C65</f>
-        <v>35550</v>
+        <f>D59*C66</f>
+        <v>50050</v>
       </c>
       <c r="E60" s="11">
         <v>58</v>
@@ -19837,8 +19848,8 @@
         <v>-1500</v>
       </c>
       <c r="T61">
-        <f>S64*T60</f>
-        <v>7315</v>
+        <f>S65*T60</f>
+        <v>9625</v>
       </c>
       <c r="U61" s="11">
         <v>59</v>
@@ -19964,8 +19975,8 @@
         <v>-1000</v>
       </c>
       <c r="T62">
-        <f>T61+SUM(S59:S64)</f>
-        <v>165</v>
+        <f>T61+SUM(S59:S65)</f>
+        <v>-25</v>
       </c>
       <c r="U62" s="8">
         <v>60</v>
@@ -20154,8 +20165,8 @@
         <v>-7500</v>
       </c>
       <c r="D64">
-        <f>D60+SUM(C57:C65)</f>
-        <v>-1950</v>
+        <f>D60+SUM(C57:C66)</f>
+        <v>-450</v>
       </c>
       <c r="E64" s="8">
         <v>62</v>
@@ -20266,13 +20277,15 @@
       <c r="C65" s="15">
         <v>-9000</v>
       </c>
-      <c r="E65" s="29">
+      <c r="E65" s="40">
         <v>63</v>
       </c>
-      <c r="F65" s="30" t="s">
+      <c r="F65" s="84" t="s">
         <v>556</v>
       </c>
-      <c r="G65" s="31"/>
+      <c r="G65" s="41">
+        <v>0</v>
+      </c>
       <c r="I65" s="29">
         <v>63</v>
       </c>
@@ -20295,7 +20308,9 @@
       <c r="R65" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="S65" s="44"/>
+      <c r="S65" s="44">
+        <v>-2500</v>
+      </c>
       <c r="U65" s="11">
         <v>63</v>
       </c>
@@ -20359,11 +20374,14 @@
       </c>
     </row>
     <row r="66" spans="1:48">
-      <c r="A66">
+      <c r="A66" s="32">
         <v>64</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="32" t="s">
         <v>689</v>
+      </c>
+      <c r="C66" s="99">
+        <v>-13000</v>
       </c>
       <c r="E66" s="29">
         <v>64</v>
@@ -20393,13 +20411,15 @@
         <v>472</v>
       </c>
       <c r="S66" s="44"/>
-      <c r="U66" s="29">
+      <c r="U66" s="40">
         <v>64</v>
       </c>
-      <c r="V66" t="s">
+      <c r="V66" s="32" t="s">
         <v>556</v>
       </c>
-      <c r="W66" s="31"/>
+      <c r="W66" s="41">
+        <v>0</v>
+      </c>
       <c r="Y66" s="29">
         <v>64</v>
       </c>
@@ -20789,11 +20809,11 @@
       </c>
       <c r="C71" s="3">
         <f>SUM(C3:C70)</f>
-        <v>-168362</v>
+        <v>-181362</v>
       </c>
       <c r="D71" s="4">
         <f>SUM(D3:D70)</f>
-        <v>-8001.9499999999971</v>
+        <v>7998.1500000000015</v>
       </c>
       <c r="E71" t="s">
         <v>484</v>
@@ -20833,11 +20853,11 @@
       </c>
       <c r="S71" s="3">
         <f>SUM(S3:S70)</f>
-        <v>-31029</v>
+        <v>-33529</v>
       </c>
       <c r="T71" s="4">
         <f>SUM(T3:T70)</f>
-        <v>9669.15</v>
+        <v>11789.15</v>
       </c>
       <c r="U71" t="s">
         <v>484</v>
@@ -20923,14 +20943,14 @@
       </c>
       <c r="K86" s="95">
         <f>SUM(C71,G71,K71,O71,S71,W71,AA71,AE71,AI71,AM71,AQ71,AU71)</f>
-        <v>-329299</v>
+        <v>-344799</v>
       </c>
       <c r="N86" s="94" t="s">
         <v>748</v>
       </c>
       <c r="O86" s="97">
         <f>SUM(D71,H71,L71,P71,T71,X71,AB71,AF71,AJ71,AN71,AR71,AV71)</f>
-        <v>57588.200000000004</v>
+        <v>75708.3</v>
       </c>
     </row>
     <row r="87" spans="10:15">
@@ -20953,6 +20973,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="AO2:AQ2"/>
     <mergeCell ref="AS2:AU2"/>
     <mergeCell ref="J86:J89"/>
@@ -20964,11 +20989,6 @@
     <mergeCell ref="AC2:AE2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="AK2:AM2"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Ставки/КХЛ 23-24.xlsx
+++ b/Ставки/КХЛ 23-24.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11010" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11010" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="22-23" sheetId="1" r:id="rId1"/>
@@ -2774,10 +2774,13 @@
     <xf numFmtId="0" fontId="6" fillId="10" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2816,15 +2819,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% - Акцент4" xfId="4" builtinId="42"/>
@@ -3449,99 +3449,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="5:63" ht="15.75">
-      <c r="E1" s="82" t="s">
+      <c r="E1" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
       <c r="H1" s="77">
         <v>3.6</v>
       </c>
-      <c r="J1" s="83" t="s">
+      <c r="J1" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
       <c r="M1" s="77">
         <v>3.7</v>
       </c>
-      <c r="O1" s="83" t="s">
+      <c r="O1" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
       <c r="R1" s="77">
         <v>3.8</v>
       </c>
-      <c r="T1" s="83" t="s">
+      <c r="T1" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
       <c r="W1" s="77">
         <v>3.9</v>
       </c>
-      <c r="Y1" s="83" t="s">
+      <c r="Y1" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="Z1" s="82"/>
-      <c r="AA1" s="82"/>
+      <c r="Z1" s="86"/>
+      <c r="AA1" s="86"/>
       <c r="AB1" s="77">
         <v>4</v>
       </c>
-      <c r="AD1" s="83" t="s">
+      <c r="AD1" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="AE1" s="82"/>
-      <c r="AF1" s="82"/>
+      <c r="AE1" s="86"/>
+      <c r="AF1" s="86"/>
       <c r="AG1" s="77">
         <v>4.0999999999999996</v>
       </c>
-      <c r="AI1" s="83" t="s">
+      <c r="AI1" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="82"/>
-      <c r="AK1" s="82"/>
+      <c r="AJ1" s="86"/>
+      <c r="AK1" s="86"/>
       <c r="AL1" s="77">
         <v>4.2</v>
       </c>
-      <c r="AN1" s="83" t="s">
+      <c r="AN1" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="AO1" s="82"/>
-      <c r="AP1" s="82"/>
+      <c r="AO1" s="86"/>
+      <c r="AP1" s="86"/>
       <c r="AQ1" s="77">
         <v>4.3</v>
       </c>
-      <c r="AS1" s="83" t="s">
+      <c r="AS1" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="AT1" s="82"/>
-      <c r="AU1" s="82"/>
+      <c r="AT1" s="86"/>
+      <c r="AU1" s="86"/>
       <c r="AV1" s="77">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AX1" s="83" t="s">
+      <c r="AX1" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="AY1" s="82"/>
-      <c r="AZ1" s="82"/>
+      <c r="AY1" s="86"/>
+      <c r="AZ1" s="86"/>
       <c r="BA1" s="77">
         <v>4.5</v>
       </c>
-      <c r="BC1" s="83" t="s">
+      <c r="BC1" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="BD1" s="82"/>
-      <c r="BE1" s="82"/>
+      <c r="BD1" s="86"/>
+      <c r="BE1" s="86"/>
       <c r="BF1" s="77">
         <v>4.5999999999999996</v>
       </c>
-      <c r="BH1" s="83" t="s">
+      <c r="BH1" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="BI1" s="82"/>
-      <c r="BJ1" s="82"/>
+      <c r="BI1" s="86"/>
+      <c r="BJ1" s="86"/>
       <c r="BK1" s="77">
         <v>4.7</v>
       </c>
@@ -4490,11 +4490,11 @@
       </c>
     </row>
     <row r="29" spans="5:43" ht="15.75">
-      <c r="E29" s="82" t="s">
+      <c r="E29" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="F29" s="82"/>
-      <c r="G29" s="82"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="86"/>
       <c r="H29" s="77">
         <v>3.6</v>
       </c>
@@ -4867,8 +4867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AR85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L63" sqref="L63"/>
+    <sheetView topLeftCell="U45" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AL91" sqref="AL91:AM91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -4991,71 +4991,71 @@
       </c>
     </row>
     <row r="2" spans="1:44">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="86"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="89"/>
       <c r="D2" s="61"/>
-      <c r="E2" s="84" t="s">
+      <c r="E2" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="85"/>
-      <c r="G2" s="86"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="89"/>
       <c r="H2" s="62"/>
-      <c r="I2" s="84" t="s">
+      <c r="I2" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="85"/>
-      <c r="K2" s="86"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="89"/>
       <c r="L2" s="62"/>
-      <c r="M2" s="84" t="s">
+      <c r="M2" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="85"/>
-      <c r="O2" s="86"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="89"/>
       <c r="P2" s="62"/>
-      <c r="Q2" s="84" t="s">
+      <c r="Q2" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="85"/>
-      <c r="S2" s="86"/>
+      <c r="R2" s="88"/>
+      <c r="S2" s="89"/>
       <c r="T2" s="62"/>
-      <c r="U2" s="84" t="s">
+      <c r="U2" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="V2" s="85"/>
-      <c r="W2" s="86"/>
+      <c r="V2" s="88"/>
+      <c r="W2" s="89"/>
       <c r="X2" s="62"/>
-      <c r="Y2" s="84" t="s">
+      <c r="Y2" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="Z2" s="85"/>
-      <c r="AA2" s="86"/>
+      <c r="Z2" s="88"/>
+      <c r="AA2" s="89"/>
       <c r="AB2" s="62"/>
-      <c r="AC2" s="84" t="s">
+      <c r="AC2" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="AD2" s="85"/>
-      <c r="AE2" s="86"/>
+      <c r="AD2" s="88"/>
+      <c r="AE2" s="89"/>
       <c r="AF2" s="62"/>
-      <c r="AG2" s="84" t="s">
+      <c r="AG2" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="AH2" s="85"/>
-      <c r="AI2" s="86"/>
+      <c r="AH2" s="88"/>
+      <c r="AI2" s="89"/>
       <c r="AJ2" s="62"/>
-      <c r="AK2" s="84" t="s">
+      <c r="AK2" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="AL2" s="85"/>
-      <c r="AM2" s="86"/>
+      <c r="AL2" s="88"/>
+      <c r="AM2" s="89"/>
       <c r="AN2" s="62"/>
-      <c r="AO2" s="84" t="s">
+      <c r="AO2" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="AP2" s="85"/>
-      <c r="AQ2" s="86"/>
+      <c r="AP2" s="88"/>
+      <c r="AQ2" s="89"/>
       <c r="AR2" s="62"/>
     </row>
     <row r="3" spans="1:44">
@@ -12085,13 +12085,13 @@
       <c r="K67" s="10">
         <v>-2000</v>
       </c>
-      <c r="M67" s="54">
+      <c r="M67" s="8">
         <v>65</v>
       </c>
-      <c r="N67" s="57" t="s">
+      <c r="N67" s="15" t="s">
         <v>469</v>
       </c>
-      <c r="O67" s="56">
+      <c r="O67" s="10">
         <v>5000</v>
       </c>
       <c r="Q67" s="8">
@@ -12112,13 +12112,13 @@
       <c r="W67" s="13">
         <v>0</v>
       </c>
-      <c r="Y67" s="54">
+      <c r="Y67" s="8">
         <v>65</v>
       </c>
-      <c r="Z67" s="55" t="s">
+      <c r="Z67" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="AA67" s="56">
+      <c r="AA67" s="10">
         <v>0</v>
       </c>
       <c r="AC67" s="8">
@@ -12159,13 +12159,13 @@
       </c>
     </row>
     <row r="68" spans="1:44">
-      <c r="A68" s="54">
+      <c r="A68" s="8">
         <v>66</v>
       </c>
-      <c r="B68" s="55" t="s">
+      <c r="B68" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C68" s="56">
+      <c r="C68" s="10">
         <v>0</v>
       </c>
       <c r="E68" s="29">
@@ -12175,22 +12175,22 @@
         <v>473</v>
       </c>
       <c r="G68" s="31"/>
-      <c r="I68" s="54">
+      <c r="I68" s="8">
         <v>66</v>
       </c>
-      <c r="J68" s="57" t="s">
+      <c r="J68" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="K68" s="56">
+      <c r="K68" s="10">
         <v>-2000</v>
       </c>
-      <c r="M68" s="99">
+      <c r="M68" s="83">
         <v>66</v>
       </c>
       <c r="N68" s="22" t="s">
         <v>438</v>
       </c>
-      <c r="O68" s="100">
+      <c r="O68" s="84">
         <v>0</v>
       </c>
       <c r="Q68" s="29">
@@ -12214,22 +12214,22 @@
         <v>186</v>
       </c>
       <c r="AA68" s="31"/>
-      <c r="AC68" s="54">
+      <c r="AC68" s="8">
         <v>66</v>
       </c>
-      <c r="AD68" s="55" t="s">
+      <c r="AD68" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AE68" s="56">
-        <v>0</v>
-      </c>
-      <c r="AG68" s="54">
+      <c r="AE68" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG68" s="8">
         <v>66</v>
       </c>
-      <c r="AH68" s="55" t="s">
+      <c r="AH68" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="AI68" s="56">
+      <c r="AI68" s="10">
         <v>0</v>
       </c>
       <c r="AK68" s="54">
@@ -12540,41 +12540,46 @@
       </c>
     </row>
     <row r="82" spans="10:15" ht="15" customHeight="1">
-      <c r="J82" s="87" t="s">
+      <c r="J82" s="90" t="s">
         <v>485</v>
       </c>
-      <c r="K82" s="90">
+      <c r="K82" s="93">
         <f>SUM(C71,G71,K71,O71,S71,W71,AA71,AE71,AI71,AM71,AQ71)</f>
         <v>-430402</v>
       </c>
-      <c r="N82" s="91" t="s">
+      <c r="N82" s="94" t="s">
         <v>486</v>
       </c>
-      <c r="O82" s="91">
+      <c r="O82" s="94">
         <f>SUM(D71,H71,L71,P71,T71,X71,AB71,AF71,AJ71,AN71,AR71)</f>
         <v>-26442.400000000001</v>
       </c>
     </row>
     <row r="83" spans="10:15">
-      <c r="J83" s="88"/>
-      <c r="K83" s="90"/>
-      <c r="N83" s="91"/>
-      <c r="O83" s="91"/>
+      <c r="J83" s="91"/>
+      <c r="K83" s="93"/>
+      <c r="N83" s="94"/>
+      <c r="O83" s="94"/>
     </row>
     <row r="84" spans="10:15">
-      <c r="J84" s="88"/>
-      <c r="K84" s="90"/>
-      <c r="N84" s="91"/>
-      <c r="O84" s="91"/>
+      <c r="J84" s="91"/>
+      <c r="K84" s="93"/>
+      <c r="N84" s="94"/>
+      <c r="O84" s="94"/>
     </row>
     <row r="85" spans="10:15">
-      <c r="J85" s="89"/>
-      <c r="K85" s="90"/>
-      <c r="N85" s="91"/>
-      <c r="O85" s="91"/>
+      <c r="J85" s="92"/>
+      <c r="K85" s="93"/>
+      <c r="N85" s="94"/>
+      <c r="O85" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="AO2:AQ2"/>
     <mergeCell ref="J82:J85"/>
     <mergeCell ref="K82:K85"/>
@@ -12585,11 +12590,6 @@
     <mergeCell ref="AC2:AE2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="AK2:AM2"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>
@@ -12600,8 +12600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AV89"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView tabSelected="1" topLeftCell="W28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AS68" sqref="AS68:AU68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -12732,66 +12732,66 @@
       </c>
     </row>
     <row r="2" spans="1:48">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="87" t="s">
         <v>487</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="86"/>
-      <c r="E2" s="84" t="s">
+      <c r="B2" s="88"/>
+      <c r="C2" s="89"/>
+      <c r="E2" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="85"/>
-      <c r="G2" s="86"/>
-      <c r="I2" s="84" t="s">
+      <c r="F2" s="88"/>
+      <c r="G2" s="89"/>
+      <c r="I2" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="85"/>
-      <c r="K2" s="86"/>
-      <c r="M2" s="84" t="s">
+      <c r="J2" s="88"/>
+      <c r="K2" s="89"/>
+      <c r="M2" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="85"/>
-      <c r="O2" s="86"/>
-      <c r="Q2" s="84" t="s">
+      <c r="N2" s="88"/>
+      <c r="O2" s="89"/>
+      <c r="Q2" s="87" t="s">
         <v>488</v>
       </c>
-      <c r="R2" s="85"/>
-      <c r="S2" s="86"/>
-      <c r="U2" s="84" t="s">
+      <c r="R2" s="88"/>
+      <c r="S2" s="89"/>
+      <c r="U2" s="87" t="s">
         <v>489</v>
       </c>
-      <c r="V2" s="85"/>
-      <c r="W2" s="86"/>
-      <c r="Y2" s="84" t="s">
+      <c r="V2" s="88"/>
+      <c r="W2" s="89"/>
+      <c r="Y2" s="87" t="s">
         <v>490</v>
       </c>
-      <c r="Z2" s="85"/>
-      <c r="AA2" s="86"/>
-      <c r="AC2" s="84" t="s">
+      <c r="Z2" s="88"/>
+      <c r="AA2" s="89"/>
+      <c r="AC2" s="87" t="s">
         <v>491</v>
       </c>
-      <c r="AD2" s="85"/>
-      <c r="AE2" s="86"/>
-      <c r="AG2" s="84" t="s">
+      <c r="AD2" s="88"/>
+      <c r="AE2" s="89"/>
+      <c r="AG2" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="AH2" s="85"/>
-      <c r="AI2" s="86"/>
-      <c r="AK2" s="84" t="s">
+      <c r="AH2" s="88"/>
+      <c r="AI2" s="89"/>
+      <c r="AK2" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="AL2" s="85"/>
-      <c r="AM2" s="86"/>
-      <c r="AO2" s="84" t="s">
+      <c r="AL2" s="88"/>
+      <c r="AM2" s="89"/>
+      <c r="AO2" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="AP2" s="85"/>
-      <c r="AQ2" s="86"/>
-      <c r="AS2" s="84" t="s">
+      <c r="AP2" s="88"/>
+      <c r="AQ2" s="89"/>
+      <c r="AS2" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="AT2" s="85"/>
-      <c r="AU2" s="86"/>
+      <c r="AT2" s="88"/>
+      <c r="AU2" s="89"/>
     </row>
     <row r="3" spans="1:48">
       <c r="A3" s="8">
@@ -20117,6 +20117,10 @@
       <c r="AU62" s="10">
         <v>-900</v>
       </c>
+      <c r="AV62">
+        <f>-4.8</f>
+        <v>-4.8</v>
+      </c>
     </row>
     <row r="63" spans="1:48">
       <c r="A63" s="15">
@@ -20228,6 +20232,10 @@
       <c r="AU63" s="10">
         <v>-1120</v>
       </c>
+      <c r="AV63">
+        <f>AU68*AV62</f>
+        <v>18000</v>
+      </c>
     </row>
     <row r="64" spans="1:48">
       <c r="A64" s="15">
@@ -20342,6 +20350,10 @@
       <c r="AU64" s="10">
         <v>-1550</v>
       </c>
+      <c r="AV64">
+        <f>AV63+SUM(AU59:AU68)</f>
+        <v>50</v>
+      </c>
     </row>
     <row r="65" spans="1:48">
       <c r="A65" s="15">
@@ -20472,7 +20484,7 @@
       </c>
       <c r="D66">
         <f>C69*D65</f>
-        <v>0</v>
+        <v>57750</v>
       </c>
       <c r="E66" s="8">
         <v>64</v>
@@ -20590,7 +20602,7 @@
       </c>
       <c r="D67">
         <f>D66+SUM(C57:C69)</f>
-        <v>-80500</v>
+        <v>-37750</v>
       </c>
       <c r="E67" s="54">
         <v>65</v>
@@ -20619,7 +20631,7 @@
       <c r="O67" s="10">
         <v>0</v>
       </c>
-      <c r="Q67" s="96">
+      <c r="Q67" s="82">
         <v>65</v>
       </c>
       <c r="R67" s="4" t="s">
@@ -20776,20 +20788,25 @@
       <c r="AQ68" s="56">
         <v>0</v>
       </c>
-      <c r="AS68" s="29">
+      <c r="AS68" s="54">
         <v>66</v>
       </c>
-      <c r="AT68" t="s">
+      <c r="AT68" s="57" t="s">
         <v>673</v>
       </c>
-      <c r="AU68" s="31"/>
+      <c r="AU68" s="56">
+        <v>-3750</v>
+      </c>
     </row>
     <row r="69" spans="1:48">
-      <c r="A69">
+      <c r="A69" s="15">
         <v>67</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="15" t="s">
         <v>476</v>
+      </c>
+      <c r="C69" s="15">
+        <v>-15000</v>
       </c>
       <c r="E69" s="29">
         <v>67</v>
@@ -20960,11 +20977,11 @@
       </c>
       <c r="C71" s="3">
         <f>SUM(C3:C70)</f>
-        <v>-211362</v>
+        <v>-226362</v>
       </c>
       <c r="D71" s="4">
         <f>SUM(D3:D70)</f>
-        <v>-122101.85</v>
+        <v>-21601.85</v>
       </c>
       <c r="E71" t="s">
         <v>484</v>
@@ -21081,49 +21098,54 @@
       </c>
       <c r="AU71" s="3">
         <f>SUM(AU3:AU70)</f>
-        <v>-48957</v>
+        <v>-52707</v>
       </c>
       <c r="AV71" s="4">
         <f>SUM(AV3:AV70)</f>
-        <v>24646</v>
+        <v>42691.199999999997</v>
       </c>
     </row>
     <row r="86" spans="10:15">
-      <c r="J86" s="87" t="s">
+      <c r="J86" s="90" t="s">
         <v>747</v>
       </c>
-      <c r="K86" s="92">
+      <c r="K86" s="95">
         <f>SUM(C71,G71,K71,O71,S71,W71,AA71,AE71,AI71,AM71,AQ71,AU71)</f>
-        <v>-395979</v>
-      </c>
-      <c r="N86" s="91" t="s">
+        <v>-414729</v>
+      </c>
+      <c r="N86" s="94" t="s">
         <v>748</v>
       </c>
-      <c r="O86" s="94">
+      <c r="O86" s="97">
         <f>SUM(D71,H71,L71,P71,T71,X71,AB71,AF71,AJ71,AN71,AR71,AV71)</f>
-        <v>-58551.950000000012</v>
+        <v>59993.25</v>
       </c>
     </row>
     <row r="87" spans="10:15">
-      <c r="J87" s="88"/>
-      <c r="K87" s="93"/>
-      <c r="N87" s="91"/>
-      <c r="O87" s="95"/>
+      <c r="J87" s="91"/>
+      <c r="K87" s="96"/>
+      <c r="N87" s="94"/>
+      <c r="O87" s="98"/>
     </row>
     <row r="88" spans="10:15">
-      <c r="J88" s="88"/>
-      <c r="K88" s="93"/>
-      <c r="N88" s="91"/>
-      <c r="O88" s="95"/>
+      <c r="J88" s="91"/>
+      <c r="K88" s="96"/>
+      <c r="N88" s="94"/>
+      <c r="O88" s="98"/>
     </row>
     <row r="89" spans="10:15">
-      <c r="J89" s="89"/>
-      <c r="K89" s="93"/>
-      <c r="N89" s="91"/>
-      <c r="O89" s="95"/>
+      <c r="J89" s="92"/>
+      <c r="K89" s="96"/>
+      <c r="N89" s="94"/>
+      <c r="O89" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="AO2:AQ2"/>
     <mergeCell ref="AS2:AU2"/>
     <mergeCell ref="J86:J89"/>
@@ -21135,11 +21157,6 @@
     <mergeCell ref="AC2:AE2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="AK2:AM2"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -21157,107 +21174,107 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="88" t="s">
         <v>751</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="100" t="s">
         <v>752</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="98" t="s">
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="99" t="s">
         <v>753</v>
       </c>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="97"/>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="98" t="s">
+      <c r="A3" s="100"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="99" t="s">
         <v>754</v>
       </c>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="97"/>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="98" t="s">
+      <c r="A4" s="100"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="99" t="s">
         <v>560</v>
       </c>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="97"/>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
+      <c r="A5" s="100"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="97"/>
-      <c r="B6" s="97"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
+      <c r="A6" s="100"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="97"/>
-      <c r="B7" s="97"/>
-      <c r="C7" s="97"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="98"/>
+      <c r="A7" s="100"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="97"/>
-      <c r="B8" s="97"/>
-      <c r="C8" s="97"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
+      <c r="A8" s="100"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="97"/>
-      <c r="B9" s="97"/>
-      <c r="C9" s="97"/>
-      <c r="D9" s="98"/>
-      <c r="E9" s="98"/>
-      <c r="F9" s="98"/>
+      <c r="A9" s="100"/>
+      <c r="B9" s="100"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D7:F7"/>
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="D7:F7"/>
     <mergeCell ref="D8:F8"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Ставки/КХЛ 23-24.xlsx
+++ b/Ставки/КХЛ 23-24.xlsx
@@ -2819,10 +2819,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4867,8 +4867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AR85"/>
   <sheetViews>
-    <sheetView topLeftCell="U45" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AL91" sqref="AL91:AM91"/>
+    <sheetView topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68:G68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -12168,13 +12168,15 @@
       <c r="C68" s="10">
         <v>0</v>
       </c>
-      <c r="E68" s="29">
+      <c r="E68" s="54">
         <v>66</v>
       </c>
-      <c r="F68" s="30" t="s">
+      <c r="F68" s="55" t="s">
         <v>473</v>
       </c>
-      <c r="G68" s="31"/>
+      <c r="G68" s="56">
+        <v>0</v>
+      </c>
       <c r="I68" s="8">
         <v>66</v>
       </c>
@@ -12200,20 +12202,24 @@
         <v>474</v>
       </c>
       <c r="S68" s="31"/>
-      <c r="U68" s="29">
+      <c r="U68" s="54">
         <v>66</v>
       </c>
-      <c r="V68" s="30" t="s">
+      <c r="V68" s="55" t="s">
         <v>201</v>
       </c>
-      <c r="W68" s="31"/>
-      <c r="Y68" s="29">
+      <c r="W68" s="56">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="54">
         <v>66</v>
       </c>
-      <c r="Z68" s="30" t="s">
+      <c r="Z68" s="55" t="s">
         <v>186</v>
       </c>
-      <c r="AA68" s="31"/>
+      <c r="AA68" s="56">
+        <v>0</v>
+      </c>
       <c r="AC68" s="8">
         <v>66</v>
       </c>
@@ -12232,13 +12238,13 @@
       <c r="AI68" s="10">
         <v>0</v>
       </c>
-      <c r="AK68" s="54">
+      <c r="AK68" s="8">
         <v>66</v>
       </c>
-      <c r="AL68" s="55" t="s">
+      <c r="AL68" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="AM68" s="56">
+      <c r="AM68" s="10">
         <v>0</v>
       </c>
       <c r="AO68" s="29">
@@ -12575,11 +12581,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="AO2:AQ2"/>
     <mergeCell ref="J82:J85"/>
     <mergeCell ref="K82:K85"/>
@@ -12590,6 +12591,11 @@
     <mergeCell ref="AC2:AE2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="AK2:AM2"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>
@@ -12600,8 +12606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AV89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AS68" sqref="AS68:AU68"/>
+    <sheetView tabSelected="1" topLeftCell="G28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I68" sqref="I68:K68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -20321,7 +20327,7 @@
         <v>-1000</v>
       </c>
       <c r="AJ64">
-        <v>-4.0999999999999996</v>
+        <v>-4.4000000000000004</v>
       </c>
       <c r="AK64" s="8">
         <v>62</v>
@@ -20441,8 +20447,8 @@
         <v>-1200</v>
       </c>
       <c r="AJ65">
-        <f>AJ64*AI67</f>
-        <v>4920</v>
+        <f>AJ64*AI68</f>
+        <v>6600.0000000000009</v>
       </c>
       <c r="AK65" s="8">
         <v>63</v>
@@ -20559,8 +20565,8 @@
         <v>-1000</v>
       </c>
       <c r="AJ66">
-        <f>AJ65+SUM(AI64:AI67)</f>
-        <v>520</v>
+        <f>AJ65+SUM(AI64:AI68)</f>
+        <v>700.00000000000091</v>
       </c>
       <c r="AK66" s="8">
         <v>64</v>
@@ -20570,6 +20576,9 @@
       </c>
       <c r="AM66" s="10">
         <v>-7950</v>
+      </c>
+      <c r="AN66" s="9">
+        <v>-3.9</v>
       </c>
       <c r="AO66" s="11">
         <v>64</v>
@@ -20604,22 +20613,22 @@
         <f>D66+SUM(C57:C69)</f>
         <v>-37750</v>
       </c>
-      <c r="E67" s="54">
+      <c r="E67" s="8">
         <v>65</v>
       </c>
-      <c r="F67" s="55" t="s">
+      <c r="F67" s="9" t="s">
         <v>499</v>
       </c>
-      <c r="G67" s="56">
-        <v>0</v>
-      </c>
-      <c r="I67" s="54">
+      <c r="G67" s="10">
+        <v>0</v>
+      </c>
+      <c r="I67" s="8">
         <v>65</v>
       </c>
-      <c r="J67" s="57" t="s">
+      <c r="J67" s="15" t="s">
         <v>666</v>
       </c>
-      <c r="K67" s="56">
+      <c r="K67" s="10">
         <v>0</v>
       </c>
       <c r="M67" s="8">
@@ -20658,13 +20667,13 @@
       <c r="AA67" s="10">
         <v>0</v>
       </c>
-      <c r="AC67" s="54">
+      <c r="AC67" s="8">
         <v>65</v>
       </c>
-      <c r="AD67" s="57" t="s">
+      <c r="AD67" s="15" t="s">
         <v>666</v>
       </c>
-      <c r="AE67" s="56">
+      <c r="AE67" s="10">
         <v>0</v>
       </c>
       <c r="AG67" s="32">
@@ -20684,6 +20693,10 @@
       </c>
       <c r="AM67" s="10">
         <v>-2150</v>
+      </c>
+      <c r="AN67">
+        <f>AM68*AN66</f>
+        <v>13650</v>
       </c>
       <c r="AO67" s="11">
         <v>65</v>
@@ -20714,27 +20727,33 @@
       <c r="C68" s="15">
         <v>-15000</v>
       </c>
-      <c r="E68" s="29">
+      <c r="E68" s="54">
         <v>66</v>
       </c>
-      <c r="F68" s="30" t="s">
+      <c r="F68" s="55" t="s">
         <v>743</v>
       </c>
-      <c r="G68" s="31"/>
-      <c r="I68" s="29">
+      <c r="G68" s="56">
+        <v>0</v>
+      </c>
+      <c r="I68" s="54">
         <v>66</v>
       </c>
-      <c r="J68" t="s">
+      <c r="J68" s="57" t="s">
         <v>473</v>
       </c>
-      <c r="K68" s="31"/>
-      <c r="M68" s="29">
+      <c r="K68" s="56">
+        <v>0</v>
+      </c>
+      <c r="M68" s="54">
         <v>66</v>
       </c>
-      <c r="N68" t="s">
+      <c r="N68" s="57" t="s">
         <v>713</v>
       </c>
-      <c r="O68" s="31"/>
+      <c r="O68" s="56">
+        <v>0</v>
+      </c>
       <c r="Q68" s="32">
         <v>66</v>
       </c>
@@ -20742,13 +20761,13 @@
         <v>674</v>
       </c>
       <c r="S68" s="41"/>
-      <c r="U68" s="54">
+      <c r="U68" s="8">
         <v>66</v>
       </c>
-      <c r="V68" s="57" t="s">
+      <c r="V68" s="15" t="s">
         <v>509</v>
       </c>
-      <c r="W68" s="56">
+      <c r="W68" s="10">
         <v>0</v>
       </c>
       <c r="Y68" s="29">
@@ -20758,27 +20777,37 @@
         <v>679</v>
       </c>
       <c r="AA68" s="31"/>
-      <c r="AC68" s="29">
+      <c r="AC68" s="54">
         <v>66</v>
       </c>
-      <c r="AD68" t="s">
+      <c r="AD68" s="57" t="s">
         <v>691</v>
       </c>
-      <c r="AE68" s="31"/>
-      <c r="AG68" s="29">
+      <c r="AE68" s="56">
+        <v>0</v>
+      </c>
+      <c r="AG68" s="54">
         <v>66</v>
       </c>
-      <c r="AH68" t="s">
+      <c r="AH68" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="AI68" s="31"/>
-      <c r="AK68" s="29">
+      <c r="AI68" s="56">
+        <v>-1500</v>
+      </c>
+      <c r="AK68" s="54">
         <v>66</v>
       </c>
-      <c r="AL68" t="s">
+      <c r="AL68" s="57" t="s">
         <v>679</v>
       </c>
-      <c r="AM68" s="31"/>
+      <c r="AM68" s="56">
+        <v>-3500</v>
+      </c>
+      <c r="AN68">
+        <f>AN67+SUM(AM66:AM68)</f>
+        <v>50</v>
+      </c>
       <c r="AO68" s="54">
         <v>66</v>
       </c>
@@ -20788,13 +20817,13 @@
       <c r="AQ68" s="56">
         <v>0</v>
       </c>
-      <c r="AS68" s="54">
+      <c r="AS68" s="8">
         <v>66</v>
       </c>
-      <c r="AT68" s="57" t="s">
+      <c r="AT68" s="15" t="s">
         <v>673</v>
       </c>
-      <c r="AU68" s="56">
+      <c r="AU68" s="10">
         <v>-3750</v>
       </c>
     </row>
@@ -20836,13 +20865,15 @@
         <v>615</v>
       </c>
       <c r="S69" s="31"/>
-      <c r="U69" s="29">
+      <c r="U69" s="54">
         <v>67</v>
       </c>
-      <c r="V69" t="s">
+      <c r="V69" s="57" t="s">
         <v>713</v>
       </c>
-      <c r="W69" s="31"/>
+      <c r="W69" s="56">
+        <v>0</v>
+      </c>
       <c r="Y69" s="29">
         <v>67</v>
       </c>
@@ -21065,22 +21096,22 @@
       </c>
       <c r="AI71" s="3">
         <f>SUM(AI3:AI70)</f>
-        <v>-11832</v>
+        <v>-13332</v>
       </c>
       <c r="AJ71" s="4">
         <f>SUM(AJ3:AJ70)</f>
-        <v>8150.9</v>
+        <v>10010.600000000002</v>
       </c>
       <c r="AK71" t="s">
         <v>484</v>
       </c>
       <c r="AM71" s="3">
         <f>SUM(AM3:AM70)</f>
-        <v>-22529</v>
+        <v>-26029</v>
       </c>
       <c r="AN71" s="4">
         <f>SUM(AN3:AN70)</f>
-        <v>4340</v>
+        <v>18036.099999999999</v>
       </c>
       <c r="AO71" t="s">
         <v>484</v>
@@ -21111,14 +21142,14 @@
       </c>
       <c r="K86" s="95">
         <f>SUM(C71,G71,K71,O71,S71,W71,AA71,AE71,AI71,AM71,AQ71,AU71)</f>
-        <v>-414729</v>
+        <v>-419729</v>
       </c>
       <c r="N86" s="94" t="s">
         <v>748</v>
       </c>
       <c r="O86" s="97">
         <f>SUM(D71,H71,L71,P71,T71,X71,AB71,AF71,AJ71,AN71,AR71,AV71)</f>
-        <v>59993.25</v>
+        <v>75549.05</v>
       </c>
     </row>
     <row r="87" spans="10:15">
@@ -21141,11 +21172,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="AO2:AQ2"/>
     <mergeCell ref="AS2:AU2"/>
     <mergeCell ref="J86:J89"/>
@@ -21157,6 +21183,11 @@
     <mergeCell ref="AC2:AE2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="AK2:AM2"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -21185,79 +21216,87 @@
       <c r="G1" s="88"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="99" t="s">
         <v>752</v>
       </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="99" t="s">
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="100" t="s">
         <v>753</v>
       </c>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="100"/>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="99" t="s">
+      <c r="A3" s="99"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="100" t="s">
         <v>754</v>
       </c>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="100"/>
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="99" t="s">
+      <c r="A4" s="99"/>
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="100" t="s">
         <v>560</v>
       </c>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="100"/>
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
+      <c r="A5" s="99"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="100"/>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="99"/>
+      <c r="A6" s="99"/>
+      <c r="B6" s="99"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="100"/>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
+      <c r="A7" s="99"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="100"/>
-      <c r="B8" s="100"/>
-      <c r="C8" s="100"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
+      <c r="A8" s="99"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="100"/>
-      <c r="B9" s="100"/>
-      <c r="C9" s="100"/>
-      <c r="D9" s="99"/>
-      <c r="E9" s="99"/>
-      <c r="F9" s="99"/>
+      <c r="A9" s="99"/>
+      <c r="B9" s="99"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="100"/>
+      <c r="F9" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D8:F8"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:C2"/>
@@ -21267,14 +21306,6 @@
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Ставки/КХЛ 23-24.xlsx
+++ b/Ставки/КХЛ 23-24.xlsx
@@ -2313,7 +2313,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2387,13 +2387,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -2689,7 +2682,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2736,9 +2729,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="3" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
@@ -2765,10 +2755,26 @@
     <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2801,32 +2807,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% - Акцент4" xfId="4" builtinId="42"/>
@@ -3451,261 +3441,261 @@
   </cols>
   <sheetData>
     <row r="1" spans="5:63" ht="15.75">
-      <c r="E1" s="71" t="s">
+      <c r="E1" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="66">
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="63">
         <v>3.6</v>
       </c>
-      <c r="J1" s="72" t="s">
+      <c r="J1" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="66">
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="63">
         <v>3.7</v>
       </c>
-      <c r="O1" s="72" t="s">
+      <c r="O1" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="66">
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="63">
         <v>3.8</v>
       </c>
-      <c r="T1" s="72" t="s">
+      <c r="T1" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
-      <c r="W1" s="66">
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
+      <c r="W1" s="63">
         <v>3.9</v>
       </c>
-      <c r="Y1" s="72" t="s">
+      <c r="Y1" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="Z1" s="71"/>
-      <c r="AA1" s="71"/>
-      <c r="AB1" s="66">
+      <c r="Z1" s="85"/>
+      <c r="AA1" s="85"/>
+      <c r="AB1" s="63">
         <v>4</v>
       </c>
-      <c r="AD1" s="72" t="s">
+      <c r="AD1" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="AE1" s="71"/>
-      <c r="AF1" s="71"/>
-      <c r="AG1" s="66">
+      <c r="AE1" s="85"/>
+      <c r="AF1" s="85"/>
+      <c r="AG1" s="63">
         <v>4.0999999999999996</v>
       </c>
-      <c r="AI1" s="72" t="s">
+      <c r="AI1" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="71"/>
-      <c r="AK1" s="71"/>
-      <c r="AL1" s="66">
+      <c r="AJ1" s="85"/>
+      <c r="AK1" s="85"/>
+      <c r="AL1" s="63">
         <v>4.2</v>
       </c>
-      <c r="AN1" s="72" t="s">
+      <c r="AN1" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="AO1" s="71"/>
-      <c r="AP1" s="71"/>
-      <c r="AQ1" s="66">
+      <c r="AO1" s="85"/>
+      <c r="AP1" s="85"/>
+      <c r="AQ1" s="63">
         <v>4.3</v>
       </c>
-      <c r="AS1" s="72" t="s">
+      <c r="AS1" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="AT1" s="71"/>
-      <c r="AU1" s="71"/>
-      <c r="AV1" s="66">
+      <c r="AT1" s="85"/>
+      <c r="AU1" s="85"/>
+      <c r="AV1" s="63">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AX1" s="72" t="s">
+      <c r="AX1" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="AY1" s="71"/>
-      <c r="AZ1" s="71"/>
-      <c r="BA1" s="66">
+      <c r="AY1" s="85"/>
+      <c r="AZ1" s="85"/>
+      <c r="BA1" s="63">
         <v>4.5</v>
       </c>
-      <c r="BC1" s="72" t="s">
+      <c r="BC1" s="84" t="s">
         <v>37</v>
       </c>
-      <c r="BD1" s="71"/>
-      <c r="BE1" s="71"/>
-      <c r="BF1" s="66">
+      <c r="BD1" s="85"/>
+      <c r="BE1" s="85"/>
+      <c r="BF1" s="63">
         <v>4.5999999999999996</v>
       </c>
-      <c r="BH1" s="72" t="s">
+      <c r="BH1" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="BI1" s="71"/>
-      <c r="BJ1" s="71"/>
-      <c r="BK1" s="66">
+      <c r="BI1" s="85"/>
+      <c r="BJ1" s="85"/>
+      <c r="BK1" s="63">
         <v>4.7</v>
       </c>
     </row>
     <row r="2" spans="5:63" ht="15.75">
-      <c r="E2" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="65" t="s">
+      <c r="E2" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="65" t="s">
+      <c r="G2" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="65" t="s">
+      <c r="H2" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="65" t="s">
+      <c r="J2" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="65" t="s">
+      <c r="L2" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="M2" s="65" t="s">
+      <c r="M2" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="O2" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="P2" s="65" t="s">
+      <c r="O2" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" s="65" t="s">
+      <c r="Q2" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="R2" s="65" t="s">
+      <c r="R2" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="T2" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="U2" s="65" t="s">
+      <c r="T2" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="U2" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="V2" s="65" t="s">
+      <c r="V2" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="W2" s="65" t="s">
+      <c r="W2" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="Y2" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="65" t="s">
+      <c r="Y2" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="AA2" s="65" t="s">
+      <c r="AA2" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="AB2" s="65" t="s">
+      <c r="AB2" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="AD2" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="65" t="s">
+      <c r="AD2" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="AF2" s="65" t="s">
+      <c r="AF2" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="AG2" s="65" t="s">
+      <c r="AG2" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="AI2" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="65" t="s">
+      <c r="AI2" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="AK2" s="65" t="s">
+      <c r="AK2" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="AL2" s="65" t="s">
+      <c r="AL2" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="AN2" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO2" s="65" t="s">
+      <c r="AN2" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO2" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="AP2" s="65" t="s">
+      <c r="AP2" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="AQ2" s="65" t="s">
+      <c r="AQ2" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="AS2" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT2" s="65" t="s">
+      <c r="AS2" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT2" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="AU2" s="65" t="s">
+      <c r="AU2" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="AV2" s="65" t="s">
+      <c r="AV2" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="AX2" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY2" s="65" t="s">
+      <c r="AX2" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY2" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="AZ2" s="65" t="s">
+      <c r="AZ2" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="BA2" s="65" t="s">
+      <c r="BA2" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="BC2" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD2" s="65" t="s">
+      <c r="BC2" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD2" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="BE2" s="65" t="s">
+      <c r="BE2" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="BF2" s="65" t="s">
+      <c r="BF2" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="BH2" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="BI2" s="65" t="s">
+      <c r="BH2" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="BI2" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="BJ2" s="65" t="s">
+      <c r="BJ2" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="BK2" s="65" t="s">
+      <c r="BK2" s="62" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="3" spans="5:63">
-      <c r="E3" s="67">
+      <c r="E3" s="64">
         <v>1</v>
       </c>
-      <c r="F3" s="68">
+      <c r="F3" s="65">
         <v>60</v>
       </c>
-      <c r="G3" s="67">
+      <c r="G3" s="64">
         <f>$H$1*F3</f>
         <v>216</v>
       </c>
-      <c r="H3" s="67">
+      <c r="H3" s="64">
         <f>G3-F3</f>
         <v>156</v>
       </c>
@@ -3739,17 +3729,17 @@
       </c>
     </row>
     <row r="4" spans="5:63">
-      <c r="E4" s="67">
+      <c r="E4" s="64">
         <v>2</v>
       </c>
-      <c r="F4" s="68">
+      <c r="F4" s="65">
         <v>65</v>
       </c>
-      <c r="G4" s="67">
+      <c r="G4" s="64">
         <f>$H$1*F4</f>
         <v>234</v>
       </c>
-      <c r="H4" s="67">
+      <c r="H4" s="64">
         <f>G4-SUM($F$3:F4)</f>
         <v>109</v>
       </c>
@@ -3783,17 +3773,17 @@
       </c>
     </row>
     <row r="5" spans="5:63">
-      <c r="E5" s="67">
+      <c r="E5" s="64">
         <v>3</v>
       </c>
-      <c r="F5" s="68">
+      <c r="F5" s="65">
         <v>75</v>
       </c>
-      <c r="G5" s="67">
+      <c r="G5" s="64">
         <f t="shared" ref="G5:G23" si="1">$H$1*F5</f>
         <v>270</v>
       </c>
-      <c r="H5" s="67">
+      <c r="H5" s="64">
         <f>G5-SUM($F$3:F5)</f>
         <v>70</v>
       </c>
@@ -3827,17 +3817,17 @@
       </c>
     </row>
     <row r="6" spans="5:63">
-      <c r="E6" s="67">
+      <c r="E6" s="64">
         <v>4</v>
       </c>
-      <c r="F6" s="68">
+      <c r="F6" s="65">
         <v>90</v>
       </c>
-      <c r="G6" s="67">
+      <c r="G6" s="64">
         <f t="shared" si="1"/>
         <v>324</v>
       </c>
-      <c r="H6" s="67">
+      <c r="H6" s="64">
         <f>G6-SUM($F$3:F6)</f>
         <v>34</v>
       </c>
@@ -3871,17 +3861,17 @@
       </c>
     </row>
     <row r="7" spans="5:63">
-      <c r="E7" s="67">
+      <c r="E7" s="64">
         <v>5</v>
       </c>
-      <c r="F7" s="68">
+      <c r="F7" s="65">
         <v>112</v>
       </c>
-      <c r="G7" s="67">
+      <c r="G7" s="64">
         <f t="shared" si="1"/>
         <v>403.2</v>
       </c>
-      <c r="H7" s="67">
+      <c r="H7" s="64">
         <f>G7-SUM($F$3:F7)</f>
         <v>1.19999999999999</v>
       </c>
@@ -3904,17 +3894,17 @@
       </c>
     </row>
     <row r="8" spans="5:63">
-      <c r="E8" s="67">
+      <c r="E8" s="64">
         <v>6</v>
       </c>
-      <c r="F8" s="68">
+      <c r="F8" s="65">
         <v>155</v>
       </c>
-      <c r="G8" s="67">
+      <c r="G8" s="64">
         <f t="shared" si="1"/>
         <v>558</v>
       </c>
-      <c r="H8" s="67">
+      <c r="H8" s="64">
         <f>G8-SUM($F$3:F8)</f>
         <v>1</v>
       </c>
@@ -3937,17 +3927,17 @@
       </c>
     </row>
     <row r="9" spans="5:63">
-      <c r="E9" s="67">
+      <c r="E9" s="64">
         <v>7</v>
       </c>
-      <c r="F9" s="68">
+      <c r="F9" s="65">
         <v>215</v>
       </c>
-      <c r="G9" s="67">
+      <c r="G9" s="64">
         <f t="shared" si="1"/>
         <v>774</v>
       </c>
-      <c r="H9" s="67">
+      <c r="H9" s="64">
         <f>G9-SUM($F$3:F9)</f>
         <v>2</v>
       </c>
@@ -3970,17 +3960,17 @@
       </c>
     </row>
     <row r="10" spans="5:63">
-      <c r="E10" s="67">
+      <c r="E10" s="64">
         <v>8</v>
       </c>
-      <c r="F10" s="68">
+      <c r="F10" s="65">
         <v>298</v>
       </c>
-      <c r="G10" s="67">
+      <c r="G10" s="64">
         <f t="shared" si="1"/>
         <v>1072.8</v>
       </c>
-      <c r="H10" s="67">
+      <c r="H10" s="64">
         <f>G10-SUM($F$3:F10)</f>
         <v>2.7999999999999501</v>
       </c>
@@ -4003,17 +3993,17 @@
       </c>
     </row>
     <row r="11" spans="5:63">
-      <c r="E11" s="67">
+      <c r="E11" s="64">
         <v>9</v>
       </c>
-      <c r="F11" s="68">
+      <c r="F11" s="65">
         <v>415</v>
       </c>
-      <c r="G11" s="67">
+      <c r="G11" s="64">
         <f t="shared" si="1"/>
         <v>1494</v>
       </c>
-      <c r="H11" s="67">
+      <c r="H11" s="64">
         <f>G11-SUM($F$3:F11)</f>
         <v>9</v>
       </c>
@@ -4036,17 +4026,17 @@
       </c>
     </row>
     <row r="12" spans="5:63">
-      <c r="E12" s="67">
+      <c r="E12" s="64">
         <v>10</v>
       </c>
-      <c r="F12" s="68">
+      <c r="F12" s="65">
         <v>572</v>
       </c>
-      <c r="G12" s="67">
+      <c r="G12" s="64">
         <f t="shared" si="1"/>
         <v>2059.1999999999998</v>
       </c>
-      <c r="H12" s="67">
+      <c r="H12" s="64">
         <f>G12-SUM($F$3:F12)</f>
         <v>2.2000000000002702</v>
       </c>
@@ -4069,17 +4059,17 @@
       </c>
     </row>
     <row r="13" spans="5:63">
-      <c r="E13" s="67">
+      <c r="E13" s="64">
         <v>11</v>
       </c>
-      <c r="F13" s="68">
+      <c r="F13" s="65">
         <v>792</v>
       </c>
-      <c r="G13" s="67">
+      <c r="G13" s="64">
         <f t="shared" si="1"/>
         <v>2851.2</v>
       </c>
-      <c r="H13" s="67">
+      <c r="H13" s="64">
         <f>G13-SUM($F$3:F13)</f>
         <v>2.2000000000002702</v>
       </c>
@@ -4102,17 +4092,17 @@
       </c>
     </row>
     <row r="14" spans="5:63">
-      <c r="E14" s="67">
+      <c r="E14" s="64">
         <v>12</v>
       </c>
-      <c r="F14" s="68">
+      <c r="F14" s="65">
         <v>1098</v>
       </c>
-      <c r="G14" s="67">
+      <c r="G14" s="64">
         <f t="shared" si="1"/>
         <v>3952.8</v>
       </c>
-      <c r="H14" s="67">
+      <c r="H14" s="64">
         <f>G14-SUM($F$3:F14)</f>
         <v>5.8000000000001801</v>
       </c>
@@ -4135,17 +4125,17 @@
       </c>
     </row>
     <row r="15" spans="5:63">
-      <c r="E15" s="67">
+      <c r="E15" s="64">
         <v>13</v>
       </c>
-      <c r="F15" s="68">
+      <c r="F15" s="65">
         <v>1520</v>
       </c>
-      <c r="G15" s="67">
+      <c r="G15" s="64">
         <f t="shared" si="1"/>
         <v>5472</v>
       </c>
-      <c r="H15" s="67">
+      <c r="H15" s="64">
         <f>G15-SUM($F$3:F15)</f>
         <v>5</v>
       </c>
@@ -4168,17 +4158,17 @@
       </c>
     </row>
     <row r="16" spans="5:63">
-      <c r="E16" s="67">
+      <c r="E16" s="64">
         <v>14</v>
       </c>
-      <c r="F16" s="68">
+      <c r="F16" s="65">
         <v>2105</v>
       </c>
-      <c r="G16" s="67">
+      <c r="G16" s="64">
         <f t="shared" si="1"/>
         <v>7578</v>
       </c>
-      <c r="H16" s="67">
+      <c r="H16" s="64">
         <f>G16-SUM($F$3:F16)</f>
         <v>6</v>
       </c>
@@ -4201,17 +4191,17 @@
       </c>
     </row>
     <row r="17" spans="5:43">
-      <c r="E17" s="67">
+      <c r="E17" s="64">
         <v>15</v>
       </c>
-      <c r="F17" s="68">
+      <c r="F17" s="65">
         <v>2915</v>
       </c>
-      <c r="G17" s="67">
+      <c r="G17" s="64">
         <f t="shared" si="1"/>
         <v>10494</v>
       </c>
-      <c r="H17" s="67">
+      <c r="H17" s="64">
         <f>G17-SUM($F$3:F17)</f>
         <v>7</v>
       </c>
@@ -4234,17 +4224,17 @@
       </c>
     </row>
     <row r="18" spans="5:43">
-      <c r="E18" s="67">
+      <c r="E18" s="64">
         <v>16</v>
       </c>
-      <c r="F18" s="68">
+      <c r="F18" s="65">
         <v>4035</v>
       </c>
-      <c r="G18" s="67">
+      <c r="G18" s="64">
         <f t="shared" si="1"/>
         <v>14526</v>
       </c>
-      <c r="H18" s="67">
+      <c r="H18" s="64">
         <f>G18-SUM($F$3:F18)</f>
         <v>4</v>
       </c>
@@ -4267,17 +4257,17 @@
       </c>
     </row>
     <row r="19" spans="5:43">
-      <c r="E19" s="67">
+      <c r="E19" s="64">
         <v>17</v>
       </c>
-      <c r="F19" s="68">
+      <c r="F19" s="65">
         <v>5585</v>
       </c>
-      <c r="G19" s="67">
+      <c r="G19" s="64">
         <f t="shared" si="1"/>
         <v>20106</v>
       </c>
-      <c r="H19" s="67">
+      <c r="H19" s="64">
         <f>G19-SUM($F$3:F19)</f>
         <v>-1</v>
       </c>
@@ -4300,17 +4290,17 @@
       </c>
     </row>
     <row r="20" spans="5:43">
-      <c r="E20" s="67">
+      <c r="E20" s="64">
         <v>18</v>
       </c>
-      <c r="F20" s="68">
+      <c r="F20" s="65">
         <v>7735</v>
       </c>
-      <c r="G20" s="67">
+      <c r="G20" s="64">
         <f t="shared" si="1"/>
         <v>27846</v>
       </c>
-      <c r="H20" s="67">
+      <c r="H20" s="64">
         <f>G20-SUM($F$3:F20)</f>
         <v>4</v>
       </c>
@@ -4333,17 +4323,17 @@
       </c>
     </row>
     <row r="21" spans="5:43">
-      <c r="E21" s="67">
+      <c r="E21" s="64">
         <v>19</v>
       </c>
-      <c r="F21" s="68">
+      <c r="F21" s="65">
         <v>10710</v>
       </c>
-      <c r="G21" s="67">
+      <c r="G21" s="64">
         <f t="shared" si="1"/>
         <v>38556</v>
       </c>
-      <c r="H21" s="67">
+      <c r="H21" s="64">
         <f>G21-SUM($F$3:F21)</f>
         <v>4</v>
       </c>
@@ -4366,17 +4356,17 @@
       </c>
     </row>
     <row r="22" spans="5:43">
-      <c r="E22" s="67">
+      <c r="E22" s="64">
         <v>20</v>
       </c>
-      <c r="F22" s="68">
+      <c r="F22" s="65">
         <v>14830</v>
       </c>
-      <c r="G22" s="67">
+      <c r="G22" s="64">
         <f t="shared" si="1"/>
         <v>53388</v>
       </c>
-      <c r="H22" s="67">
+      <c r="H22" s="64">
         <f>G22-SUM($F$3:F22)</f>
         <v>6</v>
       </c>
@@ -4399,17 +4389,17 @@
       </c>
     </row>
     <row r="23" spans="5:43">
-      <c r="E23" s="67">
+      <c r="E23" s="64">
         <v>21</v>
       </c>
-      <c r="F23" s="68">
+      <c r="F23" s="65">
         <v>20850</v>
       </c>
-      <c r="G23" s="67">
+      <c r="G23" s="64">
         <f t="shared" si="1"/>
         <v>75060</v>
       </c>
-      <c r="H23" s="67">
+      <c r="H23" s="64">
         <f>G23-SUM($F$3:F23)</f>
         <v>828</v>
       </c>
@@ -4429,12 +4419,12 @@
       </c>
     </row>
     <row r="24" spans="5:43">
-      <c r="E24" s="67">
+      <c r="E24" s="64">
         <v>22</v>
       </c>
-      <c r="F24" s="68"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67">
+      <c r="F24" s="65"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64">
         <f>G24-SUM($F$3:F24)</f>
         <v>-74232</v>
       </c>
@@ -4450,12 +4440,12 @@
       </c>
     </row>
     <row r="25" spans="5:43">
-      <c r="E25" s="67">
+      <c r="E25" s="64">
         <v>23</v>
       </c>
-      <c r="F25" s="68"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67">
+      <c r="F25" s="65"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64">
         <f>G25-SUM($F$3:F25)</f>
         <v>-74232</v>
       </c>
@@ -4471,12 +4461,12 @@
       </c>
     </row>
     <row r="26" spans="5:43">
-      <c r="E26" s="67">
+      <c r="E26" s="64">
         <v>24</v>
       </c>
-      <c r="F26" s="68"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="67">
+      <c r="F26" s="65"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64">
         <f>G26-SUM($F$3:F26)</f>
         <v>-74232</v>
       </c>
@@ -4492,356 +4482,356 @@
       </c>
     </row>
     <row r="29" spans="5:43" ht="15.75">
-      <c r="E29" s="71" t="s">
+      <c r="E29" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="F29" s="71"/>
-      <c r="G29" s="71"/>
-      <c r="H29" s="66">
+      <c r="F29" s="85"/>
+      <c r="G29" s="85"/>
+      <c r="H29" s="63">
         <v>3.6</v>
       </c>
     </row>
     <row r="30" spans="5:43" ht="15.75">
-      <c r="E30" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="F30" s="65" t="s">
+      <c r="E30" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="G30" s="65" t="s">
+      <c r="G30" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="H30" s="65" t="s">
+      <c r="H30" s="62" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="31" spans="5:43">
-      <c r="E31" s="67">
+      <c r="E31" s="64">
         <v>1</v>
       </c>
-      <c r="F31" s="68">
+      <c r="F31" s="65">
         <v>112</v>
       </c>
-      <c r="G31" s="69">
+      <c r="G31" s="66">
         <f>F31*$H$29</f>
         <v>403.2</v>
       </c>
-      <c r="H31" s="69">
+      <c r="H31" s="66">
         <f>G31-F31</f>
         <v>291.2</v>
       </c>
     </row>
     <row r="32" spans="5:43">
-      <c r="E32" s="67">
+      <c r="E32" s="64">
         <v>2</v>
       </c>
-      <c r="F32" s="68">
+      <c r="F32" s="65">
         <v>155</v>
       </c>
-      <c r="G32" s="69">
+      <c r="G32" s="66">
         <f>F32*$H$29</f>
         <v>558</v>
       </c>
-      <c r="H32" s="69">
+      <c r="H32" s="66">
         <f>G32-SUM($F$31:F32)</f>
         <v>291</v>
       </c>
     </row>
     <row r="33" spans="5:8">
-      <c r="E33" s="67">
+      <c r="E33" s="64">
         <v>3</v>
       </c>
-      <c r="F33" s="68">
+      <c r="F33" s="65">
         <v>215</v>
       </c>
-      <c r="G33" s="69">
+      <c r="G33" s="66">
         <f t="shared" ref="G33:G47" si="2">F33*$H$29</f>
         <v>774</v>
       </c>
-      <c r="H33" s="69">
+      <c r="H33" s="66">
         <f>G33-SUM($F$31:F33)</f>
         <v>292</v>
       </c>
     </row>
     <row r="34" spans="5:8">
-      <c r="E34" s="67">
+      <c r="E34" s="64">
         <v>4</v>
       </c>
-      <c r="F34" s="68">
+      <c r="F34" s="65">
         <v>298</v>
       </c>
-      <c r="G34" s="69">
+      <c r="G34" s="66">
         <f t="shared" si="2"/>
         <v>1072.8</v>
       </c>
-      <c r="H34" s="69">
+      <c r="H34" s="66">
         <f>G34-SUM($F$31:F34)</f>
         <v>292.8</v>
       </c>
     </row>
     <row r="35" spans="5:8">
-      <c r="E35" s="67">
+      <c r="E35" s="64">
         <v>5</v>
       </c>
-      <c r="F35" s="68">
+      <c r="F35" s="65">
         <v>415</v>
       </c>
-      <c r="G35" s="69">
+      <c r="G35" s="66">
         <f t="shared" si="2"/>
         <v>1494</v>
       </c>
-      <c r="H35" s="69">
+      <c r="H35" s="66">
         <f>G35-SUM($F$31:F35)</f>
         <v>299</v>
       </c>
     </row>
     <row r="36" spans="5:8">
-      <c r="E36" s="67">
+      <c r="E36" s="64">
         <v>6</v>
       </c>
-      <c r="F36" s="68">
+      <c r="F36" s="65">
         <v>572</v>
       </c>
-      <c r="G36" s="69">
+      <c r="G36" s="66">
         <f t="shared" si="2"/>
         <v>2059.1999999999998</v>
       </c>
-      <c r="H36" s="69">
+      <c r="H36" s="66">
         <f>G36-SUM($F$31:F36)</f>
         <v>292.2</v>
       </c>
     </row>
     <row r="37" spans="5:8">
-      <c r="E37" s="67">
+      <c r="E37" s="64">
         <v>7</v>
       </c>
-      <c r="F37" s="68">
+      <c r="F37" s="65">
         <v>792</v>
       </c>
-      <c r="G37" s="69">
+      <c r="G37" s="66">
         <f t="shared" si="2"/>
         <v>2851.2</v>
       </c>
-      <c r="H37" s="69">
+      <c r="H37" s="66">
         <f>G37-SUM($F$31:F37)</f>
         <v>292.2</v>
       </c>
     </row>
     <row r="38" spans="5:8">
-      <c r="E38" s="67">
+      <c r="E38" s="64">
         <v>8</v>
       </c>
-      <c r="F38" s="68">
+      <c r="F38" s="65">
         <v>1098</v>
       </c>
-      <c r="G38" s="69">
+      <c r="G38" s="66">
         <f t="shared" si="2"/>
         <v>3952.8</v>
       </c>
-      <c r="H38" s="69">
+      <c r="H38" s="66">
         <f>G38-SUM($F$31:F38)</f>
         <v>295.8</v>
       </c>
     </row>
     <row r="39" spans="5:8">
-      <c r="E39" s="67">
+      <c r="E39" s="64">
         <v>9</v>
       </c>
-      <c r="F39" s="68">
+      <c r="F39" s="65">
         <v>1520</v>
       </c>
-      <c r="G39" s="69">
+      <c r="G39" s="66">
         <f t="shared" si="2"/>
         <v>5472</v>
       </c>
-      <c r="H39" s="69">
+      <c r="H39" s="66">
         <f>G39-SUM($F$31:F39)</f>
         <v>295</v>
       </c>
     </row>
     <row r="40" spans="5:8">
-      <c r="E40" s="67">
+      <c r="E40" s="64">
         <v>10</v>
       </c>
-      <c r="F40" s="68">
+      <c r="F40" s="65">
         <v>2105</v>
       </c>
-      <c r="G40" s="69">
+      <c r="G40" s="66">
         <f t="shared" si="2"/>
         <v>7578</v>
       </c>
-      <c r="H40" s="69">
+      <c r="H40" s="66">
         <f>G40-SUM($F$31:F40)</f>
         <v>296</v>
       </c>
     </row>
     <row r="41" spans="5:8">
-      <c r="E41" s="67">
+      <c r="E41" s="64">
         <v>11</v>
       </c>
-      <c r="F41" s="68">
+      <c r="F41" s="65">
         <v>2915</v>
       </c>
-      <c r="G41" s="69">
+      <c r="G41" s="66">
         <f t="shared" si="2"/>
         <v>10494</v>
       </c>
-      <c r="H41" s="69">
+      <c r="H41" s="66">
         <f>G41-SUM($F$31:F41)</f>
         <v>297</v>
       </c>
     </row>
     <row r="42" spans="5:8">
-      <c r="E42" s="67">
+      <c r="E42" s="64">
         <v>12</v>
       </c>
-      <c r="F42" s="68">
+      <c r="F42" s="65">
         <v>4035</v>
       </c>
-      <c r="G42" s="69">
+      <c r="G42" s="66">
         <f t="shared" si="2"/>
         <v>14526</v>
       </c>
-      <c r="H42" s="69">
+      <c r="H42" s="66">
         <f>G42-SUM($F$31:F42)</f>
         <v>294</v>
       </c>
     </row>
     <row r="43" spans="5:8">
-      <c r="E43" s="67">
+      <c r="E43" s="64">
         <v>13</v>
       </c>
-      <c r="F43" s="68">
+      <c r="F43" s="65">
         <v>5585</v>
       </c>
-      <c r="G43" s="69">
+      <c r="G43" s="66">
         <f t="shared" si="2"/>
         <v>20106</v>
       </c>
-      <c r="H43" s="69">
+      <c r="H43" s="66">
         <f>G43-SUM($F$31:F43)</f>
         <v>289</v>
       </c>
     </row>
     <row r="44" spans="5:8">
-      <c r="E44" s="67">
+      <c r="E44" s="64">
         <v>14</v>
       </c>
-      <c r="F44" s="68">
+      <c r="F44" s="65">
         <v>7735</v>
       </c>
-      <c r="G44" s="69">
+      <c r="G44" s="66">
         <f t="shared" si="2"/>
         <v>27846</v>
       </c>
-      <c r="H44" s="69">
+      <c r="H44" s="66">
         <f>G44-SUM($F$31:F44)</f>
         <v>294</v>
       </c>
     </row>
     <row r="45" spans="5:8">
-      <c r="E45" s="67">
+      <c r="E45" s="64">
         <v>15</v>
       </c>
-      <c r="F45" s="68">
+      <c r="F45" s="65">
         <v>10710</v>
       </c>
-      <c r="G45" s="69">
+      <c r="G45" s="66">
         <f t="shared" si="2"/>
         <v>38556</v>
       </c>
-      <c r="H45" s="69">
+      <c r="H45" s="66">
         <f>G45-SUM($F$31:F45)</f>
         <v>294</v>
       </c>
     </row>
     <row r="46" spans="5:8">
-      <c r="E46" s="67">
+      <c r="E46" s="64">
         <v>16</v>
       </c>
-      <c r="F46" s="68">
+      <c r="F46" s="65">
         <v>14830</v>
       </c>
-      <c r="G46" s="69">
+      <c r="G46" s="66">
         <f t="shared" si="2"/>
         <v>53388</v>
       </c>
-      <c r="H46" s="69">
+      <c r="H46" s="66">
         <f>G46-SUM($F$31:F46)</f>
         <v>296</v>
       </c>
     </row>
     <row r="47" spans="5:8">
-      <c r="E47" s="67">
+      <c r="E47" s="64">
         <v>17</v>
       </c>
-      <c r="F47" s="68">
+      <c r="F47" s="65">
         <v>20850</v>
       </c>
-      <c r="G47" s="69">
+      <c r="G47" s="66">
         <f t="shared" si="2"/>
         <v>75060</v>
       </c>
-      <c r="H47" s="69">
+      <c r="H47" s="66">
         <f>G47-SUM($F$31:F47)</f>
         <v>1118</v>
       </c>
     </row>
     <row r="48" spans="5:8">
-      <c r="E48" s="67">
+      <c r="E48" s="64">
         <v>18</v>
       </c>
-      <c r="F48" s="68"/>
-      <c r="G48" s="69"/>
-      <c r="H48" s="69"/>
+      <c r="F48" s="65"/>
+      <c r="G48" s="66"/>
+      <c r="H48" s="66"/>
     </row>
     <row r="49" spans="5:8">
-      <c r="E49" s="67">
+      <c r="E49" s="64">
         <v>19</v>
       </c>
-      <c r="F49" s="68"/>
-      <c r="G49" s="69"/>
-      <c r="H49" s="69"/>
+      <c r="F49" s="65"/>
+      <c r="G49" s="66"/>
+      <c r="H49" s="66"/>
     </row>
     <row r="50" spans="5:8">
-      <c r="E50" s="67">
+      <c r="E50" s="64">
         <v>20</v>
       </c>
-      <c r="F50" s="68"/>
-      <c r="G50" s="69"/>
-      <c r="H50" s="69"/>
+      <c r="F50" s="65"/>
+      <c r="G50" s="66"/>
+      <c r="H50" s="66"/>
     </row>
     <row r="51" spans="5:8">
-      <c r="E51" s="67">
+      <c r="E51" s="64">
         <v>21</v>
       </c>
-      <c r="F51" s="68"/>
-      <c r="G51" s="69"/>
-      <c r="H51" s="69"/>
+      <c r="F51" s="65"/>
+      <c r="G51" s="66"/>
+      <c r="H51" s="66"/>
     </row>
     <row r="52" spans="5:8">
-      <c r="E52" s="67">
+      <c r="E52" s="64">
         <v>22</v>
       </c>
-      <c r="F52" s="68"/>
-      <c r="G52" s="69"/>
-      <c r="H52" s="69"/>
+      <c r="F52" s="65"/>
+      <c r="G52" s="66"/>
+      <c r="H52" s="66"/>
     </row>
     <row r="53" spans="5:8">
-      <c r="E53" s="67">
+      <c r="E53" s="64">
         <v>23</v>
       </c>
-      <c r="F53" s="68"/>
-      <c r="G53" s="69"/>
-      <c r="H53" s="69"/>
+      <c r="F53" s="65"/>
+      <c r="G53" s="66"/>
+      <c r="H53" s="66"/>
     </row>
     <row r="54" spans="5:8">
-      <c r="E54" s="67">
+      <c r="E54" s="64">
         <v>24</v>
       </c>
-      <c r="F54" s="68"/>
-      <c r="G54" s="69"/>
-      <c r="H54" s="69"/>
+      <c r="F54" s="65"/>
+      <c r="G54" s="66"/>
+      <c r="H54" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -4869,8 +4859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AR85"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q70" sqref="Q70:S70"/>
+    <sheetView topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O82" sqref="O82:O85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -4993,72 +4983,72 @@
       </c>
     </row>
     <row r="2" spans="1:44">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="73" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="74"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="73" t="s">
+      <c r="F2" s="87"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="74"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="73" t="s">
+      <c r="J2" s="87"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="74"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="73" t="s">
+      <c r="N2" s="87"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="74"/>
-      <c r="S2" s="75"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="73" t="s">
+      <c r="R2" s="87"/>
+      <c r="S2" s="88"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="V2" s="74"/>
-      <c r="W2" s="75"/>
-      <c r="X2" s="51"/>
-      <c r="Y2" s="73" t="s">
+      <c r="V2" s="87"/>
+      <c r="W2" s="88"/>
+      <c r="X2" s="48"/>
+      <c r="Y2" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="Z2" s="74"/>
-      <c r="AA2" s="75"/>
-      <c r="AB2" s="51"/>
-      <c r="AC2" s="73" t="s">
+      <c r="Z2" s="87"/>
+      <c r="AA2" s="88"/>
+      <c r="AB2" s="48"/>
+      <c r="AC2" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="AD2" s="74"/>
-      <c r="AE2" s="75"/>
-      <c r="AF2" s="51"/>
-      <c r="AG2" s="73" t="s">
+      <c r="AD2" s="87"/>
+      <c r="AE2" s="88"/>
+      <c r="AF2" s="48"/>
+      <c r="AG2" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="AH2" s="74"/>
-      <c r="AI2" s="75"/>
-      <c r="AJ2" s="51"/>
-      <c r="AK2" s="73" t="s">
+      <c r="AH2" s="87"/>
+      <c r="AI2" s="88"/>
+      <c r="AJ2" s="48"/>
+      <c r="AK2" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="AL2" s="74"/>
-      <c r="AM2" s="75"/>
-      <c r="AN2" s="51"/>
-      <c r="AO2" s="73" t="s">
+      <c r="AL2" s="87"/>
+      <c r="AM2" s="88"/>
+      <c r="AN2" s="48"/>
+      <c r="AO2" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="AP2" s="74"/>
-      <c r="AQ2" s="75"/>
-      <c r="AR2" s="51"/>
+      <c r="AP2" s="87"/>
+      <c r="AQ2" s="88"/>
+      <c r="AR2" s="48"/>
     </row>
     <row r="3" spans="1:44">
       <c r="A3" s="6">
@@ -5385,7 +5375,7 @@
       <c r="C6" s="8">
         <v>-90</v>
       </c>
-      <c r="D6" s="52"/>
+      <c r="D6" s="49"/>
       <c r="E6" s="6">
         <v>4</v>
       </c>
@@ -5500,7 +5490,7 @@
       <c r="G7" s="11">
         <v>-115</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="96">
         <f>339+SUM(G3:G7)</f>
         <v>-66</v>
       </c>
@@ -5522,7 +5512,7 @@
       <c r="O7" s="11">
         <v>-112</v>
       </c>
-      <c r="P7" s="12">
+      <c r="P7" s="96">
         <f>336+SUM(O3:O7)</f>
         <v>-66</v>
       </c>
@@ -6621,13 +6611,13 @@
         <f>278+SUM(S15:S17)</f>
         <v>78</v>
       </c>
-      <c r="U17" s="60">
+      <c r="U17" s="57">
         <v>15</v>
       </c>
-      <c r="V17" s="60" t="s">
+      <c r="V17" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="W17" s="60">
+      <c r="W17" s="57">
         <v>-155</v>
       </c>
       <c r="Y17" s="9">
@@ -6907,16 +6897,16 @@
       </c>
     </row>
     <row r="20" spans="1:44">
-      <c r="A20" s="53">
+      <c r="A20" s="50">
         <v>18</v>
       </c>
-      <c r="B20" s="54" t="s">
+      <c r="B20" s="51" t="s">
         <v>183</v>
       </c>
-      <c r="C20" s="55">
+      <c r="C20" s="52">
         <v>-5100</v>
       </c>
-      <c r="D20" s="56"/>
+      <c r="D20" s="53"/>
       <c r="E20" s="7">
         <v>18</v>
       </c>
@@ -7694,7 +7684,7 @@
       <c r="C27" s="11">
         <v>-10000</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="96">
         <f>52000+SUM(C3:C27)</f>
         <v>-51907</v>
       </c>
@@ -8110,7 +8100,7 @@
       <c r="AI30" s="23">
         <v>-75</v>
       </c>
-      <c r="AJ30" s="63"/>
+      <c r="AJ30" s="60"/>
       <c r="AK30" s="6">
         <v>28</v>
       </c>
@@ -8120,7 +8110,7 @@
       <c r="AM30" s="8">
         <v>-90</v>
       </c>
-      <c r="AN30" s="59"/>
+      <c r="AN30" s="56"/>
       <c r="AO30" s="6">
         <v>28</v>
       </c>
@@ -8242,7 +8232,7 @@
       </c>
     </row>
     <row r="32" spans="1:44">
-      <c r="A32" s="57">
+      <c r="A32" s="54">
         <v>30</v>
       </c>
       <c r="B32" s="29" t="s">
@@ -8304,7 +8294,7 @@
         <f>260+SUM(W31:W32)</f>
         <v>135</v>
       </c>
-      <c r="Y32" s="57">
+      <c r="Y32" s="54">
         <v>30</v>
       </c>
       <c r="Z32" s="30" t="s">
@@ -8352,7 +8342,7 @@
       </c>
     </row>
     <row r="33" spans="1:44">
-      <c r="A33" s="58">
+      <c r="A33" s="55">
         <v>31</v>
       </c>
       <c r="B33" s="29" t="s">
@@ -9179,7 +9169,7 @@
         <f>-5500</f>
         <v>-5500</v>
       </c>
-      <c r="T40" s="12">
+      <c r="T40" s="96">
         <f>29150+SUM(S29:S40)</f>
         <v>-8565</v>
       </c>
@@ -9413,7 +9403,7 @@
       <c r="S42" s="8">
         <v>-1000</v>
       </c>
-      <c r="T42" s="61"/>
+      <c r="T42" s="58"/>
       <c r="U42" s="9">
         <v>40</v>
       </c>
@@ -9639,7 +9629,7 @@
       <c r="U44" s="39">
         <v>42</v>
       </c>
-      <c r="V44" s="62" t="s">
+      <c r="V44" s="59" t="s">
         <v>359</v>
       </c>
       <c r="W44" s="41">
@@ -10336,7 +10326,7 @@
       <c r="AI50" s="8">
         <v>-1250</v>
       </c>
-      <c r="AJ50" s="64"/>
+      <c r="AJ50" s="61"/>
       <c r="AK50" s="6">
         <v>48</v>
       </c>
@@ -10442,7 +10432,7 @@
       <c r="AI51" s="8">
         <v>-1000</v>
       </c>
-      <c r="AJ51" s="64"/>
+      <c r="AJ51" s="61"/>
       <c r="AK51" s="9">
         <v>49</v>
       </c>
@@ -10548,7 +10538,7 @@
       <c r="AI52" s="8">
         <v>-1400</v>
       </c>
-      <c r="AJ52" s="64"/>
+      <c r="AJ52" s="61"/>
       <c r="AK52" s="6">
         <v>50</v>
       </c>
@@ -10794,7 +10784,7 @@
       <c r="G55" s="11">
         <v>0</v>
       </c>
-      <c r="H55" s="12">
+      <c r="H55" s="96">
         <f>SUM(G46:G55)</f>
         <v>-1485</v>
       </c>
@@ -10825,7 +10815,7 @@
       <c r="S55" s="11">
         <v>0</v>
       </c>
-      <c r="T55" s="12">
+      <c r="T55" s="96">
         <f>SUM(S48:S55)</f>
         <v>-402</v>
       </c>
@@ -10914,7 +10904,7 @@
       <c r="G56" s="8">
         <v>0</v>
       </c>
-      <c r="H56" s="59"/>
+      <c r="H56" s="56"/>
       <c r="I56" s="6">
         <v>54</v>
       </c>
@@ -11033,7 +11023,7 @@
       <c r="K57" s="11">
         <v>0</v>
       </c>
-      <c r="L57" s="12">
+      <c r="L57" s="96">
         <f>SUM(K52:K57)</f>
         <v>-1250</v>
       </c>
@@ -11100,7 +11090,7 @@
       <c r="AM57" s="8">
         <v>0</v>
       </c>
-      <c r="AN57" s="59"/>
+      <c r="AN57" s="56"/>
       <c r="AO57" s="9">
         <v>55</v>
       </c>
@@ -11354,13 +11344,13 @@
       <c r="K60" s="8">
         <v>-2500</v>
       </c>
-      <c r="M60" s="96">
+      <c r="M60" s="79">
         <v>58</v>
       </c>
-      <c r="N60" s="97" t="s">
+      <c r="N60" s="80" t="s">
         <v>438</v>
       </c>
-      <c r="O60" s="98">
+      <c r="O60" s="81">
         <v>0</v>
       </c>
       <c r="Q60" s="6">
@@ -11459,13 +11449,13 @@
       <c r="K61" s="8">
         <v>-2000</v>
       </c>
-      <c r="M61" s="96">
+      <c r="M61" s="79">
         <v>59</v>
       </c>
-      <c r="N61" s="97" t="s">
+      <c r="N61" s="80" t="s">
         <v>439</v>
       </c>
-      <c r="O61" s="98">
+      <c r="O61" s="81">
         <v>0</v>
       </c>
       <c r="Q61" s="6">
@@ -11563,13 +11553,13 @@
       <c r="K62" s="8">
         <v>-2000</v>
       </c>
-      <c r="M62" s="96">
+      <c r="M62" s="79">
         <v>60</v>
       </c>
-      <c r="N62" s="97" t="s">
+      <c r="N62" s="80" t="s">
         <v>447</v>
       </c>
-      <c r="O62" s="98">
+      <c r="O62" s="81">
         <v>0</v>
       </c>
       <c r="Q62" s="6">
@@ -11646,7 +11636,7 @@
       <c r="C63" s="11">
         <v>-3250</v>
       </c>
-      <c r="D63" s="12">
+      <c r="D63" s="96">
         <v>-75</v>
       </c>
       <c r="E63" s="6">
@@ -11667,13 +11657,13 @@
       <c r="K63" s="8">
         <v>-2100</v>
       </c>
-      <c r="M63" s="96">
+      <c r="M63" s="79">
         <v>61</v>
       </c>
-      <c r="N63" s="97" t="s">
+      <c r="N63" s="80" t="s">
         <v>158</v>
       </c>
-      <c r="O63" s="98">
+      <c r="O63" s="81">
         <v>0</v>
       </c>
       <c r="Q63" s="9">
@@ -12159,13 +12149,13 @@
       <c r="C68" s="8">
         <v>0</v>
       </c>
-      <c r="E68" s="93">
+      <c r="E68" s="76">
         <v>66</v>
       </c>
-      <c r="F68" s="100" t="s">
+      <c r="F68" s="83" t="s">
         <v>473</v>
       </c>
-      <c r="G68" s="95">
+      <c r="G68" s="78">
         <v>0</v>
       </c>
       <c r="I68" s="6">
@@ -12177,40 +12167,40 @@
       <c r="K68" s="8">
         <v>-2000</v>
       </c>
-      <c r="M68" s="96">
+      <c r="M68" s="79">
         <v>66</v>
       </c>
-      <c r="N68" s="97" t="s">
+      <c r="N68" s="80" t="s">
         <v>438</v>
       </c>
-      <c r="O68" s="98">
+      <c r="O68" s="81">
         <v>-2500</v>
       </c>
-      <c r="Q68" s="96">
+      <c r="Q68" s="79">
         <v>66</v>
       </c>
-      <c r="R68" s="97" t="s">
+      <c r="R68" s="80" t="s">
         <v>474</v>
       </c>
-      <c r="S68" s="98">
-        <v>0</v>
-      </c>
-      <c r="U68" s="96">
+      <c r="S68" s="81">
+        <v>0</v>
+      </c>
+      <c r="U68" s="79">
         <v>66</v>
       </c>
-      <c r="V68" s="99" t="s">
+      <c r="V68" s="82" t="s">
         <v>201</v>
       </c>
-      <c r="W68" s="98">
-        <v>0</v>
-      </c>
-      <c r="Y68" s="96">
+      <c r="W68" s="81">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="79">
         <v>66</v>
       </c>
-      <c r="Z68" s="99" t="s">
+      <c r="Z68" s="82" t="s">
         <v>186</v>
       </c>
-      <c r="AA68" s="98">
+      <c r="AA68" s="81">
         <v>0</v>
       </c>
       <c r="AC68" s="6">
@@ -12240,96 +12230,96 @@
       <c r="AM68" s="8">
         <v>0</v>
       </c>
-      <c r="AO68" s="96">
+      <c r="AO68" s="79">
         <v>66</v>
       </c>
-      <c r="AP68" s="97" t="s">
+      <c r="AP68" s="80" t="s">
         <v>254</v>
       </c>
-      <c r="AQ68" s="98">
+      <c r="AQ68" s="81">
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:44">
-      <c r="A69" s="96">
+      <c r="A69" s="79">
         <v>67</v>
       </c>
-      <c r="B69" s="99" t="s">
+      <c r="B69" s="82" t="s">
         <v>147</v>
       </c>
-      <c r="C69" s="98">
-        <v>0</v>
-      </c>
-      <c r="E69" s="96">
+      <c r="C69" s="81">
+        <v>0</v>
+      </c>
+      <c r="E69" s="79">
         <v>67</v>
       </c>
-      <c r="F69" s="99" t="s">
+      <c r="F69" s="82" t="s">
         <v>419</v>
       </c>
-      <c r="G69" s="98">
-        <v>0</v>
-      </c>
-      <c r="I69" s="96">
+      <c r="G69" s="81">
+        <v>0</v>
+      </c>
+      <c r="I69" s="79">
         <v>67</v>
       </c>
-      <c r="J69" s="97" t="s">
+      <c r="J69" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="K69" s="98">
-        <v>0</v>
-      </c>
-      <c r="M69" s="96">
+      <c r="K69" s="81">
+        <v>0</v>
+      </c>
+      <c r="M69" s="79">
         <v>67</v>
       </c>
-      <c r="N69" s="97" t="s">
+      <c r="N69" s="80" t="s">
         <v>205</v>
       </c>
-      <c r="O69" s="98">
-        <v>0</v>
-      </c>
-      <c r="Q69" s="96">
+      <c r="O69" s="81">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="79">
         <v>67</v>
       </c>
-      <c r="R69" s="97" t="s">
+      <c r="R69" s="80" t="s">
         <v>477</v>
       </c>
-      <c r="S69" s="98">
-        <v>0</v>
-      </c>
-      <c r="U69" s="93">
+      <c r="S69" s="81">
+        <v>0</v>
+      </c>
+      <c r="U69" s="76">
         <v>67</v>
       </c>
-      <c r="V69" s="100" t="s">
+      <c r="V69" s="83" t="s">
         <v>478</v>
       </c>
-      <c r="W69" s="95">
-        <v>0</v>
-      </c>
-      <c r="Y69" s="96">
+      <c r="W69" s="78">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="79">
         <v>67</v>
       </c>
-      <c r="Z69" s="99" t="s">
+      <c r="Z69" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="AA69" s="98">
-        <v>0</v>
-      </c>
-      <c r="AC69" s="96">
+      <c r="AA69" s="81">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="79">
         <v>67</v>
       </c>
-      <c r="AD69" s="99" t="s">
+      <c r="AD69" s="82" t="s">
         <v>438</v>
       </c>
-      <c r="AE69" s="98">
-        <v>0</v>
-      </c>
-      <c r="AG69" s="96">
+      <c r="AE69" s="81">
+        <v>0</v>
+      </c>
+      <c r="AG69" s="79">
         <v>67</v>
       </c>
-      <c r="AH69" s="99" t="s">
+      <c r="AH69" s="82" t="s">
         <v>147</v>
       </c>
-      <c r="AI69" s="98">
+      <c r="AI69" s="81">
         <v>0</v>
       </c>
       <c r="AK69" s="9">
@@ -12341,116 +12331,122 @@
       <c r="AM69" s="11">
         <v>0</v>
       </c>
-      <c r="AO69" s="96">
+      <c r="AO69" s="79">
         <v>67</v>
       </c>
-      <c r="AP69" s="97" t="s">
+      <c r="AP69" s="80" t="s">
         <v>425</v>
       </c>
-      <c r="AQ69" s="98">
+      <c r="AQ69" s="81">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:44">
-      <c r="A70" s="90">
+      <c r="A70" s="73">
         <v>68</v>
       </c>
-      <c r="B70" s="91" t="s">
+      <c r="B70" s="74" t="s">
         <v>205</v>
       </c>
-      <c r="C70" s="92">
-        <v>0</v>
-      </c>
-      <c r="E70" s="85">
+      <c r="C70" s="75">
+        <v>0</v>
+      </c>
+      <c r="E70" s="14">
         <v>68</v>
       </c>
-      <c r="F70" s="86" t="s">
+      <c r="F70" s="15" t="s">
         <v>346</v>
       </c>
-      <c r="G70" s="87">
-        <v>0</v>
-      </c>
-      <c r="I70" s="101">
+      <c r="G70" s="16">
+        <v>0</v>
+      </c>
+      <c r="I70" s="28">
         <v>68</v>
       </c>
-      <c r="J70" s="102" t="s">
+      <c r="J70" s="13" t="s">
         <v>350</v>
       </c>
-      <c r="K70" s="103">
+      <c r="K70" s="30">
         <v>0</v>
       </c>
       <c r="L70" s="1">
         <f>SUM(K60:K70)</f>
         <v>-17150</v>
       </c>
-      <c r="M70" s="85">
+      <c r="M70" s="14">
         <v>68</v>
       </c>
-      <c r="N70" s="86" t="s">
+      <c r="N70" s="15" t="s">
         <v>439</v>
       </c>
-      <c r="O70" s="87">
-        <v>-2000</v>
-      </c>
-      <c r="Q70" s="85">
+      <c r="O70" s="16">
+        <v>0</v>
+      </c>
+      <c r="P70" s="1">
+        <f>SUM(O60:O70)</f>
+        <v>-7500</v>
+      </c>
+      <c r="Q70" s="14">
         <v>68</v>
       </c>
-      <c r="R70" s="86" t="s">
+      <c r="R70" s="15" t="s">
         <v>439</v>
       </c>
-      <c r="S70" s="87">
-        <v>0</v>
-      </c>
-      <c r="U70" s="85">
+      <c r="S70" s="16">
+        <v>0</v>
+      </c>
+      <c r="U70" s="14">
         <v>68</v>
       </c>
-      <c r="V70" s="86" t="s">
+      <c r="V70" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="W70" s="87">
-        <v>0</v>
-      </c>
-      <c r="Y70" s="85">
+      <c r="W70" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="14">
         <v>68</v>
       </c>
-      <c r="Z70" s="86" t="s">
+      <c r="Z70" s="15" t="s">
         <v>480</v>
       </c>
-      <c r="AA70" s="87">
-        <v>0</v>
-      </c>
-      <c r="AC70" s="46">
+      <c r="AA70" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="28">
         <v>68</v>
       </c>
-      <c r="AD70" s="47" t="s">
+      <c r="AD70" s="29" t="s">
         <v>481</v>
       </c>
-      <c r="AE70" s="48"/>
-      <c r="AG70" s="85">
+      <c r="AE70" s="30">
+        <v>0</v>
+      </c>
+      <c r="AG70" s="28">
         <v>68</v>
       </c>
-      <c r="AH70" s="86" t="s">
+      <c r="AH70" s="29" t="s">
         <v>350</v>
       </c>
-      <c r="AI70" s="87">
-        <v>0</v>
-      </c>
-      <c r="AK70" s="90">
+      <c r="AI70" s="30">
+        <v>0</v>
+      </c>
+      <c r="AK70" s="73">
         <v>68</v>
       </c>
-      <c r="AL70" s="91" t="s">
+      <c r="AL70" s="74" t="s">
         <v>482</v>
       </c>
-      <c r="AM70" s="92">
-        <v>0</v>
-      </c>
-      <c r="AO70" s="85">
+      <c r="AM70" s="75">
+        <v>0</v>
+      </c>
+      <c r="AO70" s="14">
         <v>68</v>
       </c>
-      <c r="AP70" s="86" t="s">
+      <c r="AP70" s="15" t="s">
         <v>483</v>
       </c>
-      <c r="AQ70" s="87">
+      <c r="AQ70" s="16">
         <v>0</v>
       </c>
     </row>
@@ -12485,7 +12481,7 @@
       <c r="O71" s="20"/>
       <c r="P71" s="2">
         <f>SUM(P3:P70)</f>
-        <v>2285</v>
+        <v>-5215</v>
       </c>
       <c r="Q71" t="s">
         <v>484</v>
@@ -12550,41 +12546,46 @@
       </c>
     </row>
     <row r="82" spans="10:15" ht="15" customHeight="1">
-      <c r="J82" s="76" t="s">
+      <c r="J82" s="89" t="s">
         <v>485</v>
       </c>
-      <c r="K82" s="79">
+      <c r="K82" s="92">
         <f>SUM(C71,G71,K71,O71,S71,W71,AA71,AE71,AI71,AM71,AQ71)</f>
         <v>0</v>
       </c>
-      <c r="N82" s="80" t="s">
+      <c r="N82" s="93" t="s">
         <v>486</v>
       </c>
-      <c r="O82" s="80">
+      <c r="O82" s="97">
         <f>SUM(D71,H71,L71,P71,T71,X71,AB71,AF71,AJ71,AN71,AR71)</f>
-        <v>-52638</v>
+        <v>-60138</v>
       </c>
     </row>
     <row r="83" spans="10:15">
-      <c r="J83" s="77"/>
-      <c r="K83" s="79"/>
-      <c r="N83" s="80"/>
-      <c r="O83" s="80"/>
+      <c r="J83" s="90"/>
+      <c r="K83" s="92"/>
+      <c r="N83" s="93"/>
+      <c r="O83" s="97"/>
     </row>
     <row r="84" spans="10:15">
-      <c r="J84" s="77"/>
-      <c r="K84" s="79"/>
-      <c r="N84" s="80"/>
-      <c r="O84" s="80"/>
+      <c r="J84" s="90"/>
+      <c r="K84" s="92"/>
+      <c r="N84" s="93"/>
+      <c r="O84" s="97"/>
     </row>
     <row r="85" spans="10:15">
-      <c r="J85" s="78"/>
-      <c r="K85" s="79"/>
-      <c r="N85" s="80"/>
-      <c r="O85" s="80"/>
+      <c r="J85" s="91"/>
+      <c r="K85" s="92"/>
+      <c r="N85" s="93"/>
+      <c r="O85" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="AO2:AQ2"/>
     <mergeCell ref="J82:J85"/>
     <mergeCell ref="K82:K85"/>
@@ -12595,11 +12596,6 @@
     <mergeCell ref="AC2:AE2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="AK2:AM2"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>
@@ -12610,8 +12606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AV89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AC70" sqref="AC70:AE70"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M80" sqref="M80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -12742,66 +12738,66 @@
       </c>
     </row>
     <row r="2" spans="1:48">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="86" t="s">
         <v>487</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="75"/>
-      <c r="E2" s="73" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="88"/>
+      <c r="E2" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="74"/>
-      <c r="G2" s="75"/>
-      <c r="I2" s="73" t="s">
+      <c r="F2" s="87"/>
+      <c r="G2" s="88"/>
+      <c r="I2" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="74"/>
-      <c r="K2" s="75"/>
-      <c r="M2" s="73" t="s">
+      <c r="J2" s="87"/>
+      <c r="K2" s="88"/>
+      <c r="M2" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="74"/>
-      <c r="O2" s="75"/>
-      <c r="Q2" s="73" t="s">
+      <c r="N2" s="87"/>
+      <c r="O2" s="88"/>
+      <c r="Q2" s="86" t="s">
         <v>488</v>
       </c>
-      <c r="R2" s="74"/>
-      <c r="S2" s="75"/>
-      <c r="U2" s="73" t="s">
+      <c r="R2" s="87"/>
+      <c r="S2" s="88"/>
+      <c r="U2" s="86" t="s">
         <v>489</v>
       </c>
-      <c r="V2" s="74"/>
-      <c r="W2" s="75"/>
-      <c r="Y2" s="73" t="s">
+      <c r="V2" s="87"/>
+      <c r="W2" s="88"/>
+      <c r="Y2" s="86" t="s">
         <v>490</v>
       </c>
-      <c r="Z2" s="74"/>
-      <c r="AA2" s="75"/>
-      <c r="AC2" s="73" t="s">
+      <c r="Z2" s="87"/>
+      <c r="AA2" s="88"/>
+      <c r="AC2" s="86" t="s">
         <v>491</v>
       </c>
-      <c r="AD2" s="74"/>
-      <c r="AE2" s="75"/>
-      <c r="AG2" s="73" t="s">
+      <c r="AD2" s="87"/>
+      <c r="AE2" s="88"/>
+      <c r="AG2" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="AH2" s="74"/>
-      <c r="AI2" s="75"/>
-      <c r="AK2" s="73" t="s">
+      <c r="AH2" s="87"/>
+      <c r="AI2" s="88"/>
+      <c r="AK2" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="AL2" s="74"/>
-      <c r="AM2" s="75"/>
-      <c r="AO2" s="73" t="s">
+      <c r="AL2" s="87"/>
+      <c r="AM2" s="88"/>
+      <c r="AO2" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="AP2" s="74"/>
-      <c r="AQ2" s="75"/>
-      <c r="AS2" s="73" t="s">
+      <c r="AP2" s="87"/>
+      <c r="AQ2" s="88"/>
+      <c r="AS2" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="AT2" s="74"/>
-      <c r="AU2" s="75"/>
+      <c r="AT2" s="87"/>
+      <c r="AU2" s="88"/>
     </row>
     <row r="3" spans="1:48">
       <c r="A3" s="6">
@@ -19867,13 +19863,13 @@
       <c r="AM60" s="11">
         <v>0</v>
       </c>
-      <c r="AO60" s="96">
+      <c r="AO60" s="79">
         <v>58</v>
       </c>
-      <c r="AP60" s="97" t="s">
+      <c r="AP60" s="80" t="s">
         <v>585</v>
       </c>
-      <c r="AQ60" s="98">
+      <c r="AQ60" s="81">
         <v>-600</v>
       </c>
       <c r="AS60" s="6">
@@ -20109,13 +20105,13 @@
       <c r="AM62" s="8">
         <v>0</v>
       </c>
-      <c r="AO62" s="96">
+      <c r="AO62" s="79">
         <v>60</v>
       </c>
-      <c r="AP62" s="97" t="s">
+      <c r="AP62" s="80" t="s">
         <v>585</v>
       </c>
-      <c r="AQ62" s="98">
+      <c r="AQ62" s="81">
         <v>0</v>
       </c>
       <c r="AS62" s="6">
@@ -20220,13 +20216,13 @@
       <c r="AM63" s="11">
         <v>0</v>
       </c>
-      <c r="AO63" s="93">
+      <c r="AO63" s="76">
         <v>61</v>
       </c>
-      <c r="AP63" s="94" t="s">
+      <c r="AP63" s="77" t="s">
         <v>649</v>
       </c>
-      <c r="AQ63" s="95">
+      <c r="AQ63" s="78">
         <v>0</v>
       </c>
       <c r="AS63" s="6">
@@ -20441,7 +20437,7 @@
       <c r="AM65" s="8">
         <v>0</v>
       </c>
-      <c r="AN65" s="88"/>
+      <c r="AN65" s="71"/>
       <c r="AO65" s="6">
         <v>63</v>
       </c>
@@ -20552,7 +20548,7 @@
       <c r="AM66" s="8">
         <v>-7950</v>
       </c>
-      <c r="AN66" s="89"/>
+      <c r="AN66" s="72"/>
       <c r="AO66" s="9">
         <v>64</v>
       </c>
@@ -20667,7 +20663,7 @@
       <c r="AM67" s="8">
         <v>-2150</v>
       </c>
-      <c r="AN67" s="88"/>
+      <c r="AN67" s="71"/>
       <c r="AO67" s="9">
         <v>65</v>
       </c>
@@ -20778,14 +20774,14 @@
       <c r="AM68" s="8">
         <v>-3500</v>
       </c>
-      <c r="AN68" s="88"/>
-      <c r="AO68" s="96">
+      <c r="AN68" s="71"/>
+      <c r="AO68" s="79">
         <v>66</v>
       </c>
-      <c r="AP68" s="97" t="s">
+      <c r="AP68" s="80" t="s">
         <v>475</v>
       </c>
-      <c r="AQ68" s="98">
+      <c r="AQ68" s="81">
         <v>0</v>
       </c>
       <c r="AS68" s="6">
@@ -20902,68 +20898,68 @@
       <c r="AQ69" s="11">
         <v>0</v>
       </c>
-      <c r="AS69" s="93">
+      <c r="AS69" s="76">
         <v>67</v>
       </c>
-      <c r="AT69" s="94" t="s">
+      <c r="AT69" s="77" t="s">
         <v>746</v>
       </c>
-      <c r="AU69" s="95">
+      <c r="AU69" s="78">
         <v>-4750</v>
       </c>
-      <c r="AV69" s="94">
+      <c r="AV69" s="77">
         <f>22800+SUM(AU59:AU69)</f>
         <v>100</v>
       </c>
     </row>
     <row r="70" spans="1:48">
-      <c r="A70" s="104">
+      <c r="A70" s="13">
         <v>68</v>
       </c>
-      <c r="B70" s="104" t="s">
+      <c r="B70" s="13" t="s">
         <v>696</v>
       </c>
-      <c r="C70" s="104">
+      <c r="C70" s="13">
         <v>-3000</v>
       </c>
       <c r="D70" s="1">
         <f>SUM(C57:C70)</f>
         <v>-98500</v>
       </c>
-      <c r="E70" s="85">
+      <c r="E70" s="28">
         <v>68</v>
       </c>
-      <c r="F70" s="86" t="s">
+      <c r="F70" s="29" t="s">
         <v>592</v>
       </c>
-      <c r="G70" s="87">
-        <v>0</v>
-      </c>
-      <c r="I70" s="85">
+      <c r="G70" s="30">
+        <v>0</v>
+      </c>
+      <c r="I70" s="68">
         <v>68</v>
       </c>
-      <c r="J70" s="86" t="s">
+      <c r="J70" s="69" t="s">
         <v>500</v>
       </c>
-      <c r="K70" s="87">
-        <v>0</v>
-      </c>
-      <c r="M70" s="85">
+      <c r="K70" s="70">
+        <v>0</v>
+      </c>
+      <c r="M70" s="68">
         <v>68</v>
       </c>
-      <c r="N70" s="86" t="s">
+      <c r="N70" s="69" t="s">
         <v>500</v>
       </c>
-      <c r="O70" s="87">
-        <v>0</v>
-      </c>
-      <c r="Q70" s="85">
+      <c r="O70" s="70">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="68">
         <v>68</v>
       </c>
-      <c r="R70" s="86" t="s">
+      <c r="R70" s="69" t="s">
         <v>480</v>
       </c>
-      <c r="S70" s="87">
+      <c r="S70" s="70">
         <v>0</v>
       </c>
       <c r="U70" s="28">
@@ -20975,58 +20971,58 @@
       <c r="W70" s="30">
         <v>0</v>
       </c>
-      <c r="Y70" s="85">
+      <c r="Y70" s="28">
         <v>68</v>
       </c>
-      <c r="Z70" s="86" t="s">
+      <c r="Z70" s="29" t="s">
         <v>592</v>
       </c>
-      <c r="AA70" s="87">
-        <v>0</v>
-      </c>
-      <c r="AC70" s="85">
+      <c r="AA70" s="30">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="68">
         <v>68</v>
       </c>
-      <c r="AD70" s="49" t="s">
+      <c r="AD70" s="46" t="s">
         <v>483</v>
       </c>
-      <c r="AE70" s="87">
-        <v>0</v>
-      </c>
-      <c r="AG70" s="85">
+      <c r="AE70" s="70">
+        <v>0</v>
+      </c>
+      <c r="AG70" s="68">
         <v>68</v>
       </c>
-      <c r="AH70" s="86" t="s">
+      <c r="AH70" s="69" t="s">
         <v>584</v>
       </c>
-      <c r="AI70" s="87">
-        <v>0</v>
-      </c>
-      <c r="AK70" s="85">
+      <c r="AI70" s="70">
+        <v>0</v>
+      </c>
+      <c r="AK70" s="68">
         <v>68</v>
       </c>
-      <c r="AL70" s="49" t="s">
+      <c r="AL70" s="46" t="s">
         <v>584</v>
       </c>
-      <c r="AM70" s="87">
+      <c r="AM70" s="70">
         <v>-3000</v>
       </c>
-      <c r="AO70" s="90">
+      <c r="AO70" s="73">
         <v>68</v>
       </c>
-      <c r="AP70" s="91" t="s">
+      <c r="AP70" s="74" t="s">
         <v>481</v>
       </c>
-      <c r="AQ70" s="92">
-        <v>0</v>
-      </c>
-      <c r="AS70" s="85">
+      <c r="AQ70" s="75">
+        <v>0</v>
+      </c>
+      <c r="AS70" s="28">
         <v>68</v>
       </c>
-      <c r="AT70" s="86" t="s">
+      <c r="AT70" s="29" t="s">
         <v>695</v>
       </c>
-      <c r="AU70" s="87">
+      <c r="AU70" s="30">
         <v>0</v>
       </c>
     </row>
@@ -21165,41 +21161,46 @@
       </c>
     </row>
     <row r="86" spans="10:15">
-      <c r="J86" s="76" t="s">
+      <c r="J86" s="89" t="s">
         <v>747</v>
       </c>
-      <c r="K86" s="81">
+      <c r="K86" s="94">
         <f>SUM(C71,G71,K71,O71,S71,W71,AA71,AE71,AI71,AM71,AQ71,AU71)</f>
         <v>-437229</v>
       </c>
-      <c r="N86" s="80" t="s">
+      <c r="N86" s="93" t="s">
         <v>748</v>
       </c>
-      <c r="O86" s="83">
+      <c r="O86" s="98">
         <f>SUM(D71,H71,L71,P71,T71,X71,AB71,AF71,AJ71,AN71,AR71,AV71)</f>
         <v>-81634</v>
       </c>
     </row>
     <row r="87" spans="10:15">
-      <c r="J87" s="77"/>
-      <c r="K87" s="82"/>
-      <c r="N87" s="80"/>
-      <c r="O87" s="84"/>
+      <c r="J87" s="90"/>
+      <c r="K87" s="95"/>
+      <c r="N87" s="93"/>
+      <c r="O87" s="99"/>
     </row>
     <row r="88" spans="10:15">
-      <c r="J88" s="77"/>
-      <c r="K88" s="82"/>
-      <c r="N88" s="80"/>
-      <c r="O88" s="84"/>
+      <c r="J88" s="90"/>
+      <c r="K88" s="95"/>
+      <c r="N88" s="93"/>
+      <c r="O88" s="99"/>
     </row>
     <row r="89" spans="10:15">
-      <c r="J89" s="78"/>
-      <c r="K89" s="82"/>
-      <c r="N89" s="80"/>
-      <c r="O89" s="84"/>
+      <c r="J89" s="91"/>
+      <c r="K89" s="95"/>
+      <c r="N89" s="93"/>
+      <c r="O89" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="AO2:AQ2"/>
     <mergeCell ref="AS2:AU2"/>
     <mergeCell ref="J86:J89"/>
@@ -21211,11 +21212,6 @@
     <mergeCell ref="AC2:AE2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="AK2:AM2"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Ставки/КХЛ 23-24.xlsx
+++ b/Ставки/КХЛ 23-24.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11010" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11010" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="22-23" sheetId="1" r:id="rId1"/>
@@ -2771,6 +2771,7 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2801,14 +2802,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3429,111 +3429,112 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="E1:BK54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" customWidth="1"/>
     <col min="17" max="17" width="11.42578125" customWidth="1"/>
     <col min="42" max="42" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="5:63" ht="15.75">
-      <c r="E1" s="85" t="s">
+      <c r="E1" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
       <c r="H1" s="63">
         <v>3.6</v>
       </c>
-      <c r="J1" s="84" t="s">
+      <c r="J1" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
       <c r="M1" s="63">
-        <v>3.7</v>
-      </c>
-      <c r="O1" s="84" t="s">
+        <v>3.5</v>
+      </c>
+      <c r="O1" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
       <c r="R1" s="63">
         <v>3.8</v>
       </c>
-      <c r="T1" s="84" t="s">
+      <c r="T1" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
       <c r="W1" s="63">
         <v>3.9</v>
       </c>
-      <c r="Y1" s="84" t="s">
+      <c r="Y1" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="Z1" s="85"/>
-      <c r="AA1" s="85"/>
+      <c r="Z1" s="86"/>
+      <c r="AA1" s="86"/>
       <c r="AB1" s="63">
         <v>4</v>
       </c>
-      <c r="AD1" s="84" t="s">
+      <c r="AD1" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="AE1" s="85"/>
-      <c r="AF1" s="85"/>
+      <c r="AE1" s="86"/>
+      <c r="AF1" s="86"/>
       <c r="AG1" s="63">
         <v>4.0999999999999996</v>
       </c>
-      <c r="AI1" s="84" t="s">
+      <c r="AI1" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="85"/>
-      <c r="AK1" s="85"/>
+      <c r="AJ1" s="86"/>
+      <c r="AK1" s="86"/>
       <c r="AL1" s="63">
         <v>4.2</v>
       </c>
-      <c r="AN1" s="84" t="s">
+      <c r="AN1" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="AO1" s="85"/>
-      <c r="AP1" s="85"/>
+      <c r="AO1" s="86"/>
+      <c r="AP1" s="86"/>
       <c r="AQ1" s="63">
         <v>4.3</v>
       </c>
-      <c r="AS1" s="84" t="s">
+      <c r="AS1" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="AT1" s="85"/>
-      <c r="AU1" s="85"/>
+      <c r="AT1" s="86"/>
+      <c r="AU1" s="86"/>
       <c r="AV1" s="63">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AX1" s="84" t="s">
+      <c r="AX1" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="AY1" s="85"/>
-      <c r="AZ1" s="85"/>
+      <c r="AY1" s="86"/>
+      <c r="AZ1" s="86"/>
       <c r="BA1" s="63">
         <v>4.5</v>
       </c>
-      <c r="BC1" s="84" t="s">
+      <c r="BC1" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="BD1" s="85"/>
-      <c r="BE1" s="85"/>
+      <c r="BD1" s="86"/>
+      <c r="BE1" s="86"/>
       <c r="BF1" s="63">
         <v>4.5999999999999996</v>
       </c>
-      <c r="BH1" s="84" t="s">
+      <c r="BH1" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="BI1" s="85"/>
-      <c r="BJ1" s="85"/>
+      <c r="BI1" s="86"/>
+      <c r="BJ1" s="86"/>
       <c r="BK1" s="63">
         <v>4.7</v>
       </c>
@@ -3699,6 +3700,20 @@
         <f>G3-F3</f>
         <v>156</v>
       </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>2000</v>
+      </c>
+      <c r="L3">
+        <f>K3*M1</f>
+        <v>7000</v>
+      </c>
+      <c r="M3">
+        <f>L3-K3</f>
+        <v>5000</v>
+      </c>
       <c r="O3">
         <v>1</v>
       </c>
@@ -3743,6 +3758,20 @@
         <f>G4-SUM($F$3:F4)</f>
         <v>109</v>
       </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>3000</v>
+      </c>
+      <c r="L4">
+        <f>$M$1*K4</f>
+        <v>10500</v>
+      </c>
+      <c r="M4">
+        <f>L4-SUM(K3:K4)</f>
+        <v>5500</v>
+      </c>
       <c r="O4">
         <v>2</v>
       </c>
@@ -3787,6 +3816,20 @@
         <f>G5-SUM($F$3:F5)</f>
         <v>70</v>
       </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>4000</v>
+      </c>
+      <c r="L5">
+        <f>$M$1*K5</f>
+        <v>14000</v>
+      </c>
+      <c r="M5">
+        <f>L5-SUM($K$3:K5)</f>
+        <v>5000</v>
+      </c>
       <c r="O5">
         <v>3</v>
       </c>
@@ -3831,6 +3874,20 @@
         <f>G6-SUM($F$3:F6)</f>
         <v>34</v>
       </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <v>5000</v>
+      </c>
+      <c r="L6">
+        <f>$M$1*K6</f>
+        <v>17500</v>
+      </c>
+      <c r="M6">
+        <f>L6-SUM($K$3:K6)</f>
+        <v>3500</v>
+      </c>
       <c r="O6">
         <v>4</v>
       </c>
@@ -3873,7 +3930,21 @@
       </c>
       <c r="H7" s="64">
         <f>G7-SUM($F$3:F7)</f>
-        <v>1.19999999999999</v>
+        <v>1.1999999999999886</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7">
+        <v>7000</v>
+      </c>
+      <c r="L7">
+        <f>$M$1*K7</f>
+        <v>24500</v>
+      </c>
+      <c r="M7">
+        <f>L7-SUM($K$3:K7)</f>
+        <v>3500</v>
       </c>
       <c r="O7">
         <v>5</v>
@@ -3908,6 +3979,20 @@
         <f>G8-SUM($F$3:F8)</f>
         <v>1</v>
       </c>
+      <c r="J8">
+        <v>7</v>
+      </c>
+      <c r="K8">
+        <v>8500</v>
+      </c>
+      <c r="L8">
+        <f>$M$1*K8</f>
+        <v>29750</v>
+      </c>
+      <c r="M8">
+        <f>L8-SUM($K$3:K8)</f>
+        <v>250</v>
+      </c>
       <c r="O8">
         <v>6</v>
       </c>
@@ -3941,6 +4026,20 @@
         <f>G9-SUM($F$3:F9)</f>
         <v>2</v>
       </c>
+      <c r="J9">
+        <v>8</v>
+      </c>
+      <c r="K9">
+        <v>12000</v>
+      </c>
+      <c r="L9">
+        <f>$M$1*K9</f>
+        <v>42000</v>
+      </c>
+      <c r="M9">
+        <f>L9-SUM($K$3:K9)</f>
+        <v>500</v>
+      </c>
       <c r="O9">
         <v>7</v>
       </c>
@@ -3972,7 +4071,21 @@
       </c>
       <c r="H10" s="64">
         <f>G10-SUM($F$3:F10)</f>
-        <v>2.7999999999999501</v>
+        <v>2.7999999999999545</v>
+      </c>
+      <c r="J10">
+        <v>9</v>
+      </c>
+      <c r="K10">
+        <v>16500</v>
+      </c>
+      <c r="L10">
+        <f t="shared" ref="L10:L11" si="2">$M$1*K10</f>
+        <v>57750</v>
+      </c>
+      <c r="M10">
+        <f>L10-SUM($K$3:K10)</f>
+        <v>-250</v>
       </c>
       <c r="O10">
         <v>8</v>
@@ -4007,6 +4120,20 @@
         <f>G11-SUM($F$3:F11)</f>
         <v>9</v>
       </c>
+      <c r="J11">
+        <v>10</v>
+      </c>
+      <c r="K11">
+        <v>23200</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="2"/>
+        <v>81200</v>
+      </c>
+      <c r="M11">
+        <f>L11-SUM($K$3:K11)</f>
+        <v>0</v>
+      </c>
       <c r="O11">
         <v>9</v>
       </c>
@@ -4034,11 +4161,11 @@
       </c>
       <c r="G12" s="64">
         <f t="shared" si="1"/>
-        <v>2059.1999999999998</v>
+        <v>2059.2000000000003</v>
       </c>
       <c r="H12" s="64">
         <f>G12-SUM($F$3:F12)</f>
-        <v>2.2000000000002702</v>
+        <v>2.2000000000002728</v>
       </c>
       <c r="O12">
         <v>10</v>
@@ -4067,11 +4194,11 @@
       </c>
       <c r="G13" s="64">
         <f t="shared" si="1"/>
-        <v>2851.2</v>
+        <v>2851.2000000000003</v>
       </c>
       <c r="H13" s="64">
         <f>G13-SUM($F$3:F13)</f>
-        <v>2.2000000000002702</v>
+        <v>2.2000000000002728</v>
       </c>
       <c r="O13">
         <v>11</v>
@@ -4104,7 +4231,7 @@
       </c>
       <c r="H14" s="64">
         <f>G14-SUM($F$3:F14)</f>
-        <v>5.8000000000001801</v>
+        <v>5.8000000000001819</v>
       </c>
       <c r="O14">
         <v>12</v>
@@ -4482,11 +4609,11 @@
       </c>
     </row>
     <row r="29" spans="5:43" ht="15.75">
-      <c r="E29" s="85" t="s">
+      <c r="E29" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="F29" s="85"/>
-      <c r="G29" s="85"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="86"/>
       <c r="H29" s="63">
         <v>3.6</v>
       </c>
@@ -4545,7 +4672,7 @@
         <v>215</v>
       </c>
       <c r="G33" s="66">
-        <f t="shared" ref="G33:G47" si="2">F33*$H$29</f>
+        <f t="shared" ref="G33:G47" si="3">F33*$H$29</f>
         <v>774</v>
       </c>
       <c r="H33" s="66">
@@ -4561,12 +4688,12 @@
         <v>298</v>
       </c>
       <c r="G34" s="66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1072.8</v>
       </c>
       <c r="H34" s="66">
         <f>G34-SUM($F$31:F34)</f>
-        <v>292.8</v>
+        <v>292.79999999999995</v>
       </c>
     </row>
     <row r="35" spans="5:8">
@@ -4577,7 +4704,7 @@
         <v>415</v>
       </c>
       <c r="G35" s="66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1494</v>
       </c>
       <c r="H35" s="66">
@@ -4593,12 +4720,12 @@
         <v>572</v>
       </c>
       <c r="G36" s="66">
-        <f t="shared" si="2"/>
-        <v>2059.1999999999998</v>
+        <f t="shared" si="3"/>
+        <v>2059.2000000000003</v>
       </c>
       <c r="H36" s="66">
         <f>G36-SUM($F$31:F36)</f>
-        <v>292.2</v>
+        <v>292.20000000000027</v>
       </c>
     </row>
     <row r="37" spans="5:8">
@@ -4609,12 +4736,12 @@
         <v>792</v>
       </c>
       <c r="G37" s="66">
-        <f t="shared" si="2"/>
-        <v>2851.2</v>
+        <f t="shared" si="3"/>
+        <v>2851.2000000000003</v>
       </c>
       <c r="H37" s="66">
         <f>G37-SUM($F$31:F37)</f>
-        <v>292.2</v>
+        <v>292.20000000000027</v>
       </c>
     </row>
     <row r="38" spans="5:8">
@@ -4625,12 +4752,12 @@
         <v>1098</v>
       </c>
       <c r="G38" s="66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3952.8</v>
       </c>
       <c r="H38" s="66">
         <f>G38-SUM($F$31:F38)</f>
-        <v>295.8</v>
+        <v>295.80000000000018</v>
       </c>
     </row>
     <row r="39" spans="5:8">
@@ -4641,7 +4768,7 @@
         <v>1520</v>
       </c>
       <c r="G39" s="66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5472</v>
       </c>
       <c r="H39" s="66">
@@ -4657,7 +4784,7 @@
         <v>2105</v>
       </c>
       <c r="G40" s="66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7578</v>
       </c>
       <c r="H40" s="66">
@@ -4673,7 +4800,7 @@
         <v>2915</v>
       </c>
       <c r="G41" s="66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10494</v>
       </c>
       <c r="H41" s="66">
@@ -4689,7 +4816,7 @@
         <v>4035</v>
       </c>
       <c r="G42" s="66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14526</v>
       </c>
       <c r="H42" s="66">
@@ -4705,7 +4832,7 @@
         <v>5585</v>
       </c>
       <c r="G43" s="66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20106</v>
       </c>
       <c r="H43" s="66">
@@ -4721,7 +4848,7 @@
         <v>7735</v>
       </c>
       <c r="G44" s="66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27846</v>
       </c>
       <c r="H44" s="66">
@@ -4737,7 +4864,7 @@
         <v>10710</v>
       </c>
       <c r="G45" s="66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>38556</v>
       </c>
       <c r="H45" s="66">
@@ -4753,7 +4880,7 @@
         <v>14830</v>
       </c>
       <c r="G46" s="66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>53388</v>
       </c>
       <c r="H46" s="66">
@@ -4769,7 +4896,7 @@
         <v>20850</v>
       </c>
       <c r="G47" s="66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>75060</v>
       </c>
       <c r="H47" s="66">
@@ -4983,71 +5110,71 @@
       </c>
     </row>
     <row r="2" spans="1:44">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="89"/>
       <c r="D2" s="47"/>
-      <c r="E2" s="86" t="s">
+      <c r="E2" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="87"/>
-      <c r="G2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="89"/>
       <c r="H2" s="48"/>
-      <c r="I2" s="86" t="s">
+      <c r="I2" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="87"/>
-      <c r="K2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="89"/>
       <c r="L2" s="48"/>
-      <c r="M2" s="86" t="s">
+      <c r="M2" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="87"/>
-      <c r="O2" s="88"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="89"/>
       <c r="P2" s="48"/>
-      <c r="Q2" s="86" t="s">
+      <c r="Q2" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="87"/>
-      <c r="S2" s="88"/>
+      <c r="R2" s="88"/>
+      <c r="S2" s="89"/>
       <c r="T2" s="48"/>
-      <c r="U2" s="86" t="s">
+      <c r="U2" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="V2" s="87"/>
-      <c r="W2" s="88"/>
+      <c r="V2" s="88"/>
+      <c r="W2" s="89"/>
       <c r="X2" s="48"/>
-      <c r="Y2" s="86" t="s">
+      <c r="Y2" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="Z2" s="87"/>
-      <c r="AA2" s="88"/>
+      <c r="Z2" s="88"/>
+      <c r="AA2" s="89"/>
       <c r="AB2" s="48"/>
-      <c r="AC2" s="86" t="s">
+      <c r="AC2" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="AD2" s="87"/>
-      <c r="AE2" s="88"/>
+      <c r="AD2" s="88"/>
+      <c r="AE2" s="89"/>
       <c r="AF2" s="48"/>
-      <c r="AG2" s="86" t="s">
+      <c r="AG2" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="AH2" s="87"/>
-      <c r="AI2" s="88"/>
+      <c r="AH2" s="88"/>
+      <c r="AI2" s="89"/>
       <c r="AJ2" s="48"/>
-      <c r="AK2" s="86" t="s">
+      <c r="AK2" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="AL2" s="87"/>
-      <c r="AM2" s="88"/>
+      <c r="AL2" s="88"/>
+      <c r="AM2" s="89"/>
       <c r="AN2" s="48"/>
-      <c r="AO2" s="86" t="s">
+      <c r="AO2" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="AP2" s="87"/>
-      <c r="AQ2" s="88"/>
+      <c r="AP2" s="88"/>
+      <c r="AQ2" s="89"/>
       <c r="AR2" s="48"/>
     </row>
     <row r="3" spans="1:44">
@@ -5490,7 +5617,7 @@
       <c r="G7" s="11">
         <v>-115</v>
       </c>
-      <c r="H7" s="96">
+      <c r="H7" s="84">
         <f>339+SUM(G3:G7)</f>
         <v>-66</v>
       </c>
@@ -5512,7 +5639,7 @@
       <c r="O7" s="11">
         <v>-112</v>
       </c>
-      <c r="P7" s="96">
+      <c r="P7" s="84">
         <f>336+SUM(O3:O7)</f>
         <v>-66</v>
       </c>
@@ -7684,7 +7811,7 @@
       <c r="C27" s="11">
         <v>-10000</v>
       </c>
-      <c r="D27" s="96">
+      <c r="D27" s="84">
         <f>52000+SUM(C3:C27)</f>
         <v>-51907</v>
       </c>
@@ -9169,7 +9296,7 @@
         <f>-5500</f>
         <v>-5500</v>
       </c>
-      <c r="T40" s="96">
+      <c r="T40" s="84">
         <f>29150+SUM(S29:S40)</f>
         <v>-8565</v>
       </c>
@@ -10784,7 +10911,7 @@
       <c r="G55" s="11">
         <v>0</v>
       </c>
-      <c r="H55" s="96">
+      <c r="H55" s="84">
         <f>SUM(G46:G55)</f>
         <v>-1485</v>
       </c>
@@ -10815,7 +10942,7 @@
       <c r="S55" s="11">
         <v>0</v>
       </c>
-      <c r="T55" s="96">
+      <c r="T55" s="84">
         <f>SUM(S48:S55)</f>
         <v>-402</v>
       </c>
@@ -11023,7 +11150,7 @@
       <c r="K57" s="11">
         <v>0</v>
       </c>
-      <c r="L57" s="96">
+      <c r="L57" s="84">
         <f>SUM(K52:K57)</f>
         <v>-1250</v>
       </c>
@@ -11636,7 +11763,7 @@
       <c r="C63" s="11">
         <v>-3250</v>
       </c>
-      <c r="D63" s="96">
+      <c r="D63" s="84">
         <v>-75</v>
       </c>
       <c r="E63" s="6">
@@ -12546,46 +12673,41 @@
       </c>
     </row>
     <row r="82" spans="10:15" ht="15" customHeight="1">
-      <c r="J82" s="89" t="s">
+      <c r="J82" s="90" t="s">
         <v>485</v>
       </c>
-      <c r="K82" s="92">
+      <c r="K82" s="93">
         <f>SUM(C71,G71,K71,O71,S71,W71,AA71,AE71,AI71,AM71,AQ71)</f>
         <v>0</v>
       </c>
-      <c r="N82" s="93" t="s">
+      <c r="N82" s="94" t="s">
         <v>486</v>
       </c>
-      <c r="O82" s="97">
+      <c r="O82" s="95">
         <f>SUM(D71,H71,L71,P71,T71,X71,AB71,AF71,AJ71,AN71,AR71)</f>
         <v>-60138</v>
       </c>
     </row>
     <row r="83" spans="10:15">
-      <c r="J83" s="90"/>
-      <c r="K83" s="92"/>
-      <c r="N83" s="93"/>
-      <c r="O83" s="97"/>
+      <c r="J83" s="91"/>
+      <c r="K83" s="93"/>
+      <c r="N83" s="94"/>
+      <c r="O83" s="95"/>
     </row>
     <row r="84" spans="10:15">
-      <c r="J84" s="90"/>
-      <c r="K84" s="92"/>
-      <c r="N84" s="93"/>
-      <c r="O84" s="97"/>
+      <c r="J84" s="91"/>
+      <c r="K84" s="93"/>
+      <c r="N84" s="94"/>
+      <c r="O84" s="95"/>
     </row>
     <row r="85" spans="10:15">
-      <c r="J85" s="91"/>
-      <c r="K85" s="92"/>
-      <c r="N85" s="93"/>
-      <c r="O85" s="97"/>
+      <c r="J85" s="92"/>
+      <c r="K85" s="93"/>
+      <c r="N85" s="94"/>
+      <c r="O85" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="AO2:AQ2"/>
     <mergeCell ref="J82:J85"/>
     <mergeCell ref="K82:K85"/>
@@ -12596,6 +12718,11 @@
     <mergeCell ref="AC2:AE2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="AK2:AM2"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>
@@ -12606,7 +12733,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AV89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A52" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="M80" sqref="M80"/>
     </sheetView>
   </sheetViews>
@@ -12738,66 +12865,66 @@
       </c>
     </row>
     <row r="2" spans="1:48">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="87" t="s">
         <v>487</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="88"/>
-      <c r="E2" s="86" t="s">
+      <c r="B2" s="88"/>
+      <c r="C2" s="89"/>
+      <c r="E2" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="87"/>
-      <c r="G2" s="88"/>
-      <c r="I2" s="86" t="s">
+      <c r="F2" s="88"/>
+      <c r="G2" s="89"/>
+      <c r="I2" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="87"/>
-      <c r="K2" s="88"/>
-      <c r="M2" s="86" t="s">
+      <c r="J2" s="88"/>
+      <c r="K2" s="89"/>
+      <c r="M2" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="87"/>
-      <c r="O2" s="88"/>
-      <c r="Q2" s="86" t="s">
+      <c r="N2" s="88"/>
+      <c r="O2" s="89"/>
+      <c r="Q2" s="87" t="s">
         <v>488</v>
       </c>
-      <c r="R2" s="87"/>
-      <c r="S2" s="88"/>
-      <c r="U2" s="86" t="s">
+      <c r="R2" s="88"/>
+      <c r="S2" s="89"/>
+      <c r="U2" s="87" t="s">
         <v>489</v>
       </c>
-      <c r="V2" s="87"/>
-      <c r="W2" s="88"/>
-      <c r="Y2" s="86" t="s">
+      <c r="V2" s="88"/>
+      <c r="W2" s="89"/>
+      <c r="Y2" s="87" t="s">
         <v>490</v>
       </c>
-      <c r="Z2" s="87"/>
-      <c r="AA2" s="88"/>
-      <c r="AC2" s="86" t="s">
+      <c r="Z2" s="88"/>
+      <c r="AA2" s="89"/>
+      <c r="AC2" s="87" t="s">
         <v>491</v>
       </c>
-      <c r="AD2" s="87"/>
-      <c r="AE2" s="88"/>
-      <c r="AG2" s="86" t="s">
+      <c r="AD2" s="88"/>
+      <c r="AE2" s="89"/>
+      <c r="AG2" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="AH2" s="87"/>
-      <c r="AI2" s="88"/>
-      <c r="AK2" s="86" t="s">
+      <c r="AH2" s="88"/>
+      <c r="AI2" s="89"/>
+      <c r="AK2" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="AL2" s="87"/>
-      <c r="AM2" s="88"/>
-      <c r="AO2" s="86" t="s">
+      <c r="AL2" s="88"/>
+      <c r="AM2" s="89"/>
+      <c r="AO2" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="AP2" s="87"/>
-      <c r="AQ2" s="88"/>
-      <c r="AS2" s="86" t="s">
+      <c r="AP2" s="88"/>
+      <c r="AQ2" s="89"/>
+      <c r="AS2" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="AT2" s="87"/>
-      <c r="AU2" s="88"/>
+      <c r="AT2" s="88"/>
+      <c r="AU2" s="89"/>
     </row>
     <row r="3" spans="1:48">
       <c r="A3" s="6">
@@ -21161,14 +21288,14 @@
       </c>
     </row>
     <row r="86" spans="10:15">
-      <c r="J86" s="89" t="s">
+      <c r="J86" s="90" t="s">
         <v>747</v>
       </c>
-      <c r="K86" s="94">
+      <c r="K86" s="96">
         <f>SUM(C71,G71,K71,O71,S71,W71,AA71,AE71,AI71,AM71,AQ71,AU71)</f>
         <v>-437229</v>
       </c>
-      <c r="N86" s="93" t="s">
+      <c r="N86" s="94" t="s">
         <v>748</v>
       </c>
       <c r="O86" s="98">
@@ -21177,30 +21304,25 @@
       </c>
     </row>
     <row r="87" spans="10:15">
-      <c r="J87" s="90"/>
-      <c r="K87" s="95"/>
-      <c r="N87" s="93"/>
+      <c r="J87" s="91"/>
+      <c r="K87" s="97"/>
+      <c r="N87" s="94"/>
       <c r="O87" s="99"/>
     </row>
     <row r="88" spans="10:15">
-      <c r="J88" s="90"/>
-      <c r="K88" s="95"/>
-      <c r="N88" s="93"/>
+      <c r="J88" s="91"/>
+      <c r="K88" s="97"/>
+      <c r="N88" s="94"/>
       <c r="O88" s="99"/>
     </row>
     <row r="89" spans="10:15">
-      <c r="J89" s="91"/>
-      <c r="K89" s="95"/>
-      <c r="N89" s="93"/>
+      <c r="J89" s="92"/>
+      <c r="K89" s="97"/>
+      <c r="N89" s="94"/>
       <c r="O89" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="AO2:AQ2"/>
     <mergeCell ref="AS2:AU2"/>
     <mergeCell ref="J86:J89"/>
@@ -21212,6 +21334,11 @@
     <mergeCell ref="AC2:AE2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="AK2:AM2"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Ставки/КХЛ 23-24.xlsx
+++ b/Ставки/КХЛ 23-24.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11010" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11010" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="22-23" sheetId="1" r:id="rId1"/>
@@ -2790,10 +2790,10 @@
     <xf numFmtId="0" fontId="9" fillId="13" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3460,99 +3460,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="5:63" ht="15.75">
-      <c r="E1" s="88" t="s">
+      <c r="E1" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
       <c r="H1" s="83">
         <v>3.6</v>
       </c>
-      <c r="J1" s="89" t="s">
+      <c r="J1" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
       <c r="M1" s="83">
         <v>3.5</v>
       </c>
-      <c r="O1" s="89" t="s">
+      <c r="O1" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
       <c r="R1" s="83">
         <v>3.8</v>
       </c>
-      <c r="T1" s="89" t="s">
+      <c r="T1" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
       <c r="W1" s="83">
         <v>3.9</v>
       </c>
-      <c r="Y1" s="89" t="s">
+      <c r="Y1" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="Z1" s="88"/>
-      <c r="AA1" s="88"/>
+      <c r="Z1" s="89"/>
+      <c r="AA1" s="89"/>
       <c r="AB1" s="83">
         <v>4</v>
       </c>
-      <c r="AD1" s="89" t="s">
+      <c r="AD1" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="AE1" s="88"/>
-      <c r="AF1" s="88"/>
+      <c r="AE1" s="89"/>
+      <c r="AF1" s="89"/>
       <c r="AG1" s="83">
         <v>4.0999999999999996</v>
       </c>
-      <c r="AI1" s="89" t="s">
+      <c r="AI1" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="88"/>
-      <c r="AK1" s="88"/>
+      <c r="AJ1" s="89"/>
+      <c r="AK1" s="89"/>
       <c r="AL1" s="83">
         <v>4.2</v>
       </c>
-      <c r="AN1" s="89" t="s">
+      <c r="AN1" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="AO1" s="88"/>
-      <c r="AP1" s="88"/>
+      <c r="AO1" s="89"/>
+      <c r="AP1" s="89"/>
       <c r="AQ1" s="83">
         <v>4.3</v>
       </c>
-      <c r="AS1" s="89" t="s">
+      <c r="AS1" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="AT1" s="88"/>
-      <c r="AU1" s="88"/>
+      <c r="AT1" s="89"/>
+      <c r="AU1" s="89"/>
       <c r="AV1" s="83">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AX1" s="89" t="s">
+      <c r="AX1" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="AY1" s="88"/>
-      <c r="AZ1" s="88"/>
+      <c r="AY1" s="89"/>
+      <c r="AZ1" s="89"/>
       <c r="BA1" s="83">
         <v>4.5</v>
       </c>
-      <c r="BC1" s="89" t="s">
+      <c r="BC1" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="BD1" s="88"/>
-      <c r="BE1" s="88"/>
+      <c r="BD1" s="89"/>
+      <c r="BE1" s="89"/>
       <c r="BF1" s="83">
         <v>4.5999999999999996</v>
       </c>
-      <c r="BH1" s="89" t="s">
+      <c r="BH1" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="BI1" s="88"/>
-      <c r="BJ1" s="88"/>
+      <c r="BI1" s="89"/>
+      <c r="BJ1" s="89"/>
       <c r="BK1" s="83">
         <v>4.7</v>
       </c>
@@ -4627,11 +4627,11 @@
       </c>
     </row>
     <row r="29" spans="5:43" ht="15.75">
-      <c r="E29" s="88" t="s">
+      <c r="E29" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="F29" s="88"/>
-      <c r="G29" s="88"/>
+      <c r="F29" s="89"/>
+      <c r="G29" s="89"/>
       <c r="H29" s="83">
         <v>3.6</v>
       </c>
@@ -5004,8 +5004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AR85"/>
   <sheetViews>
-    <sheetView topLeftCell="N36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W74" sqref="W74"/>
+    <sheetView tabSelected="1" topLeftCell="G36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W75" sqref="W75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -12715,7 +12715,9 @@
       <c r="W72" s="53">
         <v>-1500</v>
       </c>
-      <c r="X72" s="53"/>
+      <c r="X72" s="53">
+        <v>-4.0999999999999996</v>
+      </c>
       <c r="Y72" s="52"/>
       <c r="Z72" s="52" t="s">
         <v>53</v>
@@ -12778,7 +12780,10 @@
       <c r="W73" s="53">
         <v>-2500</v>
       </c>
-      <c r="X73" s="53"/>
+      <c r="X73" s="53">
+        <f>X72*W74</f>
+        <v>8200</v>
+      </c>
       <c r="Y73" s="52"/>
       <c r="Z73" s="52" t="s">
         <v>53</v>
@@ -12834,8 +12839,13 @@
       <c r="V74" s="53" t="s">
         <v>269</v>
       </c>
-      <c r="W74" s="53"/>
-      <c r="X74" s="53"/>
+      <c r="W74" s="53">
+        <v>-2000</v>
+      </c>
+      <c r="X74" s="53">
+        <f>X73+SUM(W72:W74)</f>
+        <v>2200</v>
+      </c>
       <c r="Y74" s="52"/>
       <c r="Z74" s="52" t="s">
         <v>124</v>
@@ -12883,7 +12893,9 @@
       <c r="J75" s="53" t="s">
         <v>124</v>
       </c>
-      <c r="K75" s="53"/>
+      <c r="K75" s="53">
+        <v>-3000</v>
+      </c>
       <c r="L75" s="53"/>
       <c r="U75" s="53"/>
       <c r="V75" s="53" t="s">
@@ -12907,7 +12919,9 @@
       <c r="AL75" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="AM75" s="53"/>
+      <c r="AM75" s="53">
+        <v>-2000</v>
+      </c>
       <c r="AO75" s="52"/>
       <c r="AP75" s="52" t="s">
         <v>60</v>
@@ -12992,6 +13006,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="AO2:AQ2"/>
     <mergeCell ref="J82:J85"/>
     <mergeCell ref="K82:K85"/>
@@ -13002,11 +13021,6 @@
     <mergeCell ref="AC2:AE2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="AK2:AM2"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>
@@ -13017,8 +13031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AV89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M43" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AB73" sqref="AB73"/>
+    <sheetView topLeftCell="T37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AI76" sqref="AI76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -21599,7 +21613,9 @@
       <c r="W72" s="53">
         <v>-2000</v>
       </c>
-      <c r="X72" s="53"/>
+      <c r="X72" s="53">
+        <v>-3.72</v>
+      </c>
       <c r="Y72" s="53"/>
       <c r="Z72" s="53" t="s">
         <v>679</v>
@@ -21624,7 +21640,7 @@
         <v>-3000</v>
       </c>
       <c r="AJ72" s="53">
-        <v>-3.75</v>
+        <v>-3.8</v>
       </c>
       <c r="AK72" s="52"/>
       <c r="AL72" s="52" t="s">
@@ -21664,7 +21680,10 @@
       <c r="W73" s="53">
         <v>-3000</v>
       </c>
-      <c r="X73" s="53"/>
+      <c r="X73" s="53">
+        <f>X72*W75</f>
+        <v>11160</v>
+      </c>
       <c r="Y73" s="53"/>
       <c r="Z73" s="53" t="s">
         <v>679</v>
@@ -21690,8 +21709,8 @@
         <v>-4000</v>
       </c>
       <c r="AJ73" s="53">
-        <f>AJ72*AI74</f>
-        <v>15000</v>
+        <f>AJ72*AI75</f>
+        <v>15200</v>
       </c>
       <c r="AK73" s="52"/>
       <c r="AL73" s="52" t="s">
@@ -21726,7 +21745,10 @@
       <c r="W74" s="53">
         <v>-3000</v>
       </c>
-      <c r="X74" s="53"/>
+      <c r="X74" s="53">
+        <f>X73+SUM(W72:W75)</f>
+        <v>160</v>
+      </c>
       <c r="Y74" s="53"/>
       <c r="Z74" s="53" t="s">
         <v>724</v>
@@ -21752,8 +21774,8 @@
         <v>-4000</v>
       </c>
       <c r="AJ74" s="53">
-        <f>AJ73+SUM(AI72:AI74)</f>
-        <v>4000</v>
+        <f>AJ73+SUM(AI72:AI75)</f>
+        <v>200</v>
       </c>
       <c r="AK74" s="52"/>
       <c r="AL74" s="52" t="s">
@@ -21781,12 +21803,14 @@
       </c>
       <c r="S75" s="52"/>
       <c r="T75" s="52"/>
-      <c r="U75" s="53"/>
-      <c r="V75" s="53" t="s">
+      <c r="U75" s="58"/>
+      <c r="V75" s="58" t="s">
         <v>662</v>
       </c>
-      <c r="W75" s="53"/>
-      <c r="X75" s="53"/>
+      <c r="W75" s="58">
+        <v>-3000</v>
+      </c>
+      <c r="X75" s="58"/>
       <c r="Y75" s="53"/>
       <c r="Z75" s="53" t="s">
         <v>724</v>
@@ -21803,7 +21827,9 @@
       <c r="AH75" s="53" t="s">
         <v>567</v>
       </c>
-      <c r="AI75" s="53"/>
+      <c r="AI75" s="53">
+        <v>-4000</v>
+      </c>
       <c r="AJ75" s="53"/>
       <c r="AK75" s="52"/>
       <c r="AL75" s="52" t="s">
@@ -21886,6 +21912,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="AO2:AQ2"/>
     <mergeCell ref="AS2:AU2"/>
     <mergeCell ref="J86:J89"/>
@@ -21897,11 +21928,6 @@
     <mergeCell ref="AC2:AE2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="AK2:AM2"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Ставки/КХЛ 23-24.xlsx
+++ b/Ставки/КХЛ 23-24.xlsx
@@ -2697,7 +2697,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -2835,6 +2835,8 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% - Акцент4" xfId="4" builtinId="42"/>
@@ -5004,8 +5006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AR85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W75" sqref="W75"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -12686,36 +12688,36 @@
       </c>
     </row>
     <row r="72" spans="1:44">
-      <c r="A72" s="53"/>
-      <c r="B72" s="53" t="s">
+      <c r="A72" s="103"/>
+      <c r="B72" s="103" t="s">
         <v>302</v>
       </c>
-      <c r="C72" s="53">
+      <c r="C72" s="103">
         <v>-2000</v>
       </c>
-      <c r="D72" s="53"/>
+      <c r="D72" s="103"/>
       <c r="E72" s="52"/>
       <c r="F72" s="52" t="s">
         <v>118</v>
       </c>
       <c r="G72" s="52"/>
       <c r="H72" s="52"/>
-      <c r="I72" s="53"/>
-      <c r="J72" s="53" t="s">
+      <c r="I72" s="103"/>
+      <c r="J72" s="103" t="s">
         <v>53</v>
       </c>
-      <c r="K72" s="53">
+      <c r="K72" s="103">
         <v>-2000</v>
       </c>
-      <c r="L72" s="53"/>
-      <c r="U72" s="53"/>
-      <c r="V72" s="53" t="s">
+      <c r="L72" s="103"/>
+      <c r="U72" s="103"/>
+      <c r="V72" s="103" t="s">
         <v>421</v>
       </c>
-      <c r="W72" s="53">
+      <c r="W72" s="103">
         <v>-1500</v>
       </c>
-      <c r="X72" s="53">
+      <c r="X72" s="103">
         <v>-4.0999999999999996</v>
       </c>
       <c r="Y72" s="52"/>
@@ -12748,14 +12750,14 @@
       <c r="AR72" s="52"/>
     </row>
     <row r="73" spans="1:44">
-      <c r="A73" s="53"/>
-      <c r="B73" s="53" t="s">
+      <c r="A73" s="103"/>
+      <c r="B73" s="103" t="s">
         <v>302</v>
       </c>
-      <c r="C73" s="53">
+      <c r="C73" s="104">
         <v>-2500</v>
       </c>
-      <c r="D73" s="53">
+      <c r="D73" s="104">
         <f>12750+SUM(C72:C73)</f>
         <v>8250</v>
       </c>
@@ -12765,22 +12767,22 @@
       </c>
       <c r="G73" s="52"/>
       <c r="H73" s="52"/>
-      <c r="I73" s="53"/>
-      <c r="J73" s="53" t="s">
+      <c r="I73" s="103"/>
+      <c r="J73" s="103" t="s">
         <v>53</v>
       </c>
-      <c r="K73" s="53">
+      <c r="K73" s="103">
         <v>-3000</v>
       </c>
-      <c r="L73" s="53"/>
-      <c r="U73" s="53"/>
-      <c r="V73" s="53" t="s">
+      <c r="L73" s="103"/>
+      <c r="U73" s="103"/>
+      <c r="V73" s="103" t="s">
         <v>421</v>
       </c>
-      <c r="W73" s="53">
+      <c r="W73" s="103">
         <v>-2500</v>
       </c>
-      <c r="X73" s="53">
+      <c r="X73" s="103">
         <f>X72*W74</f>
         <v>8200</v>
       </c>
@@ -12815,34 +12817,36 @@
       <c r="AR73" s="52"/>
     </row>
     <row r="74" spans="1:44">
-      <c r="A74" s="53"/>
-      <c r="B74" s="53" t="s">
+      <c r="A74" s="103"/>
+      <c r="B74" s="103" t="s">
         <v>60</v>
       </c>
-      <c r="C74" s="53"/>
-      <c r="D74" s="53"/>
+      <c r="C74" s="103">
+        <v>-2000</v>
+      </c>
+      <c r="D74" s="103"/>
       <c r="E74" s="52"/>
       <c r="F74" s="52" t="s">
         <v>102</v>
       </c>
       <c r="G74" s="52"/>
       <c r="H74" s="52"/>
-      <c r="I74" s="53"/>
-      <c r="J74" s="53" t="s">
+      <c r="I74" s="103"/>
+      <c r="J74" s="103" t="s">
         <v>124</v>
       </c>
-      <c r="K74" s="53">
+      <c r="K74" s="103">
         <v>-3000</v>
       </c>
-      <c r="L74" s="53"/>
-      <c r="U74" s="53"/>
-      <c r="V74" s="53" t="s">
+      <c r="L74" s="103"/>
+      <c r="U74" s="103"/>
+      <c r="V74" s="103" t="s">
         <v>269</v>
       </c>
-      <c r="W74" s="53">
+      <c r="W74" s="103">
         <v>-2000</v>
       </c>
-      <c r="X74" s="53">
+      <c r="X74" s="103">
         <f>X73+SUM(W72:W74)</f>
         <v>2200</v>
       </c>
@@ -12862,7 +12866,7 @@
       <c r="AL74" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="AM74" s="53">
+      <c r="AM74" s="51">
         <v>-4000</v>
       </c>
       <c r="AN74">
@@ -12877,32 +12881,37 @@
       <c r="AR74" s="52"/>
     </row>
     <row r="75" spans="1:44">
-      <c r="A75" s="53"/>
-      <c r="B75" s="53" t="s">
+      <c r="A75" s="103"/>
+      <c r="B75" s="103" t="s">
         <v>60</v>
       </c>
-      <c r="C75" s="53"/>
-      <c r="D75" s="53"/>
+      <c r="C75" s="103">
+        <v>-2500</v>
+      </c>
+      <c r="D75" s="103"/>
       <c r="E75" s="52"/>
       <c r="F75" s="52" t="s">
         <v>102</v>
       </c>
       <c r="G75" s="52"/>
       <c r="H75" s="52"/>
-      <c r="I75" s="53"/>
-      <c r="J75" s="53" t="s">
+      <c r="I75" s="103"/>
+      <c r="J75" s="103" t="s">
         <v>124</v>
       </c>
-      <c r="K75" s="53">
+      <c r="K75" s="104">
         <v>-3000</v>
       </c>
-      <c r="L75" s="53"/>
-      <c r="U75" s="53"/>
-      <c r="V75" s="53" t="s">
+      <c r="L75" s="104">
+        <f>12450+SUM(K72:K75)</f>
+        <v>1450</v>
+      </c>
+      <c r="U75" s="103"/>
+      <c r="V75" s="103" t="s">
         <v>269</v>
       </c>
-      <c r="W75" s="53"/>
-      <c r="X75" s="53"/>
+      <c r="W75" s="103"/>
+      <c r="X75" s="103"/>
       <c r="Y75" s="52"/>
       <c r="Z75" s="52" t="s">
         <v>124</v>
@@ -12930,26 +12939,26 @@
       <c r="AR75" s="52"/>
     </row>
     <row r="76" spans="1:44">
-      <c r="A76" s="53"/>
-      <c r="B76" s="53" t="s">
+      <c r="A76" s="103"/>
+      <c r="B76" s="103" t="s">
         <v>302</v>
       </c>
-      <c r="C76" s="53"/>
-      <c r="D76" s="53"/>
+      <c r="C76" s="103"/>
+      <c r="D76" s="103"/>
       <c r="E76" s="52"/>
       <c r="F76" s="52" t="s">
         <v>118</v>
       </c>
       <c r="G76" s="52"/>
       <c r="H76" s="52"/>
-      <c r="I76" s="53"/>
-      <c r="J76" s="53"/>
-      <c r="K76" s="53"/>
-      <c r="L76" s="53"/>
-      <c r="U76" s="53"/>
-      <c r="V76" s="53"/>
-      <c r="W76" s="53"/>
-      <c r="X76" s="53"/>
+      <c r="I76" s="103"/>
+      <c r="J76" s="103"/>
+      <c r="K76" s="103"/>
+      <c r="L76" s="103"/>
+      <c r="U76" s="103"/>
+      <c r="V76" s="103"/>
+      <c r="W76" s="103"/>
+      <c r="X76" s="103"/>
       <c r="Y76" s="52"/>
       <c r="Z76" s="52"/>
       <c r="AA76" s="52"/>
@@ -13006,11 +13015,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="AO2:AQ2"/>
     <mergeCell ref="J82:J85"/>
     <mergeCell ref="K82:K85"/>
@@ -13021,6 +13025,11 @@
     <mergeCell ref="AC2:AE2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="AK2:AM2"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>
@@ -13031,8 +13040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AV89"/>
   <sheetViews>
-    <sheetView topLeftCell="T37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AI76" sqref="AI76"/>
+    <sheetView topLeftCell="A40" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -21624,7 +21633,7 @@
         <v>-2000</v>
       </c>
       <c r="AB72" s="53">
-        <v>-3.85</v>
+        <v>-3.8</v>
       </c>
       <c r="AC72" s="52"/>
       <c r="AD72" s="52" t="s">
@@ -21632,14 +21641,14 @@
       </c>
       <c r="AE72" s="52"/>
       <c r="AF72" s="52"/>
-      <c r="AG72" s="53"/>
-      <c r="AH72" s="53" t="s">
+      <c r="AG72" s="103"/>
+      <c r="AH72" s="103" t="s">
         <v>562</v>
       </c>
-      <c r="AI72" s="53">
+      <c r="AI72" s="103">
         <v>-3000</v>
       </c>
-      <c r="AJ72" s="53">
+      <c r="AJ72" s="103">
         <v>-3.8</v>
       </c>
       <c r="AK72" s="52"/>
@@ -21692,8 +21701,8 @@
         <v>-2500</v>
       </c>
       <c r="AB73" s="53">
-        <f>AB72*AA74</f>
-        <v>12320</v>
+        <f>AB72*AA75</f>
+        <v>13300</v>
       </c>
       <c r="AC73" s="52"/>
       <c r="AD73" s="52" t="s">
@@ -21701,14 +21710,14 @@
       </c>
       <c r="AE73" s="52"/>
       <c r="AF73" s="52"/>
-      <c r="AG73" s="53"/>
-      <c r="AH73" s="53" t="s">
+      <c r="AG73" s="103"/>
+      <c r="AH73" s="103" t="s">
         <v>562</v>
       </c>
-      <c r="AI73" s="53">
+      <c r="AI73" s="103">
         <v>-4000</v>
       </c>
-      <c r="AJ73" s="53">
+      <c r="AJ73" s="103">
         <f>AJ72*AI75</f>
         <v>15200</v>
       </c>
@@ -21730,7 +21739,9 @@
       <c r="F74" s="53" t="s">
         <v>587</v>
       </c>
-      <c r="G74" s="53"/>
+      <c r="G74" s="53">
+        <v>-2000</v>
+      </c>
       <c r="H74" s="53"/>
       <c r="Q74" s="52"/>
       <c r="R74" s="52" t="s">
@@ -21757,8 +21768,8 @@
         <v>-3200</v>
       </c>
       <c r="AB74" s="53">
-        <f>AB73+SUM(AA72:AA74)</f>
-        <v>4620</v>
+        <f>AB73+SUM(AA72:AA75)</f>
+        <v>2100</v>
       </c>
       <c r="AC74" s="52"/>
       <c r="AD74" s="52" t="s">
@@ -21766,14 +21777,14 @@
       </c>
       <c r="AE74" s="52"/>
       <c r="AF74" s="52"/>
-      <c r="AG74" s="53"/>
-      <c r="AH74" s="53" t="s">
+      <c r="AG74" s="103"/>
+      <c r="AH74" s="103" t="s">
         <v>567</v>
       </c>
-      <c r="AI74" s="53">
+      <c r="AI74" s="103">
         <v>-4000</v>
       </c>
-      <c r="AJ74" s="53">
+      <c r="AJ74" s="103">
         <f>AJ73+SUM(AI72:AI75)</f>
         <v>200</v>
       </c>
@@ -21795,7 +21806,9 @@
       <c r="F75" s="53" t="s">
         <v>587</v>
       </c>
-      <c r="G75" s="53"/>
+      <c r="G75" s="53">
+        <v>-2500</v>
+      </c>
       <c r="H75" s="53"/>
       <c r="Q75" s="52"/>
       <c r="R75" s="52" t="s">
@@ -21803,19 +21816,21 @@
       </c>
       <c r="S75" s="52"/>
       <c r="T75" s="52"/>
-      <c r="U75" s="58"/>
-      <c r="V75" s="58" t="s">
+      <c r="U75" s="53"/>
+      <c r="V75" s="53" t="s">
         <v>662</v>
       </c>
-      <c r="W75" s="58">
+      <c r="W75" s="53">
         <v>-3000</v>
       </c>
-      <c r="X75" s="58"/>
+      <c r="X75" s="53"/>
       <c r="Y75" s="53"/>
       <c r="Z75" s="53" t="s">
         <v>724</v>
       </c>
-      <c r="AA75" s="53"/>
+      <c r="AA75" s="53">
+        <v>-3500</v>
+      </c>
       <c r="AB75" s="53"/>
       <c r="AC75" s="52"/>
       <c r="AD75" s="52" t="s">
@@ -21823,14 +21838,14 @@
       </c>
       <c r="AE75" s="52"/>
       <c r="AF75" s="52"/>
-      <c r="AG75" s="53"/>
-      <c r="AH75" s="53" t="s">
+      <c r="AG75" s="103"/>
+      <c r="AH75" s="103" t="s">
         <v>567</v>
       </c>
-      <c r="AI75" s="53">
+      <c r="AI75" s="103">
         <v>-4000</v>
       </c>
-      <c r="AJ75" s="53"/>
+      <c r="AJ75" s="103"/>
       <c r="AK75" s="52"/>
       <c r="AL75" s="52" t="s">
         <v>724</v>
@@ -21865,10 +21880,10 @@
       <c r="AD76" s="52"/>
       <c r="AE76" s="52"/>
       <c r="AF76" s="52"/>
-      <c r="AG76" s="53"/>
-      <c r="AH76" s="53"/>
-      <c r="AI76" s="53"/>
-      <c r="AJ76" s="53"/>
+      <c r="AG76" s="103"/>
+      <c r="AH76" s="103"/>
+      <c r="AI76" s="103"/>
+      <c r="AJ76" s="103"/>
       <c r="AK76" s="52"/>
       <c r="AL76" s="52" t="s">
         <v>679</v>
@@ -21912,11 +21927,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="AO2:AQ2"/>
     <mergeCell ref="AS2:AU2"/>
     <mergeCell ref="J86:J89"/>
@@ -21928,6 +21938,11 @@
     <mergeCell ref="AC2:AE2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="AK2:AM2"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Ставки/КХЛ 23-24.xlsx
+++ b/Ставки/КХЛ 23-24.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Repository_1\Ставки\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11010" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11010" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="22-23" sheetId="1" r:id="rId1"/>
@@ -13,7 +18,7 @@
     <sheet name="23-24 Восток" sheetId="4" r:id="rId4"/>
     <sheet name="Плей-офф" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -23,7 +28,7 @@
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -39,7 +44,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E29" authorId="0">
+    <comment ref="E29" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -60,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1845" uniqueCount="749">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1847" uniqueCount="749">
   <si>
     <t>№</t>
   </si>
@@ -2312,8 +2317,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2790,6 +2795,8 @@
     <xf numFmtId="0" fontId="9" fillId="13" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2835,11 +2842,9 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="20% - Акцент4" xfId="4" builtinId="42"/>
+    <cellStyle name="20% — акцент4" xfId="4" builtinId="42"/>
     <cellStyle name="Вывод" xfId="1" builtinId="21"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Плохой" xfId="3" builtinId="27"/>
@@ -2855,6 +2860,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2903,7 +2911,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2935,9 +2943,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2969,6 +2978,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -3144,21 +3154,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3175,7 +3185,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3187,13 +3197,13 @@
       </c>
       <c r="D2">
         <f>68/C2</f>
-        <v>4.5333333333333297</v>
+        <v>4.5333333333333332</v>
       </c>
       <c r="E2">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3205,13 +3215,13 @@
       </c>
       <c r="D3">
         <f>68/C3</f>
-        <v>3.7777777777777799</v>
+        <v>3.7777777777777777</v>
       </c>
       <c r="E3">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3226,7 +3236,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3241,7 +3251,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3256,7 +3266,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3268,10 +3278,10 @@
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>3.7777777777777799</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>3.7777777777777777</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3283,10 +3293,10 @@
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>2.8333333333333299</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>2.8333333333333335</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3301,7 +3311,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3313,10 +3323,10 @@
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>4.5333333333333297</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>4.5333333333333332</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3328,10 +3338,10 @@
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>5.2307692307692299</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>5.2307692307692308</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3343,10 +3353,10 @@
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>5.6666666666666696</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>5.666666666666667</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3354,7 +3364,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3362,7 +3372,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3370,7 +3380,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3378,7 +3388,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3386,7 +3396,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3394,7 +3404,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3402,7 +3412,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3410,7 +3420,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3418,7 +3428,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3426,7 +3436,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3434,7 +3444,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3446,14 +3456,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E1:BK54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="12.5703125" customWidth="1"/>
     <col min="11" max="11" width="10.42578125" customWidth="1"/>
@@ -3461,105 +3471,105 @@
     <col min="42" max="42" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:63" ht="15.75">
-      <c r="E1" s="89" t="s">
+    <row r="1" spans="5:63" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E1" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
       <c r="H1" s="83">
         <v>3.6</v>
       </c>
-      <c r="J1" s="88" t="s">
+      <c r="J1" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
       <c r="M1" s="83">
         <v>3.5</v>
       </c>
-      <c r="O1" s="88" t="s">
+      <c r="O1" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
       <c r="R1" s="83">
         <v>3.8</v>
       </c>
-      <c r="T1" s="88" t="s">
+      <c r="T1" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
+      <c r="U1" s="91"/>
+      <c r="V1" s="91"/>
       <c r="W1" s="83">
         <v>3.9</v>
       </c>
-      <c r="Y1" s="88" t="s">
+      <c r="Y1" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="Z1" s="89"/>
-      <c r="AA1" s="89"/>
+      <c r="Z1" s="91"/>
+      <c r="AA1" s="91"/>
       <c r="AB1" s="83">
         <v>4</v>
       </c>
-      <c r="AD1" s="88" t="s">
+      <c r="AD1" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="AE1" s="89"/>
-      <c r="AF1" s="89"/>
+      <c r="AE1" s="91"/>
+      <c r="AF1" s="91"/>
       <c r="AG1" s="83">
         <v>4.0999999999999996</v>
       </c>
-      <c r="AI1" s="88" t="s">
+      <c r="AI1" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="89"/>
-      <c r="AK1" s="89"/>
+      <c r="AJ1" s="91"/>
+      <c r="AK1" s="91"/>
       <c r="AL1" s="83">
         <v>4.2</v>
       </c>
-      <c r="AN1" s="88" t="s">
+      <c r="AN1" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="AO1" s="89"/>
-      <c r="AP1" s="89"/>
+      <c r="AO1" s="91"/>
+      <c r="AP1" s="91"/>
       <c r="AQ1" s="83">
         <v>4.3</v>
       </c>
-      <c r="AS1" s="88" t="s">
+      <c r="AS1" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="AT1" s="89"/>
-      <c r="AU1" s="89"/>
+      <c r="AT1" s="91"/>
+      <c r="AU1" s="91"/>
       <c r="AV1" s="83">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AX1" s="88" t="s">
+      <c r="AX1" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="AY1" s="89"/>
-      <c r="AZ1" s="89"/>
+      <c r="AY1" s="91"/>
+      <c r="AZ1" s="91"/>
       <c r="BA1" s="83">
         <v>4.5</v>
       </c>
-      <c r="BC1" s="88" t="s">
+      <c r="BC1" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="BD1" s="89"/>
-      <c r="BE1" s="89"/>
+      <c r="BD1" s="91"/>
+      <c r="BE1" s="91"/>
       <c r="BF1" s="83">
         <v>4.5999999999999996</v>
       </c>
-      <c r="BH1" s="88" t="s">
+      <c r="BH1" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="BI1" s="89"/>
-      <c r="BJ1" s="89"/>
+      <c r="BI1" s="91"/>
+      <c r="BJ1" s="91"/>
       <c r="BK1" s="83">
         <v>4.7</v>
       </c>
     </row>
-    <row r="2" spans="5:63" ht="15.75">
+    <row r="2" spans="5:63" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E2" s="82" t="s">
         <v>0</v>
       </c>
@@ -3705,7 +3715,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="5:63">
+    <row r="3" spans="5:63" x14ac:dyDescent="0.25">
       <c r="E3" s="84">
         <v>1</v>
       </c>
@@ -3763,7 +3773,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="5:63">
+    <row r="4" spans="5:63" x14ac:dyDescent="0.25">
       <c r="E4" s="84">
         <v>2</v>
       </c>
@@ -3821,7 +3831,7 @@
         <v>154.5</v>
       </c>
     </row>
-    <row r="5" spans="5:63">
+    <row r="5" spans="5:63" x14ac:dyDescent="0.25">
       <c r="E5" s="84">
         <v>3</v>
       </c>
@@ -3879,7 +3889,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="5:63">
+    <row r="6" spans="5:63" x14ac:dyDescent="0.25">
       <c r="E6" s="84">
         <v>4</v>
       </c>
@@ -3937,7 +3947,7 @@
         <v>85.5</v>
       </c>
     </row>
-    <row r="7" spans="5:63">
+    <row r="7" spans="5:63" x14ac:dyDescent="0.25">
       <c r="E7" s="84">
         <v>5</v>
       </c>
@@ -3950,7 +3960,7 @@
       </c>
       <c r="H7" s="84">
         <f>G7-SUM($F$3:F7)</f>
-        <v>1.19999999999999</v>
+        <v>1.1999999999999886</v>
       </c>
       <c r="J7">
         <v>5</v>
@@ -3984,7 +3994,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="5:63">
+    <row r="8" spans="5:63" x14ac:dyDescent="0.25">
       <c r="E8" s="84">
         <v>6</v>
       </c>
@@ -4031,7 +4041,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="9" spans="5:63">
+    <row r="9" spans="5:63" x14ac:dyDescent="0.25">
       <c r="E9" s="84">
         <v>7</v>
       </c>
@@ -4078,7 +4088,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="5:63">
+    <row r="10" spans="5:63" x14ac:dyDescent="0.25">
       <c r="E10" s="84">
         <v>8</v>
       </c>
@@ -4091,7 +4101,7 @@
       </c>
       <c r="H10" s="84">
         <f>G10-SUM($F$3:F10)</f>
-        <v>2.7999999999999501</v>
+        <v>2.7999999999999545</v>
       </c>
       <c r="J10">
         <v>9</v>
@@ -4125,7 +4135,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="5:63">
+    <row r="11" spans="5:63" x14ac:dyDescent="0.25">
       <c r="E11" s="84">
         <v>9</v>
       </c>
@@ -4172,7 +4182,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="5:63">
+    <row r="12" spans="5:63" x14ac:dyDescent="0.25">
       <c r="E12" s="84">
         <v>10</v>
       </c>
@@ -4181,11 +4191,11 @@
       </c>
       <c r="G12" s="84">
         <f t="shared" si="2"/>
-        <v>2059.1999999999998</v>
+        <v>2059.2000000000003</v>
       </c>
       <c r="H12" s="84">
         <f>G12-SUM($F$3:F12)</f>
-        <v>2.2000000000002702</v>
+        <v>2.2000000000002728</v>
       </c>
       <c r="O12">
         <v>10</v>
@@ -4205,7 +4215,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="5:63">
+    <row r="13" spans="5:63" x14ac:dyDescent="0.25">
       <c r="E13" s="84">
         <v>11</v>
       </c>
@@ -4214,11 +4224,11 @@
       </c>
       <c r="G13" s="84">
         <f t="shared" si="2"/>
-        <v>2851.2</v>
+        <v>2851.2000000000003</v>
       </c>
       <c r="H13" s="84">
         <f>G13-SUM($F$3:F13)</f>
-        <v>2.2000000000002702</v>
+        <v>2.2000000000002728</v>
       </c>
       <c r="O13">
         <v>11</v>
@@ -4238,7 +4248,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="14" spans="5:63">
+    <row r="14" spans="5:63" x14ac:dyDescent="0.25">
       <c r="E14" s="84">
         <v>12</v>
       </c>
@@ -4251,7 +4261,7 @@
       </c>
       <c r="H14" s="84">
         <f>G14-SUM($F$3:F14)</f>
-        <v>5.8000000000001801</v>
+        <v>5.8000000000001819</v>
       </c>
       <c r="O14">
         <v>12</v>
@@ -4271,7 +4281,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="15" spans="5:63">
+    <row r="15" spans="5:63" x14ac:dyDescent="0.25">
       <c r="E15" s="84">
         <v>13</v>
       </c>
@@ -4304,7 +4314,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="16" spans="5:63">
+    <row r="16" spans="5:63" x14ac:dyDescent="0.25">
       <c r="E16" s="84">
         <v>14</v>
       </c>
@@ -4337,7 +4347,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="5:43">
+    <row r="17" spans="5:43" x14ac:dyDescent="0.25">
       <c r="E17" s="84">
         <v>15</v>
       </c>
@@ -4370,7 +4380,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="18" spans="5:43">
+    <row r="18" spans="5:43" x14ac:dyDescent="0.25">
       <c r="E18" s="84">
         <v>16</v>
       </c>
@@ -4403,7 +4413,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="19" spans="5:43">
+    <row r="19" spans="5:43" x14ac:dyDescent="0.25">
       <c r="E19" s="84">
         <v>17</v>
       </c>
@@ -4436,7 +4446,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="5:43">
+    <row r="20" spans="5:43" x14ac:dyDescent="0.25">
       <c r="E20" s="84">
         <v>18</v>
       </c>
@@ -4469,7 +4479,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="21" spans="5:43">
+    <row r="21" spans="5:43" x14ac:dyDescent="0.25">
       <c r="E21" s="84">
         <v>19</v>
       </c>
@@ -4502,7 +4512,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="5:43">
+    <row r="22" spans="5:43" x14ac:dyDescent="0.25">
       <c r="E22" s="84">
         <v>20</v>
       </c>
@@ -4535,7 +4545,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="23" spans="5:43">
+    <row r="23" spans="5:43" x14ac:dyDescent="0.25">
       <c r="E23" s="84">
         <v>21</v>
       </c>
@@ -4565,7 +4575,7 @@
         <v>-21210</v>
       </c>
     </row>
-    <row r="24" spans="5:43">
+    <row r="24" spans="5:43" x14ac:dyDescent="0.25">
       <c r="E24" s="84">
         <v>22</v>
       </c>
@@ -4586,7 +4596,7 @@
         <v>-21210</v>
       </c>
     </row>
-    <row r="25" spans="5:43">
+    <row r="25" spans="5:43" x14ac:dyDescent="0.25">
       <c r="E25" s="84">
         <v>23</v>
       </c>
@@ -4607,7 +4617,7 @@
         <v>-21210</v>
       </c>
     </row>
-    <row r="26" spans="5:43">
+    <row r="26" spans="5:43" x14ac:dyDescent="0.25">
       <c r="E26" s="84">
         <v>24</v>
       </c>
@@ -4628,17 +4638,17 @@
         <v>-21210</v>
       </c>
     </row>
-    <row r="29" spans="5:43" ht="15.75">
-      <c r="E29" s="89" t="s">
+    <row r="29" spans="5:43" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E29" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="F29" s="89"/>
-      <c r="G29" s="89"/>
+      <c r="F29" s="91"/>
+      <c r="G29" s="91"/>
       <c r="H29" s="83">
         <v>3.6</v>
       </c>
     </row>
-    <row r="30" spans="5:43" ht="15.75">
+    <row r="30" spans="5:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E30" s="82" t="s">
         <v>0</v>
       </c>
@@ -4652,7 +4662,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="5:43">
+    <row r="31" spans="5:43" x14ac:dyDescent="0.25">
       <c r="E31" s="84">
         <v>1</v>
       </c>
@@ -4668,7 +4678,7 @@
         <v>291.2</v>
       </c>
     </row>
-    <row r="32" spans="5:43">
+    <row r="32" spans="5:43" x14ac:dyDescent="0.25">
       <c r="E32" s="84">
         <v>2</v>
       </c>
@@ -4684,7 +4694,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="33" spans="5:8">
+    <row r="33" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E33" s="84">
         <v>3</v>
       </c>
@@ -4700,7 +4710,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="34" spans="5:8">
+    <row r="34" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E34" s="84">
         <v>4</v>
       </c>
@@ -4713,10 +4723,10 @@
       </c>
       <c r="H34" s="86">
         <f>G34-SUM($F$31:F34)</f>
-        <v>292.8</v>
-      </c>
-    </row>
-    <row r="35" spans="5:8">
+        <v>292.79999999999995</v>
+      </c>
+    </row>
+    <row r="35" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E35" s="84">
         <v>5</v>
       </c>
@@ -4732,7 +4742,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="36" spans="5:8">
+    <row r="36" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E36" s="84">
         <v>6</v>
       </c>
@@ -4741,14 +4751,14 @@
       </c>
       <c r="G36" s="86">
         <f t="shared" si="4"/>
-        <v>2059.1999999999998</v>
+        <v>2059.2000000000003</v>
       </c>
       <c r="H36" s="86">
         <f>G36-SUM($F$31:F36)</f>
-        <v>292.2</v>
-      </c>
-    </row>
-    <row r="37" spans="5:8">
+        <v>292.20000000000027</v>
+      </c>
+    </row>
+    <row r="37" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E37" s="84">
         <v>7</v>
       </c>
@@ -4757,14 +4767,14 @@
       </c>
       <c r="G37" s="86">
         <f t="shared" si="4"/>
-        <v>2851.2</v>
+        <v>2851.2000000000003</v>
       </c>
       <c r="H37" s="86">
         <f>G37-SUM($F$31:F37)</f>
-        <v>292.2</v>
-      </c>
-    </row>
-    <row r="38" spans="5:8">
+        <v>292.20000000000027</v>
+      </c>
+    </row>
+    <row r="38" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E38" s="84">
         <v>8</v>
       </c>
@@ -4777,10 +4787,10 @@
       </c>
       <c r="H38" s="86">
         <f>G38-SUM($F$31:F38)</f>
-        <v>295.8</v>
-      </c>
-    </row>
-    <row r="39" spans="5:8">
+        <v>295.80000000000018</v>
+      </c>
+    </row>
+    <row r="39" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E39" s="84">
         <v>9</v>
       </c>
@@ -4796,7 +4806,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="40" spans="5:8">
+    <row r="40" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E40" s="84">
         <v>10</v>
       </c>
@@ -4812,7 +4822,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="41" spans="5:8">
+    <row r="41" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E41" s="84">
         <v>11</v>
       </c>
@@ -4828,7 +4838,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="42" spans="5:8">
+    <row r="42" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E42" s="84">
         <v>12</v>
       </c>
@@ -4844,7 +4854,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="43" spans="5:8">
+    <row r="43" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E43" s="84">
         <v>13</v>
       </c>
@@ -4860,7 +4870,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="44" spans="5:8">
+    <row r="44" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E44" s="84">
         <v>14</v>
       </c>
@@ -4876,7 +4886,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="45" spans="5:8">
+    <row r="45" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E45" s="84">
         <v>15</v>
       </c>
@@ -4892,7 +4902,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="46" spans="5:8">
+    <row r="46" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E46" s="84">
         <v>16</v>
       </c>
@@ -4908,7 +4918,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="47" spans="5:8">
+    <row r="47" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E47" s="84">
         <v>17</v>
       </c>
@@ -4924,7 +4934,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="48" spans="5:8">
+    <row r="48" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E48" s="84">
         <v>18</v>
       </c>
@@ -4932,7 +4942,7 @@
       <c r="G48" s="86"/>
       <c r="H48" s="86"/>
     </row>
-    <row r="49" spans="5:8">
+    <row r="49" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E49" s="84">
         <v>19</v>
       </c>
@@ -4940,7 +4950,7 @@
       <c r="G49" s="86"/>
       <c r="H49" s="86"/>
     </row>
-    <row r="50" spans="5:8">
+    <row r="50" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E50" s="84">
         <v>20</v>
       </c>
@@ -4948,7 +4958,7 @@
       <c r="G50" s="86"/>
       <c r="H50" s="86"/>
     </row>
-    <row r="51" spans="5:8">
+    <row r="51" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E51" s="84">
         <v>21</v>
       </c>
@@ -4956,7 +4966,7 @@
       <c r="G51" s="86"/>
       <c r="H51" s="86"/>
     </row>
-    <row r="52" spans="5:8">
+    <row r="52" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E52" s="84">
         <v>22</v>
       </c>
@@ -4964,7 +4974,7 @@
       <c r="G52" s="86"/>
       <c r="H52" s="86"/>
     </row>
-    <row r="53" spans="5:8">
+    <row r="53" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E53" s="84">
         <v>23</v>
       </c>
@@ -4972,7 +4982,7 @@
       <c r="G53" s="86"/>
       <c r="H53" s="86"/>
     </row>
-    <row r="54" spans="5:8">
+    <row r="54" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E54" s="84">
         <v>24</v>
       </c>
@@ -5003,14 +5013,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+    <sheetView topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W75" sqref="W75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" customWidth="1"/>
@@ -5028,7 +5038,7 @@
     <col min="42" max="42" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5129,75 +5139,75 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:44">
-      <c r="A2" s="90" t="s">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A2" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="92"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="94"/>
       <c r="D2" s="64"/>
-      <c r="E2" s="90" t="s">
+      <c r="E2" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="91"/>
-      <c r="G2" s="92"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="94"/>
       <c r="H2" s="65"/>
-      <c r="I2" s="90" t="s">
+      <c r="I2" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="91"/>
-      <c r="K2" s="92"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="94"/>
       <c r="L2" s="65"/>
-      <c r="M2" s="90" t="s">
+      <c r="M2" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="91"/>
-      <c r="O2" s="92"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="94"/>
       <c r="P2" s="65"/>
-      <c r="Q2" s="90" t="s">
+      <c r="Q2" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="91"/>
-      <c r="S2" s="92"/>
+      <c r="R2" s="93"/>
+      <c r="S2" s="94"/>
       <c r="T2" s="65"/>
-      <c r="U2" s="90" t="s">
+      <c r="U2" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="V2" s="91"/>
-      <c r="W2" s="92"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="94"/>
       <c r="X2" s="65"/>
-      <c r="Y2" s="90" t="s">
+      <c r="Y2" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="Z2" s="91"/>
-      <c r="AA2" s="92"/>
+      <c r="Z2" s="93"/>
+      <c r="AA2" s="94"/>
       <c r="AB2" s="65"/>
-      <c r="AC2" s="90" t="s">
+      <c r="AC2" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="AD2" s="91"/>
-      <c r="AE2" s="92"/>
+      <c r="AD2" s="93"/>
+      <c r="AE2" s="94"/>
       <c r="AF2" s="65"/>
-      <c r="AG2" s="90" t="s">
+      <c r="AG2" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="AH2" s="91"/>
-      <c r="AI2" s="92"/>
+      <c r="AH2" s="93"/>
+      <c r="AI2" s="94"/>
       <c r="AJ2" s="65"/>
-      <c r="AK2" s="90" t="s">
+      <c r="AK2" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="AL2" s="91"/>
-      <c r="AM2" s="92"/>
+      <c r="AL2" s="93"/>
+      <c r="AM2" s="94"/>
       <c r="AN2" s="65"/>
-      <c r="AO2" s="90" t="s">
+      <c r="AO2" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="AP2" s="91"/>
-      <c r="AQ2" s="92"/>
+      <c r="AP2" s="93"/>
+      <c r="AQ2" s="94"/>
       <c r="AR2" s="65"/>
     </row>
-    <row r="3" spans="1:44">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -5302,7 +5312,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="4" spans="1:44">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -5407,7 +5417,7 @@
         <v>-65</v>
       </c>
     </row>
-    <row r="5" spans="1:44">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -5512,7 +5522,7 @@
         <v>-75</v>
       </c>
     </row>
-    <row r="6" spans="1:44">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -5618,7 +5628,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="7" spans="1:44">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -5735,7 +5745,7 @@
         <v>-112</v>
       </c>
     </row>
-    <row r="8" spans="1:44">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -5840,7 +5850,7 @@
         <v>-155</v>
       </c>
     </row>
-    <row r="9" spans="1:44">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -5953,7 +5963,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:44">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -6062,7 +6072,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="11" spans="1:44">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -6171,7 +6181,7 @@
         <v>-65</v>
       </c>
     </row>
-    <row r="12" spans="1:44">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -6276,7 +6286,7 @@
         <v>-75</v>
       </c>
     </row>
-    <row r="13" spans="1:44">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -6385,7 +6395,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:44">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -6494,7 +6504,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="15" spans="1:44">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>13</v>
       </c>
@@ -6599,7 +6609,7 @@
         <v>-65</v>
       </c>
     </row>
-    <row r="16" spans="1:44">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>14</v>
       </c>
@@ -6708,7 +6718,7 @@
         <v>-75</v>
       </c>
     </row>
-    <row r="17" spans="1:44">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>15</v>
       </c>
@@ -6821,7 +6831,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="18" spans="1:44">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>16</v>
       </c>
@@ -6934,7 +6944,7 @@
         <v>-112</v>
       </c>
     </row>
-    <row r="19" spans="1:44">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>17</v>
       </c>
@@ -7043,7 +7053,7 @@
         <v>-155</v>
       </c>
     </row>
-    <row r="20" spans="1:44">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A20" s="68">
         <v>18</v>
       </c>
@@ -7153,7 +7163,7 @@
         <v>-215</v>
       </c>
     </row>
-    <row r="21" spans="1:44">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>19</v>
       </c>
@@ -7262,7 +7272,7 @@
         <v>-298</v>
       </c>
     </row>
-    <row r="22" spans="1:44">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>20</v>
       </c>
@@ -7380,7 +7390,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="23" spans="1:44">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>21</v>
       </c>
@@ -7489,7 +7499,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="24" spans="1:44">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>22</v>
       </c>
@@ -7594,7 +7604,7 @@
         <v>-65</v>
       </c>
     </row>
-    <row r="25" spans="1:44">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>23</v>
       </c>
@@ -7711,7 +7721,7 @@
         <v>-75</v>
       </c>
     </row>
-    <row r="26" spans="1:44">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>24</v>
       </c>
@@ -7821,7 +7831,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="27" spans="1:44">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>25</v>
       </c>
@@ -7934,7 +7944,7 @@
         <v>-112</v>
       </c>
     </row>
-    <row r="28" spans="1:44">
+    <row r="28" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>26</v>
       </c>
@@ -8056,7 +8066,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="29" spans="1:44">
+    <row r="29" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>27</v>
       </c>
@@ -8161,7 +8171,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="30" spans="1:44">
+    <row r="30" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>28</v>
       </c>
@@ -8268,7 +8278,7 @@
         <v>-65</v>
       </c>
     </row>
-    <row r="31" spans="1:44">
+    <row r="31" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>29</v>
       </c>
@@ -8378,7 +8388,7 @@
         <v>-75</v>
       </c>
     </row>
-    <row r="32" spans="1:44">
+    <row r="32" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A32" s="72">
         <v>30</v>
       </c>
@@ -8488,7 +8498,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="33" spans="1:44">
+    <row r="33" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A33" s="73">
         <v>31</v>
       </c>
@@ -8598,7 +8608,7 @@
         <v>-112</v>
       </c>
     </row>
-    <row r="34" spans="1:44">
+    <row r="34" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>32</v>
       </c>
@@ -8709,7 +8719,7 @@
         <v>-155</v>
       </c>
     </row>
-    <row r="35" spans="1:44">
+    <row r="35" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>33</v>
       </c>
@@ -8816,7 +8826,7 @@
         <v>-215</v>
       </c>
     </row>
-    <row r="36" spans="1:44">
+    <row r="36" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>34</v>
       </c>
@@ -8922,7 +8932,7 @@
         <v>-298</v>
       </c>
     </row>
-    <row r="37" spans="1:44">
+    <row r="37" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>35</v>
       </c>
@@ -9036,7 +9046,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="38" spans="1:44">
+    <row r="38" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>36</v>
       </c>
@@ -9146,7 +9156,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="39" spans="1:44">
+    <row r="39" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>37</v>
       </c>
@@ -9264,7 +9274,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="40" spans="1:44">
+    <row r="40" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>38</v>
       </c>
@@ -9380,7 +9390,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="41" spans="1:44">
+    <row r="41" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>39</v>
       </c>
@@ -9499,7 +9509,7 @@
         <v>-65</v>
       </c>
     </row>
-    <row r="42" spans="1:44">
+    <row r="42" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>40</v>
       </c>
@@ -9611,7 +9621,7 @@
         <v>-75</v>
       </c>
     </row>
-    <row r="43" spans="1:44">
+    <row r="43" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A43" s="19">
         <v>41</v>
       </c>
@@ -9723,7 +9733,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="44" spans="1:44">
+    <row r="44" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>42</v>
       </c>
@@ -9833,7 +9843,7 @@
         <v>-112</v>
       </c>
     </row>
-    <row r="45" spans="1:44">
+    <row r="45" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>43</v>
       </c>
@@ -9944,7 +9954,7 @@
         <v>-155</v>
       </c>
     </row>
-    <row r="46" spans="1:44">
+    <row r="46" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>44</v>
       </c>
@@ -10053,7 +10063,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="47" spans="1:44">
+    <row r="47" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>45</v>
       </c>
@@ -10169,7 +10179,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="48" spans="1:44">
+    <row r="48" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>46</v>
       </c>
@@ -10274,7 +10284,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="49" spans="1:44">
+    <row r="49" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>47</v>
       </c>
@@ -10383,7 +10393,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="50" spans="1:44">
+    <row r="50" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
         <v>48</v>
       </c>
@@ -10493,7 +10503,7 @@
         <v>-65</v>
       </c>
     </row>
-    <row r="51" spans="1:44">
+    <row r="51" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A51" s="19">
         <v>49</v>
       </c>
@@ -10603,7 +10613,7 @@
         <v>-75</v>
       </c>
     </row>
-    <row r="52" spans="1:44">
+    <row r="52" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A52" s="19">
         <v>50</v>
       </c>
@@ -10705,7 +10715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:44">
+    <row r="53" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>51</v>
       </c>
@@ -10810,7 +10820,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="54" spans="1:44">
+    <row r="54" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>52</v>
       </c>
@@ -10912,7 +10922,7 @@
         <v>-112</v>
       </c>
     </row>
-    <row r="55" spans="1:44">
+    <row r="55" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>53</v>
       </c>
@@ -11028,7 +11038,7 @@
         <v>-402</v>
       </c>
     </row>
-    <row r="56" spans="1:44">
+    <row r="56" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A56" s="7">
         <v>54</v>
       </c>
@@ -11142,7 +11152,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="57" spans="1:44">
+    <row r="57" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>55</v>
       </c>
@@ -11248,7 +11258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:44">
+    <row r="58" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>56</v>
       </c>
@@ -11349,7 +11359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:44">
+    <row r="59" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>57</v>
       </c>
@@ -11463,7 +11473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:44">
+    <row r="60" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>58</v>
       </c>
@@ -11564,7 +11574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:44">
+    <row r="61" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>59</v>
       </c>
@@ -11672,7 +11682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:44">
+    <row r="62" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>60</v>
       </c>
@@ -11773,7 +11783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:44">
+    <row r="63" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A63" s="7">
         <v>61</v>
       </c>
@@ -11881,7 +11891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:44">
+    <row r="64" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>62</v>
       </c>
@@ -11982,7 +11992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:44">
+    <row r="65" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>63</v>
       </c>
@@ -12084,7 +12094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:44">
+    <row r="66" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>64</v>
       </c>
@@ -12185,7 +12195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:44">
+    <row r="67" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>65</v>
       </c>
@@ -12286,7 +12296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:44">
+    <row r="68" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>66</v>
       </c>
@@ -12387,7 +12397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:44">
+    <row r="69" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A69" s="44">
         <v>67</v>
       </c>
@@ -12488,7 +12498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:44">
+    <row r="70" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A70" s="61">
         <v>68</v>
       </c>
@@ -12597,7 +12607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:44">
+    <row r="71" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>484</v>
       </c>
@@ -12687,38 +12697,38 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="72" spans="1:44">
-      <c r="A72" s="103"/>
-      <c r="B72" s="103" t="s">
+    <row r="72" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A72" s="88"/>
+      <c r="B72" s="88" t="s">
         <v>302</v>
       </c>
-      <c r="C72" s="103">
+      <c r="C72" s="88">
         <v>-2000</v>
       </c>
-      <c r="D72" s="103"/>
+      <c r="D72" s="88"/>
       <c r="E72" s="52"/>
       <c r="F72" s="52" t="s">
         <v>118</v>
       </c>
       <c r="G72" s="52"/>
       <c r="H72" s="52"/>
-      <c r="I72" s="103"/>
-      <c r="J72" s="103" t="s">
+      <c r="I72" s="88"/>
+      <c r="J72" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="K72" s="103">
+      <c r="K72" s="88">
         <v>-2000</v>
       </c>
-      <c r="L72" s="103"/>
-      <c r="U72" s="103"/>
-      <c r="V72" s="103" t="s">
+      <c r="L72" s="88"/>
+      <c r="U72" s="88"/>
+      <c r="V72" s="88" t="s">
         <v>421</v>
       </c>
-      <c r="W72" s="103">
+      <c r="W72" s="88">
         <v>-1500</v>
       </c>
-      <c r="X72" s="103">
-        <v>-4.0999999999999996</v>
+      <c r="X72" s="88">
+        <v>-4.05</v>
       </c>
       <c r="Y72" s="52"/>
       <c r="Z72" s="52" t="s">
@@ -12749,15 +12759,15 @@
       <c r="AQ72" s="52"/>
       <c r="AR72" s="52"/>
     </row>
-    <row r="73" spans="1:44">
-      <c r="A73" s="103"/>
-      <c r="B73" s="103" t="s">
+    <row r="73" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A73" s="88"/>
+      <c r="B73" s="88" t="s">
         <v>302</v>
       </c>
-      <c r="C73" s="104">
+      <c r="C73" s="89">
         <v>-2500</v>
       </c>
-      <c r="D73" s="104">
+      <c r="D73" s="89">
         <f>12750+SUM(C72:C73)</f>
         <v>8250</v>
       </c>
@@ -12767,24 +12777,24 @@
       </c>
       <c r="G73" s="52"/>
       <c r="H73" s="52"/>
-      <c r="I73" s="103"/>
-      <c r="J73" s="103" t="s">
+      <c r="I73" s="88"/>
+      <c r="J73" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="K73" s="103">
+      <c r="K73" s="88">
         <v>-3000</v>
       </c>
-      <c r="L73" s="103"/>
-      <c r="U73" s="103"/>
-      <c r="V73" s="103" t="s">
+      <c r="L73" s="88"/>
+      <c r="U73" s="88"/>
+      <c r="V73" s="88" t="s">
         <v>421</v>
       </c>
-      <c r="W73" s="103">
+      <c r="W73" s="88">
         <v>-2500</v>
       </c>
-      <c r="X73" s="103">
-        <f>X72*W74</f>
-        <v>8200</v>
+      <c r="X73" s="88">
+        <f>X72*W75</f>
+        <v>8100</v>
       </c>
       <c r="Y73" s="52"/>
       <c r="Z73" s="52" t="s">
@@ -12816,39 +12826,39 @@
       <c r="AQ73" s="52"/>
       <c r="AR73" s="52"/>
     </row>
-    <row r="74" spans="1:44">
-      <c r="A74" s="103"/>
-      <c r="B74" s="103" t="s">
+    <row r="74" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A74" s="88"/>
+      <c r="B74" s="88" t="s">
         <v>60</v>
       </c>
-      <c r="C74" s="103">
+      <c r="C74" s="88">
         <v>-2000</v>
       </c>
-      <c r="D74" s="103"/>
+      <c r="D74" s="88"/>
       <c r="E74" s="52"/>
       <c r="F74" s="52" t="s">
         <v>102</v>
       </c>
       <c r="G74" s="52"/>
       <c r="H74" s="52"/>
-      <c r="I74" s="103"/>
-      <c r="J74" s="103" t="s">
+      <c r="I74" s="88"/>
+      <c r="J74" s="88" t="s">
         <v>124</v>
       </c>
-      <c r="K74" s="103">
+      <c r="K74" s="88">
         <v>-3000</v>
       </c>
-      <c r="L74" s="103"/>
-      <c r="U74" s="103"/>
-      <c r="V74" s="103" t="s">
+      <c r="L74" s="88"/>
+      <c r="U74" s="88"/>
+      <c r="V74" s="88" t="s">
         <v>269</v>
       </c>
-      <c r="W74" s="103">
+      <c r="W74" s="88">
         <v>-2000</v>
       </c>
-      <c r="X74" s="103">
-        <f>X73+SUM(W72:W74)</f>
-        <v>2200</v>
+      <c r="X74" s="88">
+        <f>X73+SUM(W72:W75)</f>
+        <v>100</v>
       </c>
       <c r="Y74" s="52"/>
       <c r="Z74" s="52" t="s">
@@ -12880,38 +12890,40 @@
       <c r="AQ74" s="52"/>
       <c r="AR74" s="52"/>
     </row>
-    <row r="75" spans="1:44">
-      <c r="A75" s="103"/>
-      <c r="B75" s="103" t="s">
+    <row r="75" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A75" s="88"/>
+      <c r="B75" s="88" t="s">
         <v>60</v>
       </c>
-      <c r="C75" s="103">
+      <c r="C75" s="88">
         <v>-2500</v>
       </c>
-      <c r="D75" s="103"/>
+      <c r="D75" s="88"/>
       <c r="E75" s="52"/>
       <c r="F75" s="52" t="s">
         <v>102</v>
       </c>
       <c r="G75" s="52"/>
       <c r="H75" s="52"/>
-      <c r="I75" s="103"/>
-      <c r="J75" s="103" t="s">
+      <c r="I75" s="88"/>
+      <c r="J75" s="88" t="s">
         <v>124</v>
       </c>
-      <c r="K75" s="104">
+      <c r="K75" s="89">
         <v>-3000</v>
       </c>
-      <c r="L75" s="104">
+      <c r="L75" s="89">
         <f>12450+SUM(K72:K75)</f>
         <v>1450</v>
       </c>
-      <c r="U75" s="103"/>
-      <c r="V75" s="103" t="s">
+      <c r="U75" s="88"/>
+      <c r="V75" s="88" t="s">
         <v>269</v>
       </c>
-      <c r="W75" s="103"/>
-      <c r="X75" s="103"/>
+      <c r="W75" s="88">
+        <v>-2000</v>
+      </c>
+      <c r="X75" s="88"/>
       <c r="Y75" s="52"/>
       <c r="Z75" s="52" t="s">
         <v>124</v>
@@ -12938,27 +12950,27 @@
       <c r="AQ75" s="52"/>
       <c r="AR75" s="52"/>
     </row>
-    <row r="76" spans="1:44">
-      <c r="A76" s="103"/>
-      <c r="B76" s="103" t="s">
+    <row r="76" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A76" s="88"/>
+      <c r="B76" s="88" t="s">
         <v>302</v>
       </c>
-      <c r="C76" s="103"/>
-      <c r="D76" s="103"/>
+      <c r="C76" s="88"/>
+      <c r="D76" s="88"/>
       <c r="E76" s="52"/>
       <c r="F76" s="52" t="s">
         <v>118</v>
       </c>
       <c r="G76" s="52"/>
       <c r="H76" s="52"/>
-      <c r="I76" s="103"/>
-      <c r="J76" s="103"/>
-      <c r="K76" s="103"/>
-      <c r="L76" s="103"/>
-      <c r="U76" s="103"/>
-      <c r="V76" s="103"/>
-      <c r="W76" s="103"/>
-      <c r="X76" s="103"/>
+      <c r="I76" s="88"/>
+      <c r="J76" s="88"/>
+      <c r="K76" s="88"/>
+      <c r="L76" s="88"/>
+      <c r="U76" s="88"/>
+      <c r="V76" s="88"/>
+      <c r="W76" s="88"/>
+      <c r="X76" s="88"/>
       <c r="Y76" s="52"/>
       <c r="Z76" s="52"/>
       <c r="AA76" s="52"/>
@@ -12971,7 +12983,9 @@
       <c r="AL76" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="AM76" s="53"/>
+      <c r="AM76" s="53">
+        <v>-2000</v>
+      </c>
       <c r="AO76" s="52"/>
       <c r="AP76" s="52" t="s">
         <v>302</v>
@@ -12979,42 +12993,47 @@
       <c r="AQ76" s="52"/>
       <c r="AR76" s="52"/>
     </row>
-    <row r="82" spans="10:15" ht="15" customHeight="1">
-      <c r="J82" s="93" t="s">
+    <row r="82" spans="10:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J82" s="95" t="s">
         <v>485</v>
       </c>
-      <c r="K82" s="96">
+      <c r="K82" s="98">
         <f>SUM(C71,G71,K71,O71,S71,W71,AA71,AE71,AI71,AM71,AQ71)</f>
         <v>0</v>
       </c>
-      <c r="N82" s="97" t="s">
+      <c r="N82" s="99" t="s">
         <v>486</v>
       </c>
-      <c r="O82" s="98">
+      <c r="O82" s="100">
         <f>SUM(D71,H71,L71,P71,T71,X71,AB71,AF71,AJ71,AN71,AR71)</f>
         <v>-60138</v>
       </c>
     </row>
-    <row r="83" spans="10:15">
-      <c r="J83" s="94"/>
-      <c r="K83" s="96"/>
-      <c r="N83" s="97"/>
-      <c r="O83" s="98"/>
-    </row>
-    <row r="84" spans="10:15">
-      <c r="J84" s="94"/>
-      <c r="K84" s="96"/>
-      <c r="N84" s="97"/>
-      <c r="O84" s="98"/>
-    </row>
-    <row r="85" spans="10:15">
-      <c r="J85" s="95"/>
-      <c r="K85" s="96"/>
-      <c r="N85" s="97"/>
-      <c r="O85" s="98"/>
+    <row r="83" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J83" s="96"/>
+      <c r="K83" s="98"/>
+      <c r="N83" s="99"/>
+      <c r="O83" s="100"/>
+    </row>
+    <row r="84" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J84" s="96"/>
+      <c r="K84" s="98"/>
+      <c r="N84" s="99"/>
+      <c r="O84" s="100"/>
+    </row>
+    <row r="85" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J85" s="97"/>
+      <c r="K85" s="98"/>
+      <c r="N85" s="99"/>
+      <c r="O85" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="AO2:AQ2"/>
     <mergeCell ref="J82:J85"/>
     <mergeCell ref="K82:K85"/>
@@ -13025,11 +13044,6 @@
     <mergeCell ref="AC2:AE2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="AK2:AM2"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>
@@ -13037,14 +13051,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV89"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G76" sqref="G76"/>
+    <sheetView tabSelected="1" topLeftCell="M43" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="W77" sqref="W77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="23.5703125" customWidth="1"/>
     <col min="5" max="5" width="7.140625" customWidth="1"/>
@@ -13061,7 +13075,7 @@
     <col min="46" max="46" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13171,69 +13185,69 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:48">
-      <c r="A2" s="90" t="s">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A2" s="92" t="s">
         <v>487</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="92"/>
-      <c r="E2" s="90" t="s">
+      <c r="B2" s="93"/>
+      <c r="C2" s="94"/>
+      <c r="E2" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="91"/>
-      <c r="G2" s="92"/>
-      <c r="I2" s="90" t="s">
+      <c r="F2" s="93"/>
+      <c r="G2" s="94"/>
+      <c r="I2" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="91"/>
-      <c r="K2" s="92"/>
-      <c r="M2" s="90" t="s">
+      <c r="J2" s="93"/>
+      <c r="K2" s="94"/>
+      <c r="M2" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="91"/>
-      <c r="O2" s="92"/>
-      <c r="Q2" s="90" t="s">
+      <c r="N2" s="93"/>
+      <c r="O2" s="94"/>
+      <c r="Q2" s="92" t="s">
         <v>488</v>
       </c>
-      <c r="R2" s="91"/>
-      <c r="S2" s="92"/>
-      <c r="U2" s="90" t="s">
+      <c r="R2" s="93"/>
+      <c r="S2" s="94"/>
+      <c r="U2" s="92" t="s">
         <v>489</v>
       </c>
-      <c r="V2" s="91"/>
-      <c r="W2" s="92"/>
-      <c r="Y2" s="90" t="s">
+      <c r="V2" s="93"/>
+      <c r="W2" s="94"/>
+      <c r="Y2" s="92" t="s">
         <v>490</v>
       </c>
-      <c r="Z2" s="91"/>
-      <c r="AA2" s="92"/>
-      <c r="AC2" s="90" t="s">
+      <c r="Z2" s="93"/>
+      <c r="AA2" s="94"/>
+      <c r="AC2" s="92" t="s">
         <v>491</v>
       </c>
-      <c r="AD2" s="91"/>
-      <c r="AE2" s="92"/>
-      <c r="AG2" s="90" t="s">
+      <c r="AD2" s="93"/>
+      <c r="AE2" s="94"/>
+      <c r="AG2" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="AH2" s="91"/>
-      <c r="AI2" s="92"/>
-      <c r="AK2" s="90" t="s">
+      <c r="AH2" s="93"/>
+      <c r="AI2" s="94"/>
+      <c r="AK2" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="AL2" s="91"/>
-      <c r="AM2" s="92"/>
-      <c r="AO2" s="90" t="s">
+      <c r="AL2" s="93"/>
+      <c r="AM2" s="94"/>
+      <c r="AO2" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="AP2" s="91"/>
-      <c r="AQ2" s="92"/>
-      <c r="AS2" s="90" t="s">
+      <c r="AP2" s="93"/>
+      <c r="AQ2" s="94"/>
+      <c r="AS2" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="AT2" s="91"/>
-      <c r="AU2" s="92"/>
-    </row>
-    <row r="3" spans="1:48">
+      <c r="AT2" s="93"/>
+      <c r="AU2" s="94"/>
+    </row>
+    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -13355,7 +13369,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="4" spans="1:48">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -13481,7 +13495,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:48">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -13607,7 +13621,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="6" spans="1:48">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -13717,7 +13731,7 @@
         <v>-65</v>
       </c>
     </row>
-    <row r="7" spans="1:48">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -13840,7 +13854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:48">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -13966,7 +13980,7 @@
         <v>-75</v>
       </c>
     </row>
-    <row r="9" spans="1:48">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -14080,7 +14094,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="10" spans="1:48">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -14202,7 +14216,7 @@
         <v>-112</v>
       </c>
     </row>
-    <row r="11" spans="1:48">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -14324,7 +14338,7 @@
         <v>-155</v>
       </c>
     </row>
-    <row r="12" spans="1:48">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -14458,7 +14472,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:48">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -14592,7 +14606,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="14" spans="1:48">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -14714,7 +14728,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:48">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>13</v>
       </c>
@@ -14844,7 +14858,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="16" spans="1:48">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>14</v>
       </c>
@@ -14970,7 +14984,7 @@
         <v>-65</v>
       </c>
     </row>
-    <row r="17" spans="1:48">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>15</v>
       </c>
@@ -15088,7 +15102,7 @@
         <v>-75</v>
       </c>
     </row>
-    <row r="18" spans="1:48">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>16</v>
       </c>
@@ -15210,7 +15224,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="19" spans="1:48">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>17</v>
       </c>
@@ -15332,7 +15346,7 @@
         <v>-112</v>
       </c>
     </row>
-    <row r="20" spans="1:48">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>18</v>
       </c>
@@ -15450,7 +15464,7 @@
         <v>-155</v>
       </c>
     </row>
-    <row r="21" spans="1:48">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>19</v>
       </c>
@@ -15572,7 +15586,7 @@
         <v>-215</v>
       </c>
     </row>
-    <row r="22" spans="1:48">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>20</v>
       </c>
@@ -15706,7 +15720,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="23" spans="1:48">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>21</v>
       </c>
@@ -15824,7 +15838,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="24" spans="1:48">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
         <v>22</v>
       </c>
@@ -15950,7 +15964,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="25" spans="1:48">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>23</v>
       </c>
@@ -16072,7 +16086,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="26" spans="1:48">
+    <row r="26" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>24</v>
       </c>
@@ -16194,7 +16208,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="27" spans="1:48">
+    <row r="27" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>25</v>
       </c>
@@ -16304,7 +16318,7 @@
         <v>-65</v>
       </c>
     </row>
-    <row r="28" spans="1:48">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>26</v>
       </c>
@@ -16422,7 +16436,7 @@
         <v>-75</v>
       </c>
     </row>
-    <row r="29" spans="1:48">
+    <row r="29" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>27</v>
       </c>
@@ -16552,7 +16566,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:48">
+    <row r="30" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>28</v>
       </c>
@@ -16662,7 +16676,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="31" spans="1:48">
+    <row r="31" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>29</v>
       </c>
@@ -16784,7 +16798,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="32" spans="1:48">
+    <row r="32" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>30</v>
       </c>
@@ -16898,7 +16912,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="33" spans="1:48">
+    <row r="33" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A33" s="15">
         <v>31</v>
       </c>
@@ -17020,7 +17034,7 @@
         <v>-3000</v>
       </c>
     </row>
-    <row r="34" spans="1:48">
+    <row r="34" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>32</v>
       </c>
@@ -17148,7 +17162,7 @@
         <v>-2000</v>
       </c>
     </row>
-    <row r="35" spans="1:48">
+    <row r="35" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>33</v>
       </c>
@@ -17271,7 +17285,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="36" spans="1:48">
+    <row r="36" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>34</v>
       </c>
@@ -17391,7 +17405,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="37" spans="1:48">
+    <row r="37" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>35</v>
       </c>
@@ -17515,7 +17529,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="38" spans="1:48">
+    <row r="38" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>36</v>
       </c>
@@ -17647,7 +17661,7 @@
       </c>
       <c r="AV38" s="40"/>
     </row>
-    <row r="39" spans="1:48">
+    <row r="39" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>37</v>
       </c>
@@ -17775,7 +17789,7 @@
         <v>5440</v>
       </c>
     </row>
-    <row r="40" spans="1:48">
+    <row r="40" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>38</v>
       </c>
@@ -17894,7 +17908,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="41" spans="1:48">
+    <row r="41" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>39</v>
       </c>
@@ -18026,7 +18040,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="42" spans="1:48">
+    <row r="42" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>40</v>
       </c>
@@ -18145,7 +18159,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="43" spans="1:48">
+    <row r="43" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
         <v>41</v>
       </c>
@@ -18268,7 +18282,7 @@
         <v>-600</v>
       </c>
     </row>
-    <row r="44" spans="1:48">
+    <row r="44" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A44" s="11">
         <v>42</v>
       </c>
@@ -18410,7 +18424,7 @@
         <v>-650</v>
       </c>
     </row>
-    <row r="45" spans="1:48">
+    <row r="45" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A45" s="22">
         <v>43</v>
       </c>
@@ -18526,7 +18540,7 @@
         <v>-750</v>
       </c>
     </row>
-    <row r="46" spans="1:48">
+    <row r="46" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A46" s="11">
         <v>44</v>
       </c>
@@ -18637,7 +18651,7 @@
         <v>-900</v>
       </c>
     </row>
-    <row r="47" spans="1:48">
+    <row r="47" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A47" s="11">
         <v>45</v>
       </c>
@@ -18752,7 +18766,7 @@
         <v>-1120</v>
       </c>
     </row>
-    <row r="48" spans="1:48">
+    <row r="48" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A48" s="11">
         <v>46</v>
       </c>
@@ -18883,7 +18897,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="49" spans="1:48">
+    <row r="49" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A49" s="10">
         <v>47</v>
       </c>
@@ -19009,7 +19023,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="50" spans="1:48">
+    <row r="50" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A50" s="11">
         <v>48</v>
       </c>
@@ -19135,7 +19149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:48">
+    <row r="51" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A51" s="10">
         <v>49</v>
       </c>
@@ -19253,7 +19267,7 @@
         <v>-600</v>
       </c>
     </row>
-    <row r="52" spans="1:48">
+    <row r="52" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A52" s="11">
         <v>50</v>
       </c>
@@ -19364,7 +19378,7 @@
         <v>-650</v>
       </c>
     </row>
-    <row r="53" spans="1:48">
+    <row r="53" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A53" s="11">
         <v>51</v>
       </c>
@@ -19485,7 +19499,7 @@
       </c>
       <c r="AV53" s="43"/>
     </row>
-    <row r="54" spans="1:48">
+    <row r="54" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A54" s="11">
         <v>52</v>
       </c>
@@ -19603,7 +19617,7 @@
         <v>-900</v>
       </c>
     </row>
-    <row r="55" spans="1:48">
+    <row r="55" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A55" s="11">
         <v>53</v>
       </c>
@@ -19719,7 +19733,7 @@
         <v>-1250</v>
       </c>
     </row>
-    <row r="56" spans="1:48">
+    <row r="56" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A56" s="10">
         <v>54</v>
       </c>
@@ -19840,7 +19854,7 @@
         <v>-2105</v>
       </c>
     </row>
-    <row r="57" spans="1:48">
+    <row r="57" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A57" s="11">
         <v>55</v>
       </c>
@@ -19951,7 +19965,7 @@
         <v>-2500</v>
       </c>
     </row>
-    <row r="58" spans="1:48">
+    <row r="58" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A58" s="11">
         <v>56</v>
       </c>
@@ -20078,7 +20092,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="59" spans="1:48">
+    <row r="59" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A59" s="11">
         <v>57</v>
       </c>
@@ -20193,7 +20207,7 @@
         <v>-600</v>
       </c>
     </row>
-    <row r="60" spans="1:48">
+    <row r="60" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A60" s="11">
         <v>58</v>
       </c>
@@ -20316,7 +20330,7 @@
         <v>-650</v>
       </c>
     </row>
-    <row r="61" spans="1:48">
+    <row r="61" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A61" s="11">
         <v>59</v>
       </c>
@@ -20443,7 +20457,7 @@
         <v>-750</v>
       </c>
     </row>
-    <row r="62" spans="1:48">
+    <row r="62" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A62" s="11">
         <v>60</v>
       </c>
@@ -20558,7 +20572,7 @@
         <v>-900</v>
       </c>
     </row>
-    <row r="63" spans="1:48">
+    <row r="63" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A63" s="11">
         <v>61</v>
       </c>
@@ -20669,7 +20683,7 @@
         <v>-1120</v>
       </c>
     </row>
-    <row r="64" spans="1:48">
+    <row r="64" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A64" s="11">
         <v>62</v>
       </c>
@@ -20780,7 +20794,7 @@
         <v>-1550</v>
       </c>
     </row>
-    <row r="65" spans="1:48">
+    <row r="65" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A65" s="11">
         <v>63</v>
       </c>
@@ -20891,7 +20905,7 @@
         <v>-2150</v>
       </c>
     </row>
-    <row r="66" spans="1:48">
+    <row r="66" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A66" s="11">
         <v>64</v>
       </c>
@@ -21002,7 +21016,7 @@
         <v>-2980</v>
       </c>
     </row>
-    <row r="67" spans="1:48">
+    <row r="67" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A67" s="11">
         <v>65</v>
       </c>
@@ -21117,7 +21131,7 @@
         <v>-3500</v>
       </c>
     </row>
-    <row r="68" spans="1:48">
+    <row r="68" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A68" s="11">
         <v>66</v>
       </c>
@@ -21228,7 +21242,7 @@
         <v>-3750</v>
       </c>
     </row>
-    <row r="69" spans="1:48">
+    <row r="69" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A69" s="11">
         <v>67</v>
       </c>
@@ -21346,7 +21360,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="70" spans="1:48">
+    <row r="70" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A70" s="11">
         <v>68</v>
       </c>
@@ -21460,7 +21474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:48">
+    <row r="71" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>484</v>
       </c>
@@ -21594,7 +21608,7 @@
         <v>24746</v>
       </c>
     </row>
-    <row r="72" spans="1:48">
+    <row r="72" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A72" s="52"/>
       <c r="B72" s="52" t="s">
         <v>681</v>
@@ -21623,7 +21637,7 @@
         <v>-2000</v>
       </c>
       <c r="X72" s="53">
-        <v>-3.72</v>
+        <v>-3.95</v>
       </c>
       <c r="Y72" s="53"/>
       <c r="Z72" s="53" t="s">
@@ -21641,15 +21655,15 @@
       </c>
       <c r="AE72" s="52"/>
       <c r="AF72" s="52"/>
-      <c r="AG72" s="103"/>
-      <c r="AH72" s="103" t="s">
+      <c r="AG72" s="88"/>
+      <c r="AH72" s="88" t="s">
         <v>562</v>
       </c>
-      <c r="AI72" s="103">
+      <c r="AI72" s="88">
         <v>-3000</v>
       </c>
-      <c r="AJ72" s="103">
-        <v>-3.8</v>
+      <c r="AJ72" s="88">
+        <v>-3.85</v>
       </c>
       <c r="AK72" s="52"/>
       <c r="AL72" s="52" t="s">
@@ -21658,7 +21672,7 @@
       <c r="AM72" s="52"/>
       <c r="AN72" s="52"/>
     </row>
-    <row r="73" spans="1:48">
+    <row r="73" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A73" s="52"/>
       <c r="B73" s="52" t="s">
         <v>681</v>
@@ -21690,8 +21704,8 @@
         <v>-3000</v>
       </c>
       <c r="X73" s="53">
-        <f>X72*W75</f>
-        <v>11160</v>
+        <f>X72*W76</f>
+        <v>14812.5</v>
       </c>
       <c r="Y73" s="53"/>
       <c r="Z73" s="53" t="s">
@@ -21710,16 +21724,16 @@
       </c>
       <c r="AE73" s="52"/>
       <c r="AF73" s="52"/>
-      <c r="AG73" s="103"/>
-      <c r="AH73" s="103" t="s">
+      <c r="AG73" s="88"/>
+      <c r="AH73" s="88" t="s">
         <v>562</v>
       </c>
-      <c r="AI73" s="103">
+      <c r="AI73" s="88">
         <v>-4000</v>
       </c>
-      <c r="AJ73" s="103">
-        <f>AJ72*AI75</f>
-        <v>15200</v>
+      <c r="AJ73" s="88">
+        <f>AJ72*AI76</f>
+        <v>20405</v>
       </c>
       <c r="AK73" s="52"/>
       <c r="AL73" s="52" t="s">
@@ -21728,7 +21742,7 @@
       <c r="AM73" s="52"/>
       <c r="AN73" s="52"/>
     </row>
-    <row r="74" spans="1:48">
+    <row r="74" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A74" s="52"/>
       <c r="B74" s="52" t="s">
         <v>659</v>
@@ -21757,8 +21771,8 @@
         <v>-3000</v>
       </c>
       <c r="X74" s="53">
-        <f>X73+SUM(W72:W75)</f>
-        <v>160</v>
+        <f>X73+SUM(W72:W76)</f>
+        <v>62.5</v>
       </c>
       <c r="Y74" s="53"/>
       <c r="Z74" s="53" t="s">
@@ -21777,16 +21791,16 @@
       </c>
       <c r="AE74" s="52"/>
       <c r="AF74" s="52"/>
-      <c r="AG74" s="103"/>
-      <c r="AH74" s="103" t="s">
+      <c r="AG74" s="88"/>
+      <c r="AH74" s="88" t="s">
         <v>567</v>
       </c>
-      <c r="AI74" s="103">
+      <c r="AI74" s="88">
         <v>-4000</v>
       </c>
-      <c r="AJ74" s="103">
-        <f>AJ73+SUM(AI72:AI75)</f>
-        <v>200</v>
+      <c r="AJ74" s="88">
+        <f>AJ73+SUM(AI72:AI76)</f>
+        <v>105</v>
       </c>
       <c r="AK74" s="52"/>
       <c r="AL74" s="52" t="s">
@@ -21795,7 +21809,7 @@
       <c r="AM74" s="52"/>
       <c r="AN74" s="52"/>
     </row>
-    <row r="75" spans="1:48">
+    <row r="75" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A75" s="52"/>
       <c r="B75" s="52" t="s">
         <v>659</v>
@@ -21838,14 +21852,14 @@
       </c>
       <c r="AE75" s="52"/>
       <c r="AF75" s="52"/>
-      <c r="AG75" s="103"/>
-      <c r="AH75" s="103" t="s">
+      <c r="AG75" s="88"/>
+      <c r="AH75" s="88" t="s">
         <v>567</v>
       </c>
-      <c r="AI75" s="103">
+      <c r="AI75" s="88">
         <v>-4000</v>
       </c>
-      <c r="AJ75" s="103"/>
+      <c r="AJ75" s="88"/>
       <c r="AK75" s="52"/>
       <c r="AL75" s="52" t="s">
         <v>724</v>
@@ -21853,7 +21867,7 @@
       <c r="AM75" s="52"/>
       <c r="AN75" s="52"/>
     </row>
-    <row r="76" spans="1:48">
+    <row r="76" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A76" s="54"/>
       <c r="B76" s="54"/>
       <c r="C76" s="54"/>
@@ -21869,8 +21883,12 @@
       <c r="S76" s="52"/>
       <c r="T76" s="52"/>
       <c r="U76" s="53"/>
-      <c r="V76" s="53"/>
-      <c r="W76" s="53"/>
+      <c r="V76" s="53" t="s">
+        <v>662</v>
+      </c>
+      <c r="W76" s="53">
+        <v>-3750</v>
+      </c>
       <c r="X76" s="53"/>
       <c r="Y76" s="53"/>
       <c r="Z76" s="53"/>
@@ -21880,10 +21898,14 @@
       <c r="AD76" s="52"/>
       <c r="AE76" s="52"/>
       <c r="AF76" s="52"/>
-      <c r="AG76" s="103"/>
-      <c r="AH76" s="103"/>
-      <c r="AI76" s="103"/>
-      <c r="AJ76" s="103"/>
+      <c r="AG76" s="88"/>
+      <c r="AH76" s="88" t="s">
+        <v>562</v>
+      </c>
+      <c r="AI76" s="88">
+        <v>-5300</v>
+      </c>
+      <c r="AJ76" s="88"/>
       <c r="AK76" s="52"/>
       <c r="AL76" s="52" t="s">
         <v>679</v>
@@ -21891,42 +21913,47 @@
       <c r="AM76" s="52"/>
       <c r="AN76" s="52"/>
     </row>
-    <row r="86" spans="10:15">
-      <c r="J86" s="93" t="s">
+    <row r="86" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J86" s="95" t="s">
         <v>747</v>
       </c>
-      <c r="K86" s="99">
+      <c r="K86" s="101">
         <f>SUM(C71,G71,K71,O71,S71,W71,AA71,AE71,AI71,AM71,AQ71,AU71)</f>
         <v>-437229</v>
       </c>
-      <c r="N86" s="97" t="s">
+      <c r="N86" s="99" t="s">
         <v>748</v>
       </c>
-      <c r="O86" s="101">
+      <c r="O86" s="103">
         <f>SUM(D71,H71,L71,P71,T71,X71,AB71,AF71,AJ71,AN71,AR71,AV71)</f>
         <v>-81634</v>
       </c>
     </row>
-    <row r="87" spans="10:15">
-      <c r="J87" s="94"/>
-      <c r="K87" s="100"/>
-      <c r="N87" s="97"/>
-      <c r="O87" s="102"/>
-    </row>
-    <row r="88" spans="10:15">
-      <c r="J88" s="94"/>
-      <c r="K88" s="100"/>
-      <c r="N88" s="97"/>
-      <c r="O88" s="102"/>
-    </row>
-    <row r="89" spans="10:15">
-      <c r="J89" s="95"/>
-      <c r="K89" s="100"/>
-      <c r="N89" s="97"/>
-      <c r="O89" s="102"/>
+    <row r="87" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J87" s="96"/>
+      <c r="K87" s="102"/>
+      <c r="N87" s="99"/>
+      <c r="O87" s="104"/>
+    </row>
+    <row r="88" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J88" s="96"/>
+      <c r="K88" s="102"/>
+      <c r="N88" s="99"/>
+      <c r="O88" s="104"/>
+    </row>
+    <row r="89" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J89" s="97"/>
+      <c r="K89" s="102"/>
+      <c r="N89" s="99"/>
+      <c r="O89" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="AO2:AQ2"/>
     <mergeCell ref="AS2:AU2"/>
     <mergeCell ref="J86:J89"/>
@@ -21938,11 +21965,6 @@
     <mergeCell ref="AC2:AE2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="AK2:AM2"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -21950,14 +21972,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Ставки/КХЛ 23-24.xlsx
+++ b/Ставки/КХЛ 23-24.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Repository_1\Ставки\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11010" firstSheet="1" activeTab="3"/>
   </bookViews>
@@ -13,7 +18,7 @@
     <sheet name="23-24 Восток" sheetId="4" r:id="rId4"/>
     <sheet name="Плей-офф" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -23,7 +28,7 @@
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -39,7 +44,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E29" authorId="0">
+    <comment ref="E29" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -60,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1874" uniqueCount="756">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1875" uniqueCount="757">
   <si>
     <t>№</t>
   </si>
@@ -2328,13 +2333,16 @@
   </si>
   <si>
     <t>Метталург - Спартак</t>
+  </si>
+  <si>
+    <t>Итого</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2833,7 +2841,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="20% - Акцент4" xfId="4" builtinId="42"/>
+    <cellStyle name="20% — акцент4" xfId="4" builtinId="42"/>
     <cellStyle name="Вывод" xfId="1" builtinId="21"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Плохой" xfId="3" builtinId="27"/>
@@ -2849,6 +2857,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2897,7 +2908,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2932,7 +2943,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3140,21 +3151,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3171,7 +3182,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3183,13 +3194,13 @@
       </c>
       <c r="D2">
         <f>68/C2</f>
-        <v>4.5333333333333297</v>
+        <v>4.5333333333333332</v>
       </c>
       <c r="E2">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3201,13 +3212,13 @@
       </c>
       <c r="D3">
         <f>68/C3</f>
-        <v>3.7777777777777799</v>
+        <v>3.7777777777777777</v>
       </c>
       <c r="E3">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3222,7 +3233,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3237,7 +3248,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3252,7 +3263,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3264,10 +3275,10 @@
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>3.7777777777777799</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>3.7777777777777777</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3279,10 +3290,10 @@
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>2.8333333333333299</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>2.8333333333333335</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3297,7 +3308,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3309,10 +3320,10 @@
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>4.5333333333333297</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>4.5333333333333332</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3324,10 +3335,10 @@
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>5.2307692307692299</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>5.2307692307692308</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3339,10 +3350,10 @@
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>5.6666666666666696</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>5.666666666666667</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3350,7 +3361,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3358,7 +3369,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3366,7 +3377,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3374,7 +3385,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3382,7 +3393,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3390,7 +3401,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3398,7 +3409,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3406,7 +3417,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3414,7 +3425,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3422,7 +3433,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3430,7 +3441,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3442,14 +3453,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E1:BK54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="12.5703125" customWidth="1"/>
     <col min="11" max="11" width="10.42578125" customWidth="1"/>
@@ -3457,7 +3468,7 @@
     <col min="42" max="42" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:63" ht="15.75">
+    <row r="1" spans="5:63" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E1" s="87" t="s">
         <v>27</v>
       </c>
@@ -3555,7 +3566,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="2" spans="5:63" ht="15.75">
+    <row r="2" spans="5:63" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E2" s="75" t="s">
         <v>0</v>
       </c>
@@ -3701,7 +3712,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="5:63">
+    <row r="3" spans="5:63" x14ac:dyDescent="0.25">
       <c r="E3" s="77">
         <v>1</v>
       </c>
@@ -3759,7 +3770,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="5:63">
+    <row r="4" spans="5:63" x14ac:dyDescent="0.25">
       <c r="E4" s="77">
         <v>2</v>
       </c>
@@ -3817,7 +3828,7 @@
         <v>154.5</v>
       </c>
     </row>
-    <row r="5" spans="5:63">
+    <row r="5" spans="5:63" x14ac:dyDescent="0.25">
       <c r="E5" s="77">
         <v>3</v>
       </c>
@@ -3875,7 +3886,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="5:63">
+    <row r="6" spans="5:63" x14ac:dyDescent="0.25">
       <c r="E6" s="77">
         <v>4</v>
       </c>
@@ -3933,7 +3944,7 @@
         <v>85.5</v>
       </c>
     </row>
-    <row r="7" spans="5:63">
+    <row r="7" spans="5:63" x14ac:dyDescent="0.25">
       <c r="E7" s="77">
         <v>5</v>
       </c>
@@ -3946,7 +3957,7 @@
       </c>
       <c r="H7" s="77">
         <f>G7-SUM($F$3:F7)</f>
-        <v>1.19999999999999</v>
+        <v>1.1999999999999886</v>
       </c>
       <c r="J7">
         <v>5</v>
@@ -3980,7 +3991,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="5:63">
+    <row r="8" spans="5:63" x14ac:dyDescent="0.25">
       <c r="E8" s="77">
         <v>6</v>
       </c>
@@ -4027,7 +4038,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="9" spans="5:63">
+    <row r="9" spans="5:63" x14ac:dyDescent="0.25">
       <c r="E9" s="77">
         <v>7</v>
       </c>
@@ -4074,7 +4085,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="5:63">
+    <row r="10" spans="5:63" x14ac:dyDescent="0.25">
       <c r="E10" s="77">
         <v>8</v>
       </c>
@@ -4087,7 +4098,7 @@
       </c>
       <c r="H10" s="77">
         <f>G10-SUM($F$3:F10)</f>
-        <v>2.7999999999999501</v>
+        <v>2.7999999999999545</v>
       </c>
       <c r="J10">
         <v>9</v>
@@ -4121,7 +4132,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="5:63">
+    <row r="11" spans="5:63" x14ac:dyDescent="0.25">
       <c r="E11" s="77">
         <v>9</v>
       </c>
@@ -4168,7 +4179,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="5:63">
+    <row r="12" spans="5:63" x14ac:dyDescent="0.25">
       <c r="E12" s="77">
         <v>10</v>
       </c>
@@ -4177,11 +4188,11 @@
       </c>
       <c r="G12" s="77">
         <f t="shared" si="2"/>
-        <v>2059.1999999999998</v>
+        <v>2059.2000000000003</v>
       </c>
       <c r="H12" s="77">
         <f>G12-SUM($F$3:F12)</f>
-        <v>2.2000000000002702</v>
+        <v>2.2000000000002728</v>
       </c>
       <c r="O12">
         <v>10</v>
@@ -4201,7 +4212,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="5:63">
+    <row r="13" spans="5:63" x14ac:dyDescent="0.25">
       <c r="E13" s="77">
         <v>11</v>
       </c>
@@ -4210,11 +4221,11 @@
       </c>
       <c r="G13" s="77">
         <f t="shared" si="2"/>
-        <v>2851.2</v>
+        <v>2851.2000000000003</v>
       </c>
       <c r="H13" s="77">
         <f>G13-SUM($F$3:F13)</f>
-        <v>2.2000000000002702</v>
+        <v>2.2000000000002728</v>
       </c>
       <c r="O13">
         <v>11</v>
@@ -4234,7 +4245,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="14" spans="5:63">
+    <row r="14" spans="5:63" x14ac:dyDescent="0.25">
       <c r="E14" s="77">
         <v>12</v>
       </c>
@@ -4247,7 +4258,7 @@
       </c>
       <c r="H14" s="77">
         <f>G14-SUM($F$3:F14)</f>
-        <v>5.8000000000001801</v>
+        <v>5.8000000000001819</v>
       </c>
       <c r="O14">
         <v>12</v>
@@ -4267,7 +4278,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="15" spans="5:63">
+    <row r="15" spans="5:63" x14ac:dyDescent="0.25">
       <c r="E15" s="77">
         <v>13</v>
       </c>
@@ -4300,7 +4311,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="16" spans="5:63">
+    <row r="16" spans="5:63" x14ac:dyDescent="0.25">
       <c r="E16" s="77">
         <v>14</v>
       </c>
@@ -4333,7 +4344,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="5:43">
+    <row r="17" spans="5:43" x14ac:dyDescent="0.25">
       <c r="E17" s="77">
         <v>15</v>
       </c>
@@ -4366,7 +4377,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="18" spans="5:43">
+    <row r="18" spans="5:43" x14ac:dyDescent="0.25">
       <c r="E18" s="77">
         <v>16</v>
       </c>
@@ -4399,7 +4410,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="19" spans="5:43">
+    <row r="19" spans="5:43" x14ac:dyDescent="0.25">
       <c r="E19" s="77">
         <v>17</v>
       </c>
@@ -4432,7 +4443,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="5:43">
+    <row r="20" spans="5:43" x14ac:dyDescent="0.25">
       <c r="E20" s="77">
         <v>18</v>
       </c>
@@ -4465,7 +4476,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="21" spans="5:43">
+    <row r="21" spans="5:43" x14ac:dyDescent="0.25">
       <c r="E21" s="77">
         <v>19</v>
       </c>
@@ -4498,7 +4509,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="5:43">
+    <row r="22" spans="5:43" x14ac:dyDescent="0.25">
       <c r="E22" s="77">
         <v>20</v>
       </c>
@@ -4531,7 +4542,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="23" spans="5:43">
+    <row r="23" spans="5:43" x14ac:dyDescent="0.25">
       <c r="E23" s="77">
         <v>21</v>
       </c>
@@ -4561,7 +4572,7 @@
         <v>-21210</v>
       </c>
     </row>
-    <row r="24" spans="5:43">
+    <row r="24" spans="5:43" x14ac:dyDescent="0.25">
       <c r="E24" s="77">
         <v>22</v>
       </c>
@@ -4582,7 +4593,7 @@
         <v>-21210</v>
       </c>
     </row>
-    <row r="25" spans="5:43">
+    <row r="25" spans="5:43" x14ac:dyDescent="0.25">
       <c r="E25" s="77">
         <v>23</v>
       </c>
@@ -4603,7 +4614,7 @@
         <v>-21210</v>
       </c>
     </row>
-    <row r="26" spans="5:43">
+    <row r="26" spans="5:43" x14ac:dyDescent="0.25">
       <c r="E26" s="77">
         <v>24</v>
       </c>
@@ -4624,7 +4635,7 @@
         <v>-21210</v>
       </c>
     </row>
-    <row r="29" spans="5:43" ht="15.75">
+    <row r="29" spans="5:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E29" s="87" t="s">
         <v>27</v>
       </c>
@@ -4634,7 +4645,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="30" spans="5:43" ht="15.75">
+    <row r="30" spans="5:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E30" s="75" t="s">
         <v>0</v>
       </c>
@@ -4648,7 +4659,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="5:43">
+    <row r="31" spans="5:43" x14ac:dyDescent="0.25">
       <c r="E31" s="77">
         <v>1</v>
       </c>
@@ -4664,7 +4675,7 @@
         <v>291.2</v>
       </c>
     </row>
-    <row r="32" spans="5:43">
+    <row r="32" spans="5:43" x14ac:dyDescent="0.25">
       <c r="E32" s="77">
         <v>2</v>
       </c>
@@ -4680,7 +4691,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="33" spans="5:8">
+    <row r="33" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E33" s="77">
         <v>3</v>
       </c>
@@ -4696,7 +4707,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="34" spans="5:8">
+    <row r="34" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E34" s="77">
         <v>4</v>
       </c>
@@ -4709,10 +4720,10 @@
       </c>
       <c r="H34" s="79">
         <f>G34-SUM($F$31:F34)</f>
-        <v>292.8</v>
-      </c>
-    </row>
-    <row r="35" spans="5:8">
+        <v>292.79999999999995</v>
+      </c>
+    </row>
+    <row r="35" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E35" s="77">
         <v>5</v>
       </c>
@@ -4728,7 +4739,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="36" spans="5:8">
+    <row r="36" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E36" s="77">
         <v>6</v>
       </c>
@@ -4737,14 +4748,14 @@
       </c>
       <c r="G36" s="79">
         <f t="shared" si="4"/>
-        <v>2059.1999999999998</v>
+        <v>2059.2000000000003</v>
       </c>
       <c r="H36" s="79">
         <f>G36-SUM($F$31:F36)</f>
-        <v>292.2</v>
-      </c>
-    </row>
-    <row r="37" spans="5:8">
+        <v>292.20000000000027</v>
+      </c>
+    </row>
+    <row r="37" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E37" s="77">
         <v>7</v>
       </c>
@@ -4753,14 +4764,14 @@
       </c>
       <c r="G37" s="79">
         <f t="shared" si="4"/>
-        <v>2851.2</v>
+        <v>2851.2000000000003</v>
       </c>
       <c r="H37" s="79">
         <f>G37-SUM($F$31:F37)</f>
-        <v>292.2</v>
-      </c>
-    </row>
-    <row r="38" spans="5:8">
+        <v>292.20000000000027</v>
+      </c>
+    </row>
+    <row r="38" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E38" s="77">
         <v>8</v>
       </c>
@@ -4773,10 +4784,10 @@
       </c>
       <c r="H38" s="79">
         <f>G38-SUM($F$31:F38)</f>
-        <v>295.8</v>
-      </c>
-    </row>
-    <row r="39" spans="5:8">
+        <v>295.80000000000018</v>
+      </c>
+    </row>
+    <row r="39" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E39" s="77">
         <v>9</v>
       </c>
@@ -4792,7 +4803,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="40" spans="5:8">
+    <row r="40" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E40" s="77">
         <v>10</v>
       </c>
@@ -4808,7 +4819,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="41" spans="5:8">
+    <row r="41" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E41" s="77">
         <v>11</v>
       </c>
@@ -4824,7 +4835,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="42" spans="5:8">
+    <row r="42" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E42" s="77">
         <v>12</v>
       </c>
@@ -4840,7 +4851,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="43" spans="5:8">
+    <row r="43" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E43" s="77">
         <v>13</v>
       </c>
@@ -4856,7 +4867,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="44" spans="5:8">
+    <row r="44" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E44" s="77">
         <v>14</v>
       </c>
@@ -4872,7 +4883,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="45" spans="5:8">
+    <row r="45" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E45" s="77">
         <v>15</v>
       </c>
@@ -4888,7 +4899,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="46" spans="5:8">
+    <row r="46" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E46" s="77">
         <v>16</v>
       </c>
@@ -4904,7 +4915,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="47" spans="5:8">
+    <row r="47" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E47" s="77">
         <v>17</v>
       </c>
@@ -4920,7 +4931,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="48" spans="5:8">
+    <row r="48" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E48" s="77">
         <v>18</v>
       </c>
@@ -4928,7 +4939,7 @@
       <c r="G48" s="79"/>
       <c r="H48" s="79"/>
     </row>
-    <row r="49" spans="5:8">
+    <row r="49" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E49" s="77">
         <v>19</v>
       </c>
@@ -4936,7 +4947,7 @@
       <c r="G49" s="79"/>
       <c r="H49" s="79"/>
     </row>
-    <row r="50" spans="5:8">
+    <row r="50" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E50" s="77">
         <v>20</v>
       </c>
@@ -4944,7 +4955,7 @@
       <c r="G50" s="79"/>
       <c r="H50" s="79"/>
     </row>
-    <row r="51" spans="5:8">
+    <row r="51" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E51" s="77">
         <v>21</v>
       </c>
@@ -4952,7 +4963,7 @@
       <c r="G51" s="79"/>
       <c r="H51" s="79"/>
     </row>
-    <row r="52" spans="5:8">
+    <row r="52" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E52" s="77">
         <v>22</v>
       </c>
@@ -4960,7 +4971,7 @@
       <c r="G52" s="79"/>
       <c r="H52" s="79"/>
     </row>
-    <row r="53" spans="5:8">
+    <row r="53" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E53" s="77">
         <v>23</v>
       </c>
@@ -4968,7 +4979,7 @@
       <c r="G53" s="79"/>
       <c r="H53" s="79"/>
     </row>
-    <row r="54" spans="5:8">
+    <row r="54" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E54" s="77">
         <v>24</v>
       </c>
@@ -4999,14 +5010,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR85"/>
   <sheetViews>
     <sheetView topLeftCell="A50" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S78" activeCellId="1" sqref="P76 S78"/>
+      <selection activeCell="W79" sqref="W79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" customWidth="1"/>
@@ -5024,7 +5035,7 @@
     <col min="42" max="42" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5125,7 +5136,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:44">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2" s="88" t="s">
         <v>5</v>
       </c>
@@ -5193,7 +5204,7 @@
       <c r="AQ2" s="90"/>
       <c r="AR2" s="59"/>
     </row>
-    <row r="3" spans="1:44">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -5298,7 +5309,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="4" spans="1:44">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -5403,7 +5414,7 @@
         <v>-65</v>
       </c>
     </row>
-    <row r="5" spans="1:44">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -5508,7 +5519,7 @@
         <v>-75</v>
       </c>
     </row>
-    <row r="6" spans="1:44">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -5614,7 +5625,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="7" spans="1:44">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -5731,7 +5742,7 @@
         <v>-112</v>
       </c>
     </row>
-    <row r="8" spans="1:44">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -5836,7 +5847,7 @@
         <v>-155</v>
       </c>
     </row>
-    <row r="9" spans="1:44">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -5949,7 +5960,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:44">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -6058,7 +6069,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="11" spans="1:44">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -6167,7 +6178,7 @@
         <v>-65</v>
       </c>
     </row>
-    <row r="12" spans="1:44">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -6272,7 +6283,7 @@
         <v>-75</v>
       </c>
     </row>
-    <row r="13" spans="1:44">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -6381,7 +6392,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:44">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -6490,7 +6501,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="15" spans="1:44">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>13</v>
       </c>
@@ -6595,7 +6606,7 @@
         <v>-65</v>
       </c>
     </row>
-    <row r="16" spans="1:44">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>14</v>
       </c>
@@ -6704,7 +6715,7 @@
         <v>-75</v>
       </c>
     </row>
-    <row r="17" spans="1:44">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>15</v>
       </c>
@@ -6817,7 +6828,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="18" spans="1:44">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>16</v>
       </c>
@@ -6930,7 +6941,7 @@
         <v>-112</v>
       </c>
     </row>
-    <row r="19" spans="1:44">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>17</v>
       </c>
@@ -7039,7 +7050,7 @@
         <v>-155</v>
       </c>
     </row>
-    <row r="20" spans="1:44">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A20" s="62">
         <v>18</v>
       </c>
@@ -7149,7 +7160,7 @@
         <v>-215</v>
       </c>
     </row>
-    <row r="21" spans="1:44">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>19</v>
       </c>
@@ -7258,7 +7269,7 @@
         <v>-298</v>
       </c>
     </row>
-    <row r="22" spans="1:44">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>20</v>
       </c>
@@ -7376,7 +7387,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="23" spans="1:44">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>21</v>
       </c>
@@ -7485,7 +7496,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="24" spans="1:44">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>22</v>
       </c>
@@ -7590,7 +7601,7 @@
         <v>-65</v>
       </c>
     </row>
-    <row r="25" spans="1:44">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>23</v>
       </c>
@@ -7707,7 +7718,7 @@
         <v>-75</v>
       </c>
     </row>
-    <row r="26" spans="1:44">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>24</v>
       </c>
@@ -7817,7 +7828,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="27" spans="1:44">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>25</v>
       </c>
@@ -7930,7 +7941,7 @@
         <v>-112</v>
       </c>
     </row>
-    <row r="28" spans="1:44">
+    <row r="28" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>26</v>
       </c>
@@ -8052,7 +8063,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="29" spans="1:44">
+    <row r="29" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>27</v>
       </c>
@@ -8157,7 +8168,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="30" spans="1:44">
+    <row r="30" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>28</v>
       </c>
@@ -8264,7 +8275,7 @@
         <v>-65</v>
       </c>
     </row>
-    <row r="31" spans="1:44">
+    <row r="31" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>29</v>
       </c>
@@ -8374,7 +8385,7 @@
         <v>-75</v>
       </c>
     </row>
-    <row r="32" spans="1:44">
+    <row r="32" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A32" s="66">
         <v>30</v>
       </c>
@@ -8484,7 +8495,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="33" spans="1:44">
+    <row r="33" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A33" s="67">
         <v>31</v>
       </c>
@@ -8594,7 +8605,7 @@
         <v>-112</v>
       </c>
     </row>
-    <row r="34" spans="1:44">
+    <row r="34" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>32</v>
       </c>
@@ -8705,7 +8716,7 @@
         <v>-155</v>
       </c>
     </row>
-    <row r="35" spans="1:44">
+    <row r="35" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>33</v>
       </c>
@@ -8812,7 +8823,7 @@
         <v>-215</v>
       </c>
     </row>
-    <row r="36" spans="1:44">
+    <row r="36" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>34</v>
       </c>
@@ -8918,7 +8929,7 @@
         <v>-298</v>
       </c>
     </row>
-    <row r="37" spans="1:44">
+    <row r="37" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>35</v>
       </c>
@@ -9032,7 +9043,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="38" spans="1:44">
+    <row r="38" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>36</v>
       </c>
@@ -9142,7 +9153,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="39" spans="1:44">
+    <row r="39" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>37</v>
       </c>
@@ -9260,7 +9271,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="40" spans="1:44">
+    <row r="40" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>38</v>
       </c>
@@ -9376,7 +9387,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="41" spans="1:44">
+    <row r="41" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>39</v>
       </c>
@@ -9495,7 +9506,7 @@
         <v>-65</v>
       </c>
     </row>
-    <row r="42" spans="1:44">
+    <row r="42" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>40</v>
       </c>
@@ -9607,7 +9618,7 @@
         <v>-75</v>
       </c>
     </row>
-    <row r="43" spans="1:44">
+    <row r="43" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A43" s="19">
         <v>41</v>
       </c>
@@ -9719,7 +9730,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="44" spans="1:44">
+    <row r="44" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>42</v>
       </c>
@@ -9829,7 +9840,7 @@
         <v>-112</v>
       </c>
     </row>
-    <row r="45" spans="1:44">
+    <row r="45" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>43</v>
       </c>
@@ -9940,7 +9951,7 @@
         <v>-155</v>
       </c>
     </row>
-    <row r="46" spans="1:44">
+    <row r="46" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>44</v>
       </c>
@@ -10049,7 +10060,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="47" spans="1:44">
+    <row r="47" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>45</v>
       </c>
@@ -10165,7 +10176,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="48" spans="1:44">
+    <row r="48" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>46</v>
       </c>
@@ -10270,7 +10281,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="49" spans="1:44">
+    <row r="49" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>47</v>
       </c>
@@ -10379,7 +10390,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="50" spans="1:44">
+    <row r="50" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
         <v>48</v>
       </c>
@@ -10489,7 +10500,7 @@
         <v>-65</v>
       </c>
     </row>
-    <row r="51" spans="1:44">
+    <row r="51" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A51" s="19">
         <v>49</v>
       </c>
@@ -10599,7 +10610,7 @@
         <v>-75</v>
       </c>
     </row>
-    <row r="52" spans="1:44">
+    <row r="52" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A52" s="19">
         <v>50</v>
       </c>
@@ -10701,7 +10712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:44">
+    <row r="53" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>51</v>
       </c>
@@ -10806,7 +10817,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="54" spans="1:44">
+    <row r="54" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>52</v>
       </c>
@@ -10908,7 +10919,7 @@
         <v>-112</v>
       </c>
     </row>
-    <row r="55" spans="1:44">
+    <row r="55" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>53</v>
       </c>
@@ -11024,7 +11035,7 @@
         <v>-402</v>
       </c>
     </row>
-    <row r="56" spans="1:44">
+    <row r="56" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A56" s="7">
         <v>54</v>
       </c>
@@ -11138,7 +11149,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="57" spans="1:44">
+    <row r="57" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>55</v>
       </c>
@@ -11244,7 +11255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:44">
+    <row r="58" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>56</v>
       </c>
@@ -11345,7 +11356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:44">
+    <row r="59" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>57</v>
       </c>
@@ -11459,7 +11470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:44">
+    <row r="60" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>58</v>
       </c>
@@ -11560,7 +11571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:44">
+    <row r="61" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>59</v>
       </c>
@@ -11668,7 +11679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:44">
+    <row r="62" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>60</v>
       </c>
@@ -11769,7 +11780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:44">
+    <row r="63" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A63" s="7">
         <v>61</v>
       </c>
@@ -11877,7 +11888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:44">
+    <row r="64" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>62</v>
       </c>
@@ -11978,7 +11989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:44">
+    <row r="65" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>63</v>
       </c>
@@ -12080,7 +12091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:44">
+    <row r="66" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>64</v>
       </c>
@@ -12181,7 +12192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:44">
+    <row r="67" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>65</v>
       </c>
@@ -12282,7 +12293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:44">
+    <row r="68" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>66</v>
       </c>
@@ -12383,7 +12394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:44">
+    <row r="69" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A69" s="19">
         <v>67</v>
       </c>
@@ -12484,7 +12495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:44">
+    <row r="70" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A70" s="55">
         <v>68</v>
       </c>
@@ -12593,7 +12604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:44">
+    <row r="71" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>484</v>
       </c>
@@ -12683,7 +12694,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="72" spans="1:44">
+    <row r="72" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A72" s="47"/>
       <c r="B72" s="47" t="s">
         <v>302</v>
@@ -12716,7 +12727,7 @@
         <v>-1500</v>
       </c>
       <c r="X72" s="47">
-        <v>-3.9</v>
+        <v>-4.2</v>
       </c>
       <c r="Y72" s="46"/>
       <c r="Z72" s="46" t="s">
@@ -12747,7 +12758,7 @@
       <c r="AQ72" s="46"/>
       <c r="AR72" s="46"/>
     </row>
-    <row r="73" spans="1:44">
+    <row r="73" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A73" s="47"/>
       <c r="B73" s="47" t="s">
         <v>302</v>
@@ -12784,7 +12795,7 @@
       </c>
       <c r="X73" s="47">
         <f>X72*W78</f>
-        <v>35100</v>
+        <v>21000</v>
       </c>
       <c r="Y73" s="46"/>
       <c r="Z73" s="46" t="s">
@@ -12816,7 +12827,7 @@
       <c r="AQ73" s="46"/>
       <c r="AR73" s="46"/>
     </row>
-    <row r="74" spans="1:44">
+    <row r="74" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A74" s="47"/>
       <c r="B74" s="47" t="s">
         <v>60</v>
@@ -12850,7 +12861,7 @@
       </c>
       <c r="X74" s="47">
         <f>X73+SUM(W78:W79)</f>
-        <v>26100</v>
+        <v>16000</v>
       </c>
       <c r="Y74" s="46"/>
       <c r="Z74" s="46" t="s">
@@ -12882,7 +12893,7 @@
       <c r="AQ74" s="46"/>
       <c r="AR74" s="46"/>
     </row>
-    <row r="75" spans="1:44">
+    <row r="75" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A75" s="47"/>
       <c r="B75" s="47" t="s">
         <v>60</v>
@@ -12946,7 +12957,7 @@
       <c r="AQ75" s="46"/>
       <c r="AR75" s="46"/>
     </row>
-    <row r="76" spans="1:44">
+    <row r="76" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A76" s="47"/>
       <c r="B76" s="47" t="s">
         <v>302</v>
@@ -13000,7 +13011,7 @@
       <c r="AQ76" s="46"/>
       <c r="AR76" s="46"/>
     </row>
-    <row r="77" spans="1:44">
+    <row r="77" spans="1:44" x14ac:dyDescent="0.25">
       <c r="U77" s="47">
         <v>6</v>
       </c>
@@ -13012,7 +13023,7 @@
       </c>
       <c r="X77" s="47"/>
     </row>
-    <row r="78" spans="1:44">
+    <row r="78" spans="1:44" x14ac:dyDescent="0.25">
       <c r="R78" s="82" t="s">
         <v>24</v>
       </c>
@@ -13027,11 +13038,14 @@
         <v>359</v>
       </c>
       <c r="W78" s="84">
-        <v>-9000</v>
-      </c>
-      <c r="X78" s="47"/>
-    </row>
-    <row r="79" spans="1:44">
+        <v>-5000</v>
+      </c>
+      <c r="X78" s="47">
+        <f>X74+W78</f>
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:44" x14ac:dyDescent="0.25">
       <c r="U79" s="47">
         <v>2</v>
       </c>
@@ -13041,7 +13055,7 @@
       <c r="W79" s="47"/>
       <c r="X79" s="47"/>
     </row>
-    <row r="80" spans="1:44">
+    <row r="80" spans="1:44" x14ac:dyDescent="0.25">
       <c r="U80" s="47">
         <v>3</v>
       </c>
@@ -13051,7 +13065,7 @@
       <c r="W80" s="47"/>
       <c r="X80" s="47"/>
     </row>
-    <row r="81" spans="10:24">
+    <row r="81" spans="10:24" x14ac:dyDescent="0.25">
       <c r="U81" s="47">
         <v>4</v>
       </c>
@@ -13061,7 +13075,7 @@
       <c r="W81" s="47"/>
       <c r="X81" s="47"/>
     </row>
-    <row r="82" spans="10:24" ht="15" customHeight="1">
+    <row r="82" spans="10:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J82" s="91" t="s">
         <v>485</v>
       </c>
@@ -13083,19 +13097,19 @@
       <c r="W82" s="47"/>
       <c r="X82" s="47"/>
     </row>
-    <row r="83" spans="10:24">
+    <row r="83" spans="10:24" x14ac:dyDescent="0.25">
       <c r="J83" s="92"/>
       <c r="K83" s="94"/>
       <c r="N83" s="95"/>
       <c r="O83" s="96"/>
     </row>
-    <row r="84" spans="10:24">
+    <row r="84" spans="10:24" x14ac:dyDescent="0.25">
       <c r="J84" s="92"/>
       <c r="K84" s="94"/>
       <c r="N84" s="95"/>
       <c r="O84" s="96"/>
     </row>
-    <row r="85" spans="10:24">
+    <row r="85" spans="10:24" x14ac:dyDescent="0.25">
       <c r="J85" s="93"/>
       <c r="K85" s="94"/>
       <c r="N85" s="95"/>
@@ -13103,6 +13117,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="AO2:AQ2"/>
     <mergeCell ref="J82:J85"/>
     <mergeCell ref="K82:K85"/>
@@ -13114,11 +13133,6 @@
     <mergeCell ref="AC2:AE2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="AK2:AM2"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>
@@ -13126,14 +13140,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O46" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AD86" sqref="AD86"/>
+    <sheetView tabSelected="1" topLeftCell="K46" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="W78" sqref="W78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="23.5703125" customWidth="1"/>
     <col min="5" max="5" width="7.140625" customWidth="1"/>
@@ -13150,7 +13164,7 @@
     <col min="46" max="46" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13260,7 +13274,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:48">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A2" s="88" t="s">
         <v>487</v>
       </c>
@@ -13322,7 +13336,7 @@
       <c r="AT2" s="89"/>
       <c r="AU2" s="90"/>
     </row>
-    <row r="3" spans="1:48">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -13444,7 +13458,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="4" spans="1:48">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -13570,7 +13584,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:48">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -13696,7 +13710,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="6" spans="1:48">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -13806,7 +13820,7 @@
         <v>-65</v>
       </c>
     </row>
-    <row r="7" spans="1:48">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -13929,7 +13943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:48">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -14055,7 +14069,7 @@
         <v>-75</v>
       </c>
     </row>
-    <row r="9" spans="1:48">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -14169,7 +14183,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="10" spans="1:48">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -14291,7 +14305,7 @@
         <v>-112</v>
       </c>
     </row>
-    <row r="11" spans="1:48">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -14413,7 +14427,7 @@
         <v>-155</v>
       </c>
     </row>
-    <row r="12" spans="1:48">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -14547,7 +14561,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:48">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -14681,7 +14695,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="14" spans="1:48">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -14803,7 +14817,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:48">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>13</v>
       </c>
@@ -14933,7 +14947,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="16" spans="1:48">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>14</v>
       </c>
@@ -15059,7 +15073,7 @@
         <v>-65</v>
       </c>
     </row>
-    <row r="17" spans="1:48">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>15</v>
       </c>
@@ -15177,7 +15191,7 @@
         <v>-75</v>
       </c>
     </row>
-    <row r="18" spans="1:48">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>16</v>
       </c>
@@ -15299,7 +15313,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="19" spans="1:48">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>17</v>
       </c>
@@ -15421,7 +15435,7 @@
         <v>-112</v>
       </c>
     </row>
-    <row r="20" spans="1:48">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>18</v>
       </c>
@@ -15539,7 +15553,7 @@
         <v>-155</v>
       </c>
     </row>
-    <row r="21" spans="1:48">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>19</v>
       </c>
@@ -15661,7 +15675,7 @@
         <v>-215</v>
       </c>
     </row>
-    <row r="22" spans="1:48">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>20</v>
       </c>
@@ -15795,7 +15809,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="23" spans="1:48">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>21</v>
       </c>
@@ -15913,7 +15927,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="24" spans="1:48">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
         <v>22</v>
       </c>
@@ -16039,7 +16053,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="25" spans="1:48">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>23</v>
       </c>
@@ -16161,7 +16175,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="26" spans="1:48">
+    <row r="26" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>24</v>
       </c>
@@ -16283,7 +16297,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="27" spans="1:48">
+    <row r="27" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>25</v>
       </c>
@@ -16393,7 +16407,7 @@
         <v>-65</v>
       </c>
     </row>
-    <row r="28" spans="1:48">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>26</v>
       </c>
@@ -16511,7 +16525,7 @@
         <v>-75</v>
       </c>
     </row>
-    <row r="29" spans="1:48">
+    <row r="29" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>27</v>
       </c>
@@ -16641,7 +16655,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:48">
+    <row r="30" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>28</v>
       </c>
@@ -16751,7 +16765,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="31" spans="1:48">
+    <row r="31" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>29</v>
       </c>
@@ -16873,7 +16887,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="32" spans="1:48">
+    <row r="32" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>30</v>
       </c>
@@ -16987,7 +17001,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="33" spans="1:48">
+    <row r="33" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A33" s="15">
         <v>31</v>
       </c>
@@ -17109,7 +17123,7 @@
         <v>-3000</v>
       </c>
     </row>
-    <row r="34" spans="1:48">
+    <row r="34" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>32</v>
       </c>
@@ -17237,7 +17251,7 @@
         <v>-2000</v>
       </c>
     </row>
-    <row r="35" spans="1:48">
+    <row r="35" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>33</v>
       </c>
@@ -17360,7 +17374,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="36" spans="1:48">
+    <row r="36" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>34</v>
       </c>
@@ -17480,7 +17494,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="37" spans="1:48">
+    <row r="37" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>35</v>
       </c>
@@ -17604,7 +17618,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="38" spans="1:48">
+    <row r="38" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>36</v>
       </c>
@@ -17736,7 +17750,7 @@
       </c>
       <c r="AV38" s="40"/>
     </row>
-    <row r="39" spans="1:48">
+    <row r="39" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>37</v>
       </c>
@@ -17864,7 +17878,7 @@
         <v>5440</v>
       </c>
     </row>
-    <row r="40" spans="1:48">
+    <row r="40" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>38</v>
       </c>
@@ -17983,7 +17997,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="41" spans="1:48">
+    <row r="41" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>39</v>
       </c>
@@ -18115,7 +18129,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="42" spans="1:48">
+    <row r="42" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>40</v>
       </c>
@@ -18234,7 +18248,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="43" spans="1:48">
+    <row r="43" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
         <v>41</v>
       </c>
@@ -18357,7 +18371,7 @@
         <v>-600</v>
       </c>
     </row>
-    <row r="44" spans="1:48">
+    <row r="44" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A44" s="11">
         <v>42</v>
       </c>
@@ -18499,7 +18513,7 @@
         <v>-650</v>
       </c>
     </row>
-    <row r="45" spans="1:48">
+    <row r="45" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A45" s="22">
         <v>43</v>
       </c>
@@ -18615,7 +18629,7 @@
         <v>-750</v>
       </c>
     </row>
-    <row r="46" spans="1:48">
+    <row r="46" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A46" s="11">
         <v>44</v>
       </c>
@@ -18726,7 +18740,7 @@
         <v>-900</v>
       </c>
     </row>
-    <row r="47" spans="1:48">
+    <row r="47" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A47" s="11">
         <v>45</v>
       </c>
@@ -18841,7 +18855,7 @@
         <v>-1120</v>
       </c>
     </row>
-    <row r="48" spans="1:48">
+    <row r="48" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A48" s="11">
         <v>46</v>
       </c>
@@ -18972,7 +18986,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="49" spans="1:48">
+    <row r="49" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A49" s="10">
         <v>47</v>
       </c>
@@ -19098,7 +19112,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="50" spans="1:48">
+    <row r="50" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A50" s="11">
         <v>48</v>
       </c>
@@ -19224,7 +19238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:48">
+    <row r="51" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A51" s="10">
         <v>49</v>
       </c>
@@ -19342,7 +19356,7 @@
         <v>-600</v>
       </c>
     </row>
-    <row r="52" spans="1:48">
+    <row r="52" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A52" s="11">
         <v>50</v>
       </c>
@@ -19453,7 +19467,7 @@
         <v>-650</v>
       </c>
     </row>
-    <row r="53" spans="1:48">
+    <row r="53" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A53" s="11">
         <v>51</v>
       </c>
@@ -19574,7 +19588,7 @@
       </c>
       <c r="AV53" s="43"/>
     </row>
-    <row r="54" spans="1:48">
+    <row r="54" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A54" s="11">
         <v>52</v>
       </c>
@@ -19692,7 +19706,7 @@
         <v>-900</v>
       </c>
     </row>
-    <row r="55" spans="1:48">
+    <row r="55" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A55" s="11">
         <v>53</v>
       </c>
@@ -19808,7 +19822,7 @@
         <v>-1250</v>
       </c>
     </row>
-    <row r="56" spans="1:48">
+    <row r="56" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A56" s="10">
         <v>54</v>
       </c>
@@ -19929,7 +19943,7 @@
         <v>-2105</v>
       </c>
     </row>
-    <row r="57" spans="1:48">
+    <row r="57" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A57" s="11">
         <v>55</v>
       </c>
@@ -20040,7 +20054,7 @@
         <v>-2500</v>
       </c>
     </row>
-    <row r="58" spans="1:48">
+    <row r="58" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A58" s="11">
         <v>56</v>
       </c>
@@ -20167,7 +20181,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="59" spans="1:48">
+    <row r="59" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A59" s="11">
         <v>57</v>
       </c>
@@ -20282,7 +20296,7 @@
         <v>-600</v>
       </c>
     </row>
-    <row r="60" spans="1:48">
+    <row r="60" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A60" s="11">
         <v>58</v>
       </c>
@@ -20405,7 +20419,7 @@
         <v>-650</v>
       </c>
     </row>
-    <row r="61" spans="1:48">
+    <row r="61" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A61" s="11">
         <v>59</v>
       </c>
@@ -20532,7 +20546,7 @@
         <v>-750</v>
       </c>
     </row>
-    <row r="62" spans="1:48">
+    <row r="62" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A62" s="11">
         <v>60</v>
       </c>
@@ -20647,7 +20661,7 @@
         <v>-900</v>
       </c>
     </row>
-    <row r="63" spans="1:48">
+    <row r="63" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A63" s="11">
         <v>61</v>
       </c>
@@ -20758,7 +20772,7 @@
         <v>-1120</v>
       </c>
     </row>
-    <row r="64" spans="1:48">
+    <row r="64" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A64" s="11">
         <v>62</v>
       </c>
@@ -20869,7 +20883,7 @@
         <v>-1550</v>
       </c>
     </row>
-    <row r="65" spans="1:48">
+    <row r="65" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A65" s="11">
         <v>63</v>
       </c>
@@ -20980,7 +20994,7 @@
         <v>-2150</v>
       </c>
     </row>
-    <row r="66" spans="1:48">
+    <row r="66" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A66" s="11">
         <v>64</v>
       </c>
@@ -21091,7 +21105,7 @@
         <v>-2980</v>
       </c>
     </row>
-    <row r="67" spans="1:48">
+    <row r="67" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A67" s="11">
         <v>65</v>
       </c>
@@ -21206,7 +21220,7 @@
         <v>-3500</v>
       </c>
     </row>
-    <row r="68" spans="1:48">
+    <row r="68" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A68" s="11">
         <v>66</v>
       </c>
@@ -21317,7 +21331,7 @@
         <v>-3750</v>
       </c>
     </row>
-    <row r="69" spans="1:48">
+    <row r="69" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A69" s="11">
         <v>67</v>
       </c>
@@ -21435,7 +21449,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="70" spans="1:48">
+    <row r="70" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A70" s="11">
         <v>68</v>
       </c>
@@ -21549,7 +21563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:48">
+    <row r="71" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>484</v>
       </c>
@@ -21683,7 +21697,7 @@
         <v>24746</v>
       </c>
     </row>
-    <row r="72" spans="1:48">
+    <row r="72" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A72" s="46"/>
       <c r="B72" s="46" t="s">
         <v>681</v>
@@ -21716,7 +21730,7 @@
         <v>-2000</v>
       </c>
       <c r="X72" s="47">
-        <v>-3.95</v>
+        <v>-4.2</v>
       </c>
       <c r="Y72" s="47">
         <v>1</v>
@@ -21728,7 +21742,7 @@
         <v>-2000</v>
       </c>
       <c r="AB72" s="47">
-        <v>-5.4</v>
+        <v>-4</v>
       </c>
       <c r="AC72" s="46"/>
       <c r="AD72" s="46" t="s">
@@ -21753,7 +21767,7 @@
       <c r="AM72" s="46"/>
       <c r="AN72" s="46"/>
     </row>
-    <row r="73" spans="1:48">
+    <row r="73" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A73" s="46"/>
       <c r="B73" s="46" t="s">
         <v>681</v>
@@ -21789,8 +21803,8 @@
         <v>-3000</v>
       </c>
       <c r="X73" s="47">
-        <f>X72*W76</f>
-        <v>14812.5</v>
+        <f>X72*W77</f>
+        <v>14700</v>
       </c>
       <c r="Y73" s="47">
         <v>2</v>
@@ -21802,8 +21816,8 @@
         <v>-2500</v>
       </c>
       <c r="AB73" s="47">
-        <f>AB72*AA77</f>
-        <v>54000</v>
+        <f>AB72*AA78</f>
+        <v>8000</v>
       </c>
       <c r="AC73" s="46"/>
       <c r="AD73" s="46" t="s">
@@ -21829,7 +21843,7 @@
       <c r="AM73" s="46"/>
       <c r="AN73" s="46"/>
     </row>
-    <row r="74" spans="1:48">
+    <row r="74" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A74" s="46"/>
       <c r="B74" s="46" t="s">
         <v>659</v>
@@ -21846,7 +21860,7 @@
         <v>-2000</v>
       </c>
       <c r="H74" s="47">
-        <v>-4.8</v>
+        <v>-3.8</v>
       </c>
       <c r="Q74" s="46"/>
       <c r="R74" s="46" t="s">
@@ -21864,8 +21878,8 @@
         <v>-3000</v>
       </c>
       <c r="X74" s="47">
-        <f>X73+SUM(W72:W76)</f>
-        <v>62.5</v>
+        <f>X73+S80</f>
+        <v>-6550</v>
       </c>
       <c r="Y74" s="47">
         <v>3</v>
@@ -21877,8 +21891,8 @@
         <v>-3200</v>
       </c>
       <c r="AB74" s="47">
-        <f>AB73+SUM(AA72:AA77)</f>
-        <v>28800</v>
+        <f>AB73+AB77</f>
+        <v>3300</v>
       </c>
       <c r="AC74" s="46"/>
       <c r="AD74" s="46" t="s">
@@ -21904,7 +21918,7 @@
       <c r="AM74" s="46"/>
       <c r="AN74" s="46"/>
     </row>
-    <row r="75" spans="1:48">
+    <row r="75" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A75" s="46"/>
       <c r="B75" s="46" t="s">
         <v>659</v>
@@ -21921,8 +21935,8 @@
         <v>-2500</v>
       </c>
       <c r="H75" s="47">
-        <f>G76*H74</f>
-        <v>14400</v>
+        <f>G77*H74</f>
+        <v>15960</v>
       </c>
       <c r="Q75" s="46"/>
       <c r="R75" s="46" t="s">
@@ -21971,7 +21985,7 @@
       <c r="AM75" s="46"/>
       <c r="AN75" s="46"/>
     </row>
-    <row r="76" spans="1:48">
+    <row r="76" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A76" s="46"/>
       <c r="B76" s="46"/>
       <c r="C76" s="46"/>
@@ -21986,8 +22000,8 @@
         <v>-3000</v>
       </c>
       <c r="H76" s="47">
-        <f>H75+SUM(G74:G76)</f>
-        <v>6900</v>
+        <f>H75+SUM(G74:G77)</f>
+        <v>4260</v>
       </c>
       <c r="Q76" s="46"/>
       <c r="R76" s="46" t="s">
@@ -22034,7 +22048,7 @@
       <c r="AM76" s="46"/>
       <c r="AN76" s="46"/>
     </row>
-    <row r="77" spans="1:48">
+    <row r="77" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B77" s="85" t="s">
         <v>18</v>
       </c>
@@ -22047,7 +22061,9 @@
       <c r="F77" s="47" t="s">
         <v>751</v>
       </c>
-      <c r="G77" s="47"/>
+      <c r="G77" s="47">
+        <v>-4200</v>
+      </c>
       <c r="H77" s="47"/>
       <c r="U77" s="47">
         <v>1</v>
@@ -22055,7 +22071,10 @@
       <c r="V77" s="47" t="s">
         <v>375</v>
       </c>
-      <c r="W77" s="47"/>
+      <c r="W77" s="47">
+        <f>-3500</f>
+        <v>-3500</v>
+      </c>
       <c r="X77" s="47"/>
       <c r="Y77" s="48">
         <v>6</v>
@@ -22079,7 +22098,7 @@
       </c>
       <c r="AJ77" s="47"/>
     </row>
-    <row r="78" spans="1:48">
+    <row r="78" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B78" s="85" t="s">
         <v>754</v>
       </c>
@@ -22114,10 +22133,12 @@
       <c r="Z78" s="47" t="s">
         <v>755</v>
       </c>
-      <c r="AA78" s="47"/>
+      <c r="AA78" s="47">
+        <v>-2000</v>
+      </c>
       <c r="AB78" s="47"/>
     </row>
-    <row r="79" spans="1:48">
+    <row r="79" spans="1:48" x14ac:dyDescent="0.25">
       <c r="E79" s="47">
         <v>3</v>
       </c>
@@ -22149,7 +22170,7 @@
       <c r="AA79" s="47"/>
       <c r="AB79" s="47"/>
     </row>
-    <row r="80" spans="1:48">
+    <row r="80" spans="1:48" x14ac:dyDescent="0.25">
       <c r="E80" s="47">
         <v>4</v>
       </c>
@@ -22158,6 +22179,13 @@
       </c>
       <c r="G80" s="47"/>
       <c r="H80" s="47"/>
+      <c r="R80" s="82" t="s">
+        <v>756</v>
+      </c>
+      <c r="S80">
+        <f>SUM(S78:S79)</f>
+        <v>-21250</v>
+      </c>
       <c r="U80" s="47">
         <v>4</v>
       </c>
@@ -22175,7 +22203,7 @@
       <c r="AA80" s="47"/>
       <c r="AB80" s="47"/>
     </row>
-    <row r="81" spans="10:28">
+    <row r="81" spans="10:28" x14ac:dyDescent="0.25">
       <c r="Y81" s="47">
         <v>4</v>
       </c>
@@ -22185,7 +22213,7 @@
       <c r="AA81" s="47"/>
       <c r="AB81" s="47"/>
     </row>
-    <row r="86" spans="10:28">
+    <row r="86" spans="10:28" x14ac:dyDescent="0.25">
       <c r="J86" s="91" t="s">
         <v>747</v>
       </c>
@@ -22201,19 +22229,19 @@
         <v>-81634</v>
       </c>
     </row>
-    <row r="87" spans="10:28">
+    <row r="87" spans="10:28" x14ac:dyDescent="0.25">
       <c r="J87" s="92"/>
       <c r="K87" s="98"/>
       <c r="N87" s="95"/>
       <c r="O87" s="100"/>
     </row>
-    <row r="88" spans="10:28">
+    <row r="88" spans="10:28" x14ac:dyDescent="0.25">
       <c r="J88" s="92"/>
       <c r="K88" s="98"/>
       <c r="N88" s="95"/>
       <c r="O88" s="100"/>
     </row>
-    <row r="89" spans="10:28">
+    <row r="89" spans="10:28" x14ac:dyDescent="0.25">
       <c r="J89" s="93"/>
       <c r="K89" s="98"/>
       <c r="N89" s="95"/>
@@ -22221,6 +22249,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="AO2:AQ2"/>
     <mergeCell ref="AS2:AU2"/>
     <mergeCell ref="J86:J89"/>
@@ -22232,11 +22265,6 @@
     <mergeCell ref="AC2:AE2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="AK2:AM2"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -22244,14 +22272,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Ставки/КХЛ 23-24.xlsx
+++ b/Ставки/КХЛ 23-24.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Repository_1\Ставки\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11010" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11010" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="22-23" sheetId="1" r:id="rId1"/>
@@ -18,7 +13,7 @@
     <sheet name="23-24 Восток" sheetId="4" r:id="rId4"/>
     <sheet name="Плей-офф" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -28,7 +23,7 @@
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -44,7 +39,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E29" authorId="0" shapeId="0">
+    <comment ref="E29" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2341,8 +2336,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2699,7 +2694,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -2790,7 +2785,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2841,7 +2835,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="20% — акцент4" xfId="4" builtinId="42"/>
+    <cellStyle name="20% - Акцент4" xfId="4" builtinId="42"/>
     <cellStyle name="Вывод" xfId="1" builtinId="21"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Плохой" xfId="3" builtinId="27"/>
@@ -2908,7 +2902,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2940,10 +2934,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2975,7 +2968,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -3151,21 +3143,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3182,7 +3174,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3200,7 +3192,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3218,7 +3210,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3233,7 +3225,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3248,7 +3240,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3263,7 +3255,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3278,7 +3270,7 @@
         <v>3.7777777777777777</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3293,7 +3285,7 @@
         <v>2.8333333333333335</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3308,7 +3300,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3323,7 +3315,7 @@
         <v>4.5333333333333332</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3338,7 +3330,7 @@
         <v>5.2307692307692308</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3353,7 +3345,7 @@
         <v>5.666666666666667</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3361,7 +3353,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3369,7 +3361,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3377,7 +3369,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3385,7 +3377,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3393,7 +3385,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3401,7 +3393,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3409,7 +3401,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3417,7 +3409,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3425,7 +3417,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3433,7 +3425,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3441,7 +3433,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3453,14 +3445,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="E1:BK54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="7" max="7" width="12.5703125" customWidth="1"/>
     <col min="11" max="11" width="10.42578125" customWidth="1"/>
@@ -3468,105 +3460,105 @@
     <col min="42" max="42" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:63" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E1" s="87" t="s">
+    <row r="1" spans="5:63" ht="15.75">
+      <c r="E1" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
       <c r="H1" s="76">
         <v>3.6</v>
       </c>
-      <c r="J1" s="86" t="s">
+      <c r="J1" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
       <c r="M1" s="76">
         <v>3.5</v>
       </c>
-      <c r="O1" s="86" t="s">
+      <c r="O1" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
       <c r="R1" s="76">
         <v>3.8</v>
       </c>
-      <c r="T1" s="86" t="s">
+      <c r="T1" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
       <c r="W1" s="76">
         <v>3.9</v>
       </c>
-      <c r="Y1" s="86" t="s">
+      <c r="Y1" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="Z1" s="87"/>
-      <c r="AA1" s="87"/>
+      <c r="Z1" s="86"/>
+      <c r="AA1" s="86"/>
       <c r="AB1" s="76">
         <v>4</v>
       </c>
-      <c r="AD1" s="86" t="s">
+      <c r="AD1" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="AE1" s="87"/>
-      <c r="AF1" s="87"/>
+      <c r="AE1" s="86"/>
+      <c r="AF1" s="86"/>
       <c r="AG1" s="76">
         <v>4.0999999999999996</v>
       </c>
-      <c r="AI1" s="86" t="s">
+      <c r="AI1" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="87"/>
-      <c r="AK1" s="87"/>
+      <c r="AJ1" s="86"/>
+      <c r="AK1" s="86"/>
       <c r="AL1" s="76">
         <v>4.2</v>
       </c>
-      <c r="AN1" s="86" t="s">
+      <c r="AN1" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="AO1" s="87"/>
-      <c r="AP1" s="87"/>
+      <c r="AO1" s="86"/>
+      <c r="AP1" s="86"/>
       <c r="AQ1" s="76">
         <v>4.3</v>
       </c>
-      <c r="AS1" s="86" t="s">
+      <c r="AS1" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="AT1" s="87"/>
-      <c r="AU1" s="87"/>
+      <c r="AT1" s="86"/>
+      <c r="AU1" s="86"/>
       <c r="AV1" s="76">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AX1" s="86" t="s">
+      <c r="AX1" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="AY1" s="87"/>
-      <c r="AZ1" s="87"/>
+      <c r="AY1" s="86"/>
+      <c r="AZ1" s="86"/>
       <c r="BA1" s="76">
         <v>4.5</v>
       </c>
-      <c r="BC1" s="86" t="s">
+      <c r="BC1" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="BD1" s="87"/>
-      <c r="BE1" s="87"/>
+      <c r="BD1" s="86"/>
+      <c r="BE1" s="86"/>
       <c r="BF1" s="76">
         <v>4.5999999999999996</v>
       </c>
-      <c r="BH1" s="86" t="s">
+      <c r="BH1" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="BI1" s="87"/>
-      <c r="BJ1" s="87"/>
+      <c r="BI1" s="86"/>
+      <c r="BJ1" s="86"/>
       <c r="BK1" s="76">
         <v>4.7</v>
       </c>
     </row>
-    <row r="2" spans="5:63" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="5:63" ht="15.75">
       <c r="E2" s="75" t="s">
         <v>0</v>
       </c>
@@ -3712,7 +3704,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="5:63" x14ac:dyDescent="0.25">
+    <row r="3" spans="5:63">
       <c r="E3" s="77">
         <v>1</v>
       </c>
@@ -3770,7 +3762,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="5:63" x14ac:dyDescent="0.25">
+    <row r="4" spans="5:63">
       <c r="E4" s="77">
         <v>2</v>
       </c>
@@ -3828,7 +3820,7 @@
         <v>154.5</v>
       </c>
     </row>
-    <row r="5" spans="5:63" x14ac:dyDescent="0.25">
+    <row r="5" spans="5:63">
       <c r="E5" s="77">
         <v>3</v>
       </c>
@@ -3886,7 +3878,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="5:63" x14ac:dyDescent="0.25">
+    <row r="6" spans="5:63">
       <c r="E6" s="77">
         <v>4</v>
       </c>
@@ -3944,7 +3936,7 @@
         <v>85.5</v>
       </c>
     </row>
-    <row r="7" spans="5:63" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:63">
       <c r="E7" s="77">
         <v>5</v>
       </c>
@@ -3991,7 +3983,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="5:63" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:63">
       <c r="E8" s="77">
         <v>6</v>
       </c>
@@ -4038,7 +4030,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="9" spans="5:63" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:63">
       <c r="E9" s="77">
         <v>7</v>
       </c>
@@ -4085,7 +4077,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="5:63" x14ac:dyDescent="0.25">
+    <row r="10" spans="5:63">
       <c r="E10" s="77">
         <v>8</v>
       </c>
@@ -4132,7 +4124,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="5:63" x14ac:dyDescent="0.25">
+    <row r="11" spans="5:63">
       <c r="E11" s="77">
         <v>9</v>
       </c>
@@ -4179,7 +4171,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="5:63" x14ac:dyDescent="0.25">
+    <row r="12" spans="5:63">
       <c r="E12" s="77">
         <v>10</v>
       </c>
@@ -4212,7 +4204,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="5:63" x14ac:dyDescent="0.25">
+    <row r="13" spans="5:63">
       <c r="E13" s="77">
         <v>11</v>
       </c>
@@ -4245,7 +4237,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="14" spans="5:63" x14ac:dyDescent="0.25">
+    <row r="14" spans="5:63">
       <c r="E14" s="77">
         <v>12</v>
       </c>
@@ -4278,7 +4270,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="15" spans="5:63" x14ac:dyDescent="0.25">
+    <row r="15" spans="5:63">
       <c r="E15" s="77">
         <v>13</v>
       </c>
@@ -4311,7 +4303,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="16" spans="5:63" x14ac:dyDescent="0.25">
+    <row r="16" spans="5:63">
       <c r="E16" s="77">
         <v>14</v>
       </c>
@@ -4344,7 +4336,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="5:43" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:43">
       <c r="E17" s="77">
         <v>15</v>
       </c>
@@ -4377,7 +4369,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="18" spans="5:43" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:43">
       <c r="E18" s="77">
         <v>16</v>
       </c>
@@ -4410,7 +4402,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="19" spans="5:43" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:43">
       <c r="E19" s="77">
         <v>17</v>
       </c>
@@ -4443,7 +4435,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="5:43" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:43">
       <c r="E20" s="77">
         <v>18</v>
       </c>
@@ -4476,7 +4468,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="21" spans="5:43" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:43">
       <c r="E21" s="77">
         <v>19</v>
       </c>
@@ -4509,7 +4501,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="5:43" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:43">
       <c r="E22" s="77">
         <v>20</v>
       </c>
@@ -4542,7 +4534,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="23" spans="5:43" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:43">
       <c r="E23" s="77">
         <v>21</v>
       </c>
@@ -4572,7 +4564,7 @@
         <v>-21210</v>
       </c>
     </row>
-    <row r="24" spans="5:43" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:43">
       <c r="E24" s="77">
         <v>22</v>
       </c>
@@ -4593,7 +4585,7 @@
         <v>-21210</v>
       </c>
     </row>
-    <row r="25" spans="5:43" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:43">
       <c r="E25" s="77">
         <v>23</v>
       </c>
@@ -4614,7 +4606,7 @@
         <v>-21210</v>
       </c>
     </row>
-    <row r="26" spans="5:43" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:43">
       <c r="E26" s="77">
         <v>24</v>
       </c>
@@ -4635,17 +4627,17 @@
         <v>-21210</v>
       </c>
     </row>
-    <row r="29" spans="5:43" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E29" s="87" t="s">
+    <row r="29" spans="5:43" ht="15.75">
+      <c r="E29" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="F29" s="87"/>
-      <c r="G29" s="87"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="86"/>
       <c r="H29" s="76">
         <v>3.6</v>
       </c>
     </row>
-    <row r="30" spans="5:43" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:43" ht="15.75">
       <c r="E30" s="75" t="s">
         <v>0</v>
       </c>
@@ -4659,7 +4651,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="5:43" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:43">
       <c r="E31" s="77">
         <v>1</v>
       </c>
@@ -4675,7 +4667,7 @@
         <v>291.2</v>
       </c>
     </row>
-    <row r="32" spans="5:43" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:43">
       <c r="E32" s="77">
         <v>2</v>
       </c>
@@ -4691,7 +4683,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="33" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:8">
       <c r="E33" s="77">
         <v>3</v>
       </c>
@@ -4707,7 +4699,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="34" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:8">
       <c r="E34" s="77">
         <v>4</v>
       </c>
@@ -4723,7 +4715,7 @@
         <v>292.79999999999995</v>
       </c>
     </row>
-    <row r="35" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:8">
       <c r="E35" s="77">
         <v>5</v>
       </c>
@@ -4739,7 +4731,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="36" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:8">
       <c r="E36" s="77">
         <v>6</v>
       </c>
@@ -4755,7 +4747,7 @@
         <v>292.20000000000027</v>
       </c>
     </row>
-    <row r="37" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:8">
       <c r="E37" s="77">
         <v>7</v>
       </c>
@@ -4771,7 +4763,7 @@
         <v>292.20000000000027</v>
       </c>
     </row>
-    <row r="38" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:8">
       <c r="E38" s="77">
         <v>8</v>
       </c>
@@ -4787,7 +4779,7 @@
         <v>295.80000000000018</v>
       </c>
     </row>
-    <row r="39" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:8">
       <c r="E39" s="77">
         <v>9</v>
       </c>
@@ -4803,7 +4795,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="40" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:8">
       <c r="E40" s="77">
         <v>10</v>
       </c>
@@ -4819,7 +4811,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="41" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:8">
       <c r="E41" s="77">
         <v>11</v>
       </c>
@@ -4835,7 +4827,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="42" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:8">
       <c r="E42" s="77">
         <v>12</v>
       </c>
@@ -4851,7 +4843,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="43" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:8">
       <c r="E43" s="77">
         <v>13</v>
       </c>
@@ -4867,7 +4859,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="44" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:8">
       <c r="E44" s="77">
         <v>14</v>
       </c>
@@ -4883,7 +4875,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="45" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:8">
       <c r="E45" s="77">
         <v>15</v>
       </c>
@@ -4899,7 +4891,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="46" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:8">
       <c r="E46" s="77">
         <v>16</v>
       </c>
@@ -4915,7 +4907,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="47" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:8">
       <c r="E47" s="77">
         <v>17</v>
       </c>
@@ -4931,7 +4923,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="48" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:8">
       <c r="E48" s="77">
         <v>18</v>
       </c>
@@ -4939,7 +4931,7 @@
       <c r="G48" s="79"/>
       <c r="H48" s="79"/>
     </row>
-    <row r="49" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:8">
       <c r="E49" s="77">
         <v>19</v>
       </c>
@@ -4947,7 +4939,7 @@
       <c r="G49" s="79"/>
       <c r="H49" s="79"/>
     </row>
-    <row r="50" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:8">
       <c r="E50" s="77">
         <v>20</v>
       </c>
@@ -4955,7 +4947,7 @@
       <c r="G50" s="79"/>
       <c r="H50" s="79"/>
     </row>
-    <row r="51" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:8">
       <c r="E51" s="77">
         <v>21</v>
       </c>
@@ -4963,7 +4955,7 @@
       <c r="G51" s="79"/>
       <c r="H51" s="79"/>
     </row>
-    <row r="52" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:8">
       <c r="E52" s="77">
         <v>22</v>
       </c>
@@ -4971,7 +4963,7 @@
       <c r="G52" s="79"/>
       <c r="H52" s="79"/>
     </row>
-    <row r="53" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:8">
       <c r="E53" s="77">
         <v>23</v>
       </c>
@@ -4979,7 +4971,7 @@
       <c r="G53" s="79"/>
       <c r="H53" s="79"/>
     </row>
-    <row r="54" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:8">
       <c r="E54" s="77">
         <v>24</v>
       </c>
@@ -5010,14 +5002,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AR85"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I50" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="W79" sqref="W79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" customWidth="1"/>
@@ -5035,7 +5027,7 @@
     <col min="42" max="42" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5136,75 +5128,75 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+    <row r="2" spans="1:44">
+      <c r="A2" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="90"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="89"/>
       <c r="D2" s="58"/>
-      <c r="E2" s="88" t="s">
+      <c r="E2" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="89"/>
-      <c r="G2" s="90"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="89"/>
       <c r="H2" s="59"/>
-      <c r="I2" s="88" t="s">
+      <c r="I2" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="89"/>
-      <c r="K2" s="90"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="89"/>
       <c r="L2" s="59"/>
-      <c r="M2" s="88" t="s">
+      <c r="M2" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="89"/>
-      <c r="O2" s="90"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="89"/>
       <c r="P2" s="59"/>
-      <c r="Q2" s="88" t="s">
+      <c r="Q2" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="89"/>
-      <c r="S2" s="90"/>
+      <c r="R2" s="88"/>
+      <c r="S2" s="89"/>
       <c r="T2" s="59"/>
-      <c r="U2" s="88" t="s">
+      <c r="U2" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="V2" s="89"/>
-      <c r="W2" s="90"/>
+      <c r="V2" s="88"/>
+      <c r="W2" s="89"/>
       <c r="X2" s="59"/>
-      <c r="Y2" s="88" t="s">
+      <c r="Y2" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="Z2" s="89"/>
-      <c r="AA2" s="90"/>
+      <c r="Z2" s="88"/>
+      <c r="AA2" s="89"/>
       <c r="AB2" s="59"/>
-      <c r="AC2" s="88" t="s">
+      <c r="AC2" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="AD2" s="89"/>
-      <c r="AE2" s="90"/>
+      <c r="AD2" s="88"/>
+      <c r="AE2" s="89"/>
       <c r="AF2" s="59"/>
-      <c r="AG2" s="88" t="s">
+      <c r="AG2" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="AH2" s="89"/>
-      <c r="AI2" s="90"/>
+      <c r="AH2" s="88"/>
+      <c r="AI2" s="89"/>
       <c r="AJ2" s="59"/>
-      <c r="AK2" s="88" t="s">
+      <c r="AK2" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="AL2" s="89"/>
-      <c r="AM2" s="90"/>
+      <c r="AL2" s="88"/>
+      <c r="AM2" s="89"/>
       <c r="AN2" s="59"/>
-      <c r="AO2" s="88" t="s">
+      <c r="AO2" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="AP2" s="89"/>
-      <c r="AQ2" s="90"/>
+      <c r="AP2" s="88"/>
+      <c r="AQ2" s="89"/>
       <c r="AR2" s="59"/>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:44">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -5309,7 +5301,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:44">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -5414,7 +5406,7 @@
         <v>-65</v>
       </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:44">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -5519,7 +5511,7 @@
         <v>-75</v>
       </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:44">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -5625,7 +5617,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:44">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -5742,7 +5734,7 @@
         <v>-112</v>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:44">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -5847,7 +5839,7 @@
         <v>-155</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:44">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -5960,7 +5952,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:44">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -6069,7 +6061,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:44">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -6178,7 +6170,7 @@
         <v>-65</v>
       </c>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:44">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -6283,7 +6275,7 @@
         <v>-75</v>
       </c>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:44">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -6392,7 +6384,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:44">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -6501,7 +6493,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:44">
       <c r="A15" s="4">
         <v>13</v>
       </c>
@@ -6606,7 +6598,7 @@
         <v>-65</v>
       </c>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:44">
       <c r="A16" s="4">
         <v>14</v>
       </c>
@@ -6715,7 +6707,7 @@
         <v>-75</v>
       </c>
     </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:44">
       <c r="A17" s="4">
         <v>15</v>
       </c>
@@ -6828,7 +6820,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:44">
       <c r="A18" s="4">
         <v>16</v>
       </c>
@@ -6941,7 +6933,7 @@
         <v>-112</v>
       </c>
     </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:44">
       <c r="A19" s="4">
         <v>17</v>
       </c>
@@ -7050,7 +7042,7 @@
         <v>-155</v>
       </c>
     </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:44">
       <c r="A20" s="62">
         <v>18</v>
       </c>
@@ -7160,7 +7152,7 @@
         <v>-215</v>
       </c>
     </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:44">
       <c r="A21" s="4">
         <v>19</v>
       </c>
@@ -7269,7 +7261,7 @@
         <v>-298</v>
       </c>
     </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:44">
       <c r="A22" s="4">
         <v>20</v>
       </c>
@@ -7387,7 +7379,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:44">
       <c r="A23" s="4">
         <v>21</v>
       </c>
@@ -7496,7 +7488,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:44">
       <c r="A24" s="4">
         <v>22</v>
       </c>
@@ -7601,7 +7593,7 @@
         <v>-65</v>
       </c>
     </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:44">
       <c r="A25" s="4">
         <v>23</v>
       </c>
@@ -7718,7 +7710,7 @@
         <v>-75</v>
       </c>
     </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:44">
       <c r="A26" s="4">
         <v>24</v>
       </c>
@@ -7828,7 +7820,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:44">
       <c r="A27" s="7">
         <v>25</v>
       </c>
@@ -7941,7 +7933,7 @@
         <v>-112</v>
       </c>
     </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:44">
       <c r="A28" s="4">
         <v>26</v>
       </c>
@@ -8063,7 +8055,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="29" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:44">
       <c r="A29" s="7">
         <v>27</v>
       </c>
@@ -8168,7 +8160,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="30" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:44">
       <c r="A30" s="4">
         <v>28</v>
       </c>
@@ -8275,7 +8267,7 @@
         <v>-65</v>
       </c>
     </row>
-    <row r="31" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:44">
       <c r="A31" s="4">
         <v>29</v>
       </c>
@@ -8385,7 +8377,7 @@
         <v>-75</v>
       </c>
     </row>
-    <row r="32" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:44">
       <c r="A32" s="66">
         <v>30</v>
       </c>
@@ -8495,7 +8487,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="33" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:44">
       <c r="A33" s="67">
         <v>31</v>
       </c>
@@ -8605,7 +8597,7 @@
         <v>-112</v>
       </c>
     </row>
-    <row r="34" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:44">
       <c r="A34" s="4">
         <v>32</v>
       </c>
@@ -8716,7 +8708,7 @@
         <v>-155</v>
       </c>
     </row>
-    <row r="35" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:44">
       <c r="A35" s="4">
         <v>33</v>
       </c>
@@ -8823,7 +8815,7 @@
         <v>-215</v>
       </c>
     </row>
-    <row r="36" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:44">
       <c r="A36" s="7">
         <v>34</v>
       </c>
@@ -8929,7 +8921,7 @@
         <v>-298</v>
       </c>
     </row>
-    <row r="37" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:44">
       <c r="A37" s="4">
         <v>35</v>
       </c>
@@ -9043,7 +9035,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="38" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:44">
       <c r="A38" s="7">
         <v>36</v>
       </c>
@@ -9153,7 +9145,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="39" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:44">
       <c r="A39" s="7">
         <v>37</v>
       </c>
@@ -9271,7 +9263,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="40" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:44">
       <c r="A40" s="7">
         <v>38</v>
       </c>
@@ -9387,7 +9379,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="41" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:44">
       <c r="A41" s="4">
         <v>39</v>
       </c>
@@ -9506,7 +9498,7 @@
         <v>-65</v>
       </c>
     </row>
-    <row r="42" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:44">
       <c r="A42" s="4">
         <v>40</v>
       </c>
@@ -9618,7 +9610,7 @@
         <v>-75</v>
       </c>
     </row>
-    <row r="43" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:44">
       <c r="A43" s="19">
         <v>41</v>
       </c>
@@ -9730,7 +9722,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="44" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:44">
       <c r="A44" s="4">
         <v>42</v>
       </c>
@@ -9840,7 +9832,7 @@
         <v>-112</v>
       </c>
     </row>
-    <row r="45" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:44">
       <c r="A45" s="4">
         <v>43</v>
       </c>
@@ -9951,7 +9943,7 @@
         <v>-155</v>
       </c>
     </row>
-    <row r="46" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:44">
       <c r="A46" s="4">
         <v>44</v>
       </c>
@@ -10060,7 +10052,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="47" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:44">
       <c r="A47" s="4">
         <v>45</v>
       </c>
@@ -10176,7 +10168,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="48" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:44">
       <c r="A48" s="4">
         <v>46</v>
       </c>
@@ -10281,7 +10273,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="49" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:44">
       <c r="A49" s="4">
         <v>47</v>
       </c>
@@ -10390,7 +10382,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="50" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:44">
       <c r="A50" s="7">
         <v>48</v>
       </c>
@@ -10500,7 +10492,7 @@
         <v>-65</v>
       </c>
     </row>
-    <row r="51" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:44">
       <c r="A51" s="19">
         <v>49</v>
       </c>
@@ -10610,7 +10602,7 @@
         <v>-75</v>
       </c>
     </row>
-    <row r="52" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:44">
       <c r="A52" s="19">
         <v>50</v>
       </c>
@@ -10712,7 +10704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:44">
       <c r="A53" s="4">
         <v>51</v>
       </c>
@@ -10817,7 +10809,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="54" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:44">
       <c r="A54" s="4">
         <v>52</v>
       </c>
@@ -10919,7 +10911,7 @@
         <v>-112</v>
       </c>
     </row>
-    <row r="55" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:44">
       <c r="A55" s="4">
         <v>53</v>
       </c>
@@ -11035,7 +11027,7 @@
         <v>-402</v>
       </c>
     </row>
-    <row r="56" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:44">
       <c r="A56" s="7">
         <v>54</v>
       </c>
@@ -11149,7 +11141,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="57" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:44">
       <c r="A57" s="4">
         <v>55</v>
       </c>
@@ -11255,7 +11247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:44">
       <c r="A58" s="4">
         <v>56</v>
       </c>
@@ -11356,7 +11348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:44">
       <c r="A59" s="4">
         <v>57</v>
       </c>
@@ -11470,7 +11462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:44">
       <c r="A60" s="4">
         <v>58</v>
       </c>
@@ -11571,7 +11563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:44">
       <c r="A61" s="4">
         <v>59</v>
       </c>
@@ -11679,7 +11671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:44">
       <c r="A62" s="4">
         <v>60</v>
       </c>
@@ -11780,7 +11772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:44">
       <c r="A63" s="7">
         <v>61</v>
       </c>
@@ -11888,7 +11880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:44">
       <c r="A64" s="4">
         <v>62</v>
       </c>
@@ -11989,7 +11981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:44">
       <c r="A65" s="4">
         <v>63</v>
       </c>
@@ -12091,7 +12083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:44">
       <c r="A66" s="4">
         <v>64</v>
       </c>
@@ -12192,7 +12184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:44">
       <c r="A67" s="4">
         <v>65</v>
       </c>
@@ -12293,7 +12285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:44">
       <c r="A68" s="4">
         <v>66</v>
       </c>
@@ -12394,7 +12386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:44">
       <c r="A69" s="19">
         <v>67</v>
       </c>
@@ -12495,7 +12487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:44">
       <c r="A70" s="55">
         <v>68</v>
       </c>
@@ -12604,7 +12596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:44">
       <c r="A71" t="s">
         <v>484</v>
       </c>
@@ -12694,7 +12686,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="72" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:44">
       <c r="A72" s="47"/>
       <c r="B72" s="47" t="s">
         <v>302</v>
@@ -12758,7 +12750,7 @@
       <c r="AQ72" s="46"/>
       <c r="AR72" s="46"/>
     </row>
-    <row r="73" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:44">
       <c r="A73" s="47"/>
       <c r="B73" s="47" t="s">
         <v>302</v>
@@ -12794,8 +12786,8 @@
         <v>-2500</v>
       </c>
       <c r="X73" s="47">
-        <f>X72*W78</f>
-        <v>21000</v>
+        <f>X72*W79</f>
+        <v>18900</v>
       </c>
       <c r="Y73" s="46"/>
       <c r="Z73" s="46" t="s">
@@ -12827,7 +12819,7 @@
       <c r="AQ73" s="46"/>
       <c r="AR73" s="46"/>
     </row>
-    <row r="74" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:44">
       <c r="A74" s="47"/>
       <c r="B74" s="47" t="s">
         <v>60</v>
@@ -12859,10 +12851,7 @@
       <c r="W74" s="47">
         <v>-2000</v>
       </c>
-      <c r="X74" s="47">
-        <f>X73+SUM(W78:W79)</f>
-        <v>16000</v>
-      </c>
+      <c r="X74" s="47"/>
       <c r="Y74" s="46"/>
       <c r="Z74" s="46" t="s">
         <v>124</v>
@@ -12893,7 +12882,7 @@
       <c r="AQ74" s="46"/>
       <c r="AR74" s="46"/>
     </row>
-    <row r="75" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:44">
       <c r="A75" s="47"/>
       <c r="B75" s="47" t="s">
         <v>60</v>
@@ -12957,7 +12946,7 @@
       <c r="AQ75" s="46"/>
       <c r="AR75" s="46"/>
     </row>
-    <row r="76" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:44">
       <c r="A76" s="47"/>
       <c r="B76" s="47" t="s">
         <v>302</v>
@@ -12976,9 +12965,9 @@
       <c r="J76" s="47"/>
       <c r="K76" s="47"/>
       <c r="L76" s="47"/>
-      <c r="R76" s="89"/>
-      <c r="S76" s="89"/>
-      <c r="T76" s="90"/>
+      <c r="R76" s="88"/>
+      <c r="S76" s="88"/>
+      <c r="T76" s="89"/>
       <c r="U76" s="47">
         <v>5</v>
       </c>
@@ -13011,7 +13000,7 @@
       <c r="AQ76" s="46"/>
       <c r="AR76" s="46"/>
     </row>
-    <row r="77" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:44">
       <c r="U77" s="47">
         <v>6</v>
       </c>
@@ -13023,7 +13012,7 @@
       </c>
       <c r="X77" s="47"/>
     </row>
-    <row r="78" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:44">
       <c r="R78" s="82" t="s">
         <v>24</v>
       </c>
@@ -13037,25 +13026,27 @@
       <c r="V78" s="47" t="s">
         <v>359</v>
       </c>
-      <c r="W78" s="84">
+      <c r="W78" s="47">
         <v>-5000</v>
       </c>
       <c r="X78" s="47">
-        <f>X74+W78</f>
-        <v>11000</v>
-      </c>
-    </row>
-    <row r="79" spans="1:44" x14ac:dyDescent="0.25">
+        <f>X73+SUM(S78,W78)</f>
+        <v>-13650</v>
+      </c>
+    </row>
+    <row r="79" spans="1:44">
       <c r="U79" s="47">
         <v>2</v>
       </c>
       <c r="V79" s="47" t="s">
         <v>359</v>
       </c>
-      <c r="W79" s="47"/>
+      <c r="W79" s="47">
+        <v>-4500</v>
+      </c>
       <c r="X79" s="47"/>
     </row>
-    <row r="80" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:44">
       <c r="U80" s="47">
         <v>3</v>
       </c>
@@ -13065,7 +13056,7 @@
       <c r="W80" s="47"/>
       <c r="X80" s="47"/>
     </row>
-    <row r="81" spans="10:24" x14ac:dyDescent="0.25">
+    <row r="81" spans="10:24">
       <c r="U81" s="47">
         <v>4</v>
       </c>
@@ -13075,18 +13066,18 @@
       <c r="W81" s="47"/>
       <c r="X81" s="47"/>
     </row>
-    <row r="82" spans="10:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J82" s="91" t="s">
+    <row r="82" spans="10:24" ht="15" customHeight="1">
+      <c r="J82" s="90" t="s">
         <v>485</v>
       </c>
-      <c r="K82" s="94">
+      <c r="K82" s="93">
         <f>SUM(C71,G71,K71,O71,S71,W71,AA71,AE71,AI71,AM71,AQ71)</f>
         <v>0</v>
       </c>
-      <c r="N82" s="95" t="s">
+      <c r="N82" s="94" t="s">
         <v>486</v>
       </c>
-      <c r="O82" s="96">
+      <c r="O82" s="95">
         <f>SUM(D71,H71,L71,P71,T71,X71,AB71,AF71,AJ71,AN71,AR71)</f>
         <v>-60138</v>
       </c>
@@ -13097,31 +13088,26 @@
       <c r="W82" s="47"/>
       <c r="X82" s="47"/>
     </row>
-    <row r="83" spans="10:24" x14ac:dyDescent="0.25">
-      <c r="J83" s="92"/>
-      <c r="K83" s="94"/>
-      <c r="N83" s="95"/>
-      <c r="O83" s="96"/>
-    </row>
-    <row r="84" spans="10:24" x14ac:dyDescent="0.25">
-      <c r="J84" s="92"/>
-      <c r="K84" s="94"/>
-      <c r="N84" s="95"/>
-      <c r="O84" s="96"/>
-    </row>
-    <row r="85" spans="10:24" x14ac:dyDescent="0.25">
-      <c r="J85" s="93"/>
-      <c r="K85" s="94"/>
-      <c r="N85" s="95"/>
-      <c r="O85" s="96"/>
+    <row r="83" spans="10:24">
+      <c r="J83" s="91"/>
+      <c r="K83" s="93"/>
+      <c r="N83" s="94"/>
+      <c r="O83" s="95"/>
+    </row>
+    <row r="84" spans="10:24">
+      <c r="J84" s="91"/>
+      <c r="K84" s="93"/>
+      <c r="N84" s="94"/>
+      <c r="O84" s="95"/>
+    </row>
+    <row r="85" spans="10:24">
+      <c r="J85" s="92"/>
+      <c r="K85" s="93"/>
+      <c r="N85" s="94"/>
+      <c r="O85" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="AO2:AQ2"/>
     <mergeCell ref="J82:J85"/>
     <mergeCell ref="K82:K85"/>
@@ -13133,6 +13119,11 @@
     <mergeCell ref="AC2:AE2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="AK2:AM2"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>
@@ -13140,14 +13131,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AV89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K46" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="W78" sqref="W78"/>
+    <sheetView topLeftCell="A46" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G79" sqref="G79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="23.5703125" customWidth="1"/>
     <col min="5" max="5" width="7.140625" customWidth="1"/>
@@ -13164,7 +13155,7 @@
     <col min="46" max="46" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:48">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13274,69 +13265,69 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+    <row r="2" spans="1:48">
+      <c r="A2" s="87" t="s">
         <v>487</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="90"/>
-      <c r="E2" s="88" t="s">
+      <c r="B2" s="88"/>
+      <c r="C2" s="89"/>
+      <c r="E2" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="89"/>
-      <c r="G2" s="90"/>
-      <c r="I2" s="88" t="s">
+      <c r="F2" s="88"/>
+      <c r="G2" s="89"/>
+      <c r="I2" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="89"/>
-      <c r="K2" s="90"/>
-      <c r="M2" s="88" t="s">
+      <c r="J2" s="88"/>
+      <c r="K2" s="89"/>
+      <c r="M2" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="89"/>
-      <c r="O2" s="90"/>
-      <c r="Q2" s="88" t="s">
+      <c r="N2" s="88"/>
+      <c r="O2" s="89"/>
+      <c r="Q2" s="87" t="s">
         <v>488</v>
       </c>
-      <c r="R2" s="89"/>
-      <c r="S2" s="90"/>
-      <c r="U2" s="88" t="s">
+      <c r="R2" s="88"/>
+      <c r="S2" s="89"/>
+      <c r="U2" s="87" t="s">
         <v>489</v>
       </c>
-      <c r="V2" s="89"/>
-      <c r="W2" s="90"/>
-      <c r="Y2" s="88" t="s">
+      <c r="V2" s="88"/>
+      <c r="W2" s="89"/>
+      <c r="Y2" s="87" t="s">
         <v>490</v>
       </c>
-      <c r="Z2" s="89"/>
-      <c r="AA2" s="90"/>
-      <c r="AC2" s="88" t="s">
+      <c r="Z2" s="88"/>
+      <c r="AA2" s="89"/>
+      <c r="AC2" s="87" t="s">
         <v>491</v>
       </c>
-      <c r="AD2" s="89"/>
-      <c r="AE2" s="90"/>
-      <c r="AG2" s="88" t="s">
+      <c r="AD2" s="88"/>
+      <c r="AE2" s="89"/>
+      <c r="AG2" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="AH2" s="89"/>
-      <c r="AI2" s="90"/>
-      <c r="AK2" s="88" t="s">
+      <c r="AH2" s="88"/>
+      <c r="AI2" s="89"/>
+      <c r="AK2" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="AL2" s="89"/>
-      <c r="AM2" s="90"/>
-      <c r="AO2" s="88" t="s">
+      <c r="AL2" s="88"/>
+      <c r="AM2" s="89"/>
+      <c r="AO2" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="AP2" s="89"/>
-      <c r="AQ2" s="90"/>
-      <c r="AS2" s="88" t="s">
+      <c r="AP2" s="88"/>
+      <c r="AQ2" s="89"/>
+      <c r="AS2" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="AT2" s="89"/>
-      <c r="AU2" s="90"/>
-    </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AT2" s="88"/>
+      <c r="AU2" s="89"/>
+    </row>
+    <row r="3" spans="1:48">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -13458,7 +13449,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:48">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -13584,7 +13575,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:48">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -13710,7 +13701,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:48">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -13820,7 +13811,7 @@
         <v>-65</v>
       </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:48">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -13943,7 +13934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:48">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -14069,7 +14060,7 @@
         <v>-75</v>
       </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:48">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -14183,7 +14174,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:48">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -14305,7 +14296,7 @@
         <v>-112</v>
       </c>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:48">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -14427,7 +14418,7 @@
         <v>-155</v>
       </c>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:48">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -14561,7 +14552,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:48">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -14695,7 +14686,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:48">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -14817,7 +14808,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:48">
       <c r="A15" s="4">
         <v>13</v>
       </c>
@@ -14947,7 +14938,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:48">
       <c r="A16" s="7">
         <v>14</v>
       </c>
@@ -15073,7 +15064,7 @@
         <v>-65</v>
       </c>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:48">
       <c r="A17" s="4">
         <v>15</v>
       </c>
@@ -15191,7 +15182,7 @@
         <v>-75</v>
       </c>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:48">
       <c r="A18" s="4">
         <v>16</v>
       </c>
@@ -15313,7 +15304,7 @@
         <v>-90</v>
       </c>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:48">
       <c r="A19" s="4">
         <v>17</v>
       </c>
@@ -15435,7 +15426,7 @@
         <v>-112</v>
       </c>
     </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:48">
       <c r="A20" s="7">
         <v>18</v>
       </c>
@@ -15553,7 +15544,7 @@
         <v>-155</v>
       </c>
     </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:48">
       <c r="A21" s="4">
         <v>19</v>
       </c>
@@ -15675,7 +15666,7 @@
         <v>-215</v>
       </c>
     </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:48">
       <c r="A22" s="7">
         <v>20</v>
       </c>
@@ -15809,7 +15800,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:48">
       <c r="A23" s="4">
         <v>21</v>
       </c>
@@ -15927,7 +15918,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:48">
       <c r="A24" s="10">
         <v>22</v>
       </c>
@@ -16053,7 +16044,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:48">
       <c r="A25" s="4">
         <v>23</v>
       </c>
@@ -16175,7 +16166,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="26" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:48">
       <c r="A26" s="11">
         <v>24</v>
       </c>
@@ -16297,7 +16288,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="27" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:48">
       <c r="A27" s="11">
         <v>25</v>
       </c>
@@ -16407,7 +16398,7 @@
         <v>-65</v>
       </c>
     </row>
-    <row r="28" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:48">
       <c r="A28" s="11">
         <v>26</v>
       </c>
@@ -16525,7 +16516,7 @@
         <v>-75</v>
       </c>
     </row>
-    <row r="29" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:48">
       <c r="A29" s="11">
         <v>27</v>
       </c>
@@ -16655,7 +16646,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:48">
       <c r="A30" s="11">
         <v>28</v>
       </c>
@@ -16765,7 +16756,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="31" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:48">
       <c r="A31" s="11">
         <v>29</v>
       </c>
@@ -16887,7 +16878,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="32" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:48">
       <c r="A32" s="11">
         <v>30</v>
       </c>
@@ -17001,7 +16992,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="33" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:48">
       <c r="A33" s="15">
         <v>31</v>
       </c>
@@ -17123,7 +17114,7 @@
         <v>-3000</v>
       </c>
     </row>
-    <row r="34" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:48">
       <c r="A34" s="4">
         <v>32</v>
       </c>
@@ -17251,7 +17242,7 @@
         <v>-2000</v>
       </c>
     </row>
-    <row r="35" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:48">
       <c r="A35" s="4">
         <v>33</v>
       </c>
@@ -17374,7 +17365,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="36" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:48">
       <c r="A36" s="4">
         <v>34</v>
       </c>
@@ -17494,7 +17485,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="37" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:48">
       <c r="A37" s="4">
         <v>35</v>
       </c>
@@ -17618,7 +17609,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="38" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:48">
       <c r="A38" s="4">
         <v>36</v>
       </c>
@@ -17750,7 +17741,7 @@
       </c>
       <c r="AV38" s="40"/>
     </row>
-    <row r="39" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:48">
       <c r="A39" s="4">
         <v>37</v>
       </c>
@@ -17878,7 +17869,7 @@
         <v>5440</v>
       </c>
     </row>
-    <row r="40" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:48">
       <c r="A40" s="4">
         <v>38</v>
       </c>
@@ -17997,7 +17988,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="41" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:48">
       <c r="A41" s="4">
         <v>39</v>
       </c>
@@ -18129,7 +18120,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="42" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:48">
       <c r="A42" s="4">
         <v>40</v>
       </c>
@@ -18248,7 +18239,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="43" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:48">
       <c r="A43" s="11">
         <v>41</v>
       </c>
@@ -18371,7 +18362,7 @@
         <v>-600</v>
       </c>
     </row>
-    <row r="44" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:48">
       <c r="A44" s="11">
         <v>42</v>
       </c>
@@ -18513,7 +18504,7 @@
         <v>-650</v>
       </c>
     </row>
-    <row r="45" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:48">
       <c r="A45" s="22">
         <v>43</v>
       </c>
@@ -18629,7 +18620,7 @@
         <v>-750</v>
       </c>
     </row>
-    <row r="46" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:48">
       <c r="A46" s="11">
         <v>44</v>
       </c>
@@ -18740,7 +18731,7 @@
         <v>-900</v>
       </c>
     </row>
-    <row r="47" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:48">
       <c r="A47" s="11">
         <v>45</v>
       </c>
@@ -18855,7 +18846,7 @@
         <v>-1120</v>
       </c>
     </row>
-    <row r="48" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:48">
       <c r="A48" s="11">
         <v>46</v>
       </c>
@@ -18986,7 +18977,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="49" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:48">
       <c r="A49" s="10">
         <v>47</v>
       </c>
@@ -19112,7 +19103,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="50" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:48">
       <c r="A50" s="11">
         <v>48</v>
       </c>
@@ -19238,7 +19229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:48">
       <c r="A51" s="10">
         <v>49</v>
       </c>
@@ -19356,7 +19347,7 @@
         <v>-600</v>
       </c>
     </row>
-    <row r="52" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:48">
       <c r="A52" s="11">
         <v>50</v>
       </c>
@@ -19467,7 +19458,7 @@
         <v>-650</v>
       </c>
     </row>
-    <row r="53" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:48">
       <c r="A53" s="11">
         <v>51</v>
       </c>
@@ -19588,7 +19579,7 @@
       </c>
       <c r="AV53" s="43"/>
     </row>
-    <row r="54" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:48">
       <c r="A54" s="11">
         <v>52</v>
       </c>
@@ -19706,7 +19697,7 @@
         <v>-900</v>
       </c>
     </row>
-    <row r="55" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:48">
       <c r="A55" s="11">
         <v>53</v>
       </c>
@@ -19822,7 +19813,7 @@
         <v>-1250</v>
       </c>
     </row>
-    <row r="56" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:48">
       <c r="A56" s="10">
         <v>54</v>
       </c>
@@ -19943,7 +19934,7 @@
         <v>-2105</v>
       </c>
     </row>
-    <row r="57" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:48">
       <c r="A57" s="11">
         <v>55</v>
       </c>
@@ -20054,7 +20045,7 @@
         <v>-2500</v>
       </c>
     </row>
-    <row r="58" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:48">
       <c r="A58" s="11">
         <v>56</v>
       </c>
@@ -20181,7 +20172,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="59" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:48">
       <c r="A59" s="11">
         <v>57</v>
       </c>
@@ -20296,7 +20287,7 @@
         <v>-600</v>
       </c>
     </row>
-    <row r="60" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:48">
       <c r="A60" s="11">
         <v>58</v>
       </c>
@@ -20419,7 +20410,7 @@
         <v>-650</v>
       </c>
     </row>
-    <row r="61" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:48">
       <c r="A61" s="11">
         <v>59</v>
       </c>
@@ -20546,7 +20537,7 @@
         <v>-750</v>
       </c>
     </row>
-    <row r="62" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:48">
       <c r="A62" s="11">
         <v>60</v>
       </c>
@@ -20661,7 +20652,7 @@
         <v>-900</v>
       </c>
     </row>
-    <row r="63" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:48">
       <c r="A63" s="11">
         <v>61</v>
       </c>
@@ -20772,7 +20763,7 @@
         <v>-1120</v>
       </c>
     </row>
-    <row r="64" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:48">
       <c r="A64" s="11">
         <v>62</v>
       </c>
@@ -20883,7 +20874,7 @@
         <v>-1550</v>
       </c>
     </row>
-    <row r="65" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:48">
       <c r="A65" s="11">
         <v>63</v>
       </c>
@@ -20994,7 +20985,7 @@
         <v>-2150</v>
       </c>
     </row>
-    <row r="66" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:48">
       <c r="A66" s="11">
         <v>64</v>
       </c>
@@ -21105,7 +21096,7 @@
         <v>-2980</v>
       </c>
     </row>
-    <row r="67" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:48">
       <c r="A67" s="11">
         <v>65</v>
       </c>
@@ -21220,7 +21211,7 @@
         <v>-3500</v>
       </c>
     </row>
-    <row r="68" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:48">
       <c r="A68" s="11">
         <v>66</v>
       </c>
@@ -21331,7 +21322,7 @@
         <v>-3750</v>
       </c>
     </row>
-    <row r="69" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:48">
       <c r="A69" s="11">
         <v>67</v>
       </c>
@@ -21449,7 +21440,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="70" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:48">
       <c r="A70" s="11">
         <v>68</v>
       </c>
@@ -21563,7 +21554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:48">
       <c r="A71" t="s">
         <v>484</v>
       </c>
@@ -21697,7 +21688,7 @@
         <v>24746</v>
       </c>
     </row>
-    <row r="72" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:48">
       <c r="A72" s="46"/>
       <c r="B72" s="46" t="s">
         <v>681</v>
@@ -21767,7 +21758,7 @@
       <c r="AM72" s="46"/>
       <c r="AN72" s="46"/>
     </row>
-    <row r="73" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:48">
       <c r="A73" s="46"/>
       <c r="B73" s="46" t="s">
         <v>681</v>
@@ -21843,7 +21834,7 @@
       <c r="AM73" s="46"/>
       <c r="AN73" s="46"/>
     </row>
-    <row r="74" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:48">
       <c r="A74" s="46"/>
       <c r="B74" s="46" t="s">
         <v>659</v>
@@ -21859,9 +21850,7 @@
       <c r="G74" s="47">
         <v>-2000</v>
       </c>
-      <c r="H74" s="47">
-        <v>-3.8</v>
-      </c>
+      <c r="H74" s="47"/>
       <c r="Q74" s="46"/>
       <c r="R74" s="46" t="s">
         <v>567</v>
@@ -21918,7 +21907,7 @@
       <c r="AM74" s="46"/>
       <c r="AN74" s="46"/>
     </row>
-    <row r="75" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:48">
       <c r="A75" s="46"/>
       <c r="B75" s="46" t="s">
         <v>659</v>
@@ -21934,10 +21923,7 @@
       <c r="G75" s="47">
         <v>-2500</v>
       </c>
-      <c r="H75" s="47">
-        <f>G77*H74</f>
-        <v>15960</v>
-      </c>
+      <c r="H75" s="47"/>
       <c r="Q75" s="46"/>
       <c r="R75" s="46" t="s">
         <v>567</v>
@@ -21985,7 +21971,7 @@
       <c r="AM75" s="46"/>
       <c r="AN75" s="46"/>
     </row>
-    <row r="76" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:48">
       <c r="A76" s="46"/>
       <c r="B76" s="46"/>
       <c r="C76" s="46"/>
@@ -21999,10 +21985,7 @@
       <c r="G76" s="47">
         <v>-3000</v>
       </c>
-      <c r="H76" s="47">
-        <f>H75+SUM(G74:G77)</f>
-        <v>4260</v>
-      </c>
+      <c r="H76" s="47"/>
       <c r="Q76" s="46"/>
       <c r="R76" s="46" t="s">
         <v>562</v>
@@ -22048,11 +22031,11 @@
       <c r="AM76" s="46"/>
       <c r="AN76" s="46"/>
     </row>
-    <row r="77" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="B77" s="85" t="s">
+    <row r="77" spans="1:48">
+      <c r="B77" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="C77" s="85">
+      <c r="C77" s="84">
         <v>-7500</v>
       </c>
       <c r="E77" s="47">
@@ -22061,10 +22044,13 @@
       <c r="F77" s="47" t="s">
         <v>751</v>
       </c>
-      <c r="G77" s="47">
+      <c r="G77" s="48">
         <v>-4200</v>
       </c>
-      <c r="H77" s="47"/>
+      <c r="H77" s="48">
+        <f>15960+SUM(G74:G77,C78)</f>
+        <v>260</v>
+      </c>
       <c r="U77" s="47">
         <v>1</v>
       </c>
@@ -22098,11 +22084,11 @@
       </c>
       <c r="AJ77" s="47"/>
     </row>
-    <row r="78" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="B78" s="85" t="s">
+    <row r="78" spans="1:48">
+      <c r="B78" s="84" t="s">
         <v>754</v>
       </c>
-      <c r="C78" s="85">
+      <c r="C78" s="84">
         <v>-4000</v>
       </c>
       <c r="E78" s="47">
@@ -22111,12 +22097,14 @@
       <c r="F78" s="47" t="s">
         <v>751</v>
       </c>
-      <c r="G78" s="47"/>
+      <c r="G78" s="47">
+        <v>-2000</v>
+      </c>
       <c r="H78" s="47"/>
-      <c r="R78" s="85" t="s">
+      <c r="R78" s="84" t="s">
         <v>489</v>
       </c>
-      <c r="S78" s="85">
+      <c r="S78" s="84">
         <v>-14750</v>
       </c>
       <c r="U78" s="47">
@@ -22138,7 +22126,7 @@
       </c>
       <c r="AB78" s="47"/>
     </row>
-    <row r="79" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:48">
       <c r="E79" s="47">
         <v>3</v>
       </c>
@@ -22147,10 +22135,10 @@
       </c>
       <c r="G79" s="47"/>
       <c r="H79" s="47"/>
-      <c r="R79" s="85" t="s">
+      <c r="R79" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="S79" s="85">
+      <c r="S79" s="84">
         <v>-6500</v>
       </c>
       <c r="U79" s="47">
@@ -22170,7 +22158,7 @@
       <c r="AA79" s="47"/>
       <c r="AB79" s="47"/>
     </row>
-    <row r="80" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:48">
       <c r="E80" s="47">
         <v>4</v>
       </c>
@@ -22203,7 +22191,7 @@
       <c r="AA80" s="47"/>
       <c r="AB80" s="47"/>
     </row>
-    <row r="81" spans="10:28" x14ac:dyDescent="0.25">
+    <row r="81" spans="10:28">
       <c r="Y81" s="47">
         <v>4</v>
       </c>
@@ -22213,47 +22201,42 @@
       <c r="AA81" s="47"/>
       <c r="AB81" s="47"/>
     </row>
-    <row r="86" spans="10:28" x14ac:dyDescent="0.25">
-      <c r="J86" s="91" t="s">
+    <row r="86" spans="10:28">
+      <c r="J86" s="90" t="s">
         <v>747</v>
       </c>
-      <c r="K86" s="97">
+      <c r="K86" s="96">
         <f>SUM(C71,G71,K71,O71,S71,W71,AA71,AE71,AI71,AM71,AQ71,AU71)</f>
         <v>-437229</v>
       </c>
-      <c r="N86" s="95" t="s">
+      <c r="N86" s="94" t="s">
         <v>748</v>
       </c>
-      <c r="O86" s="99">
+      <c r="O86" s="98">
         <f>SUM(D71,H71,L71,P71,T71,X71,AB71,AF71,AJ71,AN71,AR71,AV71)</f>
         <v>-81634</v>
       </c>
     </row>
-    <row r="87" spans="10:28" x14ac:dyDescent="0.25">
-      <c r="J87" s="92"/>
-      <c r="K87" s="98"/>
-      <c r="N87" s="95"/>
-      <c r="O87" s="100"/>
-    </row>
-    <row r="88" spans="10:28" x14ac:dyDescent="0.25">
-      <c r="J88" s="92"/>
-      <c r="K88" s="98"/>
-      <c r="N88" s="95"/>
-      <c r="O88" s="100"/>
-    </row>
-    <row r="89" spans="10:28" x14ac:dyDescent="0.25">
-      <c r="J89" s="93"/>
-      <c r="K89" s="98"/>
-      <c r="N89" s="95"/>
-      <c r="O89" s="100"/>
+    <row r="87" spans="10:28">
+      <c r="J87" s="91"/>
+      <c r="K87" s="97"/>
+      <c r="N87" s="94"/>
+      <c r="O87" s="99"/>
+    </row>
+    <row r="88" spans="10:28">
+      <c r="J88" s="91"/>
+      <c r="K88" s="97"/>
+      <c r="N88" s="94"/>
+      <c r="O88" s="99"/>
+    </row>
+    <row r="89" spans="10:28">
+      <c r="J89" s="92"/>
+      <c r="K89" s="97"/>
+      <c r="N89" s="94"/>
+      <c r="O89" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="Q2:S2"/>
     <mergeCell ref="AO2:AQ2"/>
     <mergeCell ref="AS2:AU2"/>
     <mergeCell ref="J86:J89"/>
@@ -22265,6 +22248,11 @@
     <mergeCell ref="AC2:AE2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="AK2:AM2"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="Q2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -22272,14 +22260,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
